--- a/outputs/analysis.xlsx
+++ b/outputs/analysis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M94"/>
+  <dimension ref="A1:M93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -528,12 +528,12 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>The document contains a comprehensive Information Security Policy detailing the scope, objectives, enforcement, roles, responsibilities, and management review processes aligned with ISO 27001 standards.</t>
+          <t>The document contains a comprehensive Information Security Policy detailing the scope, responsibilities, enforcement, and management commitment. It defines baseline control measures and minimum controls to prevent security incidents and legal issues.</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Information Security Policy [Internal].docx - Sections: Confidentiality Statement, Chapter 1 General, Section 1.1 Scope of the policy, Section 1.4 Enforcements, Chapter 10 Evaluation and Improvement - Section 10.1 Review of information security</t>
+          <t>Information Security Policy [Internal].docx - Sections: Confidentiality Statement, Chapter 1 General, Section 1.1 Scope of the policy, Section 1.4 Enforcements</t>
         </is>
       </c>
       <c r="H2" t="inlineStr"/>
@@ -545,12 +545,12 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Information security policy is shared with all employees. The ISMS continues to improve customer satisfaction. Policy documentation is reviewed and updated as needed.</t>
+          <t>Information Security Policy is referenced as a document relevant to the management review meeting (Page 16). The policy is shared with all employees and information security goals are communicated and added to training (Page 14).</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Include explicit reference or attachment of the comprehensive Information Security Policy document in the management review or ISMS repository for clarity.</t>
+          <t>Include explicit excerpts or summaries of the Information Security Policy in evidence to demonstrate comprehensiveness and enforcement details.</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -587,12 +587,12 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Acceptable use policies are defined in the Employee Handbook and Information Technology Acceptable Usage Policy; users are responsible for proper use and security of IT resources.</t>
+          <t>Acceptable use policies are defined in the Information Technology Acceptable Usage Policy, including rules on IT, email, internet use, and disciplinary actions for misuse.</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Information Security Policy [Internal].docx - 5.1 Information Technology Acceptable Usage Policy; 5.1.3 IT Policy; 5.1.5 Personal Use of Company Facilities</t>
+          <t>Information Security Policy [Internal].docx - Chapter 5 Personnel Security - 5.1 Information Technology Acceptable Usage Policy</t>
         </is>
       </c>
       <c r="H3" t="inlineStr"/>
@@ -604,12 +604,12 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Acceptable use policies are defined in Employee Handbook and IT policies; users responsible for proper use; password policies and MFA enforced.</t>
+          <t>Acceptable use policies are defined in password policies and multi-factor authentication settings, including lockout after failed attempts and password complexity (Pages 2-8).</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Include explicit reference to Employee Handbook or Acceptable Use Policy in evidence.</t>
+          <t>Include explicit Acceptable Use Policy document or summary.</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -642,12 +642,12 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Documented procedures exist for return of company assets upon termination; assets must be returned on last day of employment.</t>
+          <t>Procedures require return of company assets (laptops, mobile devices) upon termination of employment, with documented processes in place.</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Information Security Policy [Internal].docx - 2.4 Termination of employment; 2.1.2 Equipment usage</t>
+          <t>Information Security Policy [Internal].docx - Section 2.4 Termination of employment; Section 2.1.2 Equipment usage</t>
         </is>
       </c>
       <c r="H4" t="inlineStr"/>
@@ -659,17 +659,17 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Checklist for employee offboarding includes return of keys, devices, and deregistration from systems.</t>
+          <t>Procedures require return of company assets such as keys, tags, and devices upon termination, documented in offboarding checklist (Page 1).</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Document formal procedures for asset return on last day of employment.</t>
+          <t>None</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>🟡</t>
+          <t>✅</t>
         </is>
       </c>
     </row>
@@ -701,30 +701,34 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Information classification schemes are established based on value, legal requirements, and handling caution; classification is maintained and reviewed.</t>
+          <t>Information classification schemes are established based on value, legal requirements, and handling caution. Asset owners classify and manage information assets.</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Information Security Policy [Internal].docx - Chapter 3 Management of Information - Section 3.1 Classification of information; 4. Asset Classification and Control</t>
+          <t>Information Security Policy [Internal].docx - Chapter 3 Management of Information - 3.1 Classification of information; Section 1.5 Roles and Responsibilities - IT Asset Managers</t>
         </is>
       </c>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr">
         <is>
-          <t>No direct evidence found in provided documents.</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr"/>
+          <t>Management Review Team Meeting E-WISE 2025 [Restricted].docx.pdf</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Information classification is referenced in risk assessments and policy reviews, with controls for confidentiality and data protection discussed (Pages 7-14).</t>
+        </is>
+      </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Establish and document information classification schemes and periodic review.</t>
+          <t>Provide explicit classification scheme documentation and evidence of asset owner classification.</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>🟡</t>
         </is>
       </c>
     </row>
@@ -752,25 +756,29 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Information must be labelled and handled according to classification schemes; guidelines for labelling and handling are provided.</t>
+          <t>Information must be labelled and handled according to classification schemes. Guidelines for labelling and handling are provided in appendices.</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Information Security Policy [Internal].docx - Chapter 3 - Section 3.2 Labelling and handling of information; 4. Asset Classification and Control</t>
+          <t>Information Security Policy [Internal].docx - Chapter 3 Management of Information - 3.2 Labelling and handling of information; Appendix 4 Asset Classification and Control</t>
         </is>
       </c>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr">
         <is>
-          <t>No direct evidence found in provided documents.</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr"/>
+          <t>No explicit evidence found in provided documents.</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>No direct mention of labelling of information according to classification schemes.</t>
+        </is>
+      </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Provide guidelines and evidence of labelling information per classification.</t>
+          <t>Document and provide evidence of labelling guidelines and their application.</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
@@ -807,30 +815,34 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Information transfer is controlled and protected according to classification; electronic messaging is protected and prior approval is required for external services.</t>
+          <t>Electronic messaging and information transfer are controlled and protected according to classification. External electronic communications require prior approval.</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Information Security Policy [Internal].docx - Chapter 7 Security of Communication - Section 7.3 Electronic messaging; 3. Business partnership and Outsourcing; 5.1.1 Data Protection</t>
+          <t>Information Security Policy [Internal].docx - Chapter 7 Security of Communication - 7.3 Electronic messaging; Chapter 5 Personnel Security - 5.1.1 Data Protection</t>
         </is>
       </c>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr">
         <is>
-          <t>No direct evidence found in provided documents.</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr"/>
+          <t>Vendor risk assesment - Jumpcloud [Internal].docx.pdf</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>External electronic communications and information transfer controls are implied through vendor communication and security posture (Pages 5-7).</t>
+        </is>
+      </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Document controls for information transfer including approval for external services and protection measures.</t>
+          <t>Provide explicit policy or procedure excerpts on information transfer controls and approval processes.</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>🟡</t>
         </is>
       </c>
     </row>
@@ -858,12 +870,12 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Access control policies are defined and enforced; user registration, de-registration, privileged access, and access restrictions are managed formally.</t>
+          <t>Access control policies are defined, including user registration, de-registration, privileged access management, and access restrictions based on need-to-know.</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Information Security Policy [Internal].docx - Chapter 5 Access Control; 7. Access Control policy; 7.4 User Access Management</t>
+          <t>Information Security Policy [Internal].docx - Chapter 5 Access Control; Chapter 7 Access Control policy</t>
         </is>
       </c>
       <c r="H8" t="inlineStr"/>
@@ -875,12 +887,12 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>One remaining audit point concerning A.5.15 (Access control) is noted; centralised password manager (Zoho Vault) implemented; access control improvements ongoing.</t>
+          <t>Access control issues are discussed in audit results and risk assessments; centralised password manager implemented; privileged access management is ongoing (Pages 5-8).</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Complete resolution of audit findings and formal documentation of access control policies.</t>
+          <t>Provide formal access control policy document and evidence of enforcement.</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
@@ -913,12 +925,12 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Unique user IDs are assigned; user identity management includes registration, de-registration, and disabling of accounts upon termination.</t>
+          <t>User identities are uniquely assigned, managed, and disabled timely upon termination. Common and anonymous IDs are controlled.</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Information Security Policy [Internal].docx - Section 5.1 User registration and de-registration; 7.1 Authentication</t>
+          <t>Information Security Policy [Internal].docx - Chapter 5 Access Control - 5.1 User registration and de-registration; Chapter 7 Access Control policy - 7.1 Authentication</t>
         </is>
       </c>
       <c r="H9" t="inlineStr"/>
@@ -930,17 +942,17 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Unique user IDs assigned; user registration and de-registration processes evident in onboarding and offboarding checklists.</t>
+          <t>User identities are uniquely assigned and managed with password policies and timely disabling upon termination implied by offboarding checklists (Pages 2-9).</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Include explicit identity management policy and evidence of timely deactivation.</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>🟡</t>
         </is>
       </c>
     </row>
@@ -968,12 +980,12 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Password policies are defined including complexity, change requirements, secure storage, and non-disclosure; two-factor authentication is employed where possible.</t>
+          <t>Password policies are defined including complexity, confidentiality, change requirements, and secure handling. Password resets require identity verification.</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Information Security Policy [Internal].docx - Chapter 4 Management of Computers and Information Equipment - Section 4.1 Use of secret authentication information; Chapter 7 Access Control policy - 7.3 Password Policy</t>
+          <t>Information Security Policy [Internal].docx - Chapter 4 Management of Computers and Information Equipment - 4.1 Use of secret authentication information; Chapter 7 Access Control policy - 7.3 Password Policy</t>
         </is>
       </c>
       <c r="H10" t="inlineStr"/>
@@ -985,7 +997,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Password policies include minimum length, complexity, history, expiration, lockout; two-factor authentication enforced via Google and Jumpcloud.</t>
+          <t>Password policies include complexity, history, expiration, lockout, and reset requirements with identity verification (Pages 2-8).</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -1023,12 +1035,12 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Access rights are assigned based on business needs and security requirements; privileged access is controlled and reviewed periodically; access is revoked upon termination.</t>
+          <t>Access rights are assigned based on business needs, with formal authorization and periodic audits. Privileged access is restricted and controlled.</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Information Security Policy [Internal].docx - Chapter 5 Access Control - Section 5.3 Management of privileged access rights; Chapter 7 Access Control policy - 7.2 Authorisation and Access Control; 7.4 User Access Management</t>
+          <t>Information Security Policy [Internal].docx - Chapter 5 Access Control - 5.2 Information access restriction, 5.3 Management of privileged access rights; Chapter 7 Access Control policy - 7.2 Authorisation and Access Control, 7.4 User Access Management</t>
         </is>
       </c>
       <c r="H11" t="inlineStr"/>
@@ -1040,12 +1052,12 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Access rights assigned based on business needs; privileged access managed and reviewed; password manager implemented.</t>
+          <t>Access rights assignment and periodic audits are implied through risk assessments and audit results (Pages 7-8).</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Document periodic review schedules and revocation procedures explicitly.</t>
+          <t>Provide formal documented process for access rights assignment and audit evidence.</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
@@ -1082,12 +1094,12 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Contracts and SLAs with external service providers are required; credentials and references are verified; access is authorized and limited; NDAs are signed; security policies are communicated and enforced.</t>
+          <t>Contracts and SLAs with external service providers are required, including security clauses and access controls. Credentials and references are verified before engagement. Access is authorized and limited.</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Information Security Policy [Internal].docx - Chapter 3 Business partnership and Outsourcing; 3.1 Business Partnership Security; 3.2 Non-Disclosure Agreements; 3.3 Business Partnership Contracts</t>
+          <t>Information Security Policy [Internal].docx - Chapter 3 Business partnership and Outsourcing</t>
         </is>
       </c>
       <c r="H12" t="inlineStr"/>
@@ -1099,17 +1111,17 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Vendor contracts and SLAs reviewed; credentials and certifications (ISO27001, SOC2) verified; access controls and NDAs implied.</t>
+          <t>Contracts and SLAs with Jumpcloud include security clauses; credentials and references are verified; access controls such as MFA are in place (Pages 1-7).</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Maintain documented signed contracts and NDAs for all suppliers.</t>
+          <t>None</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>🟡</t>
+          <t>✅</t>
         </is>
       </c>
     </row>
@@ -1141,12 +1153,12 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Roles and responsibilities are clearly defined for CEO, ISSC, ISWG, Operational Directors, IT Asset Managers, Managers, Users, and Executive responsibilities with competencies and accountability.</t>
+          <t>Roles and responsibilities are clearly defined for CEO, ISSC, ISWG, Operational Director, IT Asset Managers, Managers, Users, and Executive responsibilities. Competences and accountability are specified.</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Information Security Policy [Internal].docx - Section 1.5 Roles and Responsibilities; 2.1.2 Competences operators ISMS; 2.4 Termination of employment; 2.5 Change of employment; 2.2 Information security awareness, education and training</t>
+          <t>Information Security Policy [Internal].docx - Section 1.5 Roles and Responsibilities</t>
         </is>
       </c>
       <c r="H13" t="inlineStr"/>
@@ -1158,12 +1170,12 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Roles and responsibilities are assigned and documented, including CEO, ISMS Responsible, System Administrator, and Project Manager roles attending management review meetings.</t>
+          <t>Roles such as Managing Director, System Administrator, Project Manager/ISMS Responsible, and others are listed as attendees with responsibilities in meetings (Page 2). Responsibilities and accountability are implied through meeting participation and task assignments.</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Provide a formal documented matrix or organizational chart explicitly defining all information security roles and responsibilities.</t>
+          <t>Provide a formal documented roles and responsibilities matrix or policy excerpt to clearly define roles and accountabilities.</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
@@ -1200,12 +1212,12 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Supplier agreements and contracts must include information security requirements; contracts must be approved and signed; risk assessment before contract signing; clauses for compliance with security policy; access control and SLA management.</t>
+          <t>Supplier agreements and contracts with external service providers must include security requirements, risk assessments before contract signing, and clauses for compliance with Reducate's security policy.</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Section 3.1 Business Partnership Security; 3.3 Business Partnership Contracts; clauses 3.3.1 to 3.3.2 in Information Security Policy [Internal].docx</t>
+          <t>Section 3.1 Business Partnership Security; 3.1.3 All outsourcing to External Service Providers must be formalised through a contract; 3.1.5 External Service Providers must be made aware of relevant parts of Reducate security policy before signing the contract; 3.3 Business Partnership Contracts; 3.3.1 Contract clauses include access control, incident handling, change management, audits, data protection (Information Security Policy [Internal].docx).</t>
         </is>
       </c>
       <c r="H14" t="inlineStr"/>
@@ -1217,17 +1229,17 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Risk assessment performed before contract; compliance with security policies noted; change management satisfactory.</t>
+          <t>Risk assessments and contract management are documented; security requirements and compliance are verified before engagement (Pages 1-7).</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Ensure formal contract clauses explicitly include information security requirements.</t>
+          <t>None</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>🟡</t>
+          <t>✅</t>
         </is>
       </c>
     </row>
@@ -1259,12 +1271,12 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Verification of credentials of external service providers; NDA requirements; awareness of security policies by suppliers; management of network connectivity with suppliers; maintaining key IT supplier list.</t>
+          <t>ICT supply chain risks are managed by verifying credentials of external providers, maintaining a list of key IT suppliers, and ensuring compliance with security policies and GDPR.</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Section 3.1 Business Partnership Security; 3.1.1 to 3.1.9; 3.2 Non-Disclosure Agreements; 5.1.1 Data Protection; 5.1.2 Data incidents and GDPR; Information Security Policy [Internal].docx</t>
+          <t>Section 3.1.1 Credentials verification; 3.1.9 Key IT-suppliers list maintained and reviewed yearly; 5.1.1 Data Protection and GDPR compliance; 3.1 Business Partnership Security (Information Security Policy [Internal].docx).</t>
         </is>
       </c>
       <c r="H15" t="inlineStr"/>
@@ -1276,12 +1288,12 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Verification of vendor credentials and certifications; NDA requirements mentioned; security policies awareness implied.</t>
+          <t>Verification of credentials of external providers and maintenance of key IT suppliers list is implied through vendor risk assessment process (Pages 1-7).</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Maintain updated key IT supplier list and documented network connectivity management.</t>
+          <t>Provide explicit ICT supply chain management documentation.</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
@@ -1318,12 +1330,12 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Contract management responsibility assigned; periodic reviews of supplier performance based on SLA metrics, quality, timeliness, compliance; change management procedures for IT infrastructure changes approved by ISSC or ISWG.</t>
+          <t>Contracts are managed by responsible persons who perform periodic reviews of supplier performance using SLA metrics and compliance checks; changes require approval and are monitored.</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Section 3.3.2 Contract Management; Section 2.1.6 Management of Information security; Information Security Policy [Internal].docx</t>
+          <t>Section 3.3.2 Contract Management; Commentary on periodic reviews and performance indicators; Change management procedures referenced in 2.1.8 and 6.2 (Information Security Policy [Internal].docx).</t>
         </is>
       </c>
       <c r="H16" t="inlineStr"/>
@@ -1335,7 +1347,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Contract management responsibility assigned; periodic reviews of supplier performance based on SLA metrics; change management procedures satisfactory.</t>
+          <t>Contracts are managed by responsible persons who perform periodic reviews of supplier performance using SLA metrics and compliance checks (Page 3).</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -1377,25 +1389,29 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Use of cloud services must be approved by IT-Manager and ISWG; access restricted per access control policies; yearly review of files shared externally; use of approved cloud email services; encryption and security standards for cloud applications.</t>
+          <t>Use of cloud services requires approval by IT-Manager and ISWG; access is controlled per company policies; cloud data sharing is reviewed yearly; encryption and security standards are applied.</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Section 7.5 Guideline for Usage of Public Cloud Services; Section 4.1.3 Reporting Information Assets; Section 6.7 Electronic Messaging System Controls; Section 10 Cryptography; Information Security Policy [Internal].docx</t>
+          <t>Section 7.5 Guideline for Usage of Public Cloud Services; 4.1.3 Reporting Information Assets stored in cloud; 10.5-10.7 Cryptography for cloud applications; 5.1.1 GDPR and data protection; 3.1 Business Partnership Security (Information Security Policy [Internal].docx).</t>
         </is>
       </c>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr">
         <is>
-          <t>No direct evidence found in provided documents.</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr"/>
+          <t>No explicit evidence found in provided documents.</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>No direct mention of cloud services approval, access control, or encryption policies.</t>
+        </is>
+      </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Document approval process for cloud services and periodic review of external file sharing.</t>
+          <t>Document and provide evidence of cloud services security controls and approvals.</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
@@ -1432,24 +1448,24 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Established IT Security function with procedures for incident reporting, analysis, containment, recovery; subscriptions to vulnerability notifications; monthly ISSC incident briefings; documented incident management procedures.</t>
+          <t>Incident management procedures are established including monitoring, detection, analysis, reporting, and recovery; IT Security function maintains subscriptions to vulnerability notifications; incidents are reported and reviewed regularly.</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Section 6.5 Security incident management; Section 9.1 Responsibilities and procedures; Information Security Policy [Internal].docx</t>
+          <t>Chapter 9 Management of Information Security Incidents; Section 6.5 Security incident management; 9.1 Responsibilities and procedures; Appendix 6.5 Security incident management (Information Security Policy [Internal].docx).</t>
         </is>
       </c>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Management Review Team Meeting E-WISE 2025 [Restricted].docx.pdf</t>
+          <t>Vendor risk assesment - Jumpcloud [Internal].docx.pdf</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Incident management procedures exist; monthly ISSC incident briefings; subscriptions to vulnerability notifications.</t>
+          <t>Incident management procedures including monitoring, detection, reporting, and recovery are referenced; IT Security maintains subscriptions to vulnerability notifications (Pages 6-7).</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -1491,24 +1507,24 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Procedures for monitoring, detecting, analysing, and reporting events; assessment and classification of events as incidents; decision-making by IT Security function and ISSC; use of CAPA forms for analysis.</t>
+          <t>Procedures exist for assessment and classification of information security events; decisions on incident classification and escalation are documented and managed by IT Security and ISSC.</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Section 6.5 Security incident management; Section 9.1 Responsibilities and procedures; Information Security Policy [Internal].docx</t>
+          <t>Chapter 9 Section 9.1(b) Procedures for assessment and decision of information security events; 6.5.5 Procedures to analyse and identify cause of incidents; 6.5.6 Documentation and review of emergency actions (Information Security Policy [Internal].docx).</t>
         </is>
       </c>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Management Review Team Meeting E-WISE 2025 [Restricted].docx.pdf</t>
+          <t>Vendor risk assesment - Jumpcloud [Internal].docx.pdf</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Procedures for monitoring, detecting, analyzing, and reporting events; CAPA forms used for analysis; decision-making by IT Security and ISSC.</t>
+          <t>Procedures for assessment and classification of information security events and escalation are documented and managed by IT Security and ISSC (Page 7).</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -1550,24 +1566,24 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Incident response policy implemented; procedures for containment, eradication, recovery; reporting to Group Parent Companies; emergency actions documented and reviewed; IT Security team involvement.</t>
+          <t>Incident response procedures include containment, eradication, recovery, communication, and reporting to parent companies; IT Security function coordinates response and informs ISSC monthly.</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Section 6.5 Security incident management; Section 9.1 Responsibilities and procedures; Information Security Policy [Internal].docx</t>
+          <t>Chapter 9 Section 9.1(c) Procedures for handling incidents; 6.5.1-6.5.6 Incident management responsibilities and procedures; 6.5.3 ISSC briefing on incidents monthly (Information Security Policy [Internal].docx).</t>
         </is>
       </c>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr">
         <is>
-          <t>CAPA-form [Confidential] - possible confidential sales data leaked during offboarding of employee .docx.pdf</t>
+          <t>Vendor risk assesment - Jumpcloud [Internal].docx.pdf</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Incident response policy implemented; containment, eradication, recovery actions documented; IT Security team involved; lawsuit filed to protect information.</t>
+          <t>Incident response procedures include containment, eradication, recovery, communication, and reporting; IT Security coordinates response and informs ISSC monthly (Page 7).</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -1609,24 +1625,24 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Use of CAPA forms to document analysis and corrective actions; yearly simulations to improve response; incident reviews by ISSC and ISWG; documentation of lessons learned.</t>
+          <t>Post-incident reviews and CAPA forms are used to analyze causes and implement corrective actions; yearly simulations are recommended to improve response effectiveness.</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Section 6.5 Security incident management; Information Security Policy [Internal].docx</t>
+          <t>6.5.5 Use of CAPA forms for analysis; commentary on yearly simulations; 6.5.6 Documentation and review with ISSC or ISWG (Information Security Policy [Internal].docx).</t>
         </is>
       </c>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr">
         <is>
-          <t>CAPA-form [Confidential] - possible confidential sales data leaked during offboarding of employee .docx.pdf</t>
+          <t>#18- CAPA-form [Confidential] - possible confidential sales data leaked during offboarding of employee .docx.pdf</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Use of CAPA forms to document analysis and corrective actions; yearly simulations planned; incident reviews by ISSC and ISWG.</t>
+          <t>Post-incident reviews and CAPA forms are used to analyze causes and implement corrective actions; yearly simulations are recommended (Page 2).</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -1668,24 +1684,24 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Evidence collection procedures include audit trails, issue tracking tool records; documentation of all steps in incident analysis and resolution; evidence retained for reporting and reconstruction.</t>
+          <t>Evidence such as audit trails and incident records are collected and maintained in issue tracking tools to support analysis, reporting, and reconstruction of events.</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Section 6.5 Security incident management; Information Security Policy [Internal].docx</t>
+          <t>6.5.5 Collection of evidence including audit trails; issue tracking tool usage for incident documentation (Information Security Policy [Internal].docx).</t>
         </is>
       </c>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr">
         <is>
-          <t>CAPA-form [Confidential] - possible confidential sales data leaked during offboarding of employee .docx.pdf</t>
+          <t>Management Review Team Meeting E-WISE 2025 [Restricted].docx.pdf</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Evidence collection procedures include audit trails, forensic evidence gathered and filed with operational director; documentation of all steps in incident analysis and resolution.</t>
+          <t>CAPA and incident evidence is collected and filed with operational director; evidence management is referenced in incident and CAPA logs (Page 10).</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -1723,12 +1739,12 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Business Continuity Plan defines management of incidents and recovery; Crisis Management Team and Support Team roles; communication plans; recovery order and resources defined; preservation and evaluation of damaged assets.</t>
+          <t>Business Continuity Plan defines management of incidents and recovery priorities to maintain information security during disruptions.</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Business Continuity Plan E-WISE [Restricted].docx.pdf, Chapters 1-4</t>
+          <t>Business Continuity Plan E-WISE [Restricted].docx.pdf Chapter 2 Business Continuity Plan; Section 2.7 Order of recovery for activities; Section 3 Restoring and resuming business activities (Business Continuity Plan E-WISE).</t>
         </is>
       </c>
       <c r="H23" t="inlineStr"/>
@@ -1740,7 +1756,7 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Business Continuity Plan referenced; restore tests successfully done; crisis management and communication plans discussed.</t>
+          <t>Business Continuity Plan is referenced with restore tests successfully done; recovery priorities and incident management are discussed (Pages 12-14).</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -1782,12 +1798,12 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Segregation of duties is mandated when assigning responsibilities to reduce risk of misuse; where segregation is difficult, compensating controls like monitoring and audit trails are recommended.</t>
+          <t>Segregation of duties is mandated when assigning responsibilities to reduce risk of misuse. Monitoring and audit trails are recommended where segregation is difficult.</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Information Security Policy [Internal].docx - Section 1.5 Roles and Responsibilities; Chapter 6 IT Operations Controls - 6.4 Segregation of Duties; 2.1.5 Management responsibilities</t>
+          <t>Information Security Policy [Internal].docx - Section 1.5 Roles and Responsibilities; Chapter 6 IT Operations Controls - 6.4 Segregation of Duties</t>
         </is>
       </c>
       <c r="H24" t="inlineStr"/>
@@ -1799,12 +1815,12 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Segregation of duties is addressed in audit results and risk assessments, with segregation tied to Zoho rights and financial system rights; risk mapping has been redone.</t>
+          <t>Segregation of duties is mentioned in audit results and risk mapping related to Zoho rights and financial system rights (Page 8). Risk mapping has been redone to address segregation of duties.</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Document compensating controls where segregation is not feasible and ensure formal approval of segregation policies.</t>
+          <t>Include formal segregation of duties policy or procedures and evidence of monitoring/audit trails where segregation is difficult.</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
@@ -1837,12 +1853,12 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Disaster Recovery Plans for IT infrastructure and services; recovery time objectives defined; resources and responsibilities assigned; backup and restoration policies in place.</t>
+          <t>ICT readiness is ensured by documented recovery plans, resource allocation, and defined recovery time objectives for critical systems and activities.</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Business Continuity Plan E-WISE [Restricted].docx.pdf, Chapters 2-3; Information Security Policy [Internal].docx Sections 6.8 Backup &amp; Restoration Policy</t>
+          <t>Business Continuity Plan E-WISE [Restricted].docx.pdf Sections 2.1 Plan content; 2.9 Required resources; Appendices with Disaster Recovery Plans; recovery time objectives defined (Business Continuity Plan E-WISE).</t>
         </is>
       </c>
       <c r="H25" t="inlineStr"/>
@@ -1854,7 +1870,7 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Disaster recovery tests performed on database and storage; recovery procedures documented and tested.</t>
+          <t>Documented recovery plans and resource allocation for restoring database and storage systems are demonstrated through restoring test procedures (Pages 1-2).</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -1896,12 +1912,12 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Compliance with GDPR and other relevant legislation; processing agreements with customers and vendors; regular review and reporting of data incidents and legal changes.</t>
+          <t>Legal and regulatory requirements including GDPR and contractual obligations are identified and incorporated into policies and contracts.</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Section 5.1.1 Data Protection; 5.1.2 Data incidents and GDPR; Information Security Policy [Internal].docx</t>
+          <t>Section 5.1.1 Data Protection and GDPR compliance; Section 3.3.1 Contract clauses including data protection; Business Continuity Plan references ISO standards and legal requirements (Information Security Policy [Internal].docx, Business Continuity Plan E-WISE).</t>
         </is>
       </c>
       <c r="H26" t="inlineStr"/>
@@ -1913,7 +1929,7 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Compliance with GDPR and other legislation confirmed; processing agreements in place; regular review and reporting of data incidents.</t>
+          <t>Legal and regulatory requirements including GDPR and contractual obligations are identified and incorporated into policies and contracts; GDPR meetings are conducted (Pages 7-14).</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -1955,25 +1971,29 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Procedures to ensure compliance with intellectual property rights; respect for software licensing; inventory of software maintained.</t>
+          <t>Procedures ensure compliance with intellectual property rights including copyright and licensing; software licensing is managed and inventoried.</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Section 9.1 Intellectual Property Rights; 9.2 Software Licensing; Information Security Policy [Internal].docx</t>
+          <t>Section 9.1 Intellectual Property Rights; 9.2 Software Licensing; 9.2.2 IT-Department maintains software inventory (Information Security Policy [Internal].docx).</t>
         </is>
       </c>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr">
         <is>
-          <t>No direct evidence found in provided documents.</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr"/>
+          <t>No explicit evidence found in provided documents.</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>No direct mention of intellectual property rights management or software licensing procedures.</t>
+        </is>
+      </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Maintain documented procedures for intellectual property rights compliance and software licensing.</t>
+          <t>Document and provide evidence of intellectual property rights compliance and software license management.</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
@@ -2010,34 +2030,34 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Secure disposal of information and media; shredding or overwriting personnel information; media disposal authorization process.</t>
+          <t>Records and personnel information are securely disposed of per EU law; backups and media disposal policies ensure protection of records.</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Section 9.3 Information Disposal; 6.8.8 Media Disposal; Information Security Policy [Internal].docx</t>
+          <t>Section 9.3 Information Disposal; 6.8 Backup &amp; Restoration Policy; 6.8.8 Media Disposal; 9.3.2 Personnel information shredding (Information Security Policy [Internal].docx).</t>
         </is>
       </c>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Reducate - Disposal of devices [Confidential].docx</t>
+          <t>No explicit evidence found in provided documents.</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Secure disposal of storage media by physical destruction; authorization process for media disposal; secure storage of decommissioned equipment.</t>
+          <t>No direct mention of protection of records, secure disposal, or backup media policies.</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Document and provide evidence of records protection and secure disposal procedures.</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>❌</t>
         </is>
       </c>
     </row>
@@ -2069,12 +2089,12 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Compliance with relevant legislation; protection of PII; regular reporting and discussion of data incidents; GDPR compliance; processing agreements.</t>
+          <t>Privacy and PII protection comply with relevant legislation; GDPR compliance is enforced; data incidents are reported and reviewed regularly.</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Section 3.3 Privacy and protection of personally identifiable information; 5.1.1 Data Protection; 5.1.2 Data incidents and GDPR; Information Security Policy [Internal].docx</t>
+          <t>Section 3.3 Privacy and protection of PII; 5.1.1 Data Protection and GDPR compliance; 5.1.2 Data incidents and GDPR updates reported biannually; Appendix references (Information Security Policy [Internal].docx).</t>
         </is>
       </c>
       <c r="H29" t="inlineStr"/>
@@ -2086,7 +2106,7 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Compliance with GDPR and protection of PII discussed; regular reporting and GDPR meetings conducted.</t>
+          <t>Privacy and PII protection comply with GDPR; data incidents are reported and reviewed regularly; GDPR meetings are conducted (Pages 7-14).</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
@@ -2128,12 +2148,12 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Annual ISO internal and external audits for each group company; ISSC and ISWG review security organisation and policies yearly; management reviews include security topics.</t>
+          <t>Annual internal and external ISO 27001 audits are conducted; ISSC and ISWG review security policies and incidents regularly.</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Section 8.2.7 PEN-tests and yearly ISO audits; Section 2.1.2 and 2.1.3 Security Organisation reviews; Information Security Policy [Internal].docx</t>
+          <t>Section 8.2.7 Annual ISO internal and external audits; Chapter 10 Section 10.1 Review of information security; 2.2 and 2.3 ISSC and ISWG responsibilities (Information Security Policy [Internal].docx).</t>
         </is>
       </c>
       <c r="H30" t="inlineStr"/>
@@ -2145,7 +2165,7 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Annual internal and external audits performed; ISSC and ISWG review security policies yearly; management reviews include security topics.</t>
+          <t>Annual internal and external ISO 27001 audits are conducted; ISSC and ISWG review security policies and incidents regularly (Pages 7-9).</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
@@ -2187,12 +2207,12 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Enforcement of policies by management; disciplinary processes for non-compliance; regular training and awareness; monitoring and logging; incident management and corrective actions.</t>
+          <t>Compliance is enforced through management responsibilities, disciplinary processes, audits, and policy reviews; non-compliance leads to disciplinary action.</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Section 1.5 Roles and Responsibilities; Section 2.3 Disciplinary process; Section 5.1 IT Acceptable Usage Policy; Section 6.5 Security incident management; Information Security Policy [Internal].docx</t>
+          <t>Section 1.5 Roles and Responsibilities; 2.3 Disciplinary process; 9.4 Non-Compliance; 8.2.7 Annual audits; Chapter 10 Review and Improvement (Information Security Policy [Internal].docx).</t>
         </is>
       </c>
       <c r="H31" t="inlineStr"/>
@@ -2204,7 +2224,7 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Enforcement of policies by management; disciplinary processes for non-compliance noted; regular training and awareness ongoing; incident management and corrective actions documented.</t>
+          <t>Compliance is enforced through management responsibilities, disciplinary processes, audits, and policy reviews; non-compliance leads to disciplinary action (Pages 4-14).</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
@@ -2242,30 +2262,34 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Operating procedures documented and maintained; changes authorized by management; procedures include incident management, change management, backup, recovery, and support contacts.</t>
+          <t>Operating procedures are documented and maintained for incident management, change management, backup, recovery, and other IT operations.</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Section 6.1 Documented Operating procedures; Information Security Policy [Internal].docx</t>
+          <t>Section 6.1 Documented Operating procedures; 6.2 Operational change control; 6.8 Backup &amp; Restoration Policy; 6.5 Security incident management (Information Security Policy [Internal].docx).</t>
         </is>
       </c>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr">
         <is>
-          <t>No direct evidence found in provided documents.</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr"/>
+          <t>Management Review Team Meeting E-WISE 2025 [Restricted].docx.pdf</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>Operating procedures are documented and maintained for incident management, change management, backup, recovery, and other IT operations as referenced in meeting documents (Pages 4-14).</t>
+        </is>
+      </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Document and maintain operating procedures including incident management, change management, backup, and recovery.</t>
+          <t>Provide explicit documented procedures or references.</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>🟡</t>
         </is>
       </c>
     </row>
@@ -2297,12 +2321,12 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Management is responsible for setting security objectives, aligning with business strategy, resource management, policy setting, training, review, implementation, and continuous security.</t>
+          <t>Management responsibilities include setting security objectives, aligning with business strategy, resource management, policy setting, training, review, implementation, and continuous security.</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Information Security Policy [Internal].docx - Section 1.5 Roles and Responsibilities - Executive responsibilities; Chapter 10 Evaluation and Improvement - Section 10.1 Review of information security</t>
+          <t>Information Security Policy [Internal].docx - Section 1.5 Roles and Responsibilities - Executive responsibilities</t>
         </is>
       </c>
       <c r="H33" t="inlineStr"/>
@@ -2314,7 +2338,7 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Management reviews include security topics, setting objectives, reviewing audit results, risk assessments, and continuous improvement actions.</t>
+          <t>Management responsibilities are demonstrated through agenda items including risk assessments, audit results, security improvements, training updates, restore tests, and communication (Pages 4-14). Objectives and KPIs are reviewed and updated regularly.</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
@@ -2352,12 +2376,12 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Procedures exist for contacting local government security authorities and law enforcement in case of incidents; contact details and responsibilities are defined.</t>
+          <t>The Business Continuity Plan and Incident Response Plan include contact details and procedures for local authorities in case of facility disasters and security incidents.</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Information Security Policy [Internal].docx - 2.1 Screening; 9.1 Responsibilities and procedures; Business Continuity Plan E-WISE [Restricted].docx - Appendix 1 Incident Response Plan - Facility disasters, fire, water damage etc.; Appendix 5 Key Contacts</t>
+          <t>Business Continuity Plan E-WISE [Restricted].docx.pdf - Appendix 1 Incident Response Plan, Appendix 5 Key Contacts, Section 3.1 Preservation of damaged assets and evaluation of damage</t>
         </is>
       </c>
       <c r="H34" t="inlineStr"/>
@@ -2369,12 +2393,12 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Vendor risk assessment includes contact details and procedures for escalation, although no direct contact person is available for Jumpcloud; escalation procedures are noted.</t>
+          <t>The Business Continuity Plan and Incident Response Plan are referenced in the context of vendor risk assessment and contact with authorities is implied through incident reporting and escalation procedures (Page 6-7).</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Establish direct contact points with authorities and vendors where possible to improve incident response.</t>
+          <t>Provide explicit documented contact details and procedures for authorities in the Business Continuity and Incident Response Plans.</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
@@ -2407,24 +2431,16 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>The organisation maintains subscriptions to security news, forums, newsletters, and external vendor information to stay updated on threats and vulnerabilities.</t>
+          <t>Reducate group companies regularly receive security news from external vendors, forums, newsletters, and magazines to stay updated.</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Information Security Policy [Internal].docx - 2.1.7 Management of Information security; 2.1.8 Contact with authorities and special interest groups</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>No explicit mention of formal special interest groups beyond vendor/news subscriptions.</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>Consider formalising participation in recognized special interest groups or industry security forums.</t>
-        </is>
-      </c>
+          <t>Information Security Policy [Internal].docx - Section 2.1 Security Organisation - 2.1.7</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr">
         <is>
           <t>Vendor risk assesment - Jumpcloud [Internal].docx.pdf</t>
@@ -2432,7 +2448,7 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Organisation subscribes to vendor status pages (e.g., Jumpcloud status page) and security news to stay updated on threats and vulnerabilities.</t>
+          <t>Reducate group companies receive security news from external vendors and forums as evidenced by subscription to Jumpcloud status page and security updates (Page 3, 7).</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
@@ -2474,12 +2490,12 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>The organisation acquires and circulates vulnerability and virus outbreak information to relevant teams; subscribes to security news and vendor alerts.</t>
+          <t>Subscriptions to vulnerability and virus breakout notifications are maintained and circulated to relevant teams. Security news from vendors and authorities is regularly received.</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Information Security Policy [Internal].docx - 6.5 Security incident management; 2.1.7 Management of Information security; 6.6 Protection against malicious software</t>
+          <t>Information Security Policy [Internal].docx - Section 2.1 Security Organisation - 2.1.7, 2.1.8; Chapter 6 IT Operations Controls - 6.5 Security incident management</t>
         </is>
       </c>
       <c r="H36" t="inlineStr"/>
@@ -2491,7 +2507,7 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Subscriptions to vulnerability notifications and incident reporting via vendor status pages are in place; no incidents reported.</t>
+          <t>Subscriptions to vulnerability and virus breakout notifications are maintained and circulated, as shown by subscription to Jumpcloud status page and monitoring of vulnerabilities (Page 3, 7).</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
@@ -2533,12 +2549,12 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Project plans are reviewed for compliance with security policy by ISSC and ISWG; SDLC policies and quality checks are documented and periodically reviewed.</t>
+          <t>Project plans are reviewed for compliance with security policy by ISSC and ISWG. SDLC policies and quality checks are documented and reviewed periodically.</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Information Security Policy [Internal].docx - 2.1.5 Management responsibilities; 2.2 Information Security Steering Committee; 8.1 Security in application development; 2.3 Information Security Working Group</t>
+          <t>Information Security Policy [Internal].docx - Section 2.1 Security Organisation - 2.2, 2.3; Chapter 8 Systems Development Policy - 8.1 Security in application development</t>
         </is>
       </c>
       <c r="H37" t="inlineStr"/>
@@ -2550,17 +2566,17 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>SDLC includes documented testing phases (unit, integration, system, vulnerability testing) and branch protection rules with code scanning under investigation.</t>
+          <t>Project plans and SDLC processes are documented with testing stages including unit tests, functional tests, security testing, and branch protection rules (Pages 3-5).</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Formalize security compliance review by ISSC and ISWG in project plans.</t>
+          <t>None</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>🟡</t>
+          <t>✅</t>
         </is>
       </c>
     </row>
@@ -2588,30 +2604,34 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>IT Asset Managers maintain and periodically update an inventory of hardware and software assets; physical inventory checks are performed annually.</t>
+          <t>IT Asset Managers maintain and update inventory of hardware and software assets, including classification and value identification.</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Information Security Policy [Internal].docx - Section 1.5 Roles and Responsibilities - IT Asset Managers; 6.11 Asset Management</t>
+          <t>Information Security Policy [Internal].docx - Section 1.5 Roles and Responsibilities; Chapter 6 IT Operations Controls - 6.11 Asset Management</t>
         </is>
       </c>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr">
         <is>
-          <t>No direct evidence found in provided documents.</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr"/>
+          <t>Matrix rechten Zoho (Internal).pdf</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>IT Asset Managers maintain inventories of user access rights and system roles, implying asset management (Pages 1-10).</t>
+        </is>
+      </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Maintain and provide documented IT asset inventory and periodic physical checks.</t>
+          <t>Provide explicit evidence of hardware and software asset inventory including classification and valuation.</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>🟡</t>
         </is>
       </c>
     </row>
@@ -2643,12 +2663,12 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Background verification and competence checks for all candidates; minimum qualifications include CV checks, interviews, security tests, references, and certificates of conduct as applicable.</t>
+          <t>Background verification and competence checks are performed on all candidates proportionate to business needs, including CV checks, interviews, security tests, references, and certificates.</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Section 2.1 Screening; Information Security Policy [Internal].docx</t>
+          <t>Section 2.1 Screening; 2.1.1 Competences operators ISMS; minimal qualifications and checks described (Information Security Policy [Internal].docx).</t>
         </is>
       </c>
       <c r="H39" t="inlineStr"/>
@@ -2660,17 +2680,17 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Onboarding checklist includes background verification steps such as CV checks, interviews, and equipment setup.</t>
+          <t>Background verification and competence checks are performed on candidates as part of onboarding checklist including CV checks, interviews, and equipment provisioning (Page 1).</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Formalize and document background verification procedures.</t>
+          <t>None</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>🟡</t>
+          <t>✅</t>
         </is>
       </c>
     </row>
@@ -2702,24 +2722,24 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Background verification and competence checks on candidates; documented procedures for equipment usage and return; formal termination and change of employment processes.</t>
+          <t>Background verification and competence checks on candidates; documented procedures for equipment usage and return at termination; formal termination process.</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Section 2.1 Screening; Section 2.1.2 Equipment usage; Section 2.4 Termination of employment; Section 2.5 Change of employment in Information Security Policy [Internal].docx</t>
+          <t>Section 2.1 Screening; Section 2.1.2 Equipment usage; Section 2.4 Termination of employment; Section 2.5 Change of employment. (Information Security Policy [Internal].docx)</t>
         </is>
       </c>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr">
         <is>
-          <t>2.4.8 Template checklist uitdienst.PNG.pdf</t>
+          <t>2.4.7 Template checklist indienst.PNG.pdf</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Offboarding checklist includes equipment return and deregistration; documented termination and role change processes implied.</t>
+          <t>Terms and conditions of employment including equipment usage and return at termination are documented in onboarding and offboarding checklists (Pages 1 and 2.4.8 Template checklist uitdienst.PNG.pdf).</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
@@ -2766,7 +2786,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Section 2.2 Information security awareness, education and training in Information Security Policy [Internal].docx</t>
+          <t>Section 2.2 Information security awareness, education and training (Information Security Policy [Internal].docx)</t>
         </is>
       </c>
       <c r="H41" t="inlineStr"/>
@@ -2778,7 +2798,7 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Security training updated and delivered; training completion rate 100%; awareness communicated in townhall meetings.</t>
+          <t>Information security awareness, education and training are planned and tracked with 100% training completion rate; updated training topics are communicated (Pages 6, 14).</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
@@ -2820,24 +2840,24 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Failure to comply with the Information Security Policy or related rules may result in disciplinary action including termination.</t>
+          <t>Failure to comply with the Information Security Policy may result in disciplinary action including termination.</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Section 2.3 Disciplinary process in Information Security Policy [Internal].docx; Section 9.4 Non-Compliance</t>
+          <t>Section 2.3 Disciplinary process; Section 9.4 Non-Compliance (Information Security Policy [Internal].docx)</t>
         </is>
       </c>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr">
         <is>
-          <t>CAPA-form [Confidential] - possible confidential sales data leaked during offboarding of employee .docx.pdf</t>
+          <t>#18- CAPA-form [Confidential] - possible confidential sales data leaked during offboarding of employee .docx.pdf</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Disciplinary action including lawsuit filed for policy violation; termination due to non-compliance.</t>
+          <t>Disciplinary process is demonstrated by lawsuit filed against employee for policy violation; settlement agreement includes confidentiality clauses (Pages 1-2).</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
@@ -2884,7 +2904,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Section 2.4 Termination of employment; Section 2.5 Change of employment in Information Security Policy [Internal].docx</t>
+          <t>Section 2.4 Termination of employment; Section 2.5 Change of employment (Information Security Policy [Internal].docx)</t>
         </is>
       </c>
       <c r="H43" t="inlineStr"/>
@@ -2896,7 +2916,7 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Access removal and asset return on termination day included in checklist; documented termination and role change processes.</t>
+          <t>Responsibilities after termination include removal of access and return of company belongings documented in offboarding checklist (Page 1).</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
@@ -2934,29 +2954,29 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>All external service providers must sign NDAs or have equivalent confidentiality clauses; third-party NDAs for employees must be approved per policy.</t>
+          <t>All external service providers must sign NDAs or have equivalent confidentiality clauses; third-party NDAs for employees must be approved.</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Section 3.2 Non-Disclosure Agreements in Information Security Policy [Internal].docx</t>
+          <t>Section 3.2 Non-Disclosure Agreements (Information Security Policy [Internal].docx)</t>
         </is>
       </c>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Vendor risk assesment - Jumpcloud [Internal].docx.pdf</t>
+          <t>#18- CAPA-form [Confidential] - possible confidential sales data leaked during offboarding of employee .docx.pdf</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>NDAs and confidentiality clauses required for external service providers; implied in vendor risk assessment.</t>
+          <t>Confidentiality or non-disclosure agreements are referenced in settlement agreement and legal actions (Page 1).</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Maintain documented signed NDAs for all third parties and employees as per policy.</t>
+          <t>Provide formal NDA policy and evidence of signing for all external providers and employees.</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
@@ -2984,47 +3004,39 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>🟡</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Mobile device policy covers registration, physical protection, encryption, and restrictions on private equipment; remote access requires IT approval; home/cloud working allowed for most employees except studio staff.</t>
+          <t>Remote access requires IT department approval; mobile device protection policy includes registration, physical protection, encryption, and restrictions on private device use.</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Chapter 8 Mobile Computing; Section 6.9 Network Security Policy; Section 2.6 Sites and transportation in Business Continuity Plan E-WISE; Appendix - 6.10 End-point Security Policy</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>No explicit comprehensive remote working policy covering all aspects such as secure connections, user responsibilities, and monitoring.</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>Develop and document a detailed remote working policy addressing secure access, user responsibilities, device management, and monitoring.</t>
-        </is>
-      </c>
+          <t>Section 6.9 Network Security Policy (6.9.14); Chapter 8 Mobile Computing (Telecommuting) Section 8.1 Mobile device policy (Information Security Policy [Internal].docx)</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Kopie van BS02 E-Wise Wachtwoordbeleid [Internal].pdf</t>
+          <t>No explicit evidence found in provided documents.</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Mobile device policy includes registration, physical protection, encryption; remote access requires IT approval; home/cloud working allowed with exceptions.</t>
+          <t>No direct mention of remote working policies or mobile device protection.</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Document and provide evidence of remote working and mobile device protection policies.</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>❌</t>
         </is>
       </c>
     </row>
@@ -3052,24 +3064,24 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Users must report security violations immediately; IT Security function manages incident reporting and response; documented incident management procedures exist.</t>
+          <t>Users must report security violations immediately; IT Security function manages incident reporting and response procedures.</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Section 5.1.4 IT Security; Section 6.5 Security incident management; Section 9.1 Responsibilities and procedures in Information Security Policy [Internal].docx; Appendix - 6.5 Security incident management</t>
+          <t>Section 5.1.4 User responsibilities; Section 6.5 Security incident management (Information Security Policy [Internal].docx)</t>
         </is>
       </c>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Management Review Team Meeting E-WISE 2025 [Restricted].docx.pdf</t>
+          <t>Vendor risk assesment - Jumpcloud [Internal].docx.pdf</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Users required to report security violations immediately; IT Security manages incident reporting; documented procedures exist.</t>
+          <t>Users must report security violations immediately; incident reporting and response procedures are managed by IT Security (Page 6).</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
@@ -3111,22 +3123,34 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Physical access secured via card swipe, personal keys; alarm systems per floor; secured system racks; access controlled and logged; zones map defined.</t>
+          <t>Physical access secured via card swipe, personal keys; alarm systems per floor with yearly code changes; secured system racks with locked doors.</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Section 7.6 Physical Access in Information Security Policy [Internal].docx</t>
+          <t>Section 7.6 Physical Access (Information Security Policy [Internal].docx)</t>
         </is>
       </c>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>Key holders server room _ Studios (Internal).pdf</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>Physical access to server room controlled by designated key holders; versioned document lists authorized personnel (Pages 1-2).</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
     </row>
@@ -3154,22 +3178,34 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Media disposal policy ensuring destruction; secure storage of backup media; regular inventory and disposal controls.</t>
+          <t>Media disposal policy ensuring destruction; secure storage of backup media; regular inventory and control of portable storage devices.</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Section 6.8 Backup &amp; Restoration Policy; Section 6.10 Storage devices; Section 9.3 Information Disposal in Information Security Policy [Internal].docx</t>
+          <t>Section 6.8 Backup &amp; Restoration Policy; Section 6.10 Storage devices; Section 9.3 Information Disposal (Information Security Policy [Internal].docx)</t>
         </is>
       </c>
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>Reducate - Disposal of devices [Confidential].docx</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>Media disposal policy ensures destruction; secure storage of backup media; regular inventory and control of portable storage devices (Page 1).</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
     </row>
@@ -3197,22 +3233,34 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Uninterruptible power supply for network devices; facilities and infrastructure recovery plans in Business Continuity Plan.</t>
+          <t>Uninterruptible power supply (UPS) for routers and switches; facilities and infrastructure recovery plans in Business Continuity Plan.</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Section 6.9.36 UPS in Information Security Policy [Internal].docx; Section 2.9 Required resources in Business Continuity Plan E-WISE</t>
+          <t xml:space="preserve">Section 6.9.36 UPS for network devices; Business Continuity Plan E-WISE [Restricted].docx (Chapter 2.9 Required resources) </t>
         </is>
       </c>
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>Management Review Team Meeting E-WISE 2025 [Restricted].docx.pdf</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>Uninterruptible power supply (UPS) for routers and switches; facilities and infrastructure recovery plans in Business Continuity Plan (Pages 12-14).</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
     </row>
@@ -3240,19 +3288,31 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Cabling installed and secured per local/European regulations; regular maintenance of perimeter devices.</t>
+          <t>Cabling installed and secured per local or European regulations.</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Section 6.9.37 Cabling security; Section 6.9.38 Device maintenance in Information Security Policy [Internal].docx</t>
+          <t>Section 6.9.37 Cabling security (Information Security Policy [Internal].docx)</t>
         </is>
       </c>
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>No explicit evidence found in provided documents.</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>No direct mention of cabling security per local or European regulations.</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>Document and provide evidence of cabling security controls.</t>
+        </is>
+      </c>
       <c r="M50" t="inlineStr">
         <is>
           <t>❌</t>
@@ -3288,25 +3348,37 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>6.9.38 Any devices in the perimeters of our network should have regular maintenance and software updates if this is required or recommended by the supplier. (Information Security Policy [Internal].docx)</t>
+          <t>6.9.38 Any devices in the perimeters of our network should have regular maintenance and software updates if this is required or recommended by the supplier.</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>No detailed documented procedure or formal policy for equipment maintenance is described; coverage is limited to network perimeter devices only.</t>
+          <t>No detailed documented procedure or formal policy for equipment maintenance is described; coverage is limited to perimeter devices only.</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Develop and document a comprehensive equipment maintenance policy covering all IT and physical equipment, including schedules, responsibilities, and maintenance records.</t>
-        </is>
-      </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+          <t>Develop and document a comprehensive equipment maintenance policy covering all IT assets, including schedules, responsibilities, and procedures.</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>No explicit evidence found in provided documents.</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>Section 6.9.38 mentions devices in network perimeter should have regular maintenance and software updates, but no detailed evidence provided.</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>Provide documented equipment maintenance schedules and records.</t>
+        </is>
+      </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>🟡</t>
         </is>
       </c>
     </row>
@@ -3334,22 +3406,36 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Section 6.8.8 details secure destruction of information storage media ensuring data recovery is not possible, including retention of destruction evidence. Section 6.11.4 and 6.11.5 address proper purchase and disposal of hardware/software with formal approval required for disposal or removal.</t>
+          <t>Section 6.8.8 details secure destruction of information storage media ensuring data recovery is not possible, including retention of evidence of destruction. Section 6.11.4 and 6.11.5 address proper purchase and disposal of hardware and software with formal approval required for disposal.</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>6.8.8 Media Disposal – All information storage media containing company information classified as ‘Internal’, ‘Confidential’ or ‘Restricted’, must be destroyed, ensuring data recovery is not possible. Evidence of media destruction should be retained. (Information Security Policy [Internal].docx)</t>
+          <t>6.8.8 Media Disposal – All information storage media containing company information classified as ‘Internal’, ‘Confidential’ or ‘Restricted’, must be destroyed, ensuring data recovery is not possible. Evidence of media destruction should be retained.
+6.11.4 IT Asset Manager must purchase and dispose of hardware and software properly.
+6.11.5 Employees are not allowed to dispose of hardware and software and take business belongings offside our offices without formal approval from the ISCC.</t>
         </is>
       </c>
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>Reducate - Disposal of devices [Confidential].docx</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>Secure destruction of information storage media ensuring data recovery is not possible, including retention of evidence of destruction; formal approval required for disposal (Page 1).</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
     </row>
@@ -3377,22 +3463,34 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Access controlled by card swipe, keys; visitors escorted; keys signed out and returned; emergency access procedures exist.</t>
+          <t>Access controlled by card swipe, keys signed out; visitors escorted; emergency access procedures exist.</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Section 7.6 Physical Access in Information Security Policy [Internal].docx</t>
+          <t>Section 7.6 Physical Access (Information Security Policy [Internal].docx)</t>
         </is>
       </c>
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>Key holders server room _ Studios (Internal).pdf</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>Access controlled by keys signed out; visitors escorted; emergency access procedures implied (Pages 1-2).</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>Provide explicit visitor escort and emergency access procedures.</t>
+        </is>
+      </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>🟡</t>
         </is>
       </c>
     </row>
@@ -3420,22 +3518,34 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>System racks locked; doors locked by default; access restricted to authorized personnel; physical security policy for premises.</t>
+          <t>System racks locked; access only to authorized personnel; doors locked by default; zones map defines access levels.</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Section 7.6 Physical Access in Information Security Policy [Internal].docx</t>
+          <t>Section 7.6 Physical Access (Information Security Policy [Internal].docx)</t>
         </is>
       </c>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>Key holders server room _ Studios (Internal).pdf</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>System racks locked; access only to authorized personnel; doors locked by default (Pages 1-2).</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
     </row>
@@ -3467,30 +3577,42 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Alarm systems per floor with yearly code changes; no explicit mention of CCTV or continuous monitoring.</t>
+          <t>Alarm systems per floor with yearly code changes mentioned; no explicit mention of CCTV or continuous monitoring.</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Section 7.6 Physical Access in Information Security Policy [Internal].docx</t>
+          <t>Section 7.6 Physical Access (Information Security Policy [Internal].docx)</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Lack of explicit physical security monitoring controls such as CCTV or intrusion detection.</t>
+          <t>No explicit mention of physical security monitoring systems such as CCTV or intrusion detection.</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>Implement and document physical security monitoring measures including CCTV and intrusion detection systems.</t>
-        </is>
-      </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+          <t>Implement and document physical security monitoring measures like CCTV surveillance and intrusion detection systems.</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>Key holders server room _ Studios (Internal).pdf</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>Alarm systems per floor with yearly code changes mentioned; no explicit mention of CCTV or continuous monitoring (Pages 1-2).</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>Consider adding CCTV or continuous monitoring to enhance physical security monitoring.</t>
+        </is>
+      </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>🟡</t>
         </is>
       </c>
     </row>
@@ -3518,27 +3640,39 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Use of local country regulations for protection against natural disasters, malicious attacks or accidents; no detailed environmental controls described.</t>
+          <t>Use of local country regulations for protection against natural disasters and malicious attacks; no detailed controls described.</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Section 7.6.12 in Information Security Policy [Internal].docx</t>
+          <t>Section 7.6.12 (Information Security Policy [Internal].docx)</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>No detailed documented controls for environmental threats like fire suppression, flood protection, or power supply.</t>
+          <t>Lacks detailed documented controls for environmental threats such as fire suppression, flood protection, or power failure.</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>Develop and document comprehensive physical and environmental threat protection controls.</t>
-        </is>
-      </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+          <t>Develop and document specific physical and environmental threat protection controls and procedures.</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>No explicit evidence found in provided documents.</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>No detailed controls described for protection against physical and environmental threats.</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>Document and implement controls for physical and environmental threats.</t>
+        </is>
+      </c>
       <c r="M56" t="inlineStr">
         <is>
           <t>❌</t>
@@ -3574,17 +3708,29 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Section 7.6 Physical Access in Information Security Policy [Internal].docx</t>
+          <t>Section 7.6 Physical Access (Information Security Policy [Internal].docx)</t>
         </is>
       </c>
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>Key holders server room _ Studios (Internal).pdf</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>Access to secure areas restricted to authorized personnel; visitors escorted; emergency access procedures exist (Pages 1-2).</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
     </row>
@@ -3612,22 +3758,34 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Clear desk recommended; personal belongings should not be left unsupervised; locked storage provided; regular internal audits.</t>
+          <t>Clear desk recommended; locked closets/lockers advised; personal and critical information must be destroyed; internal audits performed.</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Section 5.2 General Security policy in Information Security Policy [Internal].docx</t>
+          <t>Section 5.2 General Security policy (Information Security Policy [Internal].docx)</t>
         </is>
       </c>
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>Management Review Team Meeting E-WISE 2025 [Restricted].docx.pdf</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>Clear desk recommended; internal audits performed; personal and critical information must be destroyed (Page 8).</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>Provide explicit documented clear desk and screen policy.</t>
+        </is>
+      </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>🟡</t>
         </is>
       </c>
     </row>
@@ -3655,30 +3813,42 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Equipment usage and return procedures; asset management includes physical location tracking; no detailed siting or protection controls described.</t>
+          <t>System racks locked; no detailed policy on equipment siting or protection from environmental hazards.</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Section 2.1.2 Equipment usage; Section 6.11 Asset Management in Information Security Policy [Internal].docx</t>
+          <t>Section 7.6 Physical Access (Information Security Policy [Internal].docx)</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Lack of explicit policies on equipment siting, physical protection from environmental hazards or unauthorized access.</t>
+          <t>No explicit controls on equipment siting to protect from environmental or physical damage.</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>Develop and document equipment siting and protection controls including physical placement and environmental safeguards.</t>
-        </is>
-      </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+          <t>Establish and document equipment siting and protection controls addressing environmental and physical risks.</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>Key holders server room _ Studios (Internal).pdf</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>System racks locked; no detailed policy on equipment siting or protection from environmental hazards (Pages 1-2).</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>Develop and document equipment siting and environmental protection policies.</t>
+        </is>
+      </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>🟡</t>
         </is>
       </c>
     </row>
@@ -3706,22 +3876,34 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Controls for mobile devices and portable storage outside premises; policies on borrowing and return; encryption required for laptops taken off-site.</t>
+          <t>Controls for removal of assets outside premises; return of company belongings at termination; end-point security policy for mobile devices.</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Chapter 8 Mobile Computing; Section 6.10 End-point Security Policy; Section 10 Cryptography in Information Security Policy [Internal].docx</t>
+          <t>Section 2.1.2 Equipment usage; Section 2.4 Termination of employment; Chapter 4.2 Removal of assets; Chapter 8 Mobile Computing; Section 6.10 End-point Security Policy (Information Security Policy [Internal].docx)</t>
         </is>
       </c>
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>2.4.8 Template checklist uitdienst.PNG.pdf</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>Controls for removal of assets outside premises and return of company belongings at termination are documented; end-point security policy for mobile devices referenced (Page 1).</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
     </row>
@@ -3753,22 +3935,36 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Section 2.1.2 Equipment usage defines documented procedures for borrowing company devices and return upon termination. Chapter 8 Mobile Computing (Telecommuting) Section 8.1 defines mobile device policy including registration, physical protection, encryption, and restrictions. Section 6.10 End-point Security Policy details software restrictions, patching, and virus protection on endpoint devices.</t>
+          <t>Section 2.1.2 Equipment usage defines documented procedures for borrowing company devices and return upon termination. Section 6.10 End-point Security Policy covers patching, virus protection, software installation restrictions, and usage of portable storage devices. Section 5.1.11 and 6.10.11 address endpoint security and usage.</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>2.1.2 Equipment usage; 8.1 Mobile device policy; 6.10 End-point Security Policy (Information Security Policy [Internal].docx)</t>
+          <t>2.1.2 Equipment usage (ISO 27001: 2013-A8.1.2, 2022-A5.9) Any laptop, car, mobile device bought, rented or owned by the company can be borrowed and a documented procedure should be in place.
+6.10 End-point Security Policy covers patch application, virus scanning, software restrictions, and portable storage device usage.
+5.1.11 Data Protection and Acceptable Usage Policy sections.</t>
         </is>
       </c>
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>Management Review Team Meeting E-WISE 2025 [Restricted].docx.pdf</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>Documented procedures for borrowing company devices and return upon termination; endpoint security including patching, virus protection, and software installation restrictions (Pages 5-6).</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
     </row>
@@ -3805,17 +4001,30 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>9.3 Information Disposal; 6.8.8 Media Disposal (Information Security Policy [Internal].docx)</t>
+          <t>9.3.2 All copies of personnel information, whether electronic or hard copy, must be shredded or irretrievably overwritten in accordance with EU law.
+6.8.8 Media Disposal – All information storage media containing company information classified as ‘Internal’, ‘Confidential’ or ‘Restricted’, must be destroyed, ensuring data recovery is not possible.</t>
         </is>
       </c>
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>Reducate - Disposal of devices [Confidential].docx</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>Information deletion and media disposal policies mandate secure destruction and evidence retention (Page 1).</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
     </row>
@@ -3838,35 +4047,40 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>🟡</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Section 8.1.10 Testing states test environments should use limited, anonymised or pseudonymised data. Section 4.1.2 Handling Information Assets references data handling guidelines but no explicit data masking policy is detailed.</t>
+          <t>Section 8.1.10 Testing states test environments should use limited, anonymised, or masked data. Section 8.1.21 prohibits use of production, personal, or cardholder data in testing unless sanitized, anonymised, or pseudonymised.</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>8.1.10 Testing (By engineers and end users) ... preferable test data or anonymised data (data masking); 4.1.2 Handling Information Assets (Information Security Policy [Internal].docx)</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>No formal documented data masking policy or procedures for production data beyond testing environments.</t>
-        </is>
-      </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>Develop and document a formal data masking policy and procedures for use in testing and development environments to ensure sensitive data is protected.</t>
-        </is>
-      </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+          <t>8.1.10 Test environments should only have limited data suitable to perform tests and preferable test data or anonymised data (data masking).
+8.1.21 Production data is never used for testing or development. Personal data is never used for testing or development. If sensitive information is required as part of the testing process it is sanitised, anonymised or pseudonymised.</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>4.4.1.6.1 System development life cycle [Confidential].pptx.pdf</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>Test environments use anonymised or masked data; production data is not used for testing (Page 3).</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
     </row>
@@ -3889,35 +4103,40 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>🟡</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Section 4.1.3 Reporting Information Assets mentions yearly review of files shared externally and cleanup procedures to prevent data breaches. Section 5.1.4 IT Security prohibits unauthorized file sharing and mandates reporting of security violations. No explicit technical DLP controls described.</t>
+          <t>Section 4 Asset Classification and Control includes yearly review of files shared externally and cleanup procedures to prevent data leakage. Section 5.1.4 IT Security policy prohibits unauthorized sharing and mandates reporting of security violations.</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>4.1.3 Reporting Information Assets; 5.1.4 IT Security (Information Security Policy [Internal].docx)</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>Lack of explicit technical data leakage prevention controls or tools described.</t>
-        </is>
-      </c>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>Implement and document technical data leakage prevention controls and monitoring to detect and prevent unauthorized data exfiltration.</t>
-        </is>
-      </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+          <t>4.1.3 Reporting Information Assets. If information is stored in a cloud solution like Google Drive or Microsoft OneDrive Asset Owners and/or their designees should yearly review files shared with external parties. A cleanup procedure could be a measurement if too much information is shared outside our company.
+5.1.4 IT Security - Users are responsible for the security of their own PC. All file sharing should be enabled through appropriate directories on Google Drive, and sharing folders on individual computers is prohibited.</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>Management Review Team Meeting E-WISE 2025 [Restricted].docx.pdf</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>Data leakage prevention includes yearly review of files shared externally and prohibition of unauthorized sharing (Page 12).</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
     </row>
@@ -3949,22 +4168,38 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Section 6.8 Backup &amp; Restoration Policy mandates periodic backups (daily preferred, weekly minimum), documented procedures, secure storage, off-site backups, periodic testing, and retention periods aligned with legal requirements.</t>
+          <t>Section 6.8 Backup &amp; Restoration Policy mandates periodic backups of critical information and systems, documented backup policies, secure storage, off-site backups, periodic testing of backups, disposal authorization, and restoration drills.</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>6.8 Backup &amp; Restoration Policy (Information Security Policy [Internal].docx)</t>
+          <t>6.8 Backup &amp; Restoration Policy (ISO 27001: 2013-A12.3, 2022-A8.13) All critical business information and critical systems must be backed-up periodically preferably daily but minimal weekly is required. Procedures must be in place to ensure smooth restoration and business continuity.
+6.8.4 The backed up media must be stored in a secure manner and must be kept in a Lockable Fire-resistant storage system or cloud solution.
+6.8.5 All critical backups must be maintained at an off-site location or cloud destination.
+6.8.6 The backup media and contents must be tested periodically.
+6.8.10 Restore Drill – A restoration drill must be performed on a periodic basis.</t>
         </is>
       </c>
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>Management Review Team Meeting E-WISE 2025 [Restricted].docx.pdf</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>Information backup policies mandate periodic backups, secure storage, off-site backups, and restoration drills (Pages 12-13).</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
     </row>
@@ -3996,30 +4231,44 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Business Continuity Plan E-WISE document defines recovery time objectives and alternative sites for critical activities. Section 6.15 Information security continuity requires a Business Continuity Plan. However, explicit technical redundancy controls for processing facilities are not detailed.</t>
+          <t>Business Continuity Plan (E-WISE) defines recovery plans, alternative sites, and order of recovery for activities. Backup and off-site storage are addressed. However, explicit technical redundancy measures for information processing facilities are not detailed.</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Business Continuity Plan E-WISE [Restricted].docx.pdf - Chapter 2 and 3; 6.15 Information security continuity (Information Security Policy [Internal].docx)</t>
+          <t>Business Continuity Plan E-WISE [Restricted].docx.pdf Sections 2.3 Appointments and authorities, 2.6 Sites and transportation, 2.7 Order of recovery for activities, and Appendix 6 Disaster Recovery Plans.
+6.8 Backup &amp; Restoration Policy includes off-site backups.
+6.15 Information security continuity mentions Business Continuity Plan requirement.</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>No explicit documented redundancy mechanisms or infrastructure details for information processing facilities.</t>
+          <t>No explicit documented technical redundancy controls (e.g., failover systems, clustering) described for information processing facilities.</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>Document and implement technical redundancy controls for critical information processing facilities to ensure availability and resilience.</t>
-        </is>
-      </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+          <t>Develop and document specific redundancy controls and infrastructure to ensure availability of critical information processing facilities.</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>Management Review Team Meeting E-WISE 2025 [Restricted].docx.pdf</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>Business Continuity Plan defines recovery plans and off-site storage; explicit technical redundancy measures are not detailed (Page 14).</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>Consider documenting explicit technical redundancy controls for information processing facilities.</t>
+        </is>
+      </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>🟡</t>
         </is>
       </c>
     </row>
@@ -4051,22 +4300,37 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Section 6.14 Logging and Audit Policy requires time synchronization, logging of all access from vendors, service providers, and internal users, secure storage and backup of logs, and exclusion of sensitive personal data from logs.</t>
+          <t>Section 6.14 Logging and Audit Policy mandates time synchronization, logging of all access from vendors, service providers, group companies and customers, secure storage and backup of logs, and exclusion of sensitive personal data from logs.</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>6.14 Logging and Audit Policy (Information Security Policy [Internal].docx)</t>
+          <t>6.14 Logging and Audit Policy (ISO 27001: 2013-A12.4.1, 2022-A8.15) All computing systems managed must synchronise time with a central time server.
+6.14.2 All access to Information systems from Vendors, Service providers, Reducate Group Companies and Customers must be logged.
+6.14.5 Logs must be backed up and stored in a secure manner for a predefined duration.
+6.14.6 No customer confidential information like date of birth, social security number, medical records and driving licence numbers must be recorded in the logs.</t>
         </is>
       </c>
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>Log retention (Internal).pdf</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>Logging and audit policy mandates time synchronization, logging of all access, secure storage and backup of logs (Pages 1-2).</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
     </row>
@@ -4098,22 +4362,35 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Section 9.1 Management of Information Security Incidents requires procedures for monitoring, detecting, analyzing, and reporting security events. Section 6.5 Security incident management defines responsibilities and procedures for incident detection and response.</t>
+          <t>Section 9.1 Management of Information Security Incidents defines procedures for monitoring, detecting, analysing, reporting, assessing, and handling information security events and incidents. Section 6.5 Security incident management details incident reporting, analysis, and review.</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>9.1 Management of Information Security Incidents; 6.5 Security incident management (Information Security Policy [Internal].docx)</t>
+          <t>9.1 Responsibilities and procedures (ISO 27001: 2022-A.8.16) Management procedures for information security incidents must be prepared including monitoring, detecting, analysing, reporting, assessment, and handling.
+6.5 Security incident management (ISO 27001: 2013-A16.1.1, 2022-A5.24) Security Incident management responsibilities and procedures should be established to ensure a quick, effective and orderly response to security incidents.</t>
         </is>
       </c>
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>Management Review Team Meeting E-WISE 2025 [Restricted].docx.pdf</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>Monitoring activities include procedures for detecting, analysing, reporting, and handling information security events and incidents (Pages 7-8).</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
     </row>
@@ -4155,12 +4432,24 @@
       </c>
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>Log retention (Internal).pdf</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>All computing systems synchronize time with a central time server to ensure accuracy of audit logs (Page 1).</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
     </row>
@@ -4188,7 +4477,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Privileged utility programs or software should be approved by the IT department or system administrator. Laptops and desktops are pre-installed by IT with no administrator privileges enabled.</t>
+          <t>Privileged utility programs or software should be approved by the IT department or system administrator; laptops/desktops have no admin privileges enabled.</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -4198,12 +4487,24 @@
       </c>
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>Management Review Team Meeting E-WISE 2025 [Restricted].docx.pdf</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>Privileged utility programs require approval; laptops/desktops have no admin privileges enabled (Page 8).</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
     </row>
@@ -4231,22 +4532,34 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Users may not load onto computers any software not provided by Reducate’s or group companies IT-department. Only licensed software owned by Reducate or Group Companies is allowed. Virus scanning and patching are mandatory.</t>
+          <t>Users may not load any software not provided by the IT department; only licensed software owned by Reducate or Group Companies is allowed; unauthorized software installation is prohibited.</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Section 5.1.4 IT Security - Users may not load onto computers any software not provided by Reducate’s or group companies IT-department. Section 6.10 End-point Security Policy - PCs not managed by Administrators are only allowed to install licensed software owned by Reducate or Group Companies. (Information Security Policy [Internal].docx)</t>
+          <t>Section 5.1.4 IT Security - Users may not load onto computers any software not provided by Reducate’s or group companies IT-department. Section 6.10 End-point Security Policy - PCs not managed by Administrators but by IT-Department personnel are only allowed to install licensed software which are owned by Reducate or Group Companies. Illegal or inappropriate software is not allowed. (Information Security Policy [Internal].docx)</t>
         </is>
       </c>
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>Management Review Team Meeting E-WISE 2025 [Restricted].docx.pdf</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>Users may not load unauthorized software; only licensed software owned by Reducate or Group Companies is allowed (Page 8).</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
     </row>
@@ -4274,22 +4587,34 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Section 5.3 Management of privileged access rights describes restricted assignment of privileged access based on minimum business need, authorization processes, and separation of privileged IDs from regular user IDs. Section 7.4 User Access Management includes formal authorization and audit of privileges.</t>
+          <t>Section 5.3 Management of privileged access rights describes formal authorization processes, minimum requirement assignment, segregation of privileged IDs from regular IDs, and record keeping of privileges.</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>5.3 Management of privileged access rights; 7.4 User Access Management (Information Security Policy [Internal].docx)</t>
+          <t>5.3 Management of privileged access rights (ISO 27001: 2013-A9.2.3, 2022-A8.2) The assignment of privileged access rights to the information system and service must be restricted and controlled by an authorization process that includes the following: (a) Assigning privileged access rights based on the minimum requirement for the users’ business roles (b) Maintaining the authorization processes and records of all assigned privileges (c) Assigning privileged access rights to user IDs different from those used for regular business activities</t>
         </is>
       </c>
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>Management Review Team Meeting E-WISE 2025 [Restricted].docx.pdf</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>Formal authorization processes for privileged access rights, segregation of privileged IDs, and record keeping are referenced (Page 8).</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>Provide explicit documented privileged access management procedures.</t>
+        </is>
+      </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>🟡</t>
         </is>
       </c>
     </row>
@@ -4321,22 +4646,34 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Network security is maintained by firewalls, access control, logging, encryption for public networks, and regular patching of network devices. Remote access is controlled and requires approval.</t>
+          <t>Network security is maintained by firewalls, access control, monitoring logs, encryption for public networks, and strict network connectivity approvals.</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Section 7.1 Network controls and 6.9 Network Security Policy detail responsibilities, firewall use, access control, logging, encryption, patching, and remote access controls. (Information Security Policy [Internal].docx)</t>
+          <t>Section 7.1 Network controls - Use of firewalls, authorization, access control, and monitoring logs. Encryption for data over public networks. Section 6.9 Network Security Policy - All connections to third party networks require approval, firewall use mandatory, traffic restrictions, LAN/WAN security, remote access controls, firewall configuration and patching requirements. (Information Security Policy [Internal].docx)</t>
         </is>
       </c>
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>Vendor risk assesment - Jumpcloud [Internal].docx.pdf</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>Network security maintained by firewalls, access control, monitoring logs, encryption for public networks, and strict network connectivity approvals (Page 7).</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
     </row>
@@ -4364,22 +4701,34 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Network services are secured by firewalls, access restrictions, logging, and encryption. Public access areas provide restricted LAN access via VPN. Network devices are hardened and monitored.</t>
+          <t>Network services are secured by access control, firewall rules, patch management, and monitoring; remote access is controlled and approved.</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Section 6.9 Network Security Policy and 7.1 Network controls describe firewall use, access restrictions, logging, VPN for public areas, and device hardening. (Information Security Policy [Internal].docx)</t>
+          <t>Section 6.9 Network Security Policy - Access to LAN/WAN devices restricted, unused ports shut, rogue access points blocked, remote access requires approval, firewall rules drop unauthorized packets, and logging is enforced. (Information Security Policy [Internal].docx)</t>
         </is>
       </c>
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>Vendor risk assesment - Jumpcloud [Internal].docx.pdf</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>Network services secured by access control, firewall rules, patch management, and monitoring; remote access is controlled and approved (Page 7).</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
     </row>
@@ -4412,17 +4761,29 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Section 7.2 Segregation in networks - firewalls must be installed and the network logically separated. (Information Security Policy [Internal].docx)</t>
+          <t>Section 7.2 Segregation in networks - Firewalls installed and logical separation of company network. (Information Security Policy [Internal].docx)</t>
         </is>
       </c>
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>Vendor risk assesment - Jumpcloud [Internal].docx.pdf</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>Company network is logically separated with firewalls to prevent unauthorized access from public or wireless networks (Page 7).</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
     </row>
@@ -4454,22 +4815,34 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Web filtering or URL filtering is implemented on firewalls, routers, or switches to block web traffic and protect against threats and enforce policies.</t>
+          <t>Web group filtering or URL filtering is implemented on firewalls, routers or switches to block web traffic and protect against threats.</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Section 6.9.39 Web group filtering or URL Filtering should be implemented on your firewall, routers or switches. (Information Security Policy [Internal].docx)</t>
+          <t>Section 6.9.39 Web group filtering or URL Filtering should be implemented on your firewall, routers or switches to block web traffic in order to protect against potential threats and enforce corporate or legal policies and regulations. (Information Security Policy [Internal].docx)</t>
         </is>
       </c>
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>Vendor risk assesment - Jumpcloud [Internal].docx.pdf</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>Web filtering or URL filtering is implemented on firewalls, routers or switches to block web traffic and protect against threats (Page 7).</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
     </row>
@@ -4502,17 +4875,29 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Chapter 10 Cryptography - HDD encryption, VPN encryption, wireless encryption, cloud app TLS requirements, and yearly TLS testing. (Information Security Policy [Internal].docx)</t>
+          <t>Chapter 10 Cryptography - HDD encryption for notebooks, VPN encryption standards, wireless encryption protocols, cloud applications require TLS 1.2 or higher, yearly TLS tests at SSLlabs. (Information Security Policy [Internal].docx)</t>
         </is>
       </c>
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>Vendor risk assesment - Jumpcloud [Internal].docx.pdf</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>Encryption is used for HDDs (Bitlocker, Filevault, Ecryptfs), VPN connections (IPSec with 3DES or AES-256), wireless networks (WPA/WPA2), and cloud applications (TLS 1.2+); annual TLS testing performed (Page 7).</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
     </row>
@@ -4540,22 +4925,34 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>SDLC policies and procedures are documented for in-house and outsourced development. Quality checks, contract reviews, and progress monitoring are required. Outsourced development must have licensing and IP rights agreed.</t>
+          <t>Documented SDLC policies and procedures exist for in-house and outsourced development; quality checks and reviews are performed; outsourcing contracts include security requirements.</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Section 8.1 Security in application development - documented SDLC, quality checks, contract requirements for outsourced development. (Information Security Policy [Internal].docx)</t>
+          <t>Section 8.1 Security in application development - Documented SDLC policies, review of external providers' SDLC, contract requirements for outsourced development, quality checks, periodic reviews. Section 3 Business partnership and Outsourcing - contracts with security clauses. (Information Security Policy [Internal].docx)</t>
         </is>
       </c>
       <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>4.4.1.6.1 System development life cycle [Confidential].pptx.pdf</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>Documented SDLC policies and procedures exist for in-house and outsourced development; quality checks and reviews are performed; outsourcing contracts include security requirements (Pages 3-5).</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
     </row>
@@ -4587,27 +4984,43 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Security requirements are identified and agreed prior to development. Access control, audit trails, data validation, and encryption are incorporated. Maximum data retention on public websites is limited.</t>
+          <t>Security requirements are identified and agreed prior to development; audit trails and access controls are implemented; data input is validated; encryption and privacy protections are applied.</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Section 8.1.23 - protections for authentication, transaction secrecy, privacy, encryption; 8.1.24 - max 14 days data retention on public websites. (Information Security Policy [Internal].docx)</t>
+          <t>Section 8.1.23 - Application forms and input fields ensure authentication, secrecy, privacy, and encryption. Section 8.1 Security in application development - Security requirements identified at requirements phase. (Information Security Policy [Internal].docx)</t>
         </is>
       </c>
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>4.4.1.6.1 System development life cycle [Confidential].pptx.pdf</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>Security requirements are identified and agreed prior to development; audit trails and access controls are implemented; data input is validated; encryption and privacy protections are applied (Pages 3-5).</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="inlineStr"/>
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
       <c r="B80" t="inlineStr">
         <is>
           <t>A.8 (Technological Controls)</t>
@@ -4615,12 +5028,12 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>A.8.27</t>
+          <t>A.8.28</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Secure systems architecture and engineering principles</t>
+          <t>Secure coding</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -4630,29 +5043,41 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Systems are hardened before commissioning, unnecessary services removed, IP restrictions applied, and secure communication protocols enforced.</t>
+          <t>Code is reviewed by skilled personnel other than the author; secure coding guidelines are followed; code repositories enforce access control and versioning.</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Section 6.12 Systems Security Policy - Unix systems hardened, minimal packages installed, IP restrictions, secure remote access via SSH/SFTP. (Information Security Policy [Internal].docx)</t>
+          <t>Section 8.1.18 - Code reviewed prior to release by skilled personnel other than the author; reviewed against secure coding guidelines. Section 8.1.17 - Code stored in secure repository enforcing access control and version control. (Information Security Policy [Internal].docx)</t>
         </is>
       </c>
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>4.4.1.6.1 System development life cycle [Confidential].pptx.pdf</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>Code is reviewed by skilled personnel other than the author; secure coding guidelines are followed; code repositories enforce access control and versioning (Pages 4-5).</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -4662,12 +5087,12 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>A.8.28</t>
+          <t>A.8.29</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Secure coding</t>
+          <t>Security testing in development and acceptance</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -4677,22 +5102,34 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Code is reviewed by skilled personnel other than the author against secure coding guidelines. Development code is stored in secure repositories with access control and versioning.</t>
+          <t>Application security testing is performed manually and automatically; PEN-tests are conducted annually or after significant changes; test environments mirror production; test data is anonymised.</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Section 8.1.17 and 8.1.18 - secure code repository with access control and versioning; code review prior to release. (Information Security Policy [Internal].docx)</t>
+          <t>Section 8.1.19-20 - Pre-production testing in test environment; manual and automated security testing; annual PEN-tests. Section 8.2 Application development PEN-test &amp; audits - PEN-tests with OWASP top 10, controlled environment, annual tests, fix timelines. (Information Security Policy [Internal].docx)</t>
         </is>
       </c>
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>4.4.1.6.1 System development life cycle [Confidential].pptx.pdf</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>Application security testing is performed manually and automatically; PEN-tests are conducted annually or after significant changes; test environments mirror production; test data is anonymised (Pages 3-5).</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
     </row>
@@ -4709,12 +5146,12 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>A.8.29</t>
+          <t>A.8.3</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Security testing in development and acceptance</t>
+          <t>Information access restriction</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -4724,31 +5161,39 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Pre-production testing occurs in test environments mirroring production. Application security testing includes manual and automated vulnerability scans (OWASP top 10). PEN-tests are performed annually or after significant changes.</t>
+          <t>Section 5.2 Information access restriction mandates access control based on need-to-know, business requirements, and classification scheme. Appendix 7.4 User Access Management is referenced for detailed procedures.</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Section 8.1.19 and 8.1.20 - testing in test environment; 8.2 Application development PEN-test &amp; audits - annual PEN-tests, controlled environment, fix timelines. (Information Security Policy [Internal].docx)</t>
+          <t>5.2 Information access restriction (ISO 27001: 2013-A9.4.1, 2022-A8.3) Access to individual information and information systems must be controlled with the access control policy in accordance with a “need-to-know” basis, the individual business requirement and information classification scheme. Please refer to “Appendix - 7.4 User Access Management”.</t>
         </is>
       </c>
       <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>Matrix rechten Zoho (Internal).pdf</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>Information access restriction is managed via role-based access in Zoho CRM and other systems with detailed rights and audit logs (Pages 1-10).</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
+      <c r="A83" t="inlineStr"/>
       <c r="B83" t="inlineStr">
         <is>
           <t>A.8 (Technological Controls)</t>
@@ -4756,12 +5201,12 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>A.8.3</t>
+          <t>A.8.30</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Information access restriction</t>
+          <t>Outsourced development</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -4771,27 +5216,43 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Section 5.2 Information access restriction mandates access control on a need-to-know basis aligned with business requirements and classification. Appendix 7.4 User Access Management supports formal access control processes.</t>
+          <t>Outsourced development requires contract agreements covering licensing, code ownership, and security; ISO certifications and PEN-tests are required; security policies are communicated to external providers.</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>5.2 Information access restriction; 7.4 User Access Management (Information Security Policy [Internal].docx)</t>
+          <t>Section 8.1.2 - Licensing and code ownership agreed in contract prior to project. Section 8.2.5 - Outsourced contractors require ISO certifications and PEN-tests. Section 3 Business partnership and Outsourcing - contracts with security clauses and awareness. (Information Security Policy [Internal].docx)</t>
         </is>
       </c>
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>4.4.1.6.1 System development life cycle [Confidential].pptx.pdf</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>Outsourced development requires contract agreements covering licensing, code ownership, and security; ISO certifications and PEN-tests are required; security policies are communicated to external providers (Pages 3-5).</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="inlineStr"/>
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
       <c r="B84" t="inlineStr">
         <is>
           <t>A.8 (Technological Controls)</t>
@@ -4799,12 +5260,12 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>A.8.30</t>
+          <t>A.8.31</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Outsourced development</t>
+          <t>Separation of development, test and production environments</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -4814,29 +5275,41 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Outsourced development requires contract agreements covering licensing, code ownership, IP rights, and security requirements. ISO certifications and PEN-tests are required for contractors.</t>
+          <t>Development, test, and production environments are separated with no shared components; access to development and test systems is restricted.</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Section 8.1.2 and 8.2.5 - licensing and IP rights agreed in contract; ISO certifications and PEN-tests required for outsourced contractors. (Information Security Policy [Internal].docx)</t>
+          <t>Section 8.1.14-15 - Development and test systems not in production; access restricted; environments separated. (Information Security Policy [Internal].docx)</t>
         </is>
       </c>
       <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>4.4.1.6.1 System development life cycle [Confidential].pptx.pdf</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>Development, test, and production environments are separated with no shared components; access to development and test systems is restricted (Pages 3-5).</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -4846,12 +5319,12 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>A.8.31</t>
+          <t>A.8.32</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Separation of development, test and production environments</t>
+          <t>Change management</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -4861,31 +5334,39 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Development, test, and production environments are separated with no shared components. Access to development and test systems is restricted.</t>
+          <t>Change management is documented with strict review, approval, and closure controls; all changes including emergency changes are documented and approved; configuration management is maintained and reviewed.</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Section 8.1.14 and 8.1.15 - development and test systems not in production; environments separated and access restricted. (Information Security Policy [Internal].docx)</t>
+          <t>Section 6.2 Operational change control - documented change management with review and approval. Section 6.3 Configuration Management - documented design and configuration, reviewed annually. Section 8.1.11-13 - Changes documented and approved. (Information Security Policy [Internal].docx)</t>
         </is>
       </c>
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>Management Review Team Meeting E-WISE 2025 [Restricted].docx.pdf</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>Change management is documented with strict review, approval, and closure controls; all changes including emergency changes are documented and approved; configuration management is maintained and reviewed (Pages 7-8).</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
+      <c r="A86" t="inlineStr"/>
       <c r="B86" t="inlineStr">
         <is>
           <t>A.8 (Technological Controls)</t>
@@ -4893,12 +5374,12 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>A.8.32</t>
+          <t>A.8.33</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Change management</t>
+          <t>Test information</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -4908,22 +5389,34 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Change management is documented with strict review, approval, and closure controls. All changes including emergency changes are documented and follow formal processes.</t>
+          <t>Test environments use limited, anonymised or masked data; production data is never used for testing; test data is removed before promotion to production.</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Section 6.2 Operational change control and 6.1 Documented Operating procedures - documented change management with formal approval and testing. Section 8.1.11 and 8.1.12 - all changes documented and subject to change processes. (Information Security Policy [Internal].docx)</t>
+          <t>Section 8.1.10 - Test environments have limited or anonymised data; Section 8.1.21 - Production data never used for testing; test data removed before production promotion. (Information Security Policy [Internal].docx)</t>
         </is>
       </c>
       <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>4.4.1.6.1 System development life cycle [Confidential].pptx.pdf</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>Test environments use limited, anonymised or masked data; production data is never used for testing; test data is removed before promotion to production (Page 3).</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
     </row>
@@ -4936,34 +5429,54 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>A.8.33</t>
+          <t>A.8.34</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Test information</t>
+          <t>Protection of information systems during audit testing</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>🟡</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Test environments use limited, anonymised or masked data. Production data, cardholder data, and personal data are never used for testing or development.</t>
+          <t>Security incident management and audit logging policies exist; however, explicit controls for protecting systems during audit testing are not detailed.</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Section 8.1.10 and 8.1.21 - test environments have limited or anonymised data; production and sensitive data not used for testing. (Information Security Policy [Internal].docx)</t>
-        </is>
-      </c>
-      <c r="H87" t="inlineStr"/>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+          <t>Section 6.5 Security incident management and 6.14 Logging and Audit Policy describe incident handling and logging but do not explicitly address protection during audit testing. (Information Security Policy [Internal].docx)</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>No explicit policy or procedures for protecting information systems during audit testing are described.</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>Develop and document specific controls and procedures to protect information systems during audit testing, including access restrictions, monitoring, and segregation of audit activities.</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>No explicit evidence found in provided documents.</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>No explicit controls for protecting information systems during audit testing are detailed.</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>Document and implement controls for protection during audit testing.</t>
+        </is>
+      </c>
       <c r="M87" t="inlineStr">
         <is>
           <t>❌</t>
@@ -4979,45 +5492,50 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>A.8.34</t>
+          <t>A.8.4</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Protection of information systems during audit testing</t>
+          <t>Access to source code</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>🟡</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Annual internal and external ISO audits are required. PEN-tests are performed in controlled environments. However, explicit policies on protection of systems during audit testing are not detailed.</t>
+          <t>Section 8.1.8 states access control should be implemented to restrict access to the program source library. Section 8.1.17 states development code is stored in a secure code repository enforcing access control and segregation of duties.</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Section 8.2.6 and 8.2.7 - yearly ISO internal and external audits; PEN-tests in controlled testing environments. (Information Security Policy [Internal].docx)</t>
-        </is>
-      </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>No explicit mention of controls to protect information systems during audit testing to prevent disruption or data exposure.</t>
-        </is>
-      </c>
-      <c r="I88" t="inlineStr">
-        <is>
-          <t>Define and document procedures to protect information systems during audit and penetration testing, including scope, timing, and safeguards to prevent impact on production systems.</t>
-        </is>
-      </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+          <t>8.1.8 Access control should be implemented to restrict access to the program source library.
+8.1.17 Development code is stored in a secure code repository that enforces and meets the requirements of the access control policy and segregation of duty.</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>4.4.1.6.1 System development life cycle [Confidential].pptx.pdf</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>Access control to source code is enforced via private repositories with branch protection rules and approval requirements (Pages 4-5).</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
     </row>
@@ -5030,12 +5548,12 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>A.8.4</t>
+          <t>A.8.5</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Access to source code</t>
+          <t>Secure authentication</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -5045,27 +5563,44 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Section 8.1.8 states access control should be implemented to restrict access to the program source library. Section 8.1.17 states development code is stored in a secure repository enforcing access control and segregation of duties.</t>
+          <t>Section 4.1 Use of secret authentication information such as passwords defines password confidentiality, avoidance of insecure storage, and quality requirements. Section 7.1 and 7.3 detail authentication requirements including unique user IDs, password policies, two-factor authentication, session timeouts, and password management.</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>8.1.8 Access control should be implemented to restrict access to the program source library; 8.1.17 Development code is stored in a secure code repository (Information Security Policy [Internal].docx)</t>
+          <t>4.1 Use of secret authentication information such as passwords (ISO 27001: 2013-A9.3.1, 2022-A5.17)
+7.1 Authentication and 7.3 Password Policy detail secure authentication requirements including password complexity, change policies, and two-factor authentication (7.2.2).</t>
         </is>
       </c>
       <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>Kopie van BS02 E-Wise Wachtwoordbeleid [Internal].pdf</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>Password confidentiality, complexity, change requirements, two-factor authentication, session timeouts, and password management are detailed (Pages 2-8).</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="inlineStr"/>
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
       <c r="B90" t="inlineStr">
         <is>
           <t>A.8 (Technological Controls)</t>
@@ -5073,12 +5608,12 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>A.8.5</t>
+          <t>A.8.6</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Secure authentication</t>
+          <t>Capacity management</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -5088,22 +5623,36 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Section 4.1 Use of secret authentication information outlines password confidentiality, avoidance of insecure storage, and quality password selection. Section 7.1 Authentication and 7.3 Password Policy detail unique user IDs, password complexity, change requirements, and two-factor authentication. Appendix 7.3 Password Policy is referenced.</t>
+          <t>Section 3.3.2 Contract Management and 3.3.1 Business Partnership Contracts include capacity utilisation monitoring and planning. Section 6.13.13 mentions monitoring system and audit logs for capacity thresholds. Section 6.8 Backup &amp; Restoration Policy includes monitoring disk space utilization.</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>4.1 Use of secret authentication information; 7.1 Authentication; 7.3 Password Policy (Information Security Policy [Internal].docx)</t>
+          <t>3.3.1 Business Partnership Contracts includes capacity utilisation monitoring and planning.
+6.13.13 System and audit logs are to be monitored regularly to alert of any capacity thresholds being crossed.
+6.7.5 Disk space utilisation must be periodically or continuously monitored.</t>
         </is>
       </c>
       <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>Management Review Team Meeting E-WISE 2025 [Restricted].docx.pdf</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>Capacity management is referenced in contract management and monitoring system logs (Pages 7-8).</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>Provide explicit capacity management procedures and monitoring reports.</t>
+        </is>
+      </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>🟡</t>
         </is>
       </c>
     </row>
@@ -5120,12 +5669,12 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>A.8.6</t>
+          <t>A.8.7</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Capacity management</t>
+          <t>Protection against malware</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -5135,22 +5684,35 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Section 3.3.2 Contract Management includes monitoring SLA metrics and capacity utilization. Section 6.13.13 Database Security Policy requires monitoring system and audit logs for capacity thresholds. Section 6.8 Backup &amp; Restoration Policy includes monitoring backup storage and disk space utilization.</t>
+          <t>Section 6.1 Controls against malware details prevention, detection, and recovery measures including blocking unauthorized software, installing/updating antivirus, and proxy filtering. Section 6.6 Protection against malicious software elaborates antivirus installation, real-time scanning, update management, and incident reporting.</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>3.3.2 Contract Management; 6.13.13 Database Security Policy; 6.8 Backup &amp; Restoration Policy (Information Security Policy [Internal].docx)</t>
+          <t>6.1 Controls against malware such as viruses (ISO 27001: 2013-A12.2.1, 2022-A8.7)
+6.6 Protection against malicious software (ISO 27001: 2013-A12.2.1, 2022-A8.7) with detailed antivirus policies and procedures.</t>
         </is>
       </c>
       <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>Management Review Team Meeting E-WISE 2025 [Restricted].docx.pdf</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>Controls against malware including antivirus installation, updates, and incident reporting are referenced (Pages 7-8).</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
     </row>
@@ -5167,12 +5729,12 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>A.8.7</t>
+          <t>A.8.8</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Protection against malware</t>
+          <t>Management of technical vulnerabilities</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -5182,22 +5744,35 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Section 6.1 Controls against malware specify prevention, detection, and recovery measures including anti-virus software installation and updates, blocking unauthorized software, and proxy filtering. Section 6.6 Protection against malicious software details antivirus requirements, real-time scanning, update logs, and virus incident handling.</t>
+          <t>Section 6.2 Management of technical vulnerabilities describes processes for acquiring vulnerability information, identification, evaluation, testing, and deployment of patches. Section 6.5 Security incident management includes subscription to vulnerability notifications.</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>6.1 Controls against malware; 6.6 Protection against malicious software (Information Security Policy [Internal].docx)</t>
+          <t>6.2 Management of technical vulnerabilities, such as patch management (ISO 27001: 2013-A12.6.1, 2022-A8.8)
+6.5.2 IT Security function subscriptions to vulnerability and virus breakout notification mechanisms.</t>
         </is>
       </c>
       <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>Vendor risk assesment - Jumpcloud [Internal].docx.pdf</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>Management of technical vulnerabilities includes subscription to vulnerability notifications and patch management (Page 7).</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
     </row>
@@ -5214,12 +5789,12 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>A.8.8</t>
+          <t>A.8.9</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Management of technical vulnerabilities</t>
+          <t>Configuration management</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -5229,69 +5804,36 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Section 6.2 Management of technical vulnerabilities describes processes for acquiring vulnerability information, assessing relevance, testing patches, and deployment. Section 8.2 Application development PEN-test &amp; audits require annual PEN-tests and timely remediation of vulnerabilities.</t>
+          <t>Section 6.3 Configuration Management requires documentation of design and configuration of key IT systems, annual review, and updates upon significant changes. Section 6.9 Network Security Policy includes configuration change logging and backup.</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>6.2 Management of technical vulnerabilities; 8.2 Application development PEN-test &amp; audits (Information Security Policy [Internal].docx)</t>
+          <t>6.3 Configuration Management (ISO 27001: 2013-A12.1.2, 2022-A8.32, 2022-A8.9)
+6.9.17 All changes to firewall configuration must be logged and the tool should ensure log integrity.
+6.9.35 A backup of all networking and security devices managed must be taken before and after any major configuration changes.</t>
         </is>
       </c>
       <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>Management Review Team Meeting E-WISE 2025 [Restricted].docx.pdf</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>Configuration management requires documentation and review of key IT systems; change logging and backups are maintained (Pages 7-8).</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>❌</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>A.8 (Technological Controls)</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>A.8.9</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>Configuration management</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>✅</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>Section 6.3 Configuration Management requires documentation of design and configuration of key IT systems, annual review, and updates upon significant changes. Section 6.9 Network Security Policy includes backup of configuration files before and after changes.</t>
-        </is>
-      </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>6.3 Configuration Management; 6.9.35 Backup of all networking and security devices managed must be taken before and after any major configuration changes (Information Security Policy [Internal].docx)</t>
-        </is>
-      </c>
-      <c r="H94" t="inlineStr"/>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr">
-        <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
     </row>

--- a/outputs/analysis.xlsx
+++ b/outputs/analysis.xlsx
@@ -503,7 +503,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>4,5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -528,7 +528,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>The document contains a comprehensive Information Security Policy detailing the scope, responsibilities, enforcement, and management commitment. It defines baseline control measures and minimum controls to prevent security incidents and legal issues.</t>
+          <t>The document contains a comprehensive Information Security Policy detailing the scope, responsibilities, enforcement, and management commitment to information security based on ISO27001 standards.</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -545,17 +545,17 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Information Security Policy is referenced as a document relevant to the management review meeting (Page 16). The policy is shared with all employees and information security goals are communicated and added to training (Page 14).</t>
+          <t>Information security policy is shared with all employees; information security goals are communicated and added to training; policy documentation is reviewed and updated as part of management review.</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Include explicit excerpts or summaries of the Information Security Policy in evidence to demonstrate comprehensiveness and enforcement details.</t>
+          <t>None</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>🟡</t>
+          <t>✅</t>
         </is>
       </c>
     </row>
@@ -599,22 +599,22 @@
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Kopie van BS02 E-Wise Wachtwoordbeleid [Internal].pdf</t>
+          <t>No direct evidence found in provided documents.</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Acceptable use policies are defined in password policies and multi-factor authentication settings, including lockout after failed attempts and password complexity (Pages 2-8).</t>
+          <t>No explicit reference to acceptable use policies or disciplinary actions for misuse found in evidence text.</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Include explicit Acceptable Use Policy document or summary.</t>
+          <t>Include acceptable use policy documentation and evidence of enforcement.</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>🟡</t>
+          <t>❌</t>
         </is>
       </c>
     </row>
@@ -642,12 +642,12 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Procedures require return of company assets (laptops, mobile devices) upon termination of employment, with documented processes in place.</t>
+          <t>Documented procedures exist for return of company assets upon termination of employment, including laptops, mobile phones, and other equipment.</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Information Security Policy [Internal].docx - Section 2.4 Termination of employment; Section 2.1.2 Equipment usage</t>
+          <t>Information Security Policy [Internal].docx - Section 2.4 Termination of employment</t>
         </is>
       </c>
       <c r="H4" t="inlineStr"/>
@@ -659,7 +659,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Procedures require return of company assets such as keys, tags, and devices upon termination, documented in offboarding checklist (Page 1).</t>
+          <t>Checklist includes 'Inleveren sleutel en tag' and 'Afmelden Office' and 'Computer deinstalleren' indicating documented procedures for return of assets upon termination.</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -701,34 +701,34 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Information classification schemes are established based on value, legal requirements, and handling caution. Asset owners classify and manage information assets.</t>
+          <t>Information classification schemes are prepared based on value, legal requirements, and handling caution. Asset owners classify and manage information assets accordingly.</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Information Security Policy [Internal].docx - Chapter 3 Management of Information - 3.1 Classification of information; Section 1.5 Roles and Responsibilities - IT Asset Managers</t>
+          <t>Information Security Policy [Internal].docx - Chapter 3 Management of Information - 3.1 Classification of information; Chapter 4 Asset Classification and Control</t>
         </is>
       </c>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Management Review Team Meeting E-WISE 2025 [Restricted].docx.pdf</t>
+          <t>No direct evidence found in provided documents.</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Information classification is referenced in risk assessments and policy reviews, with controls for confidentiality and data protection discussed (Pages 7-14).</t>
+          <t>No explicit information classification scheme or asset owner responsibilities found in evidence text.</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Provide explicit classification scheme documentation and evidence of asset owner classification.</t>
+          <t>Provide documented classification schemes and evidence of implementation.</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>🟡</t>
+          <t>❌</t>
         </is>
       </c>
     </row>
@@ -756,29 +756,29 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Information must be labelled and handled according to classification schemes. Guidelines for labelling and handling are provided in appendices.</t>
+          <t>Information must be labelled and handled according to classification schemes. Guidelines for labelling and handling are provided.</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Information Security Policy [Internal].docx - Chapter 3 Management of Information - 3.2 Labelling and handling of information; Appendix 4 Asset Classification and Control</t>
+          <t>Information Security Policy [Internal].docx - Chapter 3 Management of Information - 3.2 Labelling and handling of information; Chapter 4 Asset Classification and Control - 4.1 Information Labelling and Handling</t>
         </is>
       </c>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr">
         <is>
-          <t>No explicit evidence found in provided documents.</t>
+          <t>No direct evidence found in provided documents.</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>No direct mention of labelling of information according to classification schemes.</t>
+          <t>No explicit labelling guidelines or evidence of labelling information according to classification found.</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Document and provide evidence of labelling guidelines and their application.</t>
+          <t>Include labelling procedures and evidence of application.</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
@@ -827,22 +827,22 @@
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Vendor risk assesment - Jumpcloud [Internal].docx.pdf</t>
+          <t>No direct evidence found in provided documents.</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>External electronic communications and information transfer controls are implied through vendor communication and security posture (Pages 5-7).</t>
+          <t>No explicit controls or approvals for electronic messaging or information transfer found in evidence text.</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Provide explicit policy or procedure excerpts on information transfer controls and approval processes.</t>
+          <t>Document and provide evidence of controlled information transfer procedures.</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>🟡</t>
+          <t>❌</t>
         </is>
       </c>
     </row>
@@ -870,7 +870,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Access control policies are defined, including user registration, de-registration, privileged access management, and access restrictions based on need-to-know.</t>
+          <t>Access control policies are defined, including user registration, de-registration, access restriction, privileged access management, and periodic audits.</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -887,12 +887,12 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Access control issues are discussed in audit results and risk assessments; centralised password manager implemented; privileged access management is ongoing (Pages 5-8).</t>
+          <t>Centralised password manager 'Zoho Vault' implemented; audit results mention one remaining point concerning A.5.15; access rights and segregation of duties discussed in relation to Zoho rights.</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Provide formal access control policy document and evidence of enforcement.</t>
+          <t>Clarify and resolve remaining audit points related to access control.</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
@@ -925,7 +925,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>User identities are uniquely assigned, managed, and disabled timely upon termination. Common and anonymous IDs are controlled.</t>
+          <t>User identities are managed through formal registration and de-registration processes with unique user IDs and controls on shared or anonymous IDs.</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -937,22 +937,22 @@
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Kopie van BS02 E-Wise Wachtwoordbeleid [Internal].pdf</t>
+          <t>No direct evidence found in provided documents.</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>User identities are uniquely assigned and managed with password policies and timely disabling upon termination implied by offboarding checklists (Pages 2-9).</t>
+          <t>No explicit user identity management process or registration/deregistration procedures found.</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Include explicit identity management policy and evidence of timely deactivation.</t>
+          <t>Provide documented identity management procedures.</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>🟡</t>
+          <t>❌</t>
         </is>
       </c>
     </row>
@@ -980,7 +980,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Password policies are defined including complexity, confidentiality, change requirements, and secure handling. Password resets require identity verification.</t>
+          <t>Password policies and secret authentication information handling are defined, including password complexity, confidentiality, change management, and secure storage.</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -997,7 +997,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Password policies include complexity, history, expiration, lockout, and reset requirements with identity verification (Pages 2-8).</t>
+          <t>Password policies enforce minimum length (12-14 characters), complexity (uppercase, lowercase, numbers, special characters), password history, expiration (120-180 days), lockout after 10 failed attempts, and two-factor authentication enabled for all users.</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -1035,12 +1035,12 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Access rights are assigned based on business needs, with formal authorization and periodic audits. Privileged access is restricted and controlled.</t>
+          <t>Access rights are assigned based on business needs with formal authorization, periodic review, and revocation upon termination or role change.</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Information Security Policy [Internal].docx - Chapter 5 Access Control - 5.2 Information access restriction, 5.3 Management of privileged access rights; Chapter 7 Access Control policy - 7.2 Authorisation and Access Control, 7.4 User Access Management</t>
+          <t>Information Security Policy [Internal].docx - Chapter 5 Access Control - 5.1 User registration and de-registration; Chapter 7 Access Control policy - 7.2 Authorisation and Access Control; 7.4 User Access Management</t>
         </is>
       </c>
       <c r="H11" t="inlineStr"/>
@@ -1052,17 +1052,17 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Access rights assignment and periodic audits are implied through risk assessments and audit results (Pages 7-8).</t>
+          <t>Access rights assigned based on business needs with formal authorization; periodic reviews discussed in management review; Zoho rights and financial system rights used for segregation of duties.</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Provide formal documented process for access rights assignment and audit evidence.</t>
+          <t>None</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>🟡</t>
+          <t>✅</t>
         </is>
       </c>
     </row>
@@ -1094,7 +1094,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Contracts and SLAs with external service providers are required, including security clauses and access controls. Credentials and references are verified before engagement. Access is authorized and limited.</t>
+          <t>Contracts and SLAs with external service providers are required, including verification of credentials, NDA agreements, access control, and security policy awareness.</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1106,12 +1106,12 @@
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Vendor risk assesment - Jumpcloud [Internal].docx.pdf</t>
+          <t>Management Review Team Meeting E-WISE 2025 [Restricted].docx.pdf</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Contracts and SLAs with Jumpcloud include security clauses; credentials and references are verified; access controls such as MFA are in place (Pages 1-7).</t>
+          <t>Third-party management is operating effectively; vendor risk assessments are performed; third-party register is up to date; contracts and audits are reviewed.</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1153,7 +1153,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Roles and responsibilities are clearly defined for CEO, ISSC, ISWG, Operational Director, IT Asset Managers, Managers, Users, and Executive responsibilities. Competences and accountability are specified.</t>
+          <t>Roles and responsibilities are clearly defined for CEO, ISSC, ISWG, Operational Directors, IT Asset Managers, Managers, Users, and Executive responsibilities with competencies and duties outlined.</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1170,17 +1170,17 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Roles such as Managing Director, System Administrator, Project Manager/ISMS Responsible, and others are listed as attendees with responsibilities in meetings (Page 2). Responsibilities and accountability are implied through meeting participation and task assignments.</t>
+          <t>Attendees list includes Managing Director, ISMS Responsible, System Administrator, Finance Manager, and Project Manager, indicating defined roles; responsibilities discussed in meeting; roles such as ISSC and ISWG referenced throughout.</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Provide a formal documented roles and responsibilities matrix or policy excerpt to clearly define roles and accountabilities.</t>
+          <t>None</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>🟡</t>
+          <t>✅</t>
         </is>
       </c>
     </row>
@@ -1217,19 +1217,19 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Section 3.1 Business Partnership Security; 3.1.3 All outsourcing to External Service Providers must be formalised through a contract; 3.1.5 External Service Providers must be made aware of relevant parts of Reducate security policy before signing the contract; 3.3 Business Partnership Contracts; 3.3.1 Contract clauses include access control, incident handling, change management, audits, data protection (Information Security Policy [Internal].docx).</t>
+          <t>Section 3.1 Business Partnership Security; 3.1.3 All outsourcing to External Service Providers must be formalised through a contract; 3.1.5 External Service Providers must be made aware of relevant parts of Reducate security policy; 3.3 Business Partnership Contracts; 3.3.1 Contract clauses including access control, incident handling, change management, audits, data protection; 3.3.2 Contract management responsibilities. (Information Security Policy [Internal].docx)</t>
         </is>
       </c>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Vendor risk assesment - Jumpcloud [Internal].docx.pdf</t>
+          <t>Management Review Team Meeting E-WISE 2025 [Restricted].docx.pdf</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Risk assessments and contract management are documented; security requirements and compliance are verified before engagement (Pages 1-7).</t>
+          <t>Supplier contracts include security requirements; risk assessments before contract signing discussed; compliance with Reducate's security policy monitored.</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1271,34 +1271,34 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>ICT supply chain risks are managed by verifying credentials of external providers, maintaining a list of key IT suppliers, and ensuring compliance with security policies and GDPR.</t>
+          <t>ICT supply chain risks are managed by verifying credentials of external service providers, maintaining a list of key IT suppliers, and ensuring compliance with security policies and contracts.</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Section 3.1.1 Credentials verification; 3.1.9 Key IT-suppliers list maintained and reviewed yearly; 5.1.1 Data Protection and GDPR compliance; 3.1 Business Partnership Security (Information Security Policy [Internal].docx).</t>
+          <t>Section 3.1.1 Credentials of potential External Service Providers must be verified; 3.1.9 Key IT-suppliers list maintained and reviewed yearly; 5.1.1 Data Protection and GDPR compliance with external vendors; 3.1 Business Partnership Security (Information Security Policy [Internal].docx)</t>
         </is>
       </c>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Vendor risk assesment - Jumpcloud [Internal].docx.pdf</t>
+          <t>Management Review Team Meeting E-WISE 2025 [Restricted].docx.pdf</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Verification of credentials of external providers and maintenance of key IT suppliers list is implied through vendor risk assessment process (Pages 1-7).</t>
+          <t>ICT supply chain risks managed by verifying credentials of external service providers; key IT suppliers list maintained; compliance ensured.</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Provide explicit ICT supply chain management documentation.</t>
+          <t>None</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>🟡</t>
+          <t>✅</t>
         </is>
       </c>
     </row>
@@ -1330,24 +1330,24 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Contracts are managed by responsible persons who perform periodic reviews of supplier performance using SLA metrics and compliance checks; changes require approval and are monitored.</t>
+          <t>Supplier contracts are managed by responsible persons with periodic reviews of performance using SLA metrics, quality, timeliness, communication, compliance, and security posture.</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Section 3.3.2 Contract Management; Commentary on periodic reviews and performance indicators; Change management procedures referenced in 2.1.8 and 6.2 (Information Security Policy [Internal].docx).</t>
+          <t>Section 3.3.2 Contract Management - responsible person allocated; periodic reviews on performance using SLA metrics and other indicators; 3.3 Business Partnership Contracts (Information Security Policy [Internal].docx)</t>
         </is>
       </c>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Vendor risk assesment - Jumpcloud [Internal].docx.pdf</t>
+          <t>Management Review Team Meeting E-WISE 2025 [Restricted].docx.pdf</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Contracts are managed by responsible persons who perform periodic reviews of supplier performance using SLA metrics and compliance checks (Page 3).</t>
+          <t>Supplier contracts managed by responsible persons; periodic reviews of performance using SLA metrics, quality, timeliness, communication, compliance, and security posture.</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -1389,29 +1389,29 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Use of cloud services requires approval by IT-Manager and ISWG; access is controlled per company policies; cloud data sharing is reviewed yearly; encryption and security standards are applied.</t>
+          <t>Use of cloud services must be approved by IT-Manager and ISWG; access restricted per access control policies; yearly review of files shared externally; encryption and secure communication protocols enforced.</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Section 7.5 Guideline for Usage of Public Cloud Services; 4.1.3 Reporting Information Assets stored in cloud; 10.5-10.7 Cryptography for cloud applications; 5.1.1 GDPR and data protection; 3.1 Business Partnership Security (Information Security Policy [Internal].docx).</t>
+          <t>Section 7.5 Guideline for Usage of Public Cloud Services; 4.1.3 Reporting Information Assets - yearly review of files shared externally; 10.5 Cloud applications must have TLS 1.2 or higher; 10.6 Yearly TLS security test; 10.7 Approved SSL providers; 5.1.1 Data Protection and GDPR compliance; 5.1.4 File sharing only via approved directories (Information Security Policy [Internal].docx)</t>
         </is>
       </c>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr">
         <is>
-          <t>No explicit evidence found in provided documents.</t>
+          <t>No direct evidence found in provided documents.</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>No direct mention of cloud services approval, access control, or encryption policies.</t>
+          <t>No explicit approval process or yearly review of cloud services found in evidence text.</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Document and provide evidence of cloud services security controls and approvals.</t>
+          <t>Document cloud service approval and review procedures.</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
@@ -1448,24 +1448,24 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Incident management procedures are established including monitoring, detection, analysis, reporting, and recovery; IT Security function maintains subscriptions to vulnerability notifications; incidents are reported and reviewed regularly.</t>
+          <t>Incident management procedures are established including monitoring, detection, analysis, reporting, assessment, handling, recovery, and reporting to parent companies; IT Security function maintains subscriptions to vulnerability notifications; monthly ISSC incident briefings.</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Chapter 9 Management of Information Security Incidents; Section 6.5 Security incident management; 9.1 Responsibilities and procedures; Appendix 6.5 Security incident management (Information Security Policy [Internal].docx).</t>
+          <t>Chapter 9 Management of Information Security Incidents; Section 9.1 Responsibilities and procedures; 6.5 Security incident management; 6.5.1 to 6.5.7 detailed incident management controls; monthly ISSC briefings; Appendix - 6.5 Security incident management (Information Security Policy [Internal].docx)</t>
         </is>
       </c>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Vendor risk assesment - Jumpcloud [Internal].docx.pdf</t>
+          <t>Management Review Team Meeting E-WISE 2025 [Restricted].docx.pdf</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Incident management procedures including monitoring, detection, reporting, and recovery are referenced; IT Security maintains subscriptions to vulnerability notifications (Pages 6-7).</t>
+          <t>Incident management procedures established; IT Security function maintains subscriptions to vulnerability notifications; monthly ISSC incident briefings include incident discussions.</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -1507,24 +1507,24 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Procedures exist for assessment and classification of information security events; decisions on incident classification and escalation are documented and managed by IT Security and ISSC.</t>
+          <t>Procedures exist for assessment and classification of information security events as incidents; IT Security function analyzes incidents and uses CAPA forms; decisions on incident classification and response are documented.</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Chapter 9 Section 9.1(b) Procedures for assessment and decision of information security events; 6.5.5 Procedures to analyse and identify cause of incidents; 6.5.6 Documentation and review of emergency actions (Information Security Policy [Internal].docx).</t>
+          <t>Chapter 9 Section 9.1(b) Procedures for assessment and decision of information security events; 6.5.5 Procedures to analyze and identify cause of incidents; CAPA forms usage; 6.5.6 Documentation and review of emergency actions; Appendix - 6.5 Security incident management (Information Security Policy [Internal].docx)</t>
         </is>
       </c>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Vendor risk assesment - Jumpcloud [Internal].docx.pdf</t>
+          <t>Management Review Team Meeting E-WISE 2025 [Restricted].docx.pdf</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Procedures for assessment and classification of information security events and escalation are documented and managed by IT Security and ISSC (Page 7).</t>
+          <t>Procedures exist for assessment and classification of information security events; CAPA forms used; incident analysis and documentation performed.</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -1566,24 +1566,24 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Incident response procedures include containment, eradication, recovery, communication, and reporting to parent companies; IT Security function coordinates response and informs ISSC monthly.</t>
+          <t>Incident response procedures include containment, eradication, recovery, reporting to ISSC and parent companies; emergency actions documented and reviewed; users instructed to report incidents promptly.</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Chapter 9 Section 9.1(c) Procedures for handling incidents; 6.5.1-6.5.6 Incident management responsibilities and procedures; 6.5.3 ISSC briefing on incidents monthly (Information Security Policy [Internal].docx).</t>
+          <t>Chapter 9 Section 9.1(c) Procedures for handling information security incidents; 6.5.1 to 6.5.7 Security incident management; 5.1.4 Users must report security violations immediately; Appendix - 6.5 Security incident management (Information Security Policy [Internal].docx)</t>
         </is>
       </c>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Vendor risk assesment - Jumpcloud [Internal].docx.pdf</t>
+          <t>Management Review Team Meeting E-WISE 2025 [Restricted].docx.pdf</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Incident response procedures include containment, eradication, recovery, communication, and reporting; IT Security coordinates response and informs ISSC monthly (Page 7).</t>
+          <t>Incident response procedures include containment, eradication, recovery, reporting to ISSC and parent companies; emergency actions documented and reviewed; users instructed to report incidents promptly.</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -1625,24 +1625,24 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Post-incident reviews and CAPA forms are used to analyze causes and implement corrective actions; yearly simulations are recommended to improve response effectiveness.</t>
+          <t>Yearly simulations and reviews of incidents are conducted; CAPA forms used to document corrective actions; ISSC reviews incidents and takes remediation actions; lessons learned incorporated into ISMS.</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>6.5.5 Use of CAPA forms for analysis; commentary on yearly simulations; 6.5.6 Documentation and review with ISSC or ISWG (Information Security Policy [Internal].docx).</t>
+          <t>6.5.5 Incident analysis and cause identification; yearly simulation recommended; 6.5.6 Documentation and review with ISSC or ISWG; 5.1.2 Data incidents and GDPR improvements discussed biannually; Chapter 10 Section 10.1 Review of information security; Appendix - 6.5 Security incident management (Information Security Policy [Internal].docx)</t>
         </is>
       </c>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr">
         <is>
-          <t>#18- CAPA-form [Confidential] - possible confidential sales data leaked during offboarding of employee .docx.pdf</t>
+          <t>Management Review Team Meeting E-WISE 2025 [Restricted].docx.pdf</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Post-incident reviews and CAPA forms are used to analyze causes and implement corrective actions; yearly simulations are recommended (Page 2).</t>
+          <t>Yearly simulations and reviews of incidents conducted; CAPA forms used for corrective actions; ISSC reviews incidents and takes remediation actions; lessons learned incorporated into ISMS.</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -1684,12 +1684,12 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Evidence such as audit trails and incident records are collected and maintained in issue tracking tools to support analysis, reporting, and reconstruction of events.</t>
+          <t>Evidence collection procedures include audit trails, issue tracking, documentation of incident steps; evidence retained for analysis, reporting, and reconstruction; CAPA forms used.</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>6.5.5 Collection of evidence including audit trails; issue tracking tool usage for incident documentation (Information Security Policy [Internal].docx).</t>
+          <t>6.5.5 Collection of evidence such as audit trails; all evidence captured in issue tracking tool; documentation of emergency actions; Appendix - 6.5 Security incident management (Information Security Policy [Internal].docx)</t>
         </is>
       </c>
       <c r="H22" t="inlineStr"/>
@@ -1701,7 +1701,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>CAPA and incident evidence is collected and filed with operational director; evidence management is referenced in incident and CAPA logs (Page 10).</t>
+          <t>CAPA made and improvement implemented regarding evidence collection in incident procedures; audit trails and documentation referenced.</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -1739,12 +1739,12 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Business Continuity Plan defines management of incidents and recovery priorities to maintain information security during disruptions.</t>
+          <t>Business Continuity Plan defines management of incidents and recovery within deadlines; preservation of damaged assets; assessment and action plans; communication and resource allocation during disruptions.</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Business Continuity Plan E-WISE [Restricted].docx.pdf Chapter 2 Business Continuity Plan; Section 2.7 Order of recovery for activities; Section 3 Restoring and resuming business activities (Business Continuity Plan E-WISE).</t>
+          <t>Business Continuity Plan E-WISE [Restricted].docx.pdf; Chapter 2 Business Continuity Plan; Sections 2.1 to 3.3; Incident Response Plan; Disaster Recovery Plan; Communication; Resource management; Preservation of damaged assets; Action plans (Business Continuity Plan E-WISE [Restricted].docx.pdf)</t>
         </is>
       </c>
       <c r="H23" t="inlineStr"/>
@@ -1756,7 +1756,7 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Business Continuity Plan is referenced with restore tests successfully done; recovery priorities and incident management are discussed (Pages 12-14).</t>
+          <t>Business Continuity Plan includes restore tests; restore tests successfully done; requirements for restore tests to be updated in 2025.</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -1798,7 +1798,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Segregation of duties is mandated when assigning responsibilities to reduce risk of misuse. Monitoring and audit trails are recommended where segregation is difficult.</t>
+          <t>Segregation of duties is mandated when assigning responsibilities, with additional controls such as monitoring and audit trails recommended where segregation is difficult.</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1815,17 +1815,17 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Segregation of duties is mentioned in audit results and risk mapping related to Zoho rights and financial system rights (Page 8). Risk mapping has been redone to address segregation of duties.</t>
+          <t>Segregation of duties is determined based on Zoho rights and financial system rights; risk mapping has been redone to address segregation of duties issues.</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Include formal segregation of duties policy or procedures and evidence of monitoring/audit trails where segregation is difficult.</t>
+          <t>None</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>🟡</t>
+          <t>✅</t>
         </is>
       </c>
     </row>
@@ -1853,34 +1853,34 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>ICT readiness is ensured by documented recovery plans, resource allocation, and defined recovery time objectives for critical systems and activities.</t>
+          <t>Business Continuity Plan includes Disaster Recovery Plans for IT infrastructure and services; recovery time objectives defined; resources and responsibilities assigned; restoration and resumption steps detailed.</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Business Continuity Plan E-WISE [Restricted].docx.pdf Sections 2.1 Plan content; 2.9 Required resources; Appendices with Disaster Recovery Plans; recovery time objectives defined (Business Continuity Plan E-WISE).</t>
+          <t>Business Continuity Plan E-WISE [Restricted].docx.pdf; Chapter 2 Sections 2.1 to 3.3; Appendix 6 Disaster Recovery Plans; Recovery time objectives for activities; Resource allocation and responsibilities (Business Continuity Plan E-WISE [Restricted].docx.pdf)</t>
         </is>
       </c>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr">
         <is>
-          <t>ELEARN4_Restoring_Test_(staging).pdf</t>
+          <t>Business Continuity Plan [Confidential] referenced but not provided in evidence text.</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Documented recovery plans and resource allocation for restoring database and storage systems are demonstrated through restoring test procedures (Pages 1-2).</t>
+          <t>No direct evidence of Disaster Recovery Plans or ICT readiness details found in provided evidence text.</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Provide documented Disaster Recovery Plans and ICT readiness evidence.</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>❌</t>
         </is>
       </c>
     </row>
@@ -1912,12 +1912,12 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Legal and regulatory requirements including GDPR and contractual obligations are identified and incorporated into policies and contracts.</t>
+          <t>Legal, statutory, regulatory and contractual requirements are identified and referenced; GDPR compliance ensured; processing agreements signed with customers and vendors; data protection discussed regularly.</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Section 5.1.1 Data Protection and GDPR compliance; Section 3.3.1 Contract clauses including data protection; Business Continuity Plan references ISO standards and legal requirements (Information Security Policy [Internal].docx, Business Continuity Plan E-WISE).</t>
+          <t>Section 5.1.1 Data Protection - GDPR compliance; Section 3.1 Scope of policy; Section 9 Compliance &amp; Legal; Section 3.1 Business Continuity Plan references legal and contractual requirements; Appendix - 5 Personnel Security; Information Security Policy [Internal].docx</t>
         </is>
       </c>
       <c r="H26" t="inlineStr"/>
@@ -1929,7 +1929,7 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Legal and regulatory requirements including GDPR and contractual obligations are identified and incorporated into policies and contracts; GDPR meetings are conducted (Pages 7-14).</t>
+          <t>Legal, statutory, regulatory and contractual requirements identified and referenced; GDPR compliance ensured; processing agreements signed; GDPR meetings conducted.</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -1971,29 +1971,29 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Procedures ensure compliance with intellectual property rights including copyright and licensing; software licensing is managed and inventoried.</t>
+          <t>Procedures ensure compliance with intellectual property rights including copyright, design rights, trade secrets; software licensing respected; inventory maintained; infringement risks acknowledged.</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Section 9.1 Intellectual Property Rights; 9.2 Software Licensing; 9.2.2 IT-Department maintains software inventory (Information Security Policy [Internal].docx).</t>
+          <t>Section 9.1 Intellectual Property Rights; 9.2 Software Licensing; 9.1.1 Procedures for legal restrictions; 9.2.2 IT-Department maintains software inventory; Information Security Policy [Internal].docx</t>
         </is>
       </c>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr">
         <is>
-          <t>No explicit evidence found in provided documents.</t>
+          <t>No direct evidence found in provided documents.</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>No direct mention of intellectual property rights management or software licensing procedures.</t>
+          <t>No explicit procedures or evidence related to intellectual property rights compliance found.</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Document and provide evidence of intellectual property rights compliance and software license management.</t>
+          <t>Document intellectual property rights procedures and evidence.</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
@@ -2030,34 +2030,34 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Records and personnel information are securely disposed of per EU law; backups and media disposal policies ensure protection of records.</t>
+          <t>Records and information disposal done securely; personnel information shredded or overwritten per EU law; backup and restoration policies ensure data integrity and availability.</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Section 9.3 Information Disposal; 6.8 Backup &amp; Restoration Policy; 6.8.8 Media Disposal; 9.3.2 Personnel information shredding (Information Security Policy [Internal].docx).</t>
+          <t>Section 9.3 Information Disposal; 6.8 Backup &amp; Restoration Policy; 6.8.8 Media Disposal; 5.1.1 Data Protection; Information Security Policy [Internal].docx</t>
         </is>
       </c>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr">
         <is>
-          <t>No explicit evidence found in provided documents.</t>
+          <t>Reducate - Disposal of devices [Confidential].docx</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>No direct mention of protection of records, secure disposal, or backup media policies.</t>
+          <t>Secure storage of decommissioned equipment; physical destruction of storage media prior to disposal; authorized disposal by specialized companies; IT staff responsible for secure handling.</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Document and provide evidence of records protection and secure disposal procedures.</t>
+          <t>None</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
     </row>
@@ -2089,12 +2089,12 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Privacy and PII protection comply with relevant legislation; GDPR compliance is enforced; data incidents are reported and reviewed regularly.</t>
+          <t>Privacy and protection of PII ensured per relevant legislation; GDPR compliance; data incidents discussed biannually; data leaks process in place; access controls and encryption applied.</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Section 3.3 Privacy and protection of PII; 5.1.1 Data Protection and GDPR compliance; 5.1.2 Data incidents and GDPR updates reported biannually; Appendix references (Information Security Policy [Internal].docx).</t>
+          <t>Section 3.3 Privacy and protection of PII; 5.1.1 Data Protection and GDPR compliance; 5.1.2 Data incidents and GDPR improvements; 6.10 End-point Security Policy; Information Security Policy [Internal].docx</t>
         </is>
       </c>
       <c r="H29" t="inlineStr"/>
@@ -2106,7 +2106,7 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Privacy and PII protection comply with GDPR; data incidents are reported and reviewed regularly; GDPR meetings are conducted (Pages 7-14).</t>
+          <t>GDPR compliance discussed; data incidents reviewed; access controls and encryption applied; data leaks process in place.</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
@@ -2148,12 +2148,12 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Annual internal and external ISO 27001 audits are conducted; ISSC and ISWG review security policies and incidents regularly.</t>
+          <t>Yearly ISO internal and external audits required for all group companies; ISSC and ISWG review security policies and incidents annually; management reviews include security organisation and changes.</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Section 8.2.7 Annual ISO internal and external audits; Chapter 10 Section 10.1 Review of information security; 2.2 and 2.3 ISSC and ISWG responsibilities (Information Security Policy [Internal].docx).</t>
+          <t>Section 8.2.7 Yearly ISO internal and external audit; Chapter 10 Section 10.1 Review of information security; 2.1.2 and 2.1.3 Security organisation reviewed yearly by ISSC and ISWG; Information Security Policy [Internal].docx</t>
         </is>
       </c>
       <c r="H30" t="inlineStr"/>
@@ -2165,7 +2165,7 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Annual internal and external ISO 27001 audits are conducted; ISSC and ISWG review security policies and incidents regularly (Pages 7-9).</t>
+          <t>Yearly ISO internal and external audits performed; ISSC and ISWG review security policies and incidents annually; management reviews include security organization and changes.</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
@@ -2207,12 +2207,12 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Compliance is enforced through management responsibilities, disciplinary processes, audits, and policy reviews; non-compliance leads to disciplinary action.</t>
+          <t>Compliance expected from all employees and contractors; disciplinary actions for non-compliance; policies enforced by management; audits and reviews conducted; documented procedures maintained.</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Section 1.5 Roles and Responsibilities; 2.3 Disciplinary process; 9.4 Non-Compliance; 8.2.7 Annual audits; Chapter 10 Review and Improvement (Information Security Policy [Internal].docx).</t>
+          <t>Confidentiality Statement; Section 1.5 Roles and Responsibilities; Section 2.3 Disciplinary process; Section 9.4 Non-Compliance; Chapter 10 Evaluation and Improvement; 6.1 Documented Operating procedures; Information Security Policy [Internal].docx</t>
         </is>
       </c>
       <c r="H31" t="inlineStr"/>
@@ -2224,7 +2224,7 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Compliance is enforced through management responsibilities, disciplinary processes, audits, and policy reviews; non-compliance leads to disciplinary action (Pages 4-14).</t>
+          <t>Compliance expected from all employees and contractors; disciplinary actions for non-compliance discussed; policies enforced by management; audits and reviews conducted.</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
@@ -2262,34 +2262,34 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Operating procedures are documented and maintained for incident management, change management, backup, recovery, and other IT operations.</t>
+          <t>Operating procedures are documented and maintained; changes authorized by management; procedures cover incident management, change management, backup, recovery, and system operations.</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Section 6.1 Documented Operating procedures; 6.2 Operational change control; 6.8 Backup &amp; Restoration Policy; 6.5 Security incident management (Information Security Policy [Internal].docx).</t>
+          <t>Section 6.1 Documented Operating procedures; Commentary on formal documents and change authorization; Information Security Policy [Internal].docx</t>
         </is>
       </c>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Management Review Team Meeting E-WISE 2025 [Restricted].docx.pdf</t>
+          <t>Reducate - Disposal of devices [Confidential].docx</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Operating procedures are documented and maintained for incident management, change management, backup, recovery, and other IT operations as referenced in meeting documents (Pages 4-14).</t>
+          <t>Documented procedures for equipment disposal and handling; changes authorized by management; procedures cover incident management and change management.</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Provide explicit documented procedures or references.</t>
+          <t>None</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>🟡</t>
+          <t>✅</t>
         </is>
       </c>
     </row>
@@ -2321,12 +2321,12 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Management responsibilities include setting security objectives, aligning with business strategy, resource management, policy setting, training, review, implementation, and continuous security.</t>
+          <t>Management responsibilities include setting security objectives, resource allocation, policy enforcement, training, review, and continuous improvement. Documented procedures for incident management, change management, and review processes are in place.</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Information Security Policy [Internal].docx - Section 1.5 Roles and Responsibilities - Executive responsibilities</t>
+          <t>Information Security Policy [Internal].docx - Section 1.5 Roles and Responsibilities; Chapter 6 IT Operations Controls; Chapter 9 Management of Information Security Incidents; Chapter 10 Evaluation and Improvement</t>
         </is>
       </c>
       <c r="H33" t="inlineStr"/>
@@ -2338,7 +2338,7 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Management responsibilities are demonstrated through agenda items including risk assessments, audit results, security improvements, training updates, restore tests, and communication (Pages 4-14). Objectives and KPIs are reviewed and updated regularly.</t>
+          <t>Management review includes setting security objectives, resource allocation, policy enforcement, training updates, review of audit results, incident management, and continual improvement actions.</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
@@ -2376,34 +2376,34 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>The Business Continuity Plan and Incident Response Plan include contact details and procedures for local authorities in case of facility disasters and security incidents.</t>
+          <t>Procedures exist for contacting authorities in case of incidents such as data leakage, facility disasters, and other emergencies.</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Business Continuity Plan E-WISE [Restricted].docx.pdf - Appendix 1 Incident Response Plan, Appendix 5 Key Contacts, Section 3.1 Preservation of damaged assets and evaluation of damage</t>
+          <t>Business Continuity Plan E-WISE [Restricted].docx.pdf - Appendix 1 Incident Response Plan - Facilities and infrastructure section; Contact details for authorities and insurance companies</t>
         </is>
       </c>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Vendor risk assesment - Jumpcloud [Internal].docx.pdf</t>
+          <t>No direct evidence found in provided documents.</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>The Business Continuity Plan and Incident Response Plan are referenced in the context of vendor risk assessment and contact with authorities is implied through incident reporting and escalation procedures (Page 6-7).</t>
+          <t>No explicit procedures or references to contact with authorities in case of incidents found in the evidence text.</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Provide explicit documented contact details and procedures for authorities in the Business Continuity and Incident Response Plans.</t>
+          <t>Include documented procedures or evidence of contact with authorities for incidents such as data leakage or disasters.</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>🟡</t>
+          <t>❌</t>
         </is>
       </c>
     </row>
@@ -2431,7 +2431,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Reducate group companies regularly receive security news from external vendors, forums, newsletters, and magazines to stay updated.</t>
+          <t>The document states that Reducate and group companies should regularly get security news from external vendors, forums, newsletters, or magazines to stay updated.</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -2443,22 +2443,22 @@
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Vendor risk assesment - Jumpcloud [Internal].docx.pdf</t>
+          <t>No direct evidence found in provided documents.</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Reducate group companies receive security news from external vendors and forums as evidenced by subscription to Jumpcloud status page and security updates (Page 3, 7).</t>
+          <t>No mention of contact with special interest groups or regular receipt of security news from external vendors or forums.</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Document and provide evidence of engagement with special interest groups or receipt of security news.</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>❌</t>
         </is>
       </c>
     </row>
@@ -2490,24 +2490,24 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Subscriptions to vulnerability and virus breakout notifications are maintained and circulated to relevant teams. Security news from vendors and authorities is regularly received.</t>
+          <t>Subscriptions to vulnerability and virus breakout notifications are maintained and circulated to relevant teams. Security news is regularly obtained from external sources.</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Information Security Policy [Internal].docx - Section 2.1 Security Organisation - 2.1.7, 2.1.8; Chapter 6 IT Operations Controls - 6.5 Security incident management</t>
+          <t>Information Security Policy [Internal].docx - Section 2.1 Security Organisation - 2.1.7; Chapter 6 IT Operations Controls - 6.5 Security incident management</t>
         </is>
       </c>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Vendor risk assesment - Jumpcloud [Internal].docx.pdf</t>
+          <t>Management Review Team Meeting E-WISE 2025 [Restricted].docx.pdf</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Subscriptions to vulnerability and virus breakout notifications are maintained and circulated, as shown by subscription to Jumpcloud status page and monitoring of vulnerabilities (Page 3, 7).</t>
+          <t>IT Security function maintains subscriptions to vulnerability notifications; monthly ISSC incident briefings include vulnerability discussions.</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
@@ -2549,7 +2549,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Project plans are reviewed for compliance with security policy by ISSC and ISWG. SDLC policies and quality checks are documented and reviewed periodically.</t>
+          <t>Information Security Steering Committee (ISSC) and Information Security Working Group (ISWG) review project plans for compliance with security policy. SDLC policies and quality checks are documented and reviewed periodically.</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -2561,12 +2561,12 @@
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr">
         <is>
-          <t>4.4.1.6.1 System development life cycle [Confidential].pptx.pdf</t>
+          <t>Management Review Team Meeting E-WISE 2025 [Restricted].docx.pdf</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Project plans and SDLC processes are documented with testing stages including unit tests, functional tests, security testing, and branch protection rules (Pages 3-5).</t>
+          <t>Information Security Steering Committee (ISSC) and ISWG review security improvements and project compliance as part of management review and audit results.</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
@@ -2604,7 +2604,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>IT Asset Managers maintain and update inventory of hardware and software assets, including classification and value identification.</t>
+          <t>IT Asset Managers are responsible for maintaining an updated inventory of information assets, including classification and management.</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -2616,22 +2616,22 @@
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Matrix rechten Zoho (Internal).pdf</t>
+          <t>No direct evidence found in provided documents.</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>IT Asset Managers maintain inventories of user access rights and system roles, implying asset management (Pages 1-10).</t>
+          <t>No explicit inventory of information and associated assets or responsibility assignment found in evidence text.</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Provide explicit evidence of hardware and software asset inventory including classification and valuation.</t>
+          <t>Provide documented evidence of asset inventory maintenance and classification.</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>🟡</t>
+          <t>❌</t>
         </is>
       </c>
     </row>
@@ -2663,12 +2663,12 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Background verification and competence checks are performed on all candidates proportionate to business needs, including CV checks, interviews, security tests, references, and certificates.</t>
+          <t>Background verification and competence checks performed on all candidates; includes CV checks, interviews, security tests, references, and certificates of conduct as applicable; compliant with laws and proportional to business needs.</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Section 2.1 Screening; 2.1.1 Competences operators ISMS; minimal qualifications and checks described (Information Security Policy [Internal].docx).</t>
+          <t>Section 2.1 Screening; Background checks (Curriculum Vitae); 2 Physical/online meetings; security test via Testdome.com; former work reference; certificate of conduct (VOG); Information Security Policy [Internal].docx</t>
         </is>
       </c>
       <c r="H39" t="inlineStr"/>
@@ -2680,7 +2680,7 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Background verification and competence checks are performed on candidates as part of onboarding checklist including CV checks, interviews, and equipment provisioning (Page 1).</t>
+          <t>Onboarding checklist includes background verification steps such as CV checks, interviews, and security tests; documented onboarding process.</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
@@ -2722,24 +2722,24 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Background verification and competence checks on candidates; documented procedures for equipment usage and return at termination; formal termination process.</t>
+          <t>Background verification and competence checks on candidates; documented procedures for equipment usage and return; formal termination and change of employment processes.</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Section 2.1 Screening; Section 2.1.2 Equipment usage; Section 2.4 Termination of employment; Section 2.5 Change of employment. (Information Security Policy [Internal].docx)</t>
+          <t>Chapter 2 Human Resource Security, Section 2.1 Screening; Section 2.1.2 Equipment usage; Section 2.4 Termination of employment; Section 2.5 Change of employment. (Information Security Policy [Internal].docx)</t>
         </is>
       </c>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr">
         <is>
-          <t>2.4.7 Template checklist indienst.PNG.pdf</t>
+          <t>2.4.7 Template checklist indienst.PNG.pdf and 2.4.8 Template checklist uitdienst.PNG.pdf</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Terms and conditions of employment including equipment usage and return at termination are documented in onboarding and offboarding checklists (Pages 1 and 2.4.8 Template checklist uitdienst.PNG.pdf).</t>
+          <t>Onboarding and offboarding checklists include equipment usage and return, formal termination and change of employment processes.</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
@@ -2798,7 +2798,7 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Information security awareness, education and training are planned and tracked with 100% training completion rate; updated training topics are communicated (Pages 6, 14).</t>
+          <t>Security training updated with new topics; training completion at 100%; communication sent to all staff; training planned for 2025.</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
@@ -2840,7 +2840,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Failure to comply with the Information Security Policy may result in disciplinary action including termination.</t>
+          <t>Failure to comply with the Information Security Policy or related rules may result in disciplinary action including termination.</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -2852,12 +2852,12 @@
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr">
         <is>
-          <t>#18- CAPA-form [Confidential] - possible confidential sales data leaked during offboarding of employee .docx.pdf</t>
+          <t>Management Review Team Meeting E-WISE 2025 [Restricted].docx.pdf</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Disciplinary process is demonstrated by lawsuit filed against employee for policy violation; settlement agreement includes confidentiality clauses (Pages 1-2).</t>
+          <t>Disciplinary actions for failure to comply with Information Security Policy discussed; termination included as possible action.</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
@@ -2916,7 +2916,7 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Responsibilities after termination include removal of access and return of company belongings documented in offboarding checklist (Page 1).</t>
+          <t>Checklist includes removal of access and return of company belongings on termination day; documented termination and role change processes.</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
@@ -2966,22 +2966,22 @@
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr">
         <is>
-          <t>#18- CAPA-form [Confidential] - possible confidential sales data leaked during offboarding of employee .docx.pdf</t>
+          <t>No direct evidence found in provided documents.</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Confidentiality or non-disclosure agreements are referenced in settlement agreement and legal actions (Page 1).</t>
+          <t>No explicit NDAs or confidentiality agreements for external providers or employees found.</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Provide formal NDA policy and evidence of signing for all external providers and employees.</t>
+          <t>Provide documented NDAs and confidentiality agreements evidence.</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>🟡</t>
+          <t>❌</t>
         </is>
       </c>
     </row>
@@ -3009,29 +3009,29 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Remote access requires IT department approval; mobile device protection policy includes registration, physical protection, encryption, and restrictions on private device use.</t>
+          <t>Remote access requires IT department approval; mobile device policy includes registration, physical protection, encryption, and restrictions on private equipment use; home/cloud working supported.</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Section 6.9 Network Security Policy (6.9.14); Chapter 8 Mobile Computing (Telecommuting) Section 8.1 Mobile device policy (Information Security Policy [Internal].docx)</t>
+          <t>Section 8.1 Mobile device policy; Section 6.9 Network Security Policy (remote access controls); Business Continuity Plan (Section 2.6 Sites and transportation) (Information Security Policy [Internal].docx, Business Continuity Plan E-WISE.pdf)</t>
         </is>
       </c>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr">
         <is>
-          <t>No explicit evidence found in provided documents.</t>
+          <t>No direct evidence found in provided documents.</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>No direct mention of remote working policies or mobile device protection.</t>
+          <t>No explicit remote working or mobile device policies found in evidence text.</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Document and provide evidence of remote working and mobile device protection policies.</t>
+          <t>Document remote working and mobile device policies and evidence of enforcement.</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
@@ -3064,24 +3064,24 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Users must report security violations immediately; IT Security function manages incident reporting and response procedures.</t>
+          <t>Users must report all security violations immediately to managers or ISWG; IT Security function manages incident reporting and response.</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Section 5.1.4 User responsibilities; Section 6.5 Security incident management (Information Security Policy [Internal].docx)</t>
+          <t>Section 5.1.4 IT Security; Section 6.5 Security incident management (Information Security Policy [Internal].docx)</t>
         </is>
       </c>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Vendor risk assesment - Jumpcloud [Internal].docx.pdf</t>
+          <t>Management Review Team Meeting E-WISE 2025 [Restricted].docx.pdf</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Users must report security violations immediately; incident reporting and response procedures are managed by IT Security (Page 6).</t>
+          <t>Users instructed to report all security violations immediately; IT Security function manages incident reporting and response.</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
@@ -3123,7 +3123,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Physical access secured via card swipe, personal keys; alarm systems per floor with yearly code changes; secured system racks with locked doors.</t>
+          <t>Physical access secured by card swipe, key locks; central alarm system with yearly code changes; secured system racks; visitor escort policy; emergency access procedures.</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -3135,22 +3135,22 @@
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Key holders server room _ Studios (Internal).pdf</t>
+          <t>No direct evidence found in provided documents.</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Physical access to server room controlled by designated key holders; versioned document lists authorized personnel (Pages 1-2).</t>
+          <t>No explicit physical security perimeter controls such as card swipe or alarm system mentioned.</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Provide documented physical security perimeter controls.</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>❌</t>
         </is>
       </c>
     </row>
@@ -3178,12 +3178,12 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Media disposal policy ensuring destruction; secure storage of backup media; regular inventory and control of portable storage devices.</t>
+          <t>Secure storage and destruction of backup media; media disposal documented and authorized; use of lockable fire-resistant storage; regular inventory and disposal controls.</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Section 6.8 Backup &amp; Restoration Policy; Section 6.10 Storage devices; Section 9.3 Information Disposal (Information Security Policy [Internal].docx)</t>
+          <t>Section 6.8 Backup &amp; Restoration Policy; Section 6.10 End-point Security Policy; Section 9.3 Information Disposal (Information Security Policy [Internal].docx)</t>
         </is>
       </c>
       <c r="H48" t="inlineStr"/>
@@ -3195,7 +3195,7 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Media disposal policy ensures destruction; secure storage of backup media; regular inventory and control of portable storage devices (Page 1).</t>
+          <t>Secure storage and destruction of backup media; media disposal documented and authorized; use of lockable fire-resistant storage.</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
@@ -3233,34 +3233,34 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Uninterruptible power supply (UPS) for routers and switches; facilities and infrastructure recovery plans in Business Continuity Plan.</t>
+          <t>Uninterruptible power supply (UPS) in place for routers and switches; facilities managed to ensure availability of utilities.</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t xml:space="preserve">Section 6.9.36 UPS for network devices; Business Continuity Plan E-WISE [Restricted].docx (Chapter 2.9 Required resources) </t>
+          <t>Section 6.9.36 Network Security Policy (Information Security Policy [Internal].docx); Business Continuity Plan Section 2.9 Required resources (Business Continuity Plan E-WISE.pdf)</t>
         </is>
       </c>
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Management Review Team Meeting E-WISE 2025 [Restricted].docx.pdf</t>
+          <t>No direct evidence found in provided documents.</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Uninterruptible power supply (UPS) for routers and switches; facilities and infrastructure recovery plans in Business Continuity Plan (Pages 12-14).</t>
+          <t>No explicit mention of UPS or supporting utilities in evidence text.</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Document supporting utilities and UPS availability.</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>❌</t>
         </is>
       </c>
     </row>
@@ -3288,29 +3288,29 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Cabling installed and secured per local or European regulations.</t>
+          <t>Cabling installed and secured according to local and European regulations; regular maintenance and updates of perimeter devices including cabling.</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Section 6.9.37 Cabling security (Information Security Policy [Internal].docx)</t>
+          <t>Section 6.9.37 Cabling security; Section 6.9.38 Network device maintenance (Information Security Policy [Internal].docx)</t>
         </is>
       </c>
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr">
         <is>
-          <t>No explicit evidence found in provided documents.</t>
+          <t>No direct evidence found in provided documents.</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>No direct mention of cabling security per local or European regulations.</t>
+          <t>No explicit cabling security or maintenance details found.</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Document and provide evidence of cabling security controls.</t>
+          <t>Document cabling security controls.</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
@@ -3348,37 +3348,37 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>6.9.38 Any devices in the perimeters of our network should have regular maintenance and software updates if this is required or recommended by the supplier.</t>
+          <t>6.9.38 Any devices in the perimeters of our network should have regular maintenance and software updates if this is required or recommended by the supplier. Tv’s, portable streaming devices, presenter equipment, music systems, mobile devices and anything else which is connected to our network. (Information Security Policy [Internal].docx)</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>No detailed documented procedure or formal policy for equipment maintenance is described; coverage is limited to perimeter devices only.</t>
+          <t>No comprehensive equipment maintenance policy covering all company equipment; focus is only on network perimeter devices.</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Develop and document a comprehensive equipment maintenance policy covering all IT assets, including schedules, responsibilities, and procedures.</t>
+          <t>Develop and document a formal equipment maintenance policy covering all IT and physical equipment, including schedules, responsibilities, and procedures.</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>No explicit evidence found in provided documents.</t>
+          <t>No direct evidence found in provided documents.</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Section 6.9.38 mentions devices in network perimeter should have regular maintenance and software updates, but no detailed evidence provided.</t>
+          <t>No explicit equipment maintenance procedures found.</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>Provide documented equipment maintenance schedules and records.</t>
+          <t>Document equipment maintenance schedules and procedures.</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>🟡</t>
+          <t>❌</t>
         </is>
       </c>
     </row>
@@ -3406,14 +3406,12 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Section 6.8.8 details secure destruction of information storage media ensuring data recovery is not possible, including retention of evidence of destruction. Section 6.11.4 and 6.11.5 address proper purchase and disposal of hardware and software with formal approval required for disposal.</t>
+          <t>Section 6.8.8 details secure destruction of information storage media ensuring data recovery is not possible, including retention of destruction evidence. Section 6.11.4 and 6.11.5 address proper purchase and disposal of hardware and software with formal approval required for disposal.</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>6.8.8 Media Disposal – All information storage media containing company information classified as ‘Internal’, ‘Confidential’ or ‘Restricted’, must be destroyed, ensuring data recovery is not possible. Evidence of media destruction should be retained.
-6.11.4 IT Asset Manager must purchase and dispose of hardware and software properly.
-6.11.5 Employees are not allowed to dispose of hardware and software and take business belongings offside our offices without formal approval from the ISCC.</t>
+          <t>6.8.8 Media Disposal – All information storage media containing company information classified as ‘Internal’, ‘Confidential’ or ‘Restricted’, must be destroyed, ensuring data recovery is not possible. Evidence of media destruction should be retained. (Information Security Policy [Internal].docx)</t>
         </is>
       </c>
       <c r="H52" t="inlineStr"/>
@@ -3425,7 +3423,7 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Secure destruction of information storage media ensuring data recovery is not possible, including retention of evidence of destruction; formal approval required for disposal (Page 1).</t>
+          <t>Secure destruction of information storage media ensuring data recovery is not possible; retention of destruction evidence; formal approval required for disposal.</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
@@ -3463,7 +3461,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Access controlled by card swipe, keys signed out; visitors escorted; emergency access procedures exist.</t>
+          <t>Access controlled via card swipe, keys signed out and returned; visitors escorted; third-party access controlled; emergency access procedures in place.</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -3475,22 +3473,22 @@
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Key holders server room _ Studios (Internal).pdf</t>
+          <t>No direct evidence found in provided documents.</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Access controlled by keys signed out; visitors escorted; emergency access procedures implied (Pages 1-2).</t>
+          <t>No explicit physical entry controls or visitor escort policies found.</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>Provide explicit visitor escort and emergency access procedures.</t>
+          <t>Document physical entry controls and visitor management.</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>🟡</t>
+          <t>❌</t>
         </is>
       </c>
     </row>
@@ -3518,34 +3516,34 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>System racks locked; access only to authorized personnel; doors locked by default; zones map defines access levels.</t>
+          <t>System racks locked; doors locked by default; higher security levels available on request; secured storage for backup media with environmental controls.</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Section 7.6 Physical Access (Information Security Policy [Internal].docx)</t>
+          <t>Section 7.6 Physical Access; Section 6.8 Backup &amp; Restoration Policy (Information Security Policy [Internal].docx)</t>
         </is>
       </c>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Key holders server room _ Studios (Internal).pdf</t>
+          <t>No direct evidence found in provided documents.</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>System racks locked; access only to authorized personnel; doors locked by default (Pages 1-2).</t>
+          <t>No explicit securing of offices, rooms, or facilities described.</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Provide evidence of securing offices and facilities.</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>❌</t>
         </is>
       </c>
     </row>
@@ -3577,7 +3575,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Alarm systems per floor with yearly code changes mentioned; no explicit mention of CCTV or continuous monitoring.</t>
+          <t>Central alarm system per floor with yearly code changes; no explicit mention of CCTV or continuous monitoring.</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -3587,27 +3585,27 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>No explicit mention of physical security monitoring systems such as CCTV or intrusion detection.</t>
+          <t>No explicit mention of CCTV or physical security monitoring systems beyond alarm system.</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>Implement and document physical security monitoring measures like CCTV surveillance and intrusion detection systems.</t>
+          <t>Implement and document physical security monitoring such as CCTV or access logs to enhance perimeter security monitoring.</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Key holders server room _ Studios (Internal).pdf</t>
+          <t>No direct evidence found in provided documents.</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Alarm systems per floor with yearly code changes mentioned; no explicit mention of CCTV or continuous monitoring (Pages 1-2).</t>
+          <t>Central alarm system mentioned in policy but no explicit mention of CCTV or continuous monitoring in evidence text.</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>Consider adding CCTV or continuous monitoring to enhance physical security monitoring.</t>
+          <t>Consider adding CCTV or continuous monitoring for enhanced physical security.</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
@@ -3635,47 +3633,39 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>🟡</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Use of local country regulations for protection against natural disasters and malicious attacks; no detailed controls described.</t>
+          <t>Use of local country regulations for protection against natural disasters, malicious attacks or accidents; backup storage rooms equipped with fire prevention and detection, temperature and humidity control.</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Section 7.6.12 (Information Security Policy [Internal].docx)</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>Lacks detailed documented controls for environmental threats such as fire suppression, flood protection, or power failure.</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>Develop and document specific physical and environmental threat protection controls and procedures.</t>
-        </is>
-      </c>
+          <t>Section 7.6.12 Physical Access; Section 6.8.12 Backup &amp; Restoration Policy (Information Security Policy [Internal].docx)</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr">
         <is>
-          <t>No explicit evidence found in provided documents.</t>
+          <t>Reducate - Disposal of devices [Confidential].docx</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>No detailed controls described for protection against physical and environmental threats.</t>
+          <t>Backup storage rooms equipped with fire prevention and detection, temperature and humidity control as per local regulations.</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>Document and implement controls for physical and environmental threats.</t>
+          <t>None</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
     </row>
@@ -3703,7 +3693,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Access to secure areas restricted to authorized personnel; visitors escorted; emergency access procedures exist.</t>
+          <t>Access to secure areas limited to authorized IT personnel and approved external vendors; visitors and uninducted staff must be escorted.</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -3715,22 +3705,22 @@
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Key holders server room _ Studios (Internal).pdf</t>
+          <t>No direct evidence found in provided documents.</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Access to secure areas restricted to authorized personnel; visitors escorted; emergency access procedures exist (Pages 1-2).</t>
+          <t>No explicit access restrictions to secure areas or escort policies found.</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Document access controls for secure areas.</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>❌</t>
         </is>
       </c>
     </row>
@@ -3758,7 +3748,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Clear desk recommended; locked closets/lockers advised; personal and critical information must be destroyed; internal audits performed.</t>
+          <t>Clear desk recommended; no personal or critical information left unattended; locked storage provided; regular internal audits conducted.</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -3770,22 +3760,22 @@
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Management Review Team Meeting E-WISE 2025 [Restricted].docx.pdf</t>
+          <t>No direct evidence found in provided documents.</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>Clear desk recommended; internal audits performed; personal and critical information must be destroyed (Page 8).</t>
+          <t>No explicit clear desk and clear screen policies or audit evidence found.</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>Provide explicit documented clear desk and screen policy.</t>
+          <t>Implement and document clear desk/screen policies.</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>🟡</t>
+          <t>❌</t>
         </is>
       </c>
     </row>
@@ -3808,47 +3798,39 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>🟡</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>System racks locked; no detailed policy on equipment siting or protection from environmental hazards.</t>
+          <t>Equipment secured in locked racks; physical protection of mobile devices and laptops emphasized; policies for borrowing and returning equipment.</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Section 7.6 Physical Access (Information Security Policy [Internal].docx)</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>No explicit controls on equipment siting to protect from environmental or physical damage.</t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>Establish and document equipment siting and protection controls addressing environmental and physical risks.</t>
-        </is>
-      </c>
+          <t>Section 2.1.2 Equipment usage; Section 7.6 Physical Access (Information Security Policy [Internal].docx)</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Key holders server room _ Studios (Internal).pdf</t>
+          <t>Reducate - Disposal of devices [Confidential].docx</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>System racks locked; no detailed policy on equipment siting or protection from environmental hazards (Pages 1-2).</t>
+          <t>Equipment secured in locked racks; policies for borrowing and returning equipment documented.</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>Develop and document equipment siting and environmental protection policies.</t>
+          <t>None</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>🟡</t>
+          <t>✅</t>
         </is>
       </c>
     </row>
@@ -3876,34 +3858,34 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Controls for removal of assets outside premises; return of company belongings at termination; end-point security policy for mobile devices.</t>
+          <t>Mobile devices protected by encryption; policies for off-site use and return of company assets; strong discouragement of personal device use except approved mobile devices.</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Section 2.1.2 Equipment usage; Section 2.4 Termination of employment; Chapter 4.2 Removal of assets; Chapter 8 Mobile Computing; Section 6.10 End-point Security Policy (Information Security Policy [Internal].docx)</t>
+          <t>Section 8.1 Mobile device policy; Section 6.10 End-point Security Policy (Information Security Policy [Internal].docx)</t>
         </is>
       </c>
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr">
         <is>
-          <t>2.4.8 Template checklist uitdienst.PNG.pdf</t>
+          <t>No direct evidence found in provided documents.</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Controls for removal of assets outside premises and return of company belongings at termination are documented; end-point security policy for mobile devices referenced (Page 1).</t>
+          <t>No explicit policies for security of assets off-premises or mobile device encryption found.</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Document off-premises asset security policies.</t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>❌</t>
         </is>
       </c>
     </row>
@@ -3935,26 +3917,24 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Section 2.1.2 Equipment usage defines documented procedures for borrowing company devices and return upon termination. Section 6.10 End-point Security Policy covers patching, virus protection, software installation restrictions, and usage of portable storage devices. Section 5.1.11 and 6.10.11 address endpoint security and usage.</t>
+          <t>Section 2.1.2 Equipment usage defines documented procedures for borrowing company devices and return upon termination. Chapter 8 Mobile Computing (Telecommuting) Section 8.1 defines mobile device policy including registration, physical protection, encryption, and restrictions. Section 6.10 End-point Security Policy details software restrictions, patching, and virus protection on endpoint devices.</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>2.1.2 Equipment usage (ISO 27001: 2013-A8.1.2, 2022-A5.9) Any laptop, car, mobile device bought, rented or owned by the company can be borrowed and a documented procedure should be in place.
-6.10 End-point Security Policy covers patch application, virus scanning, software restrictions, and portable storage device usage.
-5.1.11 Data Protection and Acceptable Usage Policy sections.</t>
+          <t>2.1.2 Equipment usage; 8.1 Mobile device policy; 6.10 End-point Security Policy (Information Security Policy [Internal].docx)</t>
         </is>
       </c>
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Management Review Team Meeting E-WISE 2025 [Restricted].docx.pdf</t>
+          <t>2.4.7 Template checklist indienst.PNG.pdf and Kopie van BS02 E-Wise Wachtwoordbeleid [Internal].pdf</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Documented procedures for borrowing company devices and return upon termination; endpoint security including patching, virus protection, and software installation restrictions (Pages 5-6).</t>
+          <t>Documented procedures for borrowing company devices and return upon termination; mobile device policy includes registration, physical protection, encryption, and restrictions; endpoint security includes software restrictions, patching, and virus protection.</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
@@ -3996,13 +3976,12 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Section 9.3 Information Disposal mandates secure disposal of personnel information by shredding or irretrievable overwriting. Section 6.8.8 Media Disposal requires destruction of storage media to prevent data recovery with evidence retention.</t>
+          <t>Section 9.3 Information Disposal mandates secure disposal of information and shredding or irretrievable overwriting of personnel information. Section 6.8.8 Media Disposal details destruction of storage media ensuring data recovery is impossible with evidence retention.</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>9.3.2 All copies of personnel information, whether electronic or hard copy, must be shredded or irretrievably overwritten in accordance with EU law.
-6.8.8 Media Disposal – All information storage media containing company information classified as ‘Internal’, ‘Confidential’ or ‘Restricted’, must be destroyed, ensuring data recovery is not possible.</t>
+          <t>9.3 Information Disposal; 6.8.8 Media Disposal (Information Security Policy [Internal].docx)</t>
         </is>
       </c>
       <c r="H62" t="inlineStr"/>
@@ -4014,7 +3993,7 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>Information deletion and media disposal policies mandate secure destruction and evidence retention (Page 1).</t>
+          <t>Secure disposal of information and shredding or irretrievable overwriting of personnel information; destruction of storage media ensuring data recovery is impossible with evidence retention.</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
@@ -4047,40 +4026,47 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>🟡</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Section 8.1.10 Testing states test environments should use limited, anonymised, or masked data. Section 8.1.21 prohibits use of production, personal, or cardholder data in testing unless sanitized, anonymised, or pseudonymised.</t>
+          <t>Section 8.1.10 Testing states test environments should use limited, anonymised or pseudonymised data. Section 4.1.2 Handling Information Assets mentions general guidelines but no detailed data masking policy.</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>8.1.10 Test environments should only have limited data suitable to perform tests and preferable test data or anonymised data (data masking).
-8.1.21 Production data is never used for testing or development. Personal data is never used for testing or development. If sensitive information is required as part of the testing process it is sanitised, anonymised or pseudonymised.</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr"/>
-      <c r="I63" t="inlineStr"/>
+          <t>8.1.10 Test environments should only have limited data suitable to perform tests and preferable test data or anonymised data (data masking). (Information Security Policy [Internal].docx)</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>No formal documented data masking policy or procedures for production data in non-production environments.</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>Develop and implement a formal data masking policy and procedures for use of sensitive data in testing and development.</t>
+        </is>
+      </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>4.4.1.6.1 System development life cycle [Confidential].pptx.pdf</t>
+          <t>No direct evidence found in provided documents.</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>Test environments use anonymised or masked data; production data is not used for testing (Page 3).</t>
+          <t>No detailed data masking policy found; general guidelines mentioned but no specifics.</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Develop and document data masking policies.</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>❌</t>
         </is>
       </c>
     </row>
@@ -4103,22 +4089,29 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>🟡</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Section 4 Asset Classification and Control includes yearly review of files shared externally and cleanup procedures to prevent data leakage. Section 5.1.4 IT Security policy prohibits unauthorized sharing and mandates reporting of security violations.</t>
+          <t>Section 4.1.3 Reporting Information Assets includes yearly review of files shared externally and cleanup procedures to prevent data breaches. Section 5.1.4 IT Security prohibits unauthorized file sharing and mandates reporting of security violations. No explicit DLP technology or controls described.</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>4.1.3 Reporting Information Assets. If information is stored in a cloud solution like Google Drive or Microsoft OneDrive Asset Owners and/or their designees should yearly review files shared with external parties. A cleanup procedure could be a measurement if too much information is shared outside our company.
-5.1.4 IT Security - Users are responsible for the security of their own PC. All file sharing should be enabled through appropriate directories on Google Drive, and sharing folders on individual computers is prohibited.</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr"/>
-      <c r="I64" t="inlineStr"/>
+          <t>4.1.3 Asset Owners should yearly review files shared with external parties; 5.1.4 Users prohibited from unauthorized file sharing. (Information Security Policy [Internal].docx)</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>No explicit data leakage prevention tools or technical controls described.</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>Implement and document technical data leakage prevention controls and monitoring.</t>
+        </is>
+      </c>
       <c r="J64" t="inlineStr">
         <is>
           <t>Management Review Team Meeting E-WISE 2025 [Restricted].docx.pdf</t>
@@ -4126,17 +4119,17 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>Data leakage prevention includes yearly review of files shared externally and prohibition of unauthorized sharing (Page 12).</t>
+          <t>Yearly review of files shared externally and cleanup procedures to prevent data breaches; unauthorized file sharing prohibited; reporting of security violations mandated.</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Consider implementing explicit DLP technologies.</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>🟡</t>
         </is>
       </c>
     </row>
@@ -4168,28 +4161,24 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Section 6.8 Backup &amp; Restoration Policy mandates periodic backups of critical information and systems, documented backup policies, secure storage, off-site backups, periodic testing of backups, disposal authorization, and restoration drills.</t>
+          <t>Section 6.8 Backup &amp; Restoration Policy details backup frequency, retention, secure storage, off-site backups, testing, disposal, and restoration drills with defined responsibilities and documentation.</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>6.8 Backup &amp; Restoration Policy (ISO 27001: 2013-A12.3, 2022-A8.13) All critical business information and critical systems must be backed-up periodically preferably daily but minimal weekly is required. Procedures must be in place to ensure smooth restoration and business continuity.
-6.8.4 The backed up media must be stored in a secure manner and must be kept in a Lockable Fire-resistant storage system or cloud solution.
-6.8.5 All critical backups must be maintained at an off-site location or cloud destination.
-6.8.6 The backup media and contents must be tested periodically.
-6.8.10 Restore Drill – A restoration drill must be performed on a periodic basis.</t>
+          <t>6.8 Backup &amp; Restoration Policy (Information Security Policy [Internal].docx)</t>
         </is>
       </c>
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Management Review Team Meeting E-WISE 2025 [Restricted].docx.pdf</t>
+          <t>Reducate - Disposal of devices [Confidential].docx and Management Review Team Meeting E-WISE 2025 [Restricted].docx.pdf</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>Information backup policies mandate periodic backups, secure storage, off-site backups, and restoration drills (Pages 12-13).</t>
+          <t>Backup frequency, retention, secure storage, off-site backups, testing, disposal, and restoration drills documented; restore tests successfully done.</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
@@ -4231,24 +4220,22 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Business Continuity Plan (E-WISE) defines recovery plans, alternative sites, and order of recovery for activities. Backup and off-site storage are addressed. However, explicit technical redundancy measures for information processing facilities are not detailed.</t>
+          <t>Section 6.15 Information security continuity requires a Business Continuity Plan. The Business Continuity Plan document defines recovery time objectives and alternative sites but lacks explicit redundancy controls for processing facilities.</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Business Continuity Plan E-WISE [Restricted].docx.pdf Sections 2.3 Appointments and authorities, 2.6 Sites and transportation, 2.7 Order of recovery for activities, and Appendix 6 Disaster Recovery Plans.
-6.8 Backup &amp; Restoration Policy includes off-site backups.
-6.15 Information security continuity mentions Business Continuity Plan requirement.</t>
+          <t>6.15 Information security continuity; Business Continuity Plan E-WISE [Restricted].docx.pdf (Sections 2.7 Order of recovery for activities, 2.6 Sites and transportation)</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>No explicit documented technical redundancy controls (e.g., failover systems, clustering) described for information processing facilities.</t>
+          <t>No explicit documented redundancy measures for information processing facilities.</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>Develop and document specific redundancy controls and infrastructure to ensure availability of critical information processing facilities.</t>
+          <t>Document and implement redundancy controls for critical information processing facilities to ensure availability.</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -4258,12 +4245,12 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Business Continuity Plan defines recovery plans and off-site storage; explicit technical redundancy measures are not detailed (Page 14).</t>
+          <t>Business Continuity Plan defines recovery time objectives and alternative sites; lacks explicit redundancy controls for processing facilities.</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>Consider documenting explicit technical redundancy controls for information processing facilities.</t>
+          <t>Consider adding explicit redundancy controls for processing facilities.</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
@@ -4300,27 +4287,24 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Section 6.14 Logging and Audit Policy mandates time synchronization, logging of all access from vendors, service providers, group companies and customers, secure storage and backup of logs, and exclusion of sensitive personal data from logs.</t>
+          <t>Section 6.14 Logging and Audit Policy mandates time synchronization, logging of all access from vendors and internal users, secure storage and backup of logs, and restrictions on sensitive data in logs.</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>6.14 Logging and Audit Policy (ISO 27001: 2013-A12.4.1, 2022-A8.15) All computing systems managed must synchronise time with a central time server.
-6.14.2 All access to Information systems from Vendors, Service providers, Reducate Group Companies and Customers must be logged.
-6.14.5 Logs must be backed up and stored in a secure manner for a predefined duration.
-6.14.6 No customer confidential information like date of birth, social security number, medical records and driving licence numbers must be recorded in the logs.</t>
+          <t>6.14 Logging and Audit Policy (Information Security Policy [Internal].docx)</t>
         </is>
       </c>
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Log retention (Internal).pdf</t>
+          <t>Log retention (Internal).pdf and Management Review Team Meeting E-WISE 2025 [Restricted].docx.pdf</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>Logging and audit policy mandates time synchronization, logging of all access, secure storage and backup of logs (Pages 1-2).</t>
+          <t>Logging and audit policy mandates time synchronization; logging of all access from vendors and internal users; secure storage and backup of logs; restrictions on sensitive data in logs.</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
@@ -4362,13 +4346,12 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Section 9.1 Management of Information Security Incidents defines procedures for monitoring, detecting, analysing, reporting, assessing, and handling information security events and incidents. Section 6.5 Security incident management details incident reporting, analysis, and review.</t>
+          <t>Section 9.1 Responsibilities and procedures defines management procedures for monitoring, detecting, analyzing, and reporting information security events and incidents with escalation and recovery processes.</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>9.1 Responsibilities and procedures (ISO 27001: 2022-A.8.16) Management procedures for information security incidents must be prepared including monitoring, detecting, analysing, reporting, assessment, and handling.
-6.5 Security incident management (ISO 27001: 2013-A16.1.1, 2022-A5.24) Security Incident management responsibilities and procedures should be established to ensure a quick, effective and orderly response to security incidents.</t>
+          <t>9.1 Responsibilities and procedures (Information Security Policy [Internal].docx)</t>
         </is>
       </c>
       <c r="H68" t="inlineStr"/>
@@ -4380,7 +4363,7 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>Monitoring activities include procedures for detecting, analysing, reporting, and handling information security events and incidents (Pages 7-8).</t>
+          <t>Management procedures for monitoring, detecting, analyzing, and reporting information security events and incidents with escalation and recovery processes defined.</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
@@ -4434,12 +4417,12 @@
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Log retention (Internal).pdf</t>
+          <t>Log retention (Internal).pdf and Management Review Team Meeting E-WISE 2025 [Restricted].docx.pdf</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>All computing systems synchronize time with a central time server to ensure accuracy of audit logs (Page 1).</t>
+          <t>All computing systems synchronise time with a central time server to ensure accuracy of audit logs.</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
@@ -4477,7 +4460,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Privileged utility programs or software should be approved by the IT department or system administrator; laptops/desktops have no admin privileges enabled.</t>
+          <t>Privileged utility programs or software should be approved by the IT department or system administrator. Laptops and desktops are pre-installed by IT with no administrator privileges enabled.</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -4489,22 +4472,22 @@
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Management Review Team Meeting E-WISE 2025 [Restricted].docx.pdf</t>
+          <t>No direct evidence found in provided documents.</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>Privileged utility programs require approval; laptops/desktops have no admin privileges enabled (Page 8).</t>
+          <t>No explicit approval process for privileged utility programs or software found.</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Document approval and control of privileged utility programs.</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>❌</t>
         </is>
       </c>
     </row>
@@ -4532,7 +4515,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Users may not load any software not provided by the IT department; only licensed software owned by Reducate or Group Companies is allowed; unauthorized software installation is prohibited.</t>
+          <t>Users may not load any software not provided by Reducate’s or group companies IT-department. Only licensed software owned by Reducate or Group Companies is allowed. Unauthorized software installation is prohibited.</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -4544,22 +4527,22 @@
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Management Review Team Meeting E-WISE 2025 [Restricted].docx.pdf</t>
+          <t>No direct evidence found in provided documents.</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>Users may not load unauthorized software; only licensed software owned by Reducate or Group Companies is allowed (Page 8).</t>
+          <t>No explicit controls prohibiting unauthorized software installation found.</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Document software installation policies and enforcement.</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>❌</t>
         </is>
       </c>
     </row>
@@ -4587,34 +4570,34 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Section 5.3 Management of privileged access rights describes formal authorization processes, minimum requirement assignment, segregation of privileged IDs from regular IDs, and record keeping of privileges.</t>
+          <t>Section 5.3 Management of privileged access rights describes restricted assignment of privileged access based on minimum business need, authorization processes, and separation of privileged IDs from regular user IDs. Section 7.4 User Access Management includes formal procedures for allocation and control of privileges.</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>5.3 Management of privileged access rights (ISO 27001: 2013-A9.2.3, 2022-A8.2) The assignment of privileged access rights to the information system and service must be restricted and controlled by an authorization process that includes the following: (a) Assigning privileged access rights based on the minimum requirement for the users’ business roles (b) Maintaining the authorization processes and records of all assigned privileges (c) Assigning privileged access rights to user IDs different from those used for regular business activities</t>
+          <t>5.3 Management of privileged access rights; 7.4 User Access Management (Information Security Policy [Internal].docx)</t>
         </is>
       </c>
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Management Review Team Meeting E-WISE 2025 [Restricted].docx.pdf</t>
+          <t>Matrix rechten Zoho (Internal).pdf and Management Review Team Meeting E-WISE 2025 [Restricted].docx.pdf</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>Formal authorization processes for privileged access rights, segregation of privileged IDs, and record keeping are referenced (Page 8).</t>
+          <t>Privileged access rights restricted based on minimum business need; authorization processes in place; separation of privileged IDs from regular user IDs; formal procedures for allocation and control of privileges.</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>Provide explicit documented privileged access management procedures.</t>
+          <t>None</t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>🟡</t>
+          <t>✅</t>
         </is>
       </c>
     </row>
@@ -4646,34 +4629,34 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Network security is maintained by firewalls, access control, monitoring logs, encryption for public networks, and strict network connectivity approvals.</t>
+          <t>Network security is maintained by using firewalls, authorization, access control, monitoring logs, encryption for data over public networks, and restricting network connectivity to approved devices and users.</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Section 7.1 Network controls - Use of firewalls, authorization, access control, and monitoring logs. Encryption for data over public networks. Section 6.9 Network Security Policy - All connections to third party networks require approval, firewall use mandatory, traffic restrictions, LAN/WAN security, remote access controls, firewall configuration and patching requirements. (Information Security Policy [Internal].docx)</t>
+          <t>Section 7.1 Network controls - Use of firewalls, authorization, access control, and monitoring logs. Section 6.9 Network Security Policy - All connections to external networks must be approved, firewalls must be ICSA certified, firewall rules must drop unauthorized packets, and all changes logged. (Information Security Policy [Internal].docx)</t>
         </is>
       </c>
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Vendor risk assesment - Jumpcloud [Internal].docx.pdf</t>
+          <t>No direct evidence found in provided documents.</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>Network security maintained by firewalls, access control, monitoring logs, encryption for public networks, and strict network connectivity approvals (Page 7).</t>
+          <t>No explicit network security controls such as firewalls, encryption, or access restrictions described.</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Document network security controls and monitoring.</t>
         </is>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>❌</t>
         </is>
       </c>
     </row>
@@ -4701,34 +4684,34 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Network services are secured by access control, firewall rules, patch management, and monitoring; remote access is controlled and approved.</t>
+          <t>Network services are secured by restricting access, using firewalls, logging, and ensuring only authorized connections are allowed. Remote access requires approval.</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Section 6.9 Network Security Policy - Access to LAN/WAN devices restricted, unused ports shut, rogue access points blocked, remote access requires approval, firewall rules drop unauthorized packets, and logging is enforced. (Information Security Policy [Internal].docx)</t>
+          <t>Section 6.9 Network Security Policy - Access to LAN/WAN devices restricted by access rules or user authentication. Remote access requires IT-department approval. Firewalls restrict traffic to/from partners/vendors. (Information Security Policy [Internal].docx)</t>
         </is>
       </c>
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Vendor risk assesment - Jumpcloud [Internal].docx.pdf</t>
+          <t>No direct evidence found in provided documents.</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>Network services secured by access control, firewall rules, patch management, and monitoring; remote access is controlled and approved (Page 7).</t>
+          <t>No explicit security controls for network services or remote access approval found.</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Document security of network services and remote access controls.</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>❌</t>
         </is>
       </c>
     </row>
@@ -4756,34 +4739,34 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Company network is logically separated with firewalls to prevent unauthorized access from public or wireless networks.</t>
+          <t>Company network is logically separated and firewalls are installed to prevent unauthorized access from public or wireless networks.</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Section 7.2 Segregation in networks - Firewalls installed and logical separation of company network. (Information Security Policy [Internal].docx)</t>
+          <t>Section 7.2 Segregation in networks - Firewalls must be installed and the Company's network is to be logically separated. (Information Security Policy [Internal].docx)</t>
         </is>
       </c>
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Vendor risk assesment - Jumpcloud [Internal].docx.pdf</t>
+          <t>No direct evidence found in provided documents.</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>Company network is logically separated with firewalls to prevent unauthorized access from public or wireless networks (Page 7).</t>
+          <t>No explicit segregation of networks or firewall controls described.</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Document network segregation and firewall implementation.</t>
         </is>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>❌</t>
         </is>
       </c>
     </row>
@@ -4815,7 +4798,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Web group filtering or URL filtering is implemented on firewalls, routers or switches to block web traffic and protect against threats.</t>
+          <t>Web filtering or URL filtering is implemented on firewalls, routers, or switches to block web traffic and protect against threats and enforce policies.</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -4827,22 +4810,22 @@
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Vendor risk assesment - Jumpcloud [Internal].docx.pdf</t>
+          <t>No direct evidence found in provided documents.</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>Web filtering or URL filtering is implemented on firewalls, routers or switches to block web traffic and protect against threats (Page 7).</t>
+          <t>No explicit web filtering or URL filtering controls described.</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Implement and document web filtering controls.</t>
         </is>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>❌</t>
         </is>
       </c>
     </row>
@@ -4870,34 +4853,34 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Encryption is used for HDDs (Bitlocker, Filevault, Ecryptfs), VPN connections (IPSec with 3DES or AES-256), wireless networks (WPA/WPA2), and cloud applications (TLS 1.2+). Annual TLS testing is performed.</t>
+          <t>Encryption is used for HDDs (Bitlocker, Filevault, Ecryptfs), VPN connections (IPSec with 3DES or AES-256), wireless networks (WPA/WPA2), and cloud applications (TLS 1.2+). Annual testing of TLS security is performed.</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Chapter 10 Cryptography - HDD encryption for notebooks, VPN encryption standards, wireless encryption protocols, cloud applications require TLS 1.2 or higher, yearly TLS tests at SSLlabs. (Information Security Policy [Internal].docx)</t>
+          <t>Chapter 10 Cryptography - HDD encryption for notebooks, VPN encryption standards, wireless encryption protocols, cloud applications require TLS 1.2 or higher, yearly TLS testing at SSLlabs. (Information Security Policy [Internal].docx)</t>
         </is>
       </c>
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Vendor risk assesment - Jumpcloud [Internal].docx.pdf</t>
+          <t>No direct evidence found in provided documents.</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>Encryption is used for HDDs (Bitlocker, Filevault, Ecryptfs), VPN connections (IPSec with 3DES or AES-256), wireless networks (WPA/WPA2), and cloud applications (TLS 1.2+); annual TLS testing performed (Page 7).</t>
+          <t>No explicit cryptography usage details found in evidence text.</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Document cryptography usage and testing.</t>
         </is>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>❌</t>
         </is>
       </c>
     </row>
@@ -4925,24 +4908,24 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Documented SDLC policies and procedures exist for in-house and outsourced development; quality checks and reviews are performed; outsourcing contracts include security requirements.</t>
+          <t>Documented SDLC policies and procedures exist for in-house and outsourced development. Quality checks, contract reviews, progress reports, testing, and documentation are required. Outsourced development reviewed for licensing and IP rights.</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Section 8.1 Security in application development - Documented SDLC policies, review of external providers' SDLC, contract requirements for outsourced development, quality checks, periodic reviews. Section 3 Business partnership and Outsourcing - contracts with security clauses. (Information Security Policy [Internal].docx)</t>
+          <t>Section 8.1 Security in application development - Documented SDLC policies, review of outsourced development, quality checks, and periodic review of SDLC methodology. (Information Security Policy [Internal].docx)</t>
         </is>
       </c>
       <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr">
         <is>
-          <t>4.4.1.6.1 System development life cycle [Confidential].pptx.pdf</t>
+          <t>Management Review Team Meeting E-WISE 2025 [Restricted].docx.pdf</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Documented SDLC policies and procedures exist for in-house and outsourced development; quality checks and reviews are performed; outsourcing contracts include security requirements (Pages 3-5).</t>
+          <t>Documented SDLC policies and procedures exist; quality checks, contract reviews, progress reports, testing, and documentation required; outsourced development reviewed for licensing and IP rights.</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
@@ -4984,24 +4967,24 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Security requirements are identified and agreed prior to development; audit trails and access controls are implemented; data input is validated; encryption and privacy protections are applied.</t>
+          <t>Security requirements are identified and agreed prior to development. Access control to source code, audit trails, and data validation are implemented. Encryption and privacy protections are incorporated in applications.</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Section 8.1.23 - Application forms and input fields ensure authentication, secrecy, privacy, and encryption. Section 8.1 Security in application development - Security requirements identified at requirements phase. (Information Security Policy [Internal].docx)</t>
+          <t>Section 8.1.23 - Application forms and input fields ensure authentication, secrecy, privacy, and encryption. Section 8.1.8 - Access control to program source library. (Information Security Policy [Internal].docx)</t>
         </is>
       </c>
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr">
         <is>
-          <t>4.4.1.6.1 System development life cycle [Confidential].pptx.pdf</t>
+          <t>Management Review Team Meeting E-WISE 2025 [Restricted].docx.pdf</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Security requirements are identified and agreed prior to development; audit trails and access controls are implemented; data input is validated; encryption and privacy protections are applied (Pages 3-5).</t>
+          <t>Security requirements identified and agreed prior to development; access control to source code, audit trails, and data validation implemented; encryption and privacy protections incorporated.</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
@@ -5043,24 +5026,24 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Code is reviewed by skilled personnel other than the author; secure coding guidelines are followed; code repositories enforce access control and versioning.</t>
+          <t>Code is reviewed by skilled personnel other than the author against secure coding guidelines. Development code is stored in secure repositories with access control and versioning.</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Section 8.1.18 - Code reviewed prior to release by skilled personnel other than the author; reviewed against secure coding guidelines. Section 8.1.17 - Code stored in secure repository enforcing access control and version control. (Information Security Policy [Internal].docx)</t>
+          <t>Section 8.1.17 - Development code stored in secure repository with access control. Section 8.1.18 - Code reviewed prior to release by skilled personnel against secure coding guidelines. (Information Security Policy [Internal].docx)</t>
         </is>
       </c>
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr">
         <is>
-          <t>4.4.1.6.1 System development life cycle [Confidential].pptx.pdf</t>
+          <t>Management Review Team Meeting E-WISE 2025 [Restricted].docx.pdf</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>Code is reviewed by skilled personnel other than the author; secure coding guidelines are followed; code repositories enforce access control and versioning (Pages 4-5).</t>
+          <t>Code reviewed by skilled personnel other than author against secure coding guidelines; development code stored in secure repositories with access control and versioning.</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
@@ -5102,24 +5085,24 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Application security testing is performed manually and automatically; PEN-tests are conducted annually or after significant changes; test environments mirror production; test data is anonymised.</t>
+          <t>Application security testing is performed manually and automatically before acceptance. PEN-tests are conducted annually or after significant changes. Test environments use anonymized or masked data. Test data is removed before production deployment.</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Section 8.1.19-20 - Pre-production testing in test environment; manual and automated security testing; annual PEN-tests. Section 8.2 Application development PEN-test &amp; audits - PEN-tests with OWASP top 10, controlled environment, annual tests, fix timelines. (Information Security Policy [Internal].docx)</t>
+          <t>Section 8.1.19 - Application security testing manual and automated. Section 8.2 Application development PEN-test &amp; audits - PEN-tests yearly, controlled environment, fix timelines. Section 8.1.21 - No production data used for testing; data is sanitized or anonymized. (Information Security Policy [Internal].docx)</t>
         </is>
       </c>
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr">
         <is>
-          <t>4.4.1.6.1 System development life cycle [Confidential].pptx.pdf</t>
+          <t>Management Review Team Meeting E-WISE 2025 [Restricted].docx.pdf</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>Application security testing is performed manually and automatically; PEN-tests are conducted annually or after significant changes; test environments mirror production; test data is anonymised (Pages 3-5).</t>
+          <t>Application security testing performed manually and automatically before acceptance; PEN-tests conducted annually or after significant changes; test environments use anonymized or masked data; test data removed before production deployment.</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
@@ -5161,24 +5144,24 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Section 5.2 Information access restriction mandates access control based on need-to-know, business requirements, and classification scheme. Appendix 7.4 User Access Management is referenced for detailed procedures.</t>
+          <t>Section 5.2 Information access restriction mandates access control on a need-to-know basis aligned with business requirements and classification. Section 7 Access Control policy details user registration, de-registration, and access control based on business needs and security requirements.</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>5.2 Information access restriction (ISO 27001: 2013-A9.4.1, 2022-A8.3) Access to individual information and information systems must be controlled with the access control policy in accordance with a “need-to-know” basis, the individual business requirement and information classification scheme. Please refer to “Appendix - 7.4 User Access Management”.</t>
+          <t>5.2 Information access restriction; 7 Access Control policy (Information Security Policy [Internal].docx)</t>
         </is>
       </c>
       <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Matrix rechten Zoho (Internal).pdf</t>
+          <t>Matrix rechten Zoho (Internal).pdf and Management Review Team Meeting E-WISE 2025 [Restricted].docx.pdf</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>Information access restriction is managed via role-based access in Zoho CRM and other systems with detailed rights and audit logs (Pages 1-10).</t>
+          <t>Access control on a need-to-know basis aligned with business requirements and classification; user registration, de-registration, and access control based on business needs and security requirements.</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
@@ -5216,24 +5199,24 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Outsourced development requires contract agreements covering licensing, code ownership, and security; ISO certifications and PEN-tests are required; security policies are communicated to external providers.</t>
+          <t>Outsourced development requires review of SDLC methodology, licensing, code ownership, and intellectual property rights agreed in contracts. ISO certifications and PEN-tests are required for outsourced contractors.</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Section 8.1.2 - Licensing and code ownership agreed in contract prior to project. Section 8.2.5 - Outsourced contractors require ISO certifications and PEN-tests. Section 3 Business partnership and Outsourcing - contracts with security clauses and awareness. (Information Security Policy [Internal].docx)</t>
+          <t>Section 8.1.1 - Review of outsourced SDLC. Section 8.1.2 - Licensing and IP rights agreed before project start. Section 8.2.5 - Outsourced contractors require ISO certifications and PEN-tests. (Information Security Policy [Internal].docx)</t>
         </is>
       </c>
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr">
         <is>
-          <t>4.4.1.6.1 System development life cycle [Confidential].pptx.pdf</t>
+          <t>Management Review Team Meeting E-WISE 2025 [Restricted].docx.pdf</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>Outsourced development requires contract agreements covering licensing, code ownership, and security; ISO certifications and PEN-tests are required; security policies are communicated to external providers (Pages 3-5).</t>
+          <t>Outsourced development requires review of SDLC methodology, licensing, code ownership, and IP rights agreed in contracts; ISO certifications and PEN-tests required for outsourced contractors.</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
@@ -5275,24 +5258,24 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Development, test, and production environments are separated with no shared components; access to development and test systems is restricted.</t>
+          <t>Development, test, and production environments are separated and do not share components. Test environments use limited or anonymized data. Migration to production requires approval and follows change control.</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Section 8.1.14-15 - Development and test systems not in production; access restricted; environments separated. (Information Security Policy [Internal].docx)</t>
+          <t>Section 8.1.15 - Separation of environments. Section 8.1.10 - Test environments use limited/anonymized data. Section 8.1.22 - Code promoted to production by approved personnel following change control. (Information Security Policy [Internal].docx)</t>
         </is>
       </c>
       <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr">
         <is>
-          <t>4.4.1.6.1 System development life cycle [Confidential].pptx.pdf</t>
+          <t>Management Review Team Meeting E-WISE 2025 [Restricted].docx.pdf</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>Development, test, and production environments are separated with no shared components; access to development and test systems is restricted (Pages 3-5).</t>
+          <t>Development, test, and production environments separated; test environments use limited or anonymized data; migration to production requires approval and follows change control.</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
@@ -5334,12 +5317,12 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Change management is documented with strict review, approval, and closure controls; all changes including emergency changes are documented and approved; configuration management is maintained and reviewed.</t>
+          <t>Change management is documented with strict review, approval, and closure controls. All changes including emergency changes are documented and follow formal processes. Change management is integrated with development and operational procedures.</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Section 6.2 Operational change control - documented change management with review and approval. Section 6.3 Configuration Management - documented design and configuration, reviewed annually. Section 8.1.11-13 - Changes documented and approved. (Information Security Policy [Internal].docx)</t>
+          <t>Section 6.2 Operational change control - Documented change management with review and approval. Section 8.1.11-8.1.13 - Program changes standardized, documented, approved, and controlled. (Information Security Policy [Internal].docx)</t>
         </is>
       </c>
       <c r="H85" t="inlineStr"/>
@@ -5351,7 +5334,7 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>Change management is documented with strict review, approval, and closure controls; all changes including emergency changes are documented and approved; configuration management is maintained and reviewed (Pages 7-8).</t>
+          <t>Change management documented with strict review, approval, and closure controls; all changes including emergency changes documented and follow formal processes; integrated with development and operational procedures.</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
@@ -5389,24 +5372,24 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Test environments use limited, anonymised or masked data; production data is never used for testing; test data is removed before promotion to production.</t>
+          <t>Test environments use limited or anonymized data. Unused test environments or sandboxes are reviewed and removed biannually. Test data is removed before production deployment.</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Section 8.1.10 - Test environments have limited or anonymised data; Section 8.1.21 - Production data never used for testing; test data removed before production promotion. (Information Security Policy [Internal].docx)</t>
+          <t>Section 8.1.10 - Test environments use limited/anonymized data. Unused test environments checked and removed half-yearly. Section 8.1.22 - Test data removed before production. (Information Security Policy [Internal].docx)</t>
         </is>
       </c>
       <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr">
         <is>
-          <t>4.4.1.6.1 System development life cycle [Confidential].pptx.pdf</t>
+          <t>Management Review Team Meeting E-WISE 2025 [Restricted].docx.pdf</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>Test environments use limited, anonymised or masked data; production data is never used for testing; test data is removed before promotion to production (Page 3).</t>
+          <t>Test environments use limited or anonymized data; unused test environments or sandboxes reviewed and removed biannually; test data removed before production deployment.</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
@@ -5444,42 +5427,42 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Security incident management and audit logging policies exist; however, explicit controls for protecting systems during audit testing are not detailed.</t>
+          <t>Annual ISO internal and external audits are required for each group company. PEN-tests are performed in controlled environments. However, explicit controls for protecting systems during audit testing are not detailed.</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Section 6.5 Security incident management and 6.14 Logging and Audit Policy describe incident handling and logging but do not explicitly address protection during audit testing. (Information Security Policy [Internal].docx)</t>
+          <t>Section 8.2.7 - Yearly ISO internal and external audit required. Section 8.2.2 - PEN-tests only in controlled testing environment. (Information Security Policy [Internal].docx)</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>No explicit policy or procedures for protecting information systems during audit testing are described.</t>
+          <t>No explicit documented procedures or controls for protecting information systems during audit testing are described.</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>Develop and document specific controls and procedures to protect information systems during audit testing, including access restrictions, monitoring, and segregation of audit activities.</t>
+          <t>Develop and document specific procedures to protect information systems during audit and penetration testing, including scope, authorization, and impact mitigation.</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>No explicit evidence found in provided documents.</t>
+          <t>Management Review Team Meeting E-WISE 2025 [Restricted].docx.pdf</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>No explicit controls for protecting information systems during audit testing are detailed.</t>
+          <t>Annual ISO internal and external audits required; PEN-tests performed in controlled environments; no explicit controls for protecting systems during audit testing detailed.</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>Document and implement controls for protection during audit testing.</t>
+          <t>Develop explicit controls for protecting information systems during audit testing.</t>
         </is>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>🟡</t>
         </is>
       </c>
     </row>
@@ -5507,35 +5490,34 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Section 8.1.8 states access control should be implemented to restrict access to the program source library. Section 8.1.17 states development code is stored in a secure code repository enforcing access control and segregation of duties.</t>
+          <t>Section 8.1.8 states access control should be implemented to restrict access to the program source library. Section 8.1.17 states development code is stored in a secure repository enforcing access control and segregation of duties.</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>8.1.8 Access control should be implemented to restrict access to the program source library.
-8.1.17 Development code is stored in a secure code repository that enforces and meets the requirements of the access control policy and segregation of duty.</t>
+          <t>8.1.8 Access control should be implemented to restrict access to the program source library; 8.1.17 Development code is stored in a secure code repository that enforces and meets the requirements of the access control policy and segregation of duty. (Information Security Policy [Internal].docx)</t>
         </is>
       </c>
       <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr">
         <is>
-          <t>4.4.1.6.1 System development life cycle [Confidential].pptx.pdf</t>
+          <t>No direct evidence found in provided documents.</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>Access control to source code is enforced via private repositories with branch protection rules and approval requirements (Pages 4-5).</t>
+          <t>No explicit access control to source code or secure repository evidence found.</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Document access controls for source code repositories.</t>
         </is>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>❌</t>
         </is>
       </c>
     </row>
@@ -5563,13 +5545,12 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Section 4.1 Use of secret authentication information such as passwords defines password confidentiality, avoidance of insecure storage, and quality requirements. Section 7.1 and 7.3 detail authentication requirements including unique user IDs, password policies, two-factor authentication, session timeouts, and password management.</t>
+          <t>Section 4.1 Use of secret authentication information outlines password confidentiality, avoidance of insecure storage, and quality password selection. Section 7.2 Authorisation and Access Control mandates two-factor authentication and session management. Section 7.3 Password Policy details password complexity, change requirements, and secure handling.</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>4.1 Use of secret authentication information such as passwords (ISO 27001: 2013-A9.3.1, 2022-A5.17)
-7.1 Authentication and 7.3 Password Policy detail secure authentication requirements including password complexity, change policies, and two-factor authentication (7.2.2).</t>
+          <t>4.1 Use of secret authentication information; 7.2 Authorisation and Access Control; 7.3 Password Policy (Information Security Policy [Internal].docx)</t>
         </is>
       </c>
       <c r="H89" t="inlineStr"/>
@@ -5581,7 +5562,7 @@
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>Password confidentiality, complexity, change requirements, two-factor authentication, session timeouts, and password management are detailed (Pages 2-8).</t>
+          <t>Password confidentiality, complexity, change requirements, and secure handling defined; two-factor authentication enforced; session management policies in place.</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
@@ -5623,18 +5604,24 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Section 3.3.2 Contract Management and 3.3.1 Business Partnership Contracts include capacity utilisation monitoring and planning. Section 6.13.13 mentions monitoring system and audit logs for capacity thresholds. Section 6.8 Backup &amp; Restoration Policy includes monitoring disk space utilization.</t>
+          <t>Section 3.3.1 Business Partnership Contracts includes capacity utilisation monitoring and planning as a contract area. Section 6.13.13 Database Security Policy mentions monitoring system and audit logs for capacity thresholds. Section 6.8 Backup &amp; Restoration Policy includes monitoring disk space utilisation.</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>3.3.1 Business Partnership Contracts includes capacity utilisation monitoring and planning.
-6.13.13 System and audit logs are to be monitored regularly to alert of any capacity thresholds being crossed.
-6.7.5 Disk space utilisation must be periodically or continuously monitored.</t>
-        </is>
-      </c>
-      <c r="H90" t="inlineStr"/>
-      <c r="I90" t="inlineStr"/>
+          <t>3.3.1 Business Partnership Contracts; 6.13.13 System and audit logs are to be monitored regularly to alert of any capacity thresholds being crossed; 6.7.5 Disk space utilisation must be periodically or continuously monitored. (Information Security Policy [Internal].docx)</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>No explicit documented capacity management process or formal capacity planning policy.</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>Develop and document a formal capacity management process including monitoring, forecasting, and resource planning.</t>
+        </is>
+      </c>
       <c r="J90" t="inlineStr">
         <is>
           <t>Management Review Team Meeting E-WISE 2025 [Restricted].docx.pdf</t>
@@ -5642,17 +5629,17 @@
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>Capacity management is referenced in contract management and monitoring system logs (Pages 7-8).</t>
+          <t>Capacity utilization monitoring and planning included in business partnership contracts; monitoring system and audit logs for capacity thresholds; disk space utilization monitored.</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>Provide explicit capacity management procedures and monitoring reports.</t>
+          <t>None</t>
         </is>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>🟡</t>
+          <t>✅</t>
         </is>
       </c>
     </row>
@@ -5684,35 +5671,34 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Section 6.1 Controls against malware details prevention, detection, and recovery measures including blocking unauthorized software, installing/updating antivirus, and proxy filtering. Section 6.6 Protection against malicious software elaborates antivirus installation, real-time scanning, update management, and incident reporting.</t>
+          <t>Section 6.1 Controls against malware defines prevention, detection, and recovery measures including anti-virus software installation and updates, blocking unauthorized software, and proxy filtering. Section 6.6 Protection against malicious software details antivirus requirements, real-time scanning, virus handling, and update logging.</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>6.1 Controls against malware such as viruses (ISO 27001: 2013-A12.2.1, 2022-A8.7)
-6.6 Protection against malicious software (ISO 27001: 2013-A12.2.1, 2022-A8.7) with detailed antivirus policies and procedures.</t>
+          <t>6.1 Controls against malware; 6.6 Protection against malicious software (Information Security Policy [Internal].docx)</t>
         </is>
       </c>
       <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr">
         <is>
-          <t>Management Review Team Meeting E-WISE 2025 [Restricted].docx.pdf</t>
+          <t>No direct evidence found in provided documents.</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>Controls against malware including antivirus installation, updates, and incident reporting are referenced (Pages 7-8).</t>
+          <t>No explicit malware protection policies or antivirus details found.</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Document malware protection controls and evidence of implementation.</t>
         </is>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>❌</t>
         </is>
       </c>
     </row>
@@ -5744,25 +5730,24 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Section 6.2 Management of technical vulnerabilities describes processes for acquiring vulnerability information, identification, evaluation, testing, and deployment of patches. Section 6.5 Security incident management includes subscription to vulnerability notifications.</t>
+          <t>Section 6.2 Management of technical vulnerabilities describes processes for acquiring vulnerability information, identification, evaluation, testing, and deployment of patches. Section 8.2 Application development PEN-test &amp; audits includes PEN-testing and vulnerability remediation timelines.</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>6.2 Management of technical vulnerabilities, such as patch management (ISO 27001: 2013-A12.6.1, 2022-A8.8)
-6.5.2 IT Security function subscriptions to vulnerability and virus breakout notification mechanisms.</t>
+          <t>6.2 Management of technical vulnerabilities; 8.2 Application development PEN-test &amp; audits (Information Security Policy [Internal].docx)</t>
         </is>
       </c>
       <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr">
         <is>
-          <t>Vendor risk assesment - Jumpcloud [Internal].docx.pdf</t>
+          <t>Management Review Team Meeting E-WISE 2025 [Restricted].docx.pdf</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>Management of technical vulnerabilities includes subscription to vulnerability notifications and patch management (Page 7).</t>
+          <t>Processes for acquiring vulnerability information, identification, evaluation, testing, and deployment of patches described; PEN-testing and vulnerability remediation timelines included.</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
@@ -5804,36 +5789,34 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Section 6.3 Configuration Management requires documentation of design and configuration of key IT systems, annual review, and updates upon significant changes. Section 6.9 Network Security Policy includes configuration change logging and backup.</t>
+          <t>Section 6.3 Configuration Management requires documentation of design and configuration of key IT systems, annual review, and updates upon significant changes. Section 6.9 Network Security Policy includes configuration backup and change logging for network devices.</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>6.3 Configuration Management (ISO 27001: 2013-A12.1.2, 2022-A8.32, 2022-A8.9)
-6.9.17 All changes to firewall configuration must be logged and the tool should ensure log integrity.
-6.9.35 A backup of all networking and security devices managed must be taken before and after any major configuration changes.</t>
+          <t>6.3 Configuration Management; 6.9.35 A backup of all networking and security devices managed must be taken before and after any major configuration changes. (Information Security Policy [Internal].docx)</t>
         </is>
       </c>
       <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr">
         <is>
-          <t>Management Review Team Meeting E-WISE 2025 [Restricted].docx.pdf</t>
+          <t>No direct evidence found in provided documents.</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>Configuration management requires documentation and review of key IT systems; change logging and backups are maintained (Pages 7-8).</t>
+          <t>No explicit configuration management documentation or change logging found.</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Document configuration management and change logging procedures.</t>
         </is>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>❌</t>
         </is>
       </c>
     </row>

--- a/outputs/analysis.xlsx
+++ b/outputs/analysis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M93"/>
+  <dimension ref="A1:M94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,7 +503,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>4,5</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -528,12 +528,12 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>The document contains a comprehensive Information Security Policy detailing the scope, responsibilities, enforcement, and management commitment to information security based on ISO27001 standards.</t>
+          <t>Information Security Policy document defines baseline control measures, scope, enforcement, roles and responsibilities, and management commitment to information security aligned with ISO27001 standards.</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Information Security Policy [Internal].docx - Sections: Confidentiality Statement, Chapter 1 General, Section 1.1 Scope of the policy, Section 1.4 Enforcements</t>
+          <t>Information Security Policy [Internal].docx: 'This document details the policies and standards for the information security of Reducate... These policies will be based on ISO27001 standards.'; 'This policy will come into effect after approval by the director of Reducate.'; 'Chapter 1 General' and 'Section - 1.1 Scope of the policy'.</t>
         </is>
       </c>
       <c r="H2" t="inlineStr"/>
@@ -545,17 +545,17 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Information security policy is shared with all employees; information security goals are communicated and added to training; policy documentation is reviewed and updated as part of management review.</t>
+          <t>Information Security Policy is referenced as an internal document relevant to the meeting and shared with all employees; security objectives and measures are reviewed and updated regularly.</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Include explicit excerpts or summaries of the Information Security Policy document to strengthen evidence of baseline control measures and management commitment.</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>🟡</t>
         </is>
       </c>
     </row>
@@ -587,34 +587,34 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Acceptable use policies are defined in the Information Technology Acceptable Usage Policy, including rules on IT, email, internet use, and disciplinary actions for misuse.</t>
+          <t>Acceptable use policies for IT, email, internet, and mobile devices are defined with disciplinary measures for violations.</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Information Security Policy [Internal].docx - Chapter 5 Personnel Security - 5.1 Information Technology Acceptable Usage Policy</t>
+          <t>Information Security Policy [Internal].docx: '5.1 Information Technology Acceptable Usage Policy' and subsections including '5.1.3 IT Policy', '5.1.4 IT Security', '5.1.5 Personal Use of Company Facilities', and '5.1.11 Mobile equipment Usage'.</t>
         </is>
       </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>No direct evidence found in provided documents.</t>
+          <t>Management Review Team Meeting E-WISE 2025 [Restricted].docx.pdf</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>No explicit reference to acceptable use policies or disciplinary actions for misuse found in evidence text.</t>
+          <t>Disciplinary processes and training updates are discussed, implying enforcement of acceptable use policies.</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Include acceptable use policy documentation and evidence of enforcement.</t>
+          <t>Provide explicit acceptable use policies and disciplinary measures documentation.</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>🟡</t>
         </is>
       </c>
     </row>
@@ -642,12 +642,12 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Documented procedures exist for return of company assets upon termination of employment, including laptops, mobile phones, and other equipment.</t>
+          <t>Procedures for return of company assets at termination of employment are documented and enforced.</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Information Security Policy [Internal].docx - Section 2.4 Termination of employment</t>
+          <t>Information Security Policy [Internal].docx: 'Section - 2.4 Termination of employment' and 'Section - 2.1.2 Equipment usage' specify return of laptops, mobile phones, and other assets on last day of employment.</t>
         </is>
       </c>
       <c r="H4" t="inlineStr"/>
@@ -659,7 +659,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Checklist includes 'Inleveren sleutel en tag' and 'Afmelden Office' and 'Computer deinstalleren' indicating documented procedures for return of assets upon termination.</t>
+          <t>Checklist for termination includes return of keys, office sign-off, and computer de-registration, indicating enforcement of asset return procedures.</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -701,34 +701,34 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Information classification schemes are prepared based on value, legal requirements, and handling caution. Asset owners classify and manage information assets accordingly.</t>
+          <t>Information classification schemes are established based on value, legal requirements, and handling caution.</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Information Security Policy [Internal].docx - Chapter 3 Management of Information - 3.1 Classification of information; Chapter 4 Asset Classification and Control</t>
+          <t>Information Security Policy [Internal].docx: 'Section - 3.1 Classification of information' and '4. Asset Classification and Control' describe classification schemes and responsibilities.</t>
         </is>
       </c>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr">
         <is>
-          <t>No direct evidence found in provided documents.</t>
+          <t>Management Review Team Meeting E-WISE 2025 [Restricted].docx.pdf</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>No explicit information classification scheme or asset owner responsibilities found in evidence text.</t>
+          <t>Information security objectives include data confidentiality and integrity, implying classification schemes, but no explicit classification scheme documentation found.</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Provide documented classification schemes and evidence of implementation.</t>
+          <t>Provide documented information classification schemes.</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>🟡</t>
         </is>
       </c>
     </row>
@@ -756,29 +756,29 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Information must be labelled and handled according to classification schemes. Guidelines for labelling and handling are provided.</t>
+          <t>Information assets are labelled and handled according to classification schemes with guidelines for labelling and handling.</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Information Security Policy [Internal].docx - Chapter 3 Management of Information - 3.2 Labelling and handling of information; Chapter 4 Asset Classification and Control - 4.1 Information Labelling and Handling</t>
+          <t>Information Security Policy [Internal].docx: 'Section - 3.2 Labelling and handling of information' and '4.1 Information Labelling and Handling' specify labelling and handling requirements.</t>
         </is>
       </c>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr">
         <is>
-          <t>No direct evidence found in provided documents.</t>
+          <t>No explicit evidence found in provided documents.</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>No explicit labelling guidelines or evidence of labelling information according to classification found.</t>
+          <t>No mention of labelling of information assets or guidelines for labelling and handling.</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Include labelling procedures and evidence of application.</t>
+          <t>Develop and document labelling procedures aligned with classification schemes.</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
@@ -815,24 +815,24 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Electronic messaging and information transfer are controlled and protected according to classification. External electronic communications require prior approval.</t>
+          <t>Information transfer is controlled with classification-based protection and approval for external electronic messaging.</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Information Security Policy [Internal].docx - Chapter 7 Security of Communication - 7.3 Electronic messaging; Chapter 5 Personnel Security - 5.1.1 Data Protection</t>
+          <t>Information Security Policy [Internal].docx: 'Section - 7.3 Electronic messaging' and '6.7 Electronic Messaging System Controls' describe protection of electronic messages and approval for external services.</t>
         </is>
       </c>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr">
         <is>
-          <t>No direct evidence found in provided documents.</t>
+          <t>Management Review Team Meeting E-WISE 2025 [Restricted].docx.pdf</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>No explicit controls or approvals for electronic messaging or information transfer found in evidence text.</t>
+          <t>Information transfer controls are implied in risk assessments and audit results but no explicit procedures or approvals for external electronic messaging are documented.</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -842,7 +842,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>🟡</t>
         </is>
       </c>
     </row>
@@ -870,29 +870,29 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Access control policies are defined, including user registration, de-registration, access restriction, privileged access management, and periodic audits.</t>
+          <t>Access control policies and procedures are established including user registration, access restriction, privileged access management, and periodic audits.</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Information Security Policy [Internal].docx - Chapter 5 Access Control; Chapter 7 Access Control policy</t>
+          <t>Information Security Policy [Internal].docx: 'Chapter 5 Access Control' sections 5.1 to 5.4 detail user registration, access restriction, privileged access, and user access management.</t>
         </is>
       </c>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Management Review Team Meeting E-WISE 2025 [Restricted].docx.pdf</t>
+          <t>Matrix rechten Zoho (Internal).pdf</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Centralised password manager 'Zoho Vault' implemented; audit results mention one remaining point concerning A.5.15; access rights and segregation of duties discussed in relation to Zoho rights.</t>
+          <t>Access rights and user roles are managed and documented within Zoho CRM and other systems; periodic audits are implied in management review.</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Clarify and resolve remaining audit points related to access control.</t>
+          <t>Include formal access control policy documents and audit reports.</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
@@ -925,34 +925,34 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>User identities are managed through formal registration and de-registration processes with unique user IDs and controls on shared or anonymous IDs.</t>
+          <t>Formal processes for user registration, de-registration, and unique user ID assignment are in place.</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Information Security Policy [Internal].docx - Chapter 5 Access Control - 5.1 User registration and de-registration; Chapter 7 Access Control policy - 7.1 Authentication</t>
+          <t>Information Security Policy [Internal].docx: 'Section - 5.1 User registration and de-registration' and '7.1 Authentication' specify identity management controls.</t>
         </is>
       </c>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr">
         <is>
-          <t>No direct evidence found in provided documents.</t>
+          <t>2.4.7 Template checklist indienst.PNG.pdf</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>No explicit user identity management process or registration/deregistration procedures found.</t>
+          <t>Checklist for onboarding includes account creation and system sign-up, indicating formal user registration processes.</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Provide documented identity management procedures.</t>
+          <t>Provide documented user registration and de-registration procedures.</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>🟡</t>
         </is>
       </c>
     </row>
@@ -980,12 +980,12 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Password policies and secret authentication information handling are defined, including password complexity, confidentiality, change management, and secure storage.</t>
+          <t>Password policies and controls for secret authentication information are defined and enforced.</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Information Security Policy [Internal].docx - Chapter 4 Management of Computers and Information Equipment - 4.1 Use of secret authentication information; Chapter 7 Access Control policy - 7.3 Password Policy</t>
+          <t>Information Security Policy [Internal].docx: 'Section - 4.1 Use of secret authentication information such as passwords' and '7.3 Password Policy' detail password management and authentication controls.</t>
         </is>
       </c>
       <c r="H10" t="inlineStr"/>
@@ -997,7 +997,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Password policies enforce minimum length (12-14 characters), complexity (uppercase, lowercase, numbers, special characters), password history, expiration (120-180 days), lockout after 10 failed attempts, and two-factor authentication enabled for all users.</t>
+          <t>Password policies enforce minimum length, complexity, history, expiration, lockout, and two-factor authentication for all users.</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -1035,34 +1035,34 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Access rights are assigned based on business needs with formal authorization, periodic review, and revocation upon termination or role change.</t>
+          <t>Access rights are assigned based on business needs with formal authorization and periodic review.</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Information Security Policy [Internal].docx - Chapter 5 Access Control - 5.1 User registration and de-registration; Chapter 7 Access Control policy - 7.2 Authorisation and Access Control; 7.4 User Access Management</t>
+          <t>Information Security Policy [Internal].docx: 'Section - 5.2 Information access restriction' and '7.2 Authorisation and Access Control' describe access rights management.</t>
         </is>
       </c>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Management Review Team Meeting E-WISE 2025 [Restricted].docx.pdf</t>
+          <t>Matrix rechten Zoho (Internal).pdf</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Access rights assigned based on business needs with formal authorization; periodic reviews discussed in management review; Zoho rights and financial system rights used for segregation of duties.</t>
+          <t>Access rights are assigned based on roles with formal authorization; changes are tracked and reviewed.</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Include evidence of periodic access rights review documentation.</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>🟡</t>
         </is>
       </c>
     </row>
@@ -1094,12 +1094,12 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Contracts and SLAs with external service providers are required, including verification of credentials, NDA agreements, access control, and security policy awareness.</t>
+          <t>Supplier relationships are managed with contracts, SLAs, credential verification, NDA requirements, access control, and ongoing contract management.</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Information Security Policy [Internal].docx - Chapter 3 Business partnership and Outsourcing</t>
+          <t>Information Security Policy [Internal].docx: '3. Business partnership and Outsourcing' sections 3.1 to 3.3 detail supplier security requirements and contract management.</t>
         </is>
       </c>
       <c r="H12" t="inlineStr"/>
@@ -1111,17 +1111,17 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Third-party management is operating effectively; vendor risk assessments are performed; third-party register is up to date; contracts and audits are reviewed.</t>
+          <t>Vendor risk assessments and contract management are discussed; third-party register is maintained and reviewed.</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Provide supplier contracts including information security clauses and SLAs.</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>🟡</t>
         </is>
       </c>
     </row>
@@ -1153,12 +1153,12 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Roles and responsibilities are clearly defined for CEO, ISSC, ISWG, Operational Directors, IT Asset Managers, Managers, Users, and Executive responsibilities with competencies and duties outlined.</t>
+          <t>Clear assignment of roles and responsibilities for information security including CEO, ISSC, Operational Director, IT Asset Managers, Managers, Users, and committees (ISSC, ISWG).</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Information Security Policy [Internal].docx - Section 1.5 Roles and Responsibilities</t>
+          <t>Information Security Policy [Internal].docx: 'Section - 1.5 Roles and Responsibilities' and '2. Security Organisation' sections detailing roles such as CEO, ISSC, ISWG, IT Asset Managers, Managers, Users.</t>
         </is>
       </c>
       <c r="H13" t="inlineStr"/>
@@ -1170,17 +1170,17 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Attendees list includes Managing Director, ISMS Responsible, System Administrator, Finance Manager, and Project Manager, indicating defined roles; responsibilities discussed in meeting; roles such as ISSC and ISWG referenced throughout.</t>
+          <t>Attendees list includes CEO, ISMS Responsible, System Administrator, Finance Manager, and Project Manager, indicating clear assignment of roles and responsibilities for information security.</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Provide documented role descriptions or responsibility matrices to further clarify assignments.</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>🟡</t>
         </is>
       </c>
     </row>
@@ -1212,12 +1212,12 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Supplier agreements and contracts with external service providers must include security requirements, risk assessments before contract signing, and clauses for compliance with Reducate's security policy.</t>
+          <t>Supplier agreements and contracts must include information security requirements and risk assessments before signing. Contracts must cover scope, roles, SLAs, access control, incident handling, change management, audits, data protection, and termination.</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Section 3.1 Business Partnership Security; 3.1.3 All outsourcing to External Service Providers must be formalised through a contract; 3.1.5 External Service Providers must be made aware of relevant parts of Reducate security policy; 3.3 Business Partnership Contracts; 3.3.1 Contract clauses including access control, incident handling, change management, audits, data protection; 3.3.2 Contract management responsibilities. (Information Security Policy [Internal].docx)</t>
+          <t>Information Security Policy [Internal].docx, Section 3.3 Business Partnership Contracts (pages 20-22): 'Before the contract is signed... risk reducing controls... must be incorporated...'; 'Contracts must address... access control mechanisms, IT Incident &amp; Problem handling process, IT Change management process, periodic audits, data protection.'</t>
         </is>
       </c>
       <c r="H14" t="inlineStr"/>
@@ -1229,17 +1229,17 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Supplier contracts include security requirements; risk assessments before contract signing discussed; compliance with Reducate's security policy monitored.</t>
+          <t>Contracts and risk assessments are part of vendor management; however, no explicit contract clauses or risk assessment documents are provided.</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Include sample contracts with security requirements and risk assessment reports.</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>🟡</t>
         </is>
       </c>
     </row>
@@ -1271,12 +1271,12 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>ICT supply chain risks are managed by verifying credentials of external service providers, maintaining a list of key IT suppliers, and ensuring compliance with security policies and contracts.</t>
+          <t>Credentials of external service providers must be verified; NDAs signed; access authorized and limited; network connectivity controlled; key suppliers maintained and reviewed annually.</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Section 3.1.1 Credentials of potential External Service Providers must be verified; 3.1.9 Key IT-suppliers list maintained and reviewed yearly; 5.1.1 Data Protection and GDPR compliance with external vendors; 3.1 Business Partnership Security (Information Security Policy [Internal].docx)</t>
+          <t>Information Security Policy [Internal].docx, Section 3.1 Business Partnership Security and 3.2 Non-Disclosure Agreements (pages 19-20): 'Credentials of potential External Service Providers must be verified'; 'All External Service Providers must sign NDA'; 'Access must be authorised'; 'Network connectivity must comply with policies'; 'Key IT-suppliers list maintained and reviewed yearly.'</t>
         </is>
       </c>
       <c r="H15" t="inlineStr"/>
@@ -1288,17 +1288,17 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>ICT supply chain risks managed by verifying credentials of external service providers; key IT suppliers list maintained; compliance ensured.</t>
+          <t>Credential verification and NDA requirements for external providers are mentioned in vendor risk assessments.</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Provide documented evidence of NDA signings and access authorizations.</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>🟡</t>
         </is>
       </c>
     </row>
@@ -1330,12 +1330,12 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Supplier contracts are managed by responsible persons with periodic reviews of performance using SLA metrics, quality, timeliness, communication, compliance, and security posture.</t>
+          <t>Contracts include periodic audits and performance reviews; a responsible person manages contracts; change management processes are in place for IT infrastructure and services.</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Section 3.3.2 Contract Management - responsible person allocated; periodic reviews on performance using SLA metrics and other indicators; 3.3 Business Partnership Contracts (Information Security Policy [Internal].docx)</t>
+          <t>Information Security Policy [Internal].docx, Section 3.3.2 Contract Management (page 21): 'Responsible person allocated for contract management'; 'Periodic reviews on performance including SLA metrics, quality, timeliness, compliance'; Section 6.2 Operational change control (page 33): 'Changes to information processing facilities and systems should be controlled with formal management responsibilities and procedures.'</t>
         </is>
       </c>
       <c r="H16" t="inlineStr"/>
@@ -1347,7 +1347,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Supplier contracts managed by responsible persons; periodic reviews of performance using SLA metrics, quality, timeliness, communication, compliance, and security posture.</t>
+          <t>Contract management includes periodic audits and performance reviews; change management processes are in place.</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -1389,34 +1389,34 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Use of cloud services must be approved by IT-Manager and ISWG; access restricted per access control policies; yearly review of files shared externally; encryption and secure communication protocols enforced.</t>
+          <t>Use of cloud services must be approved by IT-Manager and ISWG; access restricted per access control policies; cloud applications must use TLS 1.2 or higher; annual security testing of TLS; cloud email services preferred.</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Section 7.5 Guideline for Usage of Public Cloud Services; 4.1.3 Reporting Information Assets - yearly review of files shared externally; 10.5 Cloud applications must have TLS 1.2 or higher; 10.6 Yearly TLS security test; 10.7 Approved SSL providers; 5.1.1 Data Protection and GDPR compliance; 5.1.4 File sharing only via approved directories (Information Security Policy [Internal].docx)</t>
+          <t>Information Security Policy [Internal].docx, Section 7.5 Guideline for Usage of Public Cloud Services (page 38): 'Use of any Cloud based applications and/or services must be approved'; Section 10 Cryptography (page 52): 'Cloud applications must have minimum TLS 1.2 or higher'; Section 6.7 Electronic Messaging System Controls (page 44): 'Use Google mail or other cloud email services.'</t>
         </is>
       </c>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr">
         <is>
-          <t>No direct evidence found in provided documents.</t>
+          <t>Management Review Team Meeting E-WISE 2025 [Restricted].docx.pdf</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>No explicit approval process or yearly review of cloud services found in evidence text.</t>
+          <t>Cloud service use requires approval by IT Manager and ISWG; TLS 1.2+ usage and annual security testing are mentioned.</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Document cloud service approval and review procedures.</t>
+          <t>Provide documented cloud service approval records and test reports.</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>🟡</t>
         </is>
       </c>
     </row>
@@ -1448,12 +1448,12 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Incident management procedures are established including monitoring, detection, analysis, reporting, assessment, handling, recovery, and reporting to parent companies; IT Security function maintains subscriptions to vulnerability notifications; monthly ISSC incident briefings.</t>
+          <t>Incident response procedures established covering monitoring, detection, analysis, reporting, recovery, and communication; IT Security function responsible; incident logs maintained; CAPA forms used; incident response plan included in Business Continuity Plan.</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Chapter 9 Management of Information Security Incidents; Section 9.1 Responsibilities and procedures; 6.5 Security incident management; 6.5.1 to 6.5.7 detailed incident management controls; monthly ISSC briefings; Appendix - 6.5 Security incident management (Information Security Policy [Internal].docx)</t>
+          <t>Information Security Policy [Internal].docx, Section 6.5 Security incident management (pages 34-36): 'Security Incident management responsibilities and procedures established'; 'Incident response policy implemented'; 'Procedures for monitoring, detecting, analysing, reporting'; 'CAPA forms used'; Business Continuity Plan E-WISE [Restricted].docx.pdf, Appendix 1 Incident Response Plan (pages 11-12).</t>
         </is>
       </c>
       <c r="H18" t="inlineStr"/>
@@ -1465,7 +1465,7 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Incident management procedures established; IT Security function maintains subscriptions to vulnerability notifications; monthly ISSC incident briefings include incident discussions.</t>
+          <t>Incident response procedures and logs are maintained; CAPA forms used; incident response plan included in Business Continuity Plan.</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -1507,12 +1507,12 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Procedures exist for assessment and classification of information security events as incidents; IT Security function analyzes incidents and uses CAPA forms; decisions on incident classification and response are documented.</t>
+          <t>Procedures for assessment and classification of information security events as incidents; IT Security function analyses and identifies causes; decisions on incident classification and escalation made by designated roles.</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Chapter 9 Section 9.1(b) Procedures for assessment and decision of information security events; 6.5.5 Procedures to analyze and identify cause of incidents; CAPA forms usage; 6.5.6 Documentation and review of emergency actions; Appendix - 6.5 Security incident management (Information Security Policy [Internal].docx)</t>
+          <t>Information Security Policy [Internal].docx, Section 6.5 Security incident management (page 35): 'Procedures for assessment and decision of information security events'; 'IT Security function analyses and identifies cause'; 'All significant incidents briefed to ISSC monthly.'</t>
         </is>
       </c>
       <c r="H19" t="inlineStr"/>
@@ -1524,7 +1524,7 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Procedures exist for assessment and classification of information security events; CAPA forms used; incident analysis and documentation performed.</t>
+          <t>Procedures for assessment and classification of incidents are discussed; IT Security function analyses causes and escalates incidents.</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -1566,12 +1566,12 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Incident response procedures include containment, eradication, recovery, reporting to ISSC and parent companies; emergency actions documented and reviewed; users instructed to report incidents promptly.</t>
+          <t>Incident handling procedures include containment, eradication, recovery; emergency actions documented and reviewed; communication responsibilities defined; incident response plan activated automatically.</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Chapter 9 Section 9.1(c) Procedures for handling information security incidents; 6.5.1 to 6.5.7 Security incident management; 5.1.4 Users must report security violations immediately; Appendix - 6.5 Security incident management (Information Security Policy [Internal].docx)</t>
+          <t>Information Security Policy [Internal].docx, Section 6.5 Security incident management (pages 35-36): 'Emergency actions documented and reviewed'; Business Continuity Plan E-WISE [Restricted].docx.pdf, Section 2.4 Plan activation; plan deactivation (page 6): 'Incident Response Plan activated automatically on incident.'</t>
         </is>
       </c>
       <c r="H20" t="inlineStr"/>
@@ -1583,7 +1583,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Incident response procedures include containment, eradication, recovery, reporting to ISSC and parent companies; emergency actions documented and reviewed; users instructed to report incidents promptly.</t>
+          <t>Incident handling procedures include containment, eradication, recovery; communication responsibilities defined; plan activated automatically.</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -1625,12 +1625,12 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Yearly simulations and reviews of incidents are conducted; CAPA forms used to document corrective actions; ISSC reviews incidents and takes remediation actions; lessons learned incorporated into ISMS.</t>
+          <t>Incident reviews and lessons learned incorporated; CAPA forms used; incident reports reviewed by ISSC; restoration and resumption plans developed post-incident.</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>6.5.5 Incident analysis and cause identification; yearly simulation recommended; 6.5.6 Documentation and review with ISSC or ISWG; 5.1.2 Data incidents and GDPR improvements discussed biannually; Chapter 10 Section 10.1 Review of information security; Appendix - 6.5 Security incident management (Information Security Policy [Internal].docx)</t>
+          <t>Information Security Policy [Internal].docx, Section 6.5 Security incident management (page 36): 'CAPA forms used to describe analysis'; 'All emergency actions reviewed with ISSC or ISWG'; Business Continuity Plan E-WISE [Restricted].docx.pdf, Chapter 3 Restoring and resuming business activities (pages 9-10).</t>
         </is>
       </c>
       <c r="H21" t="inlineStr"/>
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Yearly simulations and reviews of incidents conducted; CAPA forms used for corrective actions; ISSC reviews incidents and takes remediation actions; lessons learned incorporated into ISMS.</t>
+          <t>Incident reviews and lessons learned incorporated; CAPA forms used; incident reports reviewed by ISSC; restoration plans developed.</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -1684,12 +1684,12 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Evidence collection procedures include audit trails, issue tracking, documentation of incident steps; evidence retained for analysis, reporting, and reconstruction; CAPA forms used.</t>
+          <t>Procedures include collection and preservation of evidence such as audit trails; documentation of incident handling steps; evidence captured in issue tracking tools.</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>6.5.5 Collection of evidence such as audit trails; all evidence captured in issue tracking tool; documentation of emergency actions; Appendix - 6.5 Security incident management (Information Security Policy [Internal].docx)</t>
+          <t>Information Security Policy [Internal].docx, Section 6.5 Security incident management (page 36): 'Collection of evidence such as audit trails'; 'All evidence captured in issue tracking tool to ensure analysis, reporting and reconstruction.'</t>
         </is>
       </c>
       <c r="H22" t="inlineStr"/>
@@ -1701,17 +1701,17 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>CAPA made and improvement implemented regarding evidence collection in incident procedures; audit trails and documentation referenced.</t>
+          <t>CAPA made and improvement implemented for evidence collection in incident procedures; incident logs maintained.</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Provide detailed procedures for evidence collection and preservation.</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>🟡</t>
         </is>
       </c>
     </row>
@@ -1739,12 +1739,12 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Business Continuity Plan defines management of incidents and recovery within deadlines; preservation of damaged assets; assessment and action plans; communication and resource allocation during disruptions.</t>
+          <t>Business Continuity Plan defines management of incidents and recovery within deadlines; resources and communication plans defined; order of recovery and interdependencies documented.</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Business Continuity Plan E-WISE [Restricted].docx.pdf; Chapter 2 Business Continuity Plan; Sections 2.1 to 3.3; Incident Response Plan; Disaster Recovery Plan; Communication; Resource management; Preservation of damaged assets; Action plans (Business Continuity Plan E-WISE [Restricted].docx.pdf)</t>
+          <t>Business Continuity Plan E-WISE [Restricted].docx.pdf, Chapter 2 Business Continuity Plan (pages 4-9): 'Defines how E-WISE will manage incidents and recover activities'; 'Order of recovery for activities'; 'Communication plans and resources defined.'</t>
         </is>
       </c>
       <c r="H23" t="inlineStr"/>
@@ -1756,7 +1756,7 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Business Continuity Plan includes restore tests; restore tests successfully done; requirements for restore tests to be updated in 2025.</t>
+          <t>Business Continuity Plan defines incident management and recovery within deadlines; restore tests successfully done and planned updates noted.</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -1798,12 +1798,12 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Segregation of duties is mandated when assigning responsibilities, with additional controls such as monitoring and audit trails recommended where segregation is difficult.</t>
+          <t>Segregation of duties is ensured when assigning responsibilities to reduce risk of misuse; monitoring and audit trails are considered where segregation is difficult.</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Information Security Policy [Internal].docx - Section 1.5 Roles and Responsibilities; Chapter 6 IT Operations Controls - 6.4 Segregation of Duties</t>
+          <t>Information Security Policy [Internal].docx: 'Section - 2.1.5 Change of employment' and '6.4 Segregation of Duties' - 'Reducate and group companies management must ensure segregation of duties when assigning responsibilities.'</t>
         </is>
       </c>
       <c r="H24" t="inlineStr"/>
@@ -1815,17 +1815,17 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Segregation of duties is determined based on Zoho rights and financial system rights; risk mapping has been redone to address segregation of duties issues.</t>
+          <t>Segregation of duties is addressed in audit results and risk mapping, specifically mentioning segregation based on Zoho rights and financial system rights.</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Include formal documented procedures or controls demonstrating segregation of duties in practice.</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>🟡</t>
         </is>
       </c>
     </row>
@@ -1853,34 +1853,34 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Business Continuity Plan includes Disaster Recovery Plans for IT infrastructure and services; recovery time objectives defined; resources and responsibilities assigned; restoration and resumption steps detailed.</t>
+          <t>Disaster Recovery Plans for IT infrastructure and services included; resources and recovery time objectives defined; restoration and resumption procedures documented.</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Business Continuity Plan E-WISE [Restricted].docx.pdf; Chapter 2 Sections 2.1 to 3.3; Appendix 6 Disaster Recovery Plans; Recovery time objectives for activities; Resource allocation and responsibilities (Business Continuity Plan E-WISE [Restricted].docx.pdf)</t>
+          <t>Business Continuity Plan E-WISE [Restricted].docx.pdf, Appendix 6 Disaster Recovery Plans (page 14); Chapter 2 Sections 2.7, 2.9, 3 (pages 7-10): 'Recovery time objectives defined'; 'Resources required listed'; 'Restoration and resumption steps described.'</t>
         </is>
       </c>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Business Continuity Plan [Confidential] referenced but not provided in evidence text.</t>
+          <t>ELEARN4_Restoring_Test_(staging).pdf</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>No direct evidence of Disaster Recovery Plans or ICT readiness details found in provided evidence text.</t>
+          <t>Restore tests for IT infrastructure (EFS and Aurora) performed successfully with documented procedures.</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Provide documented Disaster Recovery Plans and ICT readiness evidence.</t>
+          <t>None</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
     </row>
@@ -1912,12 +1912,12 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Legal, statutory, regulatory and contractual requirements are identified and referenced; GDPR compliance ensured; processing agreements signed with customers and vendors; data protection discussed regularly.</t>
+          <t>List of legal, regulatory, contractual and other requirements maintained; compliance with GDPR and other laws ensured; regular reviews and updates performed.</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Section 5.1.1 Data Protection - GDPR compliance; Section 3.1 Scope of policy; Section 9 Compliance &amp; Legal; Section 3.1 Business Continuity Plan references legal and contractual requirements; Appendix - 5 Personnel Security; Information Security Policy [Internal].docx</t>
+          <t>Business Continuity Plan E-WISE [Restricted].docx.pdf, Chapter 1 Reference documents (page 4): 'List of Legal, Regulatory, Contractual and Other Requirements'; Information Security Policy [Internal].docx, Section 5.1.1 Data Protection (page 23): 'We follow European laws and GDPR'; Section 3.1 Business Partnership Security (page 19): 'Contracts include data protection clauses.'</t>
         </is>
       </c>
       <c r="H26" t="inlineStr"/>
@@ -1929,7 +1929,7 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Legal, statutory, regulatory and contractual requirements identified and referenced; GDPR compliance ensured; processing agreements signed; GDPR meetings conducted.</t>
+          <t>Legal, regulatory, and contractual requirements including GDPR compliance are maintained and reviewed regularly.</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -1971,29 +1971,29 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Procedures ensure compliance with intellectual property rights including copyright, design rights, trade secrets; software licensing respected; inventory maintained; infringement risks acknowledged.</t>
+          <t>Procedures ensure compliance with intellectual property rights including copyright, design rights, trade secrets; software licensing respected; inventory maintained.</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Section 9.1 Intellectual Property Rights; 9.2 Software Licensing; 9.1.1 Procedures for legal restrictions; 9.2.2 IT-Department maintains software inventory; Information Security Policy [Internal].docx</t>
+          <t>Information Security Policy [Internal].docx, Section 9.1 Intellectual Property Rights (page 48): 'Appropriate procedures to ensure compliance with legal restrictions on intellectual property'; Section 9.2 Software Licensing: 'Employees must respect licensing agreements.'</t>
         </is>
       </c>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr">
         <is>
-          <t>No direct evidence found in provided documents.</t>
+          <t>No explicit evidence found in provided documents.</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>No explicit procedures or evidence related to intellectual property rights compliance found.</t>
+          <t>No documented procedures or inventory related to intellectual property rights compliance found.</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Document intellectual property rights procedures and evidence.</t>
+          <t>Develop and document procedures ensuring compliance with intellectual property rights.</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
@@ -2030,12 +2030,12 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Records and information disposal done securely; personnel information shredded or overwritten per EU law; backup and restoration policies ensure data integrity and availability.</t>
+          <t>Information disposal must be secure; personnel information shredded or overwritten per law; media disposal controlled and documented.</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Section 9.3 Information Disposal; 6.8 Backup &amp; Restoration Policy; 6.8.8 Media Disposal; 5.1.1 Data Protection; Information Security Policy [Internal].docx</t>
+          <t>Information Security Policy [Internal].docx, Section 9.3 Information Disposal (page 48): 'Information disposal must be done through secure means'; 'Personnel information must be shredded or irretrievably overwritten'; Section 6.8 Backup &amp; Restoration Policy (pages 43-46): 'Backup media stored securely and disposed with authorisation.'</t>
         </is>
       </c>
       <c r="H28" t="inlineStr"/>
@@ -2047,7 +2047,7 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Secure storage of decommissioned equipment; physical destruction of storage media prior to disposal; authorized disposal by specialized companies; IT staff responsible for secure handling.</t>
+          <t>Secure disposal procedures for information and media disposal are defined, including physical destruction of storage media and controlled removal by recycling companies.</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
@@ -2089,12 +2089,12 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Privacy and protection of PII ensured per relevant legislation; GDPR compliance; data incidents discussed biannually; data leaks process in place; access controls and encryption applied.</t>
+          <t>Privacy and protection of PII ensured per relevant legislation; GDPR compliance maintained; data leakage incident response defined; training and reporting in place.</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Section 3.3 Privacy and protection of PII; 5.1.1 Data Protection and GDPR compliance; 5.1.2 Data incidents and GDPR improvements; 6.10 End-point Security Policy; Information Security Policy [Internal].docx</t>
+          <t>Information Security Policy [Internal].docx, Section 5.1.1 Data Protection (page 23): 'We follow GDPR'; Section 5.1.2 Data incidents and GDPR laws discussed biannually; Business Continuity Plan E-WISE [Restricted].docx.pdf, Appendix 1 Incident Response Plan (page 11): 'Data leakage (GDPR) incident response defined.'</t>
         </is>
       </c>
       <c r="H29" t="inlineStr"/>
@@ -2106,7 +2106,7 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>GDPR compliance discussed; data incidents reviewed; access controls and encryption applied; data leaks process in place.</t>
+          <t>GDPR meetings conducted; data leakage incident response and training are in place; privacy and protection of PII ensured.</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
@@ -2148,12 +2148,12 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Yearly ISO internal and external audits required for all group companies; ISSC and ISWG review security policies and incidents annually; management reviews include security organisation and changes.</t>
+          <t>Annual internal and external ISO 27001 audits performed; ISSC and ISWG review security organisation and incidents; management reviews conducted yearly.</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Section 8.2.7 Yearly ISO internal and external audit; Chapter 10 Section 10.1 Review of information security; 2.1.2 and 2.1.3 Security organisation reviewed yearly by ISSC and ISWG; Information Security Policy [Internal].docx</t>
+          <t>Information Security Policy [Internal].docx, Section 8.2 Application development PEN-test &amp; audits (page 50): 'Yearly ISO internal and external audit required'; Section 2.1 Security Organisation (page 18): 'ISSC reviews yearly'; Section 10.1 Review of information security (page 37): 'Security policy reviewed yearly by ISSC and ISWG.'</t>
         </is>
       </c>
       <c r="H30" t="inlineStr"/>
@@ -2165,7 +2165,7 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Yearly ISO internal and external audits performed; ISSC and ISWG review security policies and incidents annually; management reviews include security organization and changes.</t>
+          <t>Annual internal and external audits performed; ISSC and ISWG review security organization and incidents; management reviews conducted yearly.</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
@@ -2207,12 +2207,12 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Compliance expected from all employees and contractors; disciplinary actions for non-compliance; policies enforced by management; audits and reviews conducted; documented procedures maintained.</t>
+          <t>Policies and standards defined and enforced; disciplinary processes for non-compliance; regular training and awareness; incident reporting and management; management reviews.</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Confidentiality Statement; Section 1.5 Roles and Responsibilities; Section 2.3 Disciplinary process; Section 9.4 Non-Compliance; Chapter 10 Evaluation and Improvement; 6.1 Documented Operating procedures; Information Security Policy [Internal].docx</t>
+          <t>Information Security Policy [Internal].docx, Section 1.5 Roles and Responsibilities (page 14); Section 2.3 Disciplinary process (page 22); Section 2.2 Information security awareness, education and training (page 22); Section 6.5 Security incident management (pages 34-36); Section 9.4 Non-Compliance (page 48); Section 10.1 Review of information security (page 37).</t>
         </is>
       </c>
       <c r="H31" t="inlineStr"/>
@@ -2224,7 +2224,7 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Compliance expected from all employees and contractors; disciplinary actions for non-compliance discussed; policies enforced by management; audits and reviews conducted.</t>
+          <t>Policies and standards are defined and enforced; disciplinary processes, training, incident reporting, and management reviews are documented.</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
@@ -2262,24 +2262,24 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Operating procedures are documented and maintained; changes authorized by management; procedures cover incident management, change management, backup, recovery, and system operations.</t>
+          <t>Operating procedures documented and maintained for incident management, change management, backup, recovery, system restart, and other key processes.</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Section 6.1 Documented Operating procedures; Commentary on formal documents and change authorization; Information Security Policy [Internal].docx</t>
+          <t>Information Security Policy [Internal].docx, Section 6.1 Documented Operating procedures (page 32): 'Operating procedures identified by the security policy should be documented and maintained'; 'Includes incident management, change management, backup and restoration procedures.'</t>
         </is>
       </c>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Reducate - Disposal of devices [Confidential].docx</t>
+          <t>Management Review Team Meeting E-WISE 2025 [Restricted].docx.pdf</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Documented procedures for equipment disposal and handling; changes authorized by management; procedures cover incident management and change management.</t>
+          <t>Operating procedures for incident management, change management, backup, recovery, and system restart are documented and maintained.</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
@@ -2321,12 +2321,12 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Management responsibilities include setting security objectives, resource allocation, policy enforcement, training, review, and continuous improvement. Documented procedures for incident management, change management, and review processes are in place.</t>
+          <t>Management is responsible for setting security objectives, resource allocation, policy enforcement, training, review, and continuous improvement.</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Information Security Policy [Internal].docx - Section 1.5 Roles and Responsibilities; Chapter 6 IT Operations Controls; Chapter 9 Management of Information Security Incidents; Chapter 10 Evaluation and Improvement</t>
+          <t>Information Security Policy [Internal].docx: 'Section - 1.5 Roles and Responsibilities' and 'Executive responsibilities' listing management duties including setting objectives, resource management, training, review, and continuous security.</t>
         </is>
       </c>
       <c r="H33" t="inlineStr"/>
@@ -2338,7 +2338,7 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Management review includes setting security objectives, resource allocation, policy enforcement, training updates, review of audit results, incident management, and continual improvement actions.</t>
+          <t>Management review meetings cover setting security objectives, resource allocation, policy enforcement, training updates, audit results, and continual improvement actions.</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
@@ -2376,34 +2376,34 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Procedures exist for contacting authorities in case of incidents such as data leakage, facility disasters, and other emergencies.</t>
+          <t>Contact details and procedures for engaging with authorities in case of incidents are defined in the Business Continuity Plan and Incident Response Plan.</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Business Continuity Plan E-WISE [Restricted].docx.pdf - Appendix 1 Incident Response Plan - Facilities and infrastructure section; Contact details for authorities and insurance companies</t>
+          <t>Business Continuity Plan E-WISE [Restricted].docx.pdf: Appendix 1 Incident Response Plan (Page 11) lists contacts for local authorities, police, fire department (call 112) for facility disasters.</t>
         </is>
       </c>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr">
         <is>
-          <t>No direct evidence found in provided documents.</t>
+          <t>Management Review Team Meeting E-WISE 2025 [Restricted].docx.pdf</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>No explicit procedures or references to contact with authorities in case of incidents found in the evidence text.</t>
+          <t>Business Continuity Plan and Incident Response Plan are referenced as confidential documents relevant to incident management and contact with authorities.</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Include documented procedures or evidence of contact with authorities for incidents such as data leakage or disasters.</t>
+          <t>Provide explicit procedures or contact details for authorities within the evidence.</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>🟡</t>
         </is>
       </c>
     </row>
@@ -2431,34 +2431,34 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>The document states that Reducate and group companies should regularly get security news from external vendors, forums, newsletters, or magazines to stay updated.</t>
+          <t>The organisation maintains subscriptions and receives security news from external vendors, forums, newsletters, and government security authorities.</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Information Security Policy [Internal].docx - Section 2.1 Security Organisation - 2.1.7</t>
+          <t>Information Security Policy [Internal].docx: '2.1.7 Any company part of the Reducate group should regularly get security news from external vendors, forums, newsletters or magazines...'; '2.1.8 Any company part of the Reducate group should be informed, if applicable, by local government security authorities...'</t>
         </is>
       </c>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr">
         <is>
-          <t>No direct evidence found in provided documents.</t>
+          <t>Management Review Team Meeting E-WISE 2025 [Restricted].docx.pdf</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>No mention of contact with special interest groups or regular receipt of security news from external vendors or forums.</t>
+          <t>Subscriptions and communication with external parties such as GDPR meetings and vendor risk assessments are mentioned.</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Document and provide evidence of engagement with special interest groups or receipt of security news.</t>
+          <t>Include specific examples or lists of special interest groups and subscription details.</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>🟡</t>
         </is>
       </c>
     </row>
@@ -2490,12 +2490,12 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Subscriptions to vulnerability and virus breakout notifications are maintained and circulated to relevant teams. Security news is regularly obtained from external sources.</t>
+          <t>Processes to acquire and circulate information about vulnerabilities and threats are established.</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Information Security Policy [Internal].docx - Section 2.1 Security Organisation - 2.1.7; Chapter 6 IT Operations Controls - 6.5 Security incident management</t>
+          <t>Information Security Policy [Internal].docx: '6.5 Security incident management' and '6.2 Management of technical vulnerabilities' describe acquiring vulnerability info, circulating to support teams, and maintaining subscriptions to vulnerability notifications.</t>
         </is>
       </c>
       <c r="H36" t="inlineStr"/>
@@ -2507,17 +2507,17 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>IT Security function maintains subscriptions to vulnerability notifications; monthly ISSC incident briefings include vulnerability discussions.</t>
+          <t>Risk assessments and improvements are discussed regularly, indicating processes to acquire and circulate threat intelligence.</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Document formal threat intelligence processes and circulation methods.</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>🟡</t>
         </is>
       </c>
     </row>
@@ -2549,12 +2549,12 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Information Security Steering Committee (ISSC) and Information Security Working Group (ISWG) review project plans for compliance with security policy. SDLC policies and quality checks are documented and reviewed periodically.</t>
+          <t>Security requirements are integrated into project management and system development lifecycle (SDLC) with documented policies and quality checks.</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Information Security Policy [Internal].docx - Section 2.1 Security Organisation - 2.2, 2.3; Chapter 8 Systems Development Policy - 8.1 Security in application development</t>
+          <t>Information Security Policy [Internal].docx: '8.1 Security in application development' details SDLC policies, quality checks, testing, change control, and security embedded in projects.</t>
         </is>
       </c>
       <c r="H37" t="inlineStr"/>
@@ -2566,17 +2566,17 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Information Security Steering Committee (ISSC) and ISWG review security improvements and project compliance as part of management review and audit results.</t>
+          <t>Project management roles are included in meeting attendees; however, no explicit mention of integration of information security in project management or SDLC.</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Provide documented policies or evidence of security integration in project management and SDLC.</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>❌</t>
         </is>
       </c>
     </row>
@@ -2604,34 +2604,34 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>IT Asset Managers are responsible for maintaining an updated inventory of information assets, including classification and management.</t>
+          <t>IT Asset Managers maintain and periodically update inventories of hardware, software, and information assets with physical location and user assignment.</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Information Security Policy [Internal].docx - Section 1.5 Roles and Responsibilities; Chapter 6 IT Operations Controls - 6.11 Asset Management</t>
+          <t>Information Security Policy [Internal].docx: '6.11 Asset Management' - 'IT Asset Manager must maintain and periodically update information on the company’s hardware asset and its installed software/components, physical location, and the user assigned to the equipment.'</t>
         </is>
       </c>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr">
         <is>
-          <t>No direct evidence found in provided documents.</t>
+          <t>Matrix rechten Zoho (Internal).pdf</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>No explicit inventory of information and associated assets or responsibility assignment found in evidence text.</t>
+          <t>IT Asset Managers maintain access rights and roles within Zoho CRM and other systems, indicating control over asset inventories and user assignments.</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Provide documented evidence of asset inventory maintenance and classification.</t>
+          <t>Include explicit inventory lists and update schedules for hardware, software, and information assets.</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>🟡</t>
         </is>
       </c>
     </row>
@@ -2663,12 +2663,12 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Background verification and competence checks performed on all candidates; includes CV checks, interviews, security tests, references, and certificates of conduct as applicable; compliant with laws and proportional to business needs.</t>
+          <t>Background verification and competence checks performed on all candidates; minimum qualifications defined; security tests for developers; documented screening process.</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Section 2.1 Screening; Background checks (Curriculum Vitae); 2 Physical/online meetings; security test via Testdome.com; former work reference; certificate of conduct (VOG); Information Security Policy [Internal].docx</t>
+          <t>Information Security Policy [Internal].docx, Chapter 2 Human Resource Security, Section 2.1 Screening (page 21): 'Background checks (CV), physical/online meetings, security test for developers, possible certificate of conduct.'</t>
         </is>
       </c>
       <c r="H39" t="inlineStr"/>
@@ -2680,17 +2680,17 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Onboarding checklist includes background verification steps such as CV checks, interviews, and security tests; documented onboarding process.</t>
+          <t>Onboarding checklist includes background verification steps and competence checks for new hires.</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Provide documented screening process and records of background checks.</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>🟡</t>
         </is>
       </c>
     </row>
@@ -2717,21 +2717,29 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>🟡</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Background verification and competence checks on candidates; documented procedures for equipment usage and return; formal termination and change of employment processes.</t>
+          <t>Section 2.1 Screening describes background checks and competence verification for candidates. Termination and change of employment processes are documented in Section 2.4 and 2.5. Employee responsibilities and compliance expectations are outlined in the Information Security Policy.</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Chapter 2 Human Resource Security, Section 2.1 Screening; Section 2.1.2 Equipment usage; Section 2.4 Termination of employment; Section 2.5 Change of employment. (Information Security Policy [Internal].docx)</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr"/>
-      <c r="I40" t="inlineStr"/>
+          <t>Information Security Policy [Internal].docx - Chapter 2 Human Resource Security, Section 2.1 Screening; Section 2.4 Termination of employment; Section 2.5 Change of employment.</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>No explicit mention of formal terms and conditions of employment including security requirements embedded in contracts or employment agreements.</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>Include explicit documented terms and conditions of employment that incorporate information security responsibilities and obligations.</t>
+        </is>
+      </c>
       <c r="J40" t="inlineStr">
         <is>
           <t>2.4.7 Template checklist indienst.PNG.pdf and 2.4.8 Template checklist uitdienst.PNG.pdf</t>
@@ -2739,7 +2747,7 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Onboarding and offboarding checklists include equipment usage and return, formal termination and change of employment processes.</t>
+          <t>Screening and termination processes are documented in onboarding and offboarding checklists; employee responsibilities outlined in Information Security Policy.</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
@@ -2786,7 +2794,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Section 2.2 Information security awareness, education and training (Information Security Policy [Internal].docx)</t>
+          <t>Information Security Policy [Internal].docx - Chapter 2 Human Resource Security, Section 2.2 Information security awareness, education and training.</t>
         </is>
       </c>
       <c r="H41" t="inlineStr"/>
@@ -2798,7 +2806,7 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Security training updated with new topics; training completion at 100%; communication sent to all staff; training planned for 2025.</t>
+          <t>Security training updates and awareness programs are planned and tracked with 100% completion reported.</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
@@ -2840,12 +2848,12 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Failure to comply with the Information Security Policy or related rules may result in disciplinary action including termination.</t>
+          <t>Failure to comply with the Information Security Policy or related rules may result in disciplinary action including termination of employment.</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Section 2.3 Disciplinary process; Section 9.4 Non-Compliance (Information Security Policy [Internal].docx)</t>
+          <t>Information Security Policy [Internal].docx - Chapter 2 Human Resource Security, Section 2.3 Disciplinary process.</t>
         </is>
       </c>
       <c r="H42" t="inlineStr"/>
@@ -2857,7 +2865,7 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Disciplinary actions for failure to comply with Information Security Policy discussed; termination included as possible action.</t>
+          <t>Disciplinary processes for non-compliance including termination are documented and enforced.</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
@@ -2899,12 +2907,12 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Access to information systems and physical access removed on termination day; return of company belongings; documented termination and role change processes.</t>
+          <t>Access to information systems and physical access are removed on the last day of employment. Company belongings must be returned. Documented termination and role change processes are in place.</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Section 2.4 Termination of employment; Section 2.5 Change of employment (Information Security Policy [Internal].docx)</t>
+          <t>Information Security Policy [Internal].docx - Chapter 2 Human Resource Security, Section 2.4 Termination of employment; Section 2.5 Change of employment.</t>
         </is>
       </c>
       <c r="H43" t="inlineStr"/>
@@ -2916,7 +2924,7 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Checklist includes removal of access and return of company belongings on termination day; documented termination and role change processes.</t>
+          <t>Checklist includes removal of access and return of company belongings on last day of employment.</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
@@ -2954,34 +2962,34 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>All external service providers must sign NDAs or have equivalent confidentiality clauses; third-party NDAs for employees must be approved.</t>
+          <t>All external service providers must sign NDAs or have equivalent confidentiality clauses in contracts. Employee NDAs required by third parties must be approved and signed per policy.</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Section 3.2 Non-Disclosure Agreements (Information Security Policy [Internal].docx)</t>
+          <t>Information Security Policy [Internal].docx - Section 3.2 Non-Disclosure Agreements.</t>
         </is>
       </c>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr">
         <is>
-          <t>No direct evidence found in provided documents.</t>
+          <t>Management Review Team Meeting E-WISE 2025 [Restricted].docx.pdf</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>No explicit NDAs or confidentiality agreements for external providers or employees found.</t>
+          <t>NDAs and confidentiality agreements are part of vendor risk assessments and contract management.</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Provide documented NDAs and confidentiality agreements evidence.</t>
+          <t>Provide signed NDA samples and approval records.</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>🟡</t>
         </is>
       </c>
     </row>
@@ -3004,39 +3012,47 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>🟡</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Remote access requires IT department approval; mobile device policy includes registration, physical protection, encryption, and restrictions on private equipment use; home/cloud working supported.</t>
+          <t>Remote working is implied as employees except Studio Department can work from home/cloud. Mobile device policies and remote access controls are defined.</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Section 8.1 Mobile device policy; Section 6.9 Network Security Policy (remote access controls); Business Continuity Plan (Section 2.6 Sites and transportation) (Information Security Policy [Internal].docx, Business Continuity Plan E-WISE.pdf)</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr"/>
-      <c r="I45" t="inlineStr"/>
+          <t>Business Continuity Plan E-WISE [Restricted].docx.pdf - Section 2.6 Sites and transportation; Information Security Policy [Internal].docx - Chapter 8 Mobile Computing (Telecommuting), Section 8.1 Mobile device policy; Section 6.9 Network Security Policy.</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>No explicit comprehensive remote working policy covering security controls, user responsibilities, and technical safeguards.</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>Develop and document a formal remote working policy addressing security requirements, user responsibilities, and technical controls.</t>
+        </is>
+      </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>No direct evidence found in provided documents.</t>
+          <t>Business Continuity Plan referenced in Management Review Team Meeting E-WISE 2025 [Restricted].docx.pdf</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>No explicit remote working or mobile device policies found in evidence text.</t>
+          <t>Remote working allowed for most employees except Studio Department; mobile device policies and remote access controls are defined.</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Document remote working and mobile device policies and evidence of enforcement.</t>
+          <t>Provide explicit remote working policy documents.</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>🟡</t>
         </is>
       </c>
     </row>
@@ -3064,12 +3080,12 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Users must report all security violations immediately to managers or ISWG; IT Security function manages incident reporting and response.</t>
+          <t>Procedures for reporting security incidents are established. Users must report suspected security breaches immediately. Incident response plans and logs are maintained.</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Section 5.1.4 IT Security; Section 6.5 Security incident management (Information Security Policy [Internal].docx)</t>
+          <t>Information Security Policy [Internal].docx - Chapter 9 Management of Information Security Incidents, Section 9.1 Responsibilities and procedures; Business Continuity Plan E-WISE [Restricted].docx.pdf - Appendix 1 Incident Response Plan; Appendix 2 Incident Log.</t>
         </is>
       </c>
       <c r="H46" t="inlineStr"/>
@@ -3081,7 +3097,7 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Users instructed to report all security violations immediately; IT Security function manages incident reporting and response.</t>
+          <t>Procedures for reporting security incidents are established; users must report suspected breaches immediately; incident response plans and logs maintained.</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
@@ -3123,34 +3139,34 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Physical access secured by card swipe, key locks; central alarm system with yearly code changes; secured system racks; visitor escort policy; emergency access procedures.</t>
+          <t>Physical access is controlled via card swipe systems and personal keys. Central alarm systems per floor are in place with periodic code changes.</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Section 7.6 Physical Access (Information Security Policy [Internal].docx)</t>
+          <t>Information Security Policy [Internal].docx - Section 7.6 Physical Access, 7.6.1 and 7.6.2.</t>
         </is>
       </c>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr">
         <is>
-          <t>No direct evidence found in provided documents.</t>
+          <t>Key holders server room _ Studios (Internal).pdf</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>No explicit physical security perimeter controls such as card swipe or alarm system mentioned.</t>
+          <t>Access to studios controlled by key holders; keys are assigned and updated; physical location details provided.</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Provide documented physical security perimeter controls.</t>
+          <t>Include evidence of card swipe systems and alarm systems per floor.</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>🟡</t>
         </is>
       </c>
     </row>
@@ -3178,12 +3194,12 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Secure storage and destruction of backup media; media disposal documented and authorized; use of lockable fire-resistant storage; regular inventory and disposal controls.</t>
+          <t>Storage media disposal and handling policies are defined. Media disposal must ensure data recovery is not possible. Regular checks on portable storage device usage are performed.</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Section 6.8 Backup &amp; Restoration Policy; Section 6.10 End-point Security Policy; Section 9.3 Information Disposal (Information Security Policy [Internal].docx)</t>
+          <t>Information Security Policy [Internal].docx - Section 6.10 End-point Security Policy; Section 6.8 Backup &amp; Restoration Policy; Section 9.3 Information Disposal.</t>
         </is>
       </c>
       <c r="H48" t="inlineStr"/>
@@ -3195,7 +3211,7 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Secure storage and destruction of backup media; media disposal documented and authorized; use of lockable fire-resistant storage.</t>
+          <t>Storage media disposal and handling policies defined; data recovery prevention ensured; regular checks on portable storage usage performed.</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
@@ -3228,39 +3244,47 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>🟡</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Uninterruptible power supply (UPS) in place for routers and switches; facilities managed to ensure availability of utilities.</t>
+          <t>Backup power (UPS) for network devices is specified. Electricity supply contacts and responsibilities are defined in Business Continuity Plan.</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Section 6.9.36 Network Security Policy (Information Security Policy [Internal].docx); Business Continuity Plan Section 2.9 Required resources (Business Continuity Plan E-WISE.pdf)</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr"/>
-      <c r="I49" t="inlineStr"/>
+          <t>Information Security Policy [Internal].docx - Section 6.9.36; Business Continuity Plan E-WISE [Restricted].docx.pdf - Appendix 5 Key Contacts; Section 2.9 Required resources.</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>No comprehensive documented controls for utilities supporting IT infrastructure (e.g., HVAC, water, fire suppression).</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>Develop and document controls for supporting utilities to ensure availability and protection.</t>
+        </is>
+      </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>No direct evidence found in provided documents.</t>
+          <t>Business Continuity Plan referenced in Management Review Team Meeting E-WISE 2025 [Restricted].docx.pdf</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>No explicit mention of UPS or supporting utilities in evidence text.</t>
+          <t>Backup power (UPS) for network devices specified; electricity supply contacts and responsibilities defined.</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>Document supporting utilities and UPS availability.</t>
+          <t>None</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
     </row>
@@ -3288,29 +3312,29 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Cabling installed and secured according to local and European regulations; regular maintenance and updates of perimeter devices including cabling.</t>
+          <t>Cabling must be installed and secured according to local or European regulations.</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Section 6.9.37 Cabling security; Section 6.9.38 Network device maintenance (Information Security Policy [Internal].docx)</t>
+          <t>Information Security Policy [Internal].docx - Section 6.9.37 Cabling security.</t>
         </is>
       </c>
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr">
         <is>
-          <t>No direct evidence found in provided documents.</t>
+          <t>No explicit evidence found in provided documents.</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>No explicit cabling security or maintenance details found.</t>
+          <t>No documentation on cabling security or installation according to regulations.</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Document cabling security controls.</t>
+          <t>Develop and document cabling security procedures.</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
@@ -3343,42 +3367,42 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Section 6.9.38 mentions that devices in the network perimeter should have regular maintenance and software updates if required or recommended by the supplier.</t>
+          <t>The Business Continuity Plan (E-WISE) mentions repair and purchasing decisions for equipment post-incident (Page 9-10). The Information Security Policy (Reducate) references regular maintenance and software updates for perimeter devices and network equipment (Section 6.9.38) and physical asset management (Section 6.11).</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>6.9.38 Any devices in the perimeters of our network should have regular maintenance and software updates if this is required or recommended by the supplier. Tv’s, portable streaming devices, presenter equipment, music systems, mobile devices and anything else which is connected to our network. (Information Security Policy [Internal].docx)</t>
+          <t>Business Continuity Plan E-WISE [Restricted].docx.pdf Pages 9-10: Section 3.2 Assessment of the situation &amp; determining options and responsibilities; Information Security Policy [Internal].docx Section 6.9.38: 'Any devices in the perimeters of our network should have regular maintenance and software updates if this is required or recommended by the supplier.' Section 6.11 Asset Management.</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>No comprehensive equipment maintenance policy covering all company equipment; focus is only on network perimeter devices.</t>
+          <t>No detailed documented procedure or schedule for equipment maintenance is described. No explicit responsibility assignment or maintenance records mentioned.</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Develop and document a formal equipment maintenance policy covering all IT and physical equipment, including schedules, responsibilities, and procedures.</t>
+          <t>Develop and document formal equipment maintenance procedures including schedules, responsibilities, and record-keeping to ensure consistent maintenance of physical and IT equipment.</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>No direct evidence found in provided documents.</t>
+          <t>Management Review Team Meeting E-WISE 2025 [Restricted].docx.pdf and Reducate - Disposal of devices [Confidential].docx</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>No explicit equipment maintenance procedures found.</t>
+          <t>Regular maintenance and software updates for perimeter devices and network equipment referenced; repair and purchasing decisions post-incident documented.</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>Document equipment maintenance schedules and procedures.</t>
+          <t>None</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
     </row>
@@ -3406,12 +3430,12 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Section 6.8.8 details secure destruction of information storage media ensuring data recovery is not possible, including retention of destruction evidence. Section 6.11.4 and 6.11.5 address proper purchase and disposal of hardware and software with formal approval required for disposal.</t>
+          <t>Information disposal and media disposal policies are defined, including secure destruction of media to prevent data recovery. Return of company equipment upon termination is mandated.</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>6.8.8 Media Disposal – All information storage media containing company information classified as ‘Internal’, ‘Confidential’ or ‘Restricted’, must be destroyed, ensuring data recovery is not possible. Evidence of media destruction should be retained. (Information Security Policy [Internal].docx)</t>
+          <t>Information Security Policy [Internal].docx Sections 2.4 Termination of employment; 6.8.8 Media Disposal: 'All information storage media containing company information classified as ‘Internal’, ‘Confidential’ or ‘Restricted’, must be destroyed, ensuring data recovery is not possible.' Section 6.11.5: 'Employees are not allowed to dispose of hardware and software and take business belongings offside our offices without formal approval.'</t>
         </is>
       </c>
       <c r="H52" t="inlineStr"/>
@@ -3423,7 +3447,7 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Secure destruction of information storage media ensuring data recovery is not possible; retention of destruction evidence; formal approval required for disposal.</t>
+          <t>Secure disposal or reuse of equipment is defined including secure destruction of media and return of company equipment upon termination.</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
@@ -3461,34 +3485,34 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Access controlled via card swipe, keys signed out and returned; visitors escorted; third-party access controlled; emergency access procedures in place.</t>
+          <t>Access to buildings and system racks is controlled and logged. Visitors and uninducted staff must be escorted. Emergency access procedures exist.</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Section 7.6 Physical Access (Information Security Policy [Internal].docx)</t>
+          <t>Information Security Policy [Internal].docx - Section 7.6 Physical Access, 7.6.3 to 7.6.10.</t>
         </is>
       </c>
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr">
         <is>
-          <t>No direct evidence found in provided documents.</t>
+          <t>Key holders server room _ Studios (Internal).pdf</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>No explicit physical entry controls or visitor escort policies found.</t>
+          <t>Access to server rooms controlled and logged; visitors must be escorted; emergency access procedures exist.</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>Document physical entry controls and visitor management.</t>
+          <t>None</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
     </row>
@@ -3516,34 +3540,34 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>System racks locked; doors locked by default; higher security levels available on request; secured storage for backup media with environmental controls.</t>
+          <t>System racks and rooms are locked by default. Higher security levels can be implemented on request. Keys are signed for and returned upon personnel leaving.</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Section 7.6 Physical Access; Section 6.8 Backup &amp; Restoration Policy (Information Security Policy [Internal].docx)</t>
+          <t>Information Security Policy [Internal].docx - Section 7.6 Physical Access, 7.6.3 to 7.6.6.</t>
         </is>
       </c>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr">
         <is>
-          <t>No direct evidence found in provided documents.</t>
+          <t>Key holders server room _ Studios (Internal).pdf</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>No explicit securing of offices, rooms, or facilities described.</t>
+          <t>System racks and rooms are locked by default; keys signed for and returned upon personnel leaving.</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>Provide evidence of securing offices and facilities.</t>
+          <t>None</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
     </row>
@@ -3575,37 +3599,37 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Central alarm system per floor with yearly code changes; no explicit mention of CCTV or continuous monitoring.</t>
+          <t>Central alarm systems exist with code changes. No explicit mention of CCTV or continuous monitoring.</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Section 7.6 Physical Access (Information Security Policy [Internal].docx)</t>
+          <t>Information Security Policy [Internal].docx - Section 7.6 Physical Access, 7.6.1.</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>No explicit mention of CCTV or physical security monitoring systems beyond alarm system.</t>
+          <t>Lack of explicit physical security monitoring controls such as CCTV or intrusion detection.</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>Implement and document physical security monitoring such as CCTV or access logs to enhance perimeter security monitoring.</t>
+          <t>Implement and document physical security monitoring measures including CCTV or intrusion detection systems.</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>No direct evidence found in provided documents.</t>
+          <t>No explicit evidence of CCTV or continuous physical security monitoring found.</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Central alarm system mentioned in policy but no explicit mention of CCTV or continuous monitoring in evidence text.</t>
+          <t>Central alarm systems exist with code changes; no mention of CCTV.</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>Consider adding CCTV or continuous monitoring for enhanced physical security.</t>
+          <t>Consider implementing and documenting CCTV or continuous monitoring.</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
@@ -3633,29 +3657,37 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>🟡</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Use of local country regulations for protection against natural disasters, malicious attacks or accidents; backup storage rooms equipped with fire prevention and detection, temperature and humidity control.</t>
+          <t>Local country regulations for protection against natural disasters and malicious attacks are referenced. Backup power (UPS) for network devices is specified.</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Section 7.6.12 Physical Access; Section 6.8.12 Backup &amp; Restoration Policy (Information Security Policy [Internal].docx)</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr"/>
-      <c r="I56" t="inlineStr"/>
+          <t>Information Security Policy [Internal].docx - Section 7.6.12; Section 6.9.36 Uninterruptible power supply; Section 7.6.12.</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>No detailed documented controls for environmental threats such as fire suppression, flood protection, or environmental monitoring.</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>Develop and document comprehensive physical and environmental threat protection controls.</t>
+        </is>
+      </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Reducate - Disposal of devices [Confidential].docx</t>
+          <t>Business Continuity Plan referenced in Management Review Team Meeting E-WISE 2025 [Restricted].docx.pdf</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Backup storage rooms equipped with fire prevention and detection, temperature and humidity control as per local regulations.</t>
+          <t>Backup power (UPS) for network devices specified; local regulations referenced for physical and environmental threats.</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
@@ -3693,34 +3725,34 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Access to secure areas limited to authorized IT personnel and approved external vendors; visitors and uninducted staff must be escorted.</t>
+          <t>Access to secure areas is restricted to authorized personnel only. Visitors must be escorted. Emergency access procedures exist.</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Section 7.6 Physical Access (Information Security Policy [Internal].docx)</t>
+          <t>Information Security Policy [Internal].docx - Section 7.6 Physical Access, 7.6.8 and 7.6.9.</t>
         </is>
       </c>
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr">
         <is>
-          <t>No direct evidence found in provided documents.</t>
+          <t>Key holders server room _ Studios (Internal).pdf</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>No explicit access restrictions to secure areas or escort policies found.</t>
+          <t>Access to secure areas restricted to authorized personnel; visitors escorted; emergency access procedures exist.</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>Document access controls for secure areas.</t>
+          <t>None</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
     </row>
@@ -3748,34 +3780,34 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Clear desk recommended; no personal or critical information left unattended; locked storage provided; regular internal audits conducted.</t>
+          <t>Clear desk policy is recommended. Personal belongings should be stored securely. Regular internal audits are performed.</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Section 5.2 General Security policy (Information Security Policy [Internal].docx)</t>
+          <t>Information Security Policy [Internal].docx - Section 5.2 General Security policy, 5.2.4 Clear desk is recommended.</t>
         </is>
       </c>
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr">
         <is>
-          <t>No direct evidence found in provided documents.</t>
+          <t>Management Review Team Meeting E-WISE 2025 [Restricted].docx.pdf</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>No explicit clear desk and clear screen policies or audit evidence found.</t>
+          <t>Clear desk policy is recommended; personal belongings stored securely; regular internal audits performed.</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>Implement and document clear desk/screen policies.</t>
+          <t>None</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
     </row>
@@ -3798,39 +3830,47 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>🟡</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Equipment secured in locked racks; physical protection of mobile devices and laptops emphasized; policies for borrowing and returning equipment.</t>
+          <t>Equipment usage and return policies are defined. Physical protection of devices is mentioned in mobile device policy. No detailed equipment siting controls.</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Section 2.1.2 Equipment usage; Section 7.6 Physical Access (Information Security Policy [Internal].docx)</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr"/>
-      <c r="I59" t="inlineStr"/>
+          <t>Information Security Policy [Internal].docx - Section 2.1.2 Equipment usage; Section 8.1 Mobile device policy.</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Lack of explicit controls on equipment siting and physical protection measures.</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>Document and implement equipment siting and protection controls to prevent damage or theft.</t>
+        </is>
+      </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Reducate - Disposal of devices [Confidential].docx</t>
+          <t>Mobile device policy referenced in Management Review Team Meeting E-WISE 2025 [Restricted].docx.pdf</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Equipment secured in locked racks; policies for borrowing and returning equipment documented.</t>
+          <t>Physical protection of devices mentioned; no detailed equipment siting controls found.</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Develop and document equipment siting and protection controls.</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>🟡</t>
         </is>
       </c>
     </row>
@@ -3853,39 +3893,47 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>🟡</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Mobile devices protected by encryption; policies for off-site use and return of company assets; strong discouragement of personal device use except approved mobile devices.</t>
+          <t>Mobile device policy addresses protection of devices off-site. Business Continuity Plan allows working from home for most employees. No detailed controls on off-premises asset security.</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Section 8.1 Mobile device policy; Section 6.10 End-point Security Policy (Information Security Policy [Internal].docx)</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr"/>
-      <c r="I60" t="inlineStr"/>
+          <t>Information Security Policy [Internal].docx - Chapter 8 Mobile Computing; Business Continuity Plan E-WISE [Restricted].docx.pdf - Section 2.6 Sites and transportation.</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>No formal documented controls for security of assets when off-premises.</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>Establish and document controls for protecting assets used or stored off-premises.</t>
+        </is>
+      </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>No direct evidence found in provided documents.</t>
+          <t>Business Continuity Plan referenced in Management Review Team Meeting E-WISE 2025 [Restricted].docx.pdf</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>No explicit policies for security of assets off-premises or mobile device encryption found.</t>
+          <t>Mobile device policy addresses off-site protection; working from home allowed; no detailed off-premises asset security controls found.</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>Document off-premises asset security policies.</t>
+          <t>Enhance controls and documentation for off-premises asset security.</t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>🟡</t>
         </is>
       </c>
     </row>
@@ -3917,34 +3965,34 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Section 2.1.2 Equipment usage defines documented procedures for borrowing company devices and return upon termination. Chapter 8 Mobile Computing (Telecommuting) Section 8.1 defines mobile device policy including registration, physical protection, encryption, and restrictions. Section 6.10 End-point Security Policy details software restrictions, patching, and virus protection on endpoint devices.</t>
+          <t>Policies cover management, registration, physical protection, and secure use of mobile and endpoint devices. Use of company-provided devices is mandated; BYOD is discouraged. Endpoint security including antivirus and patching is enforced.</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>2.1.2 Equipment usage; 8.1 Mobile device policy; 6.10 End-point Security Policy (Information Security Policy [Internal].docx)</t>
+          <t>Information Security Policy [Internal].docx Sections 5.1.4 IT Security; 5.1.11 Mobile equipment Usage; 6.6 Protection against malicious software; 6.10 End-point Security Policy; 2.1.2 Equipment usage.</t>
         </is>
       </c>
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr">
         <is>
-          <t>2.4.7 Template checklist indienst.PNG.pdf and Kopie van BS02 E-Wise Wachtwoordbeleid [Internal].pdf</t>
+          <t>Management Review Team Meeting E-WISE 2025 [Restricted].docx.pdf</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Documented procedures for borrowing company devices and return upon termination; mobile device policy includes registration, physical protection, encryption, and restrictions; endpoint security includes software restrictions, patching, and virus protection.</t>
+          <t>Endpoint security in place with ManageEngine and Microsoft Defender; company-provided devices mandated; BYOD discouraged.</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Provide endpoint device management policy documents.</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>🟡</t>
         </is>
       </c>
     </row>
@@ -3976,12 +4024,12 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Section 9.3 Information Disposal mandates secure disposal of information and shredding or irretrievable overwriting of personnel information. Section 6.8.8 Media Disposal details destruction of storage media ensuring data recovery is impossible with evidence retention.</t>
+          <t>Information disposal is performed securely with shredding or irretrievable overwriting. Media disposal is controlled and documented to prevent data recovery.</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>9.3 Information Disposal; 6.8.8 Media Disposal (Information Security Policy [Internal].docx)</t>
+          <t>Information Security Policy [Internal].docx Sections 9.3 Information Disposal; 6.8.8 Media Disposal.</t>
         </is>
       </c>
       <c r="H62" t="inlineStr"/>
@@ -3993,7 +4041,7 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>Secure disposal of information and shredding or irretrievable overwriting of personnel information; destruction of storage media ensuring data recovery is impossible with evidence retention.</t>
+          <t>Information deletion performed securely with shredding and overwriting; media disposal controlled and documented.</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
@@ -4026,42 +4074,42 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>🟡</t>
+          <t>❌</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Section 8.1.10 Testing states test environments should use limited, anonymised or pseudonymised data. Section 4.1.2 Handling Information Assets mentions general guidelines but no detailed data masking policy.</t>
+          <t>No explicit policy or procedure for data masking or anonymization in testing or production environments is described.</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>8.1.10 Test environments should only have limited data suitable to perform tests and preferable test data or anonymised data (data masking). (Information Security Policy [Internal].docx)</t>
+          <t>No mention found in provided documents.</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>No formal documented data masking policy or procedures for production data in non-production environments.</t>
+          <t>Lack of documented controls or procedures for data masking to protect sensitive data during testing or development.</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>Develop and implement a formal data masking policy and procedures for use of sensitive data in testing and development.</t>
+          <t>Develop and implement data masking policies and procedures to protect sensitive data in non-production environments.</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>No direct evidence found in provided documents.</t>
+          <t>No explicit evidence found in provided documents.</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>No detailed data masking policy found; general guidelines mentioned but no specifics.</t>
+          <t>No policy or procedure for data masking or anonymization described.</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>Develop and document data masking policies.</t>
+          <t>Develop and document data masking and anonymization procedures.</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
@@ -4089,47 +4137,47 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>🟡</t>
+          <t>❌</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Section 4.1.3 Reporting Information Assets includes yearly review of files shared externally and cleanup procedures to prevent data breaches. Section 5.1.4 IT Security prohibits unauthorized file sharing and mandates reporting of security violations. No explicit DLP technology or controls described.</t>
+          <t>No explicit mention of data leakage prevention technologies or policies beyond incident response to data leakage.</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>4.1.3 Asset Owners should yearly review files shared with external parties; 5.1.4 Users prohibited from unauthorized file sharing. (Information Security Policy [Internal].docx)</t>
+          <t>Business Continuity Plan includes incident response for data leakage (Appendix 1), but no proactive DLP controls described.</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>No explicit data leakage prevention tools or technical controls described.</t>
+          <t>No proactive data leakage prevention controls or policies documented.</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>Implement and document technical data leakage prevention controls and monitoring.</t>
+          <t>Establish and document data leakage prevention controls and monitoring to prevent unauthorized data exfiltration.</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Management Review Team Meeting E-WISE 2025 [Restricted].docx.pdf</t>
+          <t>No explicit evidence found in provided documents.</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>Yearly review of files shared externally and cleanup procedures to prevent data breaches; unauthorized file sharing prohibited; reporting of security violations mandated.</t>
+          <t>No mention of data leakage prevention technologies or policies beyond incident response.</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>Consider implementing explicit DLP technologies.</t>
+          <t>Develop and document data leakage prevention controls.</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>🟡</t>
+          <t>❌</t>
         </is>
       </c>
     </row>
@@ -4161,24 +4209,24 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Section 6.8 Backup &amp; Restoration Policy details backup frequency, retention, secure storage, off-site backups, testing, disposal, and restoration drills with defined responsibilities and documentation.</t>
+          <t>Backup policies require periodic backups of critical systems and data, secure storage of backup media, offsite storage, periodic testing of backups, and documented restoration procedures.</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>6.8 Backup &amp; Restoration Policy (Information Security Policy [Internal].docx)</t>
+          <t>Information Security Policy [Internal].docx Sections 6.8 Backup &amp; Restoration Policy; Business Continuity Plan E-WISE [Restricted].docx.pdf Section 2.9 Required resources (Page 8).</t>
         </is>
       </c>
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Reducate - Disposal of devices [Confidential].docx and Management Review Team Meeting E-WISE 2025 [Restricted].docx.pdf</t>
+          <t>Management Review Team Meeting E-WISE 2025 [Restricted].docx.pdf</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>Backup frequency, retention, secure storage, off-site backups, testing, disposal, and restoration drills documented; restore tests successfully done.</t>
+          <t>Backup policies require periodic backups, secure storage, offsite storage, testing, and restoration procedures; restore tests successfully done.</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
@@ -4220,22 +4268,22 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Section 6.15 Information security continuity requires a Business Continuity Plan. The Business Continuity Plan document defines recovery time objectives and alternative sites but lacks explicit redundancy controls for processing facilities.</t>
+          <t>Business Continuity Plan defines alternative sites and recovery time objectives for critical activities. However, explicit technical redundancy measures for IT processing facilities are not detailed.</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>6.15 Information security continuity; Business Continuity Plan E-WISE [Restricted].docx.pdf (Sections 2.7 Order of recovery for activities, 2.6 Sites and transportation)</t>
+          <t>Business Continuity Plan E-WISE [Restricted].docx.pdf Sections 2.6 Sites and transportation; 2.7 Order of recovery for activities; Appendix 3 List of Business Continuity Sites.</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>No explicit documented redundancy measures for information processing facilities.</t>
+          <t>No detailed technical redundancy controls or infrastructure redundancy plans described.</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>Document and implement redundancy controls for critical information processing facilities to ensure availability.</t>
+          <t>Document and implement technical redundancy measures for critical IT processing facilities to ensure availability.</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -4245,12 +4293,12 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Business Continuity Plan defines recovery time objectives and alternative sites; lacks explicit redundancy controls for processing facilities.</t>
+          <t>Business Continuity Plan defines alternative sites and recovery time objectives; no explicit technical redundancy measures detailed.</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>Consider adding explicit redundancy controls for processing facilities.</t>
+          <t>Consider documenting technical redundancy measures for IT processing facilities.</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
@@ -4287,24 +4335,24 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Section 6.14 Logging and Audit Policy mandates time synchronization, logging of all access from vendors and internal users, secure storage and backup of logs, and restrictions on sensitive data in logs.</t>
+          <t>Logging policies require synchronized clocks, logging of all access, secure storage and backup of logs, and regular monitoring. Logs exclude sensitive personal data.</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>6.14 Logging and Audit Policy (Information Security Policy [Internal].docx)</t>
+          <t>Information Security Policy [Internal].docx Sections 6.14 Logging and Audit Policy.</t>
         </is>
       </c>
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Log retention (Internal).pdf and Management Review Team Meeting E-WISE 2025 [Restricted].docx.pdf</t>
+          <t>Log retention (Internal).pdf</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>Logging and audit policy mandates time synchronization; logging of all access from vendors and internal users; secure storage and backup of logs; restrictions on sensitive data in logs.</t>
+          <t>Logging policies require synchronized clocks, logging of access, secure storage and backup of logs; retention periods defined per system.</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
@@ -4346,12 +4394,12 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Section 9.1 Responsibilities and procedures defines management procedures for monitoring, detecting, analyzing, and reporting information security events and incidents with escalation and recovery processes.</t>
+          <t>Procedures for monitoring, detecting, analyzing, and reporting information security events are established. Incident management and response processes are documented.</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>9.1 Responsibilities and procedures (Information Security Policy [Internal].docx)</t>
+          <t>Information Security Policy [Internal].docx Section 9.1 Responsibilities and procedures; Section 6.5 Security incident management.</t>
         </is>
       </c>
       <c r="H68" t="inlineStr"/>
@@ -4363,7 +4411,7 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>Management procedures for monitoring, detecting, analyzing, and reporting information security events and incidents with escalation and recovery processes defined.</t>
+          <t>Monitoring, detection, analysis, and reporting procedures established; incident management documented.</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
@@ -4410,19 +4458,19 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Section 6.14 Logging and Audit Policy, 6.14.1 Clock synchronisation - All computing systems managed must synchronise time with a central time server. (Information Security Policy [Internal].docx)</t>
+          <t>Information Security Policy [Internal].docx - Section 6.14 Logging and Audit Policy - 6.14.1 Clock synchronisation</t>
         </is>
       </c>
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Log retention (Internal).pdf and Management Review Team Meeting E-WISE 2025 [Restricted].docx.pdf</t>
+          <t>Log retention (Internal).pdf</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>All computing systems synchronise time with a central time server to ensure accuracy of audit logs.</t>
+          <t>All computing systems synchronize time with a central time server to ensure audit log accuracy.</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
@@ -4460,29 +4508,29 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Privileged utility programs or software should be approved by the IT department or system administrator. Laptops and desktops are pre-installed by IT with no administrator privileges enabled.</t>
+          <t>Privileged utility programs or software should be approved by the IT department or system administrator; laptops/desktops have no admin privileges enabled.</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Section 7.2.9 - A laptop or desktop computer used by employees are pre-installed by the IT department and there are no administrator privileges enabled. Privileged utility programs or software should be approved by the IT department or system administrator. (Information Security Policy [Internal].docx)</t>
+          <t>Information Security Policy [Internal].docx - Section 7.2.9 Management of privileged access rights</t>
         </is>
       </c>
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr">
         <is>
-          <t>No direct evidence found in provided documents.</t>
+          <t>No explicit evidence found in provided documents.</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>No explicit approval process for privileged utility programs or software found.</t>
+          <t>No documentation on approval or control of privileged utility programs.</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>Document approval and control of privileged utility programs.</t>
+          <t>Develop and document controls for privileged utility programs.</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
@@ -4515,34 +4563,34 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Users may not load any software not provided by Reducate’s or group companies IT-department. Only licensed software owned by Reducate or Group Companies is allowed. Unauthorized software installation is prohibited.</t>
+          <t>Users are prohibited from installing unauthorized software; only licensed software owned by the company is allowed; IT department manages software installation.</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Section 5.1.4 IT Security - Users may not load onto computers any software not provided by Reducate’s or group companies IT-department. Section 6.10 End-point Security Policy - PCs not managed by Administrators but by IT-Department personnel are only allowed to install licensed software which are owned by Reducate or Group Companies. Illegal or inappropriate software is not allowed. (Information Security Policy [Internal].docx)</t>
+          <t>Information Security Policy [Internal].docx - Section 5.1.4 IT Security; Section 6.10 End-point Security Policy - 6.10.7</t>
         </is>
       </c>
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr">
         <is>
-          <t>No direct evidence found in provided documents.</t>
+          <t>Management Review Team Meeting E-WISE 2025 [Restricted].docx.pdf</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>No explicit controls prohibiting unauthorized software installation found.</t>
+          <t>Users prohibited from installing unauthorized software; IT department manages software installation.</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>Document software installation policies and enforcement.</t>
+          <t>Provide formal documented policy on software installation.</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>🟡</t>
         </is>
       </c>
     </row>
@@ -4570,24 +4618,24 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Section 5.3 Management of privileged access rights describes restricted assignment of privileged access based on minimum business need, authorization processes, and separation of privileged IDs from regular user IDs. Section 7.4 User Access Management includes formal procedures for allocation and control of privileges.</t>
+          <t>Privileged access rights are restricted and controlled by formal authorization processes. Privileged accounts are separated from regular user accounts. Records of privileges are maintained.</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>5.3 Management of privileged access rights; 7.4 User Access Management (Information Security Policy [Internal].docx)</t>
+          <t>Information Security Policy [Internal].docx Section 5.3 Management of privileged access rights: 'The assignment of privileged access rights... includes assigning based on minimum requirement, maintaining authorization records, and separation from regular user IDs.'</t>
         </is>
       </c>
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Matrix rechten Zoho (Internal).pdf and Management Review Team Meeting E-WISE 2025 [Restricted].docx.pdf</t>
+          <t>Matrix rechten Zoho (Internal).pdf</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>Privileged access rights restricted based on minimum business need; authorization processes in place; separation of privileged IDs from regular user IDs; formal procedures for allocation and control of privileges.</t>
+          <t>Privileged access rights are controlled with formal authorization; privileged accounts separated from regular users; records maintained.</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
@@ -4629,34 +4677,34 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Network security is maintained by using firewalls, authorization, access control, monitoring logs, encryption for data over public networks, and restricting network connectivity to approved devices and users.</t>
+          <t>Network security is maintained via firewalls, access control, logging, encryption for public networks, and regular patching of network devices.</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Section 7.1 Network controls - Use of firewalls, authorization, access control, and monitoring logs. Section 6.9 Network Security Policy - All connections to external networks must be approved, firewalls must be ICSA certified, firewall rules must drop unauthorized packets, and all changes logged. (Information Security Policy [Internal].docx)</t>
+          <t>Information Security Policy [Internal].docx - Chapter 7 Security of Communication - Section 7.1 Network controls; Section 6.9 Network Security Policy</t>
         </is>
       </c>
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr">
         <is>
-          <t>No direct evidence found in provided documents.</t>
+          <t>Log retention (Internal).pdf</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>No explicit network security controls such as firewalls, encryption, or access restrictions described.</t>
+          <t>Network security maintained via firewalls, access control, logging, encryption for public networks, and regular patching.</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>Document network security controls and monitoring.</t>
+          <t>None</t>
         </is>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
     </row>
@@ -4684,34 +4732,34 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Network services are secured by restricting access, using firewalls, logging, and ensuring only authorized connections are allowed. Remote access requires approval.</t>
+          <t>Network services are controlled with firewalls, access restrictions, logging, and encryption; remote access requires approval.</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Section 6.9 Network Security Policy - Access to LAN/WAN devices restricted by access rules or user authentication. Remote access requires IT-department approval. Firewalls restrict traffic to/from partners/vendors. (Information Security Policy [Internal].docx)</t>
+          <t>Information Security Policy [Internal].docx - Section 6.9 Network Security Policy; Section 7.1 Network controls</t>
         </is>
       </c>
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr">
         <is>
-          <t>No direct evidence found in provided documents.</t>
+          <t>Management Review Team Meeting E-WISE 2025 [Restricted].docx.pdf</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>No explicit security controls for network services or remote access approval found.</t>
+          <t>Network services controlled with firewalls, access restrictions, logging, and encryption; remote access requires approval.</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>Document security of network services and remote access controls.</t>
+          <t>None</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
     </row>
@@ -4739,34 +4787,34 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Company network is logically separated and firewalls are installed to prevent unauthorized access from public or wireless networks.</t>
+          <t>Logical separation of networks is enforced; firewalls installed to prevent unauthorized access from public or wireless networks.</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Section 7.2 Segregation in networks - Firewalls must be installed and the Company's network is to be logically separated. (Information Security Policy [Internal].docx)</t>
+          <t>Information Security Policy [Internal].docx - Section 7.2 Segregation in networks</t>
         </is>
       </c>
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr">
         <is>
-          <t>No direct evidence found in provided documents.</t>
+          <t>Management Review Team Meeting E-WISE 2025 [Restricted].docx.pdf</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>No explicit segregation of networks or firewall controls described.</t>
+          <t>Logical separation of networks enforced; firewalls installed to prevent unauthorized access from public or wireless networks.</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>Document network segregation and firewall implementation.</t>
+          <t>None</t>
         </is>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
     </row>
@@ -4798,34 +4846,34 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Web filtering or URL filtering is implemented on firewalls, routers, or switches to block web traffic and protect against threats and enforce policies.</t>
+          <t>Web filtering or URL filtering is implemented on firewalls, routers, or switches to block web traffic and enforce policies.</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Section 6.9.39 Web group filtering or URL Filtering should be implemented on your firewall, routers or switches to block web traffic in order to protect against potential threats and enforce corporate or legal policies and regulations. (Information Security Policy [Internal].docx)</t>
+          <t>Information Security Policy [Internal].docx - Section 6.9.39 Web group filtering or URL Filtering</t>
         </is>
       </c>
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr">
         <is>
-          <t>No direct evidence found in provided documents.</t>
+          <t>Management Review Team Meeting E-WISE 2025 [Restricted].docx.pdf</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>No explicit web filtering or URL filtering controls described.</t>
+          <t>Web filtering implemented on firewalls and routers to block web traffic and enforce policies.</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>Implement and document web filtering controls.</t>
+          <t>None</t>
         </is>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
     </row>
@@ -4853,34 +4901,34 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Encryption is used for HDDs (Bitlocker, Filevault, Ecryptfs), VPN connections (IPSec with 3DES or AES-256), wireless networks (WPA/WPA2), and cloud applications (TLS 1.2+). Annual testing of TLS security is performed.</t>
+          <t>Encryption is used for HDDs (Bitlocker, Filevault, Ecryptfs), VPNs (IPSec with 3DES or AES-256), wireless networks (WPA/WPA2), and TLS 1.2+ for cloud applications.</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Chapter 10 Cryptography - HDD encryption for notebooks, VPN encryption standards, wireless encryption protocols, cloud applications require TLS 1.2 or higher, yearly TLS testing at SSLlabs. (Information Security Policy [Internal].docx)</t>
+          <t>Information Security Policy [Internal].docx - Chapter 10 Cryptography</t>
         </is>
       </c>
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr">
         <is>
-          <t>No direct evidence found in provided documents.</t>
+          <t>Management Review Team Meeting E-WISE 2025 [Restricted].docx.pdf</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>No explicit cryptography usage details found in evidence text.</t>
+          <t>Encryption used for HDDs (Bitlocker), VPNs (IPSec with AES-256), wireless networks (WPA2), and TLS 1.2+ for cloud applications.</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>Document cryptography usage and testing.</t>
+          <t>None</t>
         </is>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
     </row>
@@ -4908,12 +4956,12 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Documented SDLC policies and procedures exist for in-house and outsourced development. Quality checks, contract reviews, progress reports, testing, and documentation are required. Outsourced development reviewed for licensing and IP rights.</t>
+          <t>SDLC policies and procedures are documented; external providers' SDLC reviewed; quality checks and testing performed; code reviews and secure coding guidelines enforced.</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Section 8.1 Security in application development - Documented SDLC policies, review of outsourced development, quality checks, and periodic review of SDLC methodology. (Information Security Policy [Internal].docx)</t>
+          <t>Information Security Policy [Internal].docx - Chapter 8 Systems Development Policy - Section 8.1 Security in application development</t>
         </is>
       </c>
       <c r="H78" t="inlineStr"/>
@@ -4925,7 +4973,7 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Documented SDLC policies and procedures exist; quality checks, contract reviews, progress reports, testing, and documentation required; outsourced development reviewed for licensing and IP rights.</t>
+          <t>SDLC policies and procedures documented; external providers' SDLC reviewed; quality checks and testing performed; code reviews enforced.</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
@@ -4967,12 +5015,12 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Security requirements are identified and agreed prior to development. Access control to source code, audit trails, and data validation are implemented. Encryption and privacy protections are incorporated in applications.</t>
+          <t>Security requirements identified and agreed prior to development; audit trails and access controls implemented; data input validated; privacy and encryption enforced.</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Section 8.1.23 - Application forms and input fields ensure authentication, secrecy, privacy, and encryption. Section 8.1.8 - Access control to program source library. (Information Security Policy [Internal].docx)</t>
+          <t>Information Security Policy [Internal].docx - Section 8.1.23 Application security requirements</t>
         </is>
       </c>
       <c r="H79" t="inlineStr"/>
@@ -4984,7 +5032,7 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Security requirements identified and agreed prior to development; access control to source code, audit trails, and data validation implemented; encryption and privacy protections incorporated.</t>
+          <t>Application security requirements identified and agreed prior to development; audit trails and access controls implemented; data input validated.</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
@@ -4999,11 +5047,7 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
+      <c r="A80" t="inlineStr"/>
       <c r="B80" t="inlineStr">
         <is>
           <t>A.8 (Technological Controls)</t>
@@ -5011,31 +5055,39 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>A.8.28</t>
+          <t>A.8.27</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Secure coding</t>
+          <t>Secure systems architecture and engineering principles</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>🟡</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Code is reviewed by skilled personnel other than the author against secure coding guidelines. Development code is stored in secure repositories with access control and versioning.</t>
+          <t>System hardening and minimal package installation for Unix systems; IP restrictions and secure communication enforced; change management applied.</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Section 8.1.17 - Development code stored in secure repository with access control. Section 8.1.18 - Code reviewed prior to release by skilled personnel against secure coding guidelines. (Information Security Policy [Internal].docx)</t>
-        </is>
-      </c>
-      <c r="H80" t="inlineStr"/>
-      <c r="I80" t="inlineStr"/>
+          <t>Information Security Policy [Internal].docx - Section 6.12 Systems Security Policy - Unix Systems</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>No explicit mention of formal secure architecture design principles or documented architecture standards.</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>Develop and document secure systems architecture and engineering principles aligned with ISO 27001 requirements.</t>
+        </is>
+      </c>
       <c r="J80" t="inlineStr">
         <is>
           <t>Management Review Team Meeting E-WISE 2025 [Restricted].docx.pdf</t>
@@ -5043,7 +5095,7 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>Code reviewed by skilled personnel other than author against secure coding guidelines; development code stored in secure repositories with access control and versioning.</t>
+          <t>System hardening and minimal package installation for Unix systems; IP restrictions and secure communication enforced; change management applied.</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
@@ -5060,7 +5112,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -5070,12 +5122,12 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>A.8.29</t>
+          <t>A.8.28</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Security testing in development and acceptance</t>
+          <t>Secure coding</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -5085,12 +5137,12 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Application security testing is performed manually and automatically before acceptance. PEN-tests are conducted annually or after significant changes. Test environments use anonymized or masked data. Test data is removed before production deployment.</t>
+          <t>Code reviews performed by personnel other than the author; secure coding guidelines followed; code stored in secure repositories with access control and versioning.</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Section 8.1.19 - Application security testing manual and automated. Section 8.2 Application development PEN-test &amp; audits - PEN-tests yearly, controlled environment, fix timelines. Section 8.1.21 - No production data used for testing; data is sanitized or anonymized. (Information Security Policy [Internal].docx)</t>
+          <t>Information Security Policy [Internal].docx - Section 8.1.17 and 8.1.18 Secure coding and code review</t>
         </is>
       </c>
       <c r="H81" t="inlineStr"/>
@@ -5102,7 +5154,7 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>Application security testing performed manually and automatically before acceptance; PEN-tests conducted annually or after significant changes; test environments use anonymized or masked data; test data removed before production deployment.</t>
+          <t>Code reviews performed by personnel other than the author; secure coding guidelines followed; code stored in secure repositories with access control and versioning.</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
@@ -5129,12 +5181,12 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>A.8.3</t>
+          <t>A.8.29</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Information access restriction</t>
+          <t>Security testing in development and acceptance</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -5144,24 +5196,24 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Section 5.2 Information access restriction mandates access control on a need-to-know basis aligned with business requirements and classification. Section 7 Access Control policy details user registration, de-registration, and access control based on business needs and security requirements.</t>
+          <t>Application security testing performed manually and automatically; PEN-tests conducted annually; acceptance criteria defined and tested; test environments separated and use anonymized data.</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>5.2 Information access restriction; 7 Access Control policy (Information Security Policy [Internal].docx)</t>
+          <t>Information Security Policy [Internal].docx - Section 8.1.19, 8.1.20, 8.2 Application testing and PEN-tests</t>
         </is>
       </c>
       <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Matrix rechten Zoho (Internal).pdf and Management Review Team Meeting E-WISE 2025 [Restricted].docx.pdf</t>
+          <t>Management Review Team Meeting E-WISE 2025 [Restricted].docx.pdf</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>Access control on a need-to-know basis aligned with business requirements and classification; user registration, de-registration, and access control based on business needs and security requirements.</t>
+          <t>Application security testing performed manually and automatically; PEN-tests conducted annually; acceptance criteria defined and tested; test environments separated and use anonymized data.</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
@@ -5176,7 +5228,11 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="inlineStr"/>
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
       <c r="B83" t="inlineStr">
         <is>
           <t>A.8 (Technological Controls)</t>
@@ -5184,12 +5240,12 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>A.8.30</t>
+          <t>A.8.3</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Outsourced development</t>
+          <t>Information access restriction</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -5199,24 +5255,24 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Outsourced development requires review of SDLC methodology, licensing, code ownership, and intellectual property rights agreed in contracts. ISO certifications and PEN-tests are required for outsourced contractors.</t>
+          <t>Access to information and systems is controlled on a need-to-know basis aligned with business requirements and classification. Formal user registration and de-registration processes exist.</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Section 8.1.1 - Review of outsourced SDLC. Section 8.1.2 - Licensing and IP rights agreed before project start. Section 8.2.5 - Outsourced contractors require ISO certifications and PEN-tests. (Information Security Policy [Internal].docx)</t>
+          <t>Information Security Policy [Internal].docx Section 5.2 Information access restriction; Section 7.4 User Access Management; Section 5.2.1 Access Control policy.</t>
         </is>
       </c>
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Management Review Team Meeting E-WISE 2025 [Restricted].docx.pdf</t>
+          <t>Matrix rechten Zoho (Internal).pdf</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>Outsourced development requires review of SDLC methodology, licensing, code ownership, and IP rights agreed in contracts; ISO certifications and PEN-tests required for outsourced contractors.</t>
+          <t>Access to information and systems controlled on need-to-know basis; formal user registration and de-registration processes exist.</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
@@ -5231,11 +5287,7 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
+      <c r="A84" t="inlineStr"/>
       <c r="B84" t="inlineStr">
         <is>
           <t>A.8 (Technological Controls)</t>
@@ -5243,12 +5295,12 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>A.8.31</t>
+          <t>A.8.30</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Separation of development, test and production environments</t>
+          <t>Outsourced development</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -5258,12 +5310,12 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Development, test, and production environments are separated and do not share components. Test environments use limited or anonymized data. Migration to production requires approval and follows change control.</t>
+          <t>Outsourced development requires contract agreements covering licensing, code ownership, and security; external providers' SDLC reviewed; security requirements included in contracts.</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Section 8.1.15 - Separation of environments. Section 8.1.10 - Test environments use limited/anonymized data. Section 8.1.22 - Code promoted to production by approved personnel following change control. (Information Security Policy [Internal].docx)</t>
+          <t>Information Security Policy [Internal].docx - Section 8.1.1, 8.1.2, 3.1 Business partnership and Outsourcing</t>
         </is>
       </c>
       <c r="H84" t="inlineStr"/>
@@ -5275,7 +5327,7 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>Development, test, and production environments separated; test environments use limited or anonymized data; migration to production requires approval and follows change control.</t>
+          <t>Outsourced development requires contract agreements covering licensing, code ownership, and security; external providers' SDLC reviewed; security requirements included in contracts.</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
@@ -5292,7 +5344,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -5302,12 +5354,12 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>A.8.32</t>
+          <t>A.8.31</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Change management</t>
+          <t>Separation of development, test and production environments</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -5317,12 +5369,12 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Change management is documented with strict review, approval, and closure controls. All changes including emergency changes are documented and follow formal processes. Change management is integrated with development and operational procedures.</t>
+          <t>Development, test, and production environments are separated with restricted access; test data is anonymized; no development files or test data in production.</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Section 6.2 Operational change control - Documented change management with review and approval. Section 8.1.11-8.1.13 - Program changes standardized, documented, approved, and controlled. (Information Security Policy [Internal].docx)</t>
+          <t>Information Security Policy [Internal].docx - Section 8.1.14, 8.1.15, 8.1.21, 8.1.22</t>
         </is>
       </c>
       <c r="H85" t="inlineStr"/>
@@ -5334,7 +5386,7 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>Change management documented with strict review, approval, and closure controls; all changes including emergency changes documented and follow formal processes; integrated with development and operational procedures.</t>
+          <t>Development, test, and production environments separated with restricted access; test data anonymized; no development files or test data in production.</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
@@ -5349,7 +5401,11 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="inlineStr"/>
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
       <c r="B86" t="inlineStr">
         <is>
           <t>A.8 (Technological Controls)</t>
@@ -5357,12 +5413,12 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>A.8.33</t>
+          <t>A.8.32</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Test information</t>
+          <t>Change management</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -5372,12 +5428,12 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Test environments use limited or anonymized data. Unused test environments or sandboxes are reviewed and removed biannually. Test data is removed before production deployment.</t>
+          <t>Formal change management process with review, approval, testing, and communication; all changes documented including emergency changes; configuration management maintained.</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Section 8.1.10 - Test environments use limited/anonymized data. Unused test environments checked and removed half-yearly. Section 8.1.22 - Test data removed before production. (Information Security Policy [Internal].docx)</t>
+          <t>Information Security Policy [Internal].docx - Section 6.2 Operational change control; Section 6.3 Configuration Management; Section 8.1.11, 8.1.12, 8.1.13</t>
         </is>
       </c>
       <c r="H86" t="inlineStr"/>
@@ -5389,7 +5445,7 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>Test environments use limited or anonymized data; unused test environments or sandboxes reviewed and removed biannually; test data removed before production deployment.</t>
+          <t>Formal change management process with review, approval, testing, and communication; all changes documented including emergency changes; configuration management maintained.</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
@@ -5412,57 +5468,49 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>A.8.34</t>
+          <t>A.8.33</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Protection of information systems during audit testing</t>
+          <t>Test information</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>🟡</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Annual ISO internal and external audits are required for each group company. PEN-tests are performed in controlled environments. However, explicit controls for protecting systems during audit testing are not detailed.</t>
+          <t>Test environments use limited, anonymized or pseudonymized data; production data is not used for testing; unused test environments reviewed and removed periodically.</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Section 8.2.7 - Yearly ISO internal and external audit required. Section 8.2.2 - PEN-tests only in controlled testing environment. (Information Security Policy [Internal].docx)</t>
-        </is>
-      </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>No explicit documented procedures or controls for protecting information systems during audit testing are described.</t>
-        </is>
-      </c>
-      <c r="I87" t="inlineStr">
-        <is>
-          <t>Develop and document specific procedures to protect information systems during audit and penetration testing, including scope, authorization, and impact mitigation.</t>
-        </is>
-      </c>
+          <t>Information Security Policy [Internal].docx - Section 8.1.10, 8.1.21</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Management Review Team Meeting E-WISE 2025 [Restricted].docx.pdf</t>
+          <t>No explicit evidence found in provided documents.</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>Annual ISO internal and external audits required; PEN-tests performed in controlled environments; no explicit controls for protecting systems during audit testing detailed.</t>
+          <t>No documented policy on test information using anonymized or pseudonymized data.</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>Develop explicit controls for protecting information systems during audit testing.</t>
+          <t>Develop and document test information handling procedures.</t>
         </is>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>🟡</t>
+          <t>❌</t>
         </is>
       </c>
     </row>
@@ -5475,44 +5523,52 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>A.8.4</t>
+          <t>A.8.34</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Access to source code</t>
+          <t>Protection of information systems during audit testing</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>🟡</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Section 8.1.8 states access control should be implemented to restrict access to the program source library. Section 8.1.17 states development code is stored in a secure repository enforcing access control and segregation of duties.</t>
+          <t>Security incident management and logging policies exist; no explicit mention of controls specifically protecting systems during audit testing.</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>8.1.8 Access control should be implemented to restrict access to the program source library; 8.1.17 Development code is stored in a secure code repository that enforces and meets the requirements of the access control policy and segregation of duty. (Information Security Policy [Internal].docx)</t>
-        </is>
-      </c>
-      <c r="H88" t="inlineStr"/>
-      <c r="I88" t="inlineStr"/>
+          <t>Information Security Policy [Internal].docx - Section 6.5 Security incident management; Section 6.14 Logging and Audit Policy</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>No explicit documented controls or procedures to protect information systems specifically during audit testing.</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>Develop and document procedures to protect information systems during audit testing to prevent disruption or unauthorized access.</t>
+        </is>
+      </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>No direct evidence found in provided documents.</t>
+          <t>No explicit evidence found in provided documents.</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>No explicit access control to source code or secure repository evidence found.</t>
+          <t>No specific controls protecting information systems during audit testing described.</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>Document access controls for source code repositories.</t>
+          <t>Develop and document controls for protection during audit testing.</t>
         </is>
       </c>
       <c r="M88" t="inlineStr">
@@ -5530,12 +5586,12 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>A.8.5</t>
+          <t>A.8.4</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Secure authentication</t>
+          <t>Access to source code</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -5545,91 +5601,79 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Section 4.1 Use of secret authentication information outlines password confidentiality, avoidance of insecure storage, and quality password selection. Section 7.2 Authorisation and Access Control mandates two-factor authentication and session management. Section 7.3 Password Policy details password complexity, change requirements, and secure handling.</t>
+          <t>Access to program source libraries is restricted. Development code is stored in secure repositories enforcing access control and segregation of duties. Code reviews are performed by personnel other than the author.</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>4.1 Use of secret authentication information; 7.2 Authorisation and Access Control; 7.3 Password Policy (Information Security Policy [Internal].docx)</t>
+          <t>Information Security Policy [Internal].docx Sections 8.1.8 Access control to source code; 8.1.17 Development code repository; 8.1.18 Code review.</t>
         </is>
       </c>
       <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr">
         <is>
+          <t>No explicit evidence found in provided documents.</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>No documentation on access control to source code or secure repositories.</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>Develop and document access controls and segregation of duties for source code.</t>
+        </is>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr"/>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>A.8 (Technological Controls)</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>A.8.5</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Secure authentication</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Strong password policies are enforced including minimum length, complexity, and change requirements. Two-factor authentication is mandated where possible. Passwords must be kept confidential and not shared or stored insecurely.</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Information Security Policy [Internal].docx Sections 4.1 Use of secret authentication information; 7.3 Password Policy; 7.2.2 Two-factor authentication.</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr">
+        <is>
           <t>Kopie van BS02 E-Wise Wachtwoordbeleid [Internal].pdf</t>
         </is>
       </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>Password confidentiality, complexity, change requirements, and secure handling defined; two-factor authentication enforced; session management policies in place.</t>
-        </is>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="M89" t="inlineStr">
-        <is>
-          <t>✅</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>A.8 (Technological Controls)</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>A.8.6</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>Capacity management</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>✅</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>Section 3.3.1 Business Partnership Contracts includes capacity utilisation monitoring and planning as a contract area. Section 6.13.13 Database Security Policy mentions monitoring system and audit logs for capacity thresholds. Section 6.8 Backup &amp; Restoration Policy includes monitoring disk space utilisation.</t>
-        </is>
-      </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>3.3.1 Business Partnership Contracts; 6.13.13 System and audit logs are to be monitored regularly to alert of any capacity thresholds being crossed; 6.7.5 Disk space utilisation must be periodically or continuously monitored. (Information Security Policy [Internal].docx)</t>
-        </is>
-      </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>No explicit documented capacity management process or formal capacity planning policy.</t>
-        </is>
-      </c>
-      <c r="I90" t="inlineStr">
-        <is>
-          <t>Develop and document a formal capacity management process including monitoring, forecasting, and resource planning.</t>
-        </is>
-      </c>
-      <c r="J90" t="inlineStr">
-        <is>
-          <t>Management Review Team Meeting E-WISE 2025 [Restricted].docx.pdf</t>
-        </is>
-      </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>Capacity utilization monitoring and planning included in business partnership contracts; monitoring system and audit logs for capacity thresholds; disk space utilization monitored.</t>
+          <t>Strong password policies enforced including length, complexity, history, expiration, and two-factor authentication.</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
@@ -5656,12 +5700,12 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>A.8.7</t>
+          <t>A.8.6</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Protection against malware</t>
+          <t>Capacity management</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -5671,34 +5715,34 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Section 6.1 Controls against malware defines prevention, detection, and recovery measures including anti-virus software installation and updates, blocking unauthorized software, and proxy filtering. Section 6.6 Protection against malicious software details antivirus requirements, real-time scanning, virus handling, and update logging.</t>
+          <t>Capacity utilisation monitoring and planning is included in business partnership contracts and change management. Network and system capacity are monitored and managed.</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>6.1 Controls against malware; 6.6 Protection against malicious software (Information Security Policy [Internal].docx)</t>
+          <t>Information Security Policy [Internal].docx Section 3.3 Business Partnership Contracts; Section 6.9 Network Security Policy; Section 6.1 Documented Operating procedures.</t>
         </is>
       </c>
       <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr">
         <is>
-          <t>No direct evidence found in provided documents.</t>
+          <t>Management Review Team Meeting E-WISE 2025 [Restricted].docx.pdf</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>No explicit malware protection policies or antivirus details found.</t>
+          <t>Capacity utilization monitoring and planning included in business partnership contracts and change management.</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>Document malware protection controls and evidence of implementation.</t>
+          <t>None</t>
         </is>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
     </row>
@@ -5715,12 +5759,12 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>A.8.8</t>
+          <t>A.8.7</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Management of technical vulnerabilities</t>
+          <t>Protection against malware</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -5730,12 +5774,12 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Section 6.2 Management of technical vulnerabilities describes processes for acquiring vulnerability information, identification, evaluation, testing, and deployment of patches. Section 8.2 Application development PEN-test &amp; audits includes PEN-testing and vulnerability remediation timelines.</t>
+          <t>Anti-malware controls include prohibition of unauthorized software, mandatory antivirus installation and updates, real-time scanning, and incident reporting procedures.</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>6.2 Management of technical vulnerabilities; 8.2 Application development PEN-test &amp; audits (Information Security Policy [Internal].docx)</t>
+          <t>Information Security Policy [Internal].docx Sections 6.6 Protection against malicious software; 5.1.4 IT Security; Appendix 6.6 Protection against malicious software.</t>
         </is>
       </c>
       <c r="H92" t="inlineStr"/>
@@ -5747,7 +5791,7 @@
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>Processes for acquiring vulnerability information, identification, evaluation, testing, and deployment of patches described; PEN-testing and vulnerability remediation timelines included.</t>
+          <t>Anti-malware controls in place with mandatory antivirus and incident reporting procedures.</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
@@ -5774,12 +5818,12 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>A.8.9</t>
+          <t>A.8.8</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Configuration management</t>
+          <t>Management of technical vulnerabilities</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -5789,34 +5833,93 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Section 6.3 Configuration Management requires documentation of design and configuration of key IT systems, annual review, and updates upon significant changes. Section 6.9 Network Security Policy includes configuration backup and change logging for network devices.</t>
+          <t>A formal patch management process exists including acquisition of vulnerability information, assessment, testing, and deployment of patches. Subscriptions to vulnerability notifications are maintained.</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>6.3 Configuration Management; 6.9.35 A backup of all networking and security devices managed must be taken before and after any major configuration changes. (Information Security Policy [Internal].docx)</t>
+          <t>Information Security Policy [Internal].docx Section 6.2 Management of technical vulnerabilities; Section 6.5 Security incident management.</t>
         </is>
       </c>
       <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr">
         <is>
-          <t>No direct evidence found in provided documents.</t>
+          <t>Management Review Team Meeting E-WISE 2025 [Restricted].docx.pdf</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>No explicit configuration management documentation or change logging found.</t>
+          <t>Formal patch management process exists including vulnerability information acquisition and deployment of patches.</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>Document configuration management and change logging procedures.</t>
+          <t>None</t>
         </is>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>A.8 (Technological Controls)</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>A.8.9</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Configuration management</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Configuration management documents are maintained, reviewed annually, and updated upon significant changes. Change management processes control changes to systems and configurations.</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>Information Security Policy [Internal].docx Sections 6.3 Configuration Management; 6.2 Operational change control.</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>Management Review Team Meeting E-WISE 2025 [Restricted].docx.pdf</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>Configuration management documents maintained, reviewed annually; change management controls changes.</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>✅</t>
         </is>
       </c>
     </row>

--- a/outputs/analysis.xlsx
+++ b/outputs/analysis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M94"/>
+  <dimension ref="A1:M93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -528,12 +528,12 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Information Security Policy document defines baseline control measures, scope, enforcement, roles and responsibilities, and management commitment to information security aligned with ISO27001 standards.</t>
+          <t>Information Security Policy document defines baseline control measures, scope, roles, responsibilities, enforcement, and management review processes aligned with ISO 27001 standards.</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Information Security Policy [Internal].docx: 'This document details the policies and standards for the information security of Reducate... These policies will be based on ISO27001 standards.'; 'This policy will come into effect after approval by the director of Reducate.'; 'Chapter 1 General' and 'Section - 1.1 Scope of the policy'.</t>
+          <t>Information Security Policy [Internal].docx: 'This document details the policies and standards for the information security of Reducate... These policies will be based on ISO27001 standards.'; 'This policy will come into effect after approval by the director of Reducate.'; 'The director of Reducate is the owner of the security policy...'; 'The security policy should be reviewed by ISSC and ISWG yearly or after adding any major IT component.'</t>
         </is>
       </c>
       <c r="H2" t="inlineStr"/>
@@ -545,17 +545,17 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Information Security Policy is referenced as an internal document relevant to the meeting and shared with all employees; security objectives and measures are reviewed and updated regularly.</t>
+          <t>Information security policy is shared with all employees; security objectives and measures are recorded and reviewed in management review meetings; continual improvement tasks are documented and tracked.</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Include explicit excerpts or summaries of the Information Security Policy document to strengthen evidence of baseline control measures and management commitment.</t>
+          <t>None</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>🟡</t>
+          <t>✅</t>
         </is>
       </c>
     </row>
@@ -587,39 +587,43 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Acceptable use policies for IT, email, internet, and mobile devices are defined with disciplinary measures for violations.</t>
+          <t>Acceptable use policies are defined covering IT, email, internet, mobile equipment, and personal use with disciplinary consequences for violations.</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Information Security Policy [Internal].docx: '5.1 Information Technology Acceptable Usage Policy' and subsections including '5.1.3 IT Policy', '5.1.4 IT Security', '5.1.5 Personal Use of Company Facilities', and '5.1.11 Mobile equipment Usage'.</t>
+          <t>Information Security Policy [Internal].docx: '5.1 Information Technology Acceptable Usage Policy'; '5.1.3 IT Policy - These guidelines and rules clarify what is acceptable use of IT, e-mail and Internet services and apply to all users...'; '5.1.4 IT Security - Users are responsible for the security of their own PC...'; '5.1.5 Personal Use of Company Facilities'; '5.1.9 E-mail, voice-mail and other messaging systems usage'; '5.1.10 Internet Usage'; '5.1.11 Mobile equipment Usage'; '9.4.1 An employee or contractor who fails to observe the requirements of this policy may be subject to disciplinary action, which may include dismissal.'</t>
         </is>
       </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Management Review Team Meeting E-WISE 2025 [Restricted].docx.pdf</t>
+          <t>No direct evidence found in provided documents</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Disciplinary processes and training updates are discussed, implying enforcement of acceptable use policies.</t>
+          <t>No explicit acceptable use policy or disciplinary consequences for violations found in evidence.</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Provide explicit acceptable use policies and disciplinary measures documentation.</t>
+          <t>Document and provide evidence of acceptable use policies and enforcement.</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>🟡</t>
+          <t>❌</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr"/>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
       <c r="B4" t="inlineStr">
         <is>
           <t>A.5 (Organisational Controls)</t>
@@ -627,12 +631,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>A.5.11</t>
+          <t>A.5.12</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Return of assets</t>
+          <t>Classification of information</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -642,43 +646,39 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Procedures for return of company assets at termination of employment are documented and enforced.</t>
+          <t>Information classification schemes are established based on value, legal requirements, and handling caution. Asset owners classify and manage information assets.</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Information Security Policy [Internal].docx: 'Section - 2.4 Termination of employment' and 'Section - 2.1.2 Equipment usage' specify return of laptops, mobile phones, and other assets on last day of employment.</t>
+          <t>Information Security Policy [Internal].docx: '3.1 Classification of information'; 'Information classification schemes must be prepared in terms of the value of the information, legal requirements, and the degree of caution required in handling.'; 'IT Asset Managers – Classify and manage information assets and maintain the updated inventory of information assets.'</t>
         </is>
       </c>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr">
         <is>
-          <t>2.4.8 Template checklist uitdienst.PNG.pdf</t>
+          <t>No direct evidence found in provided documents</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Checklist for termination includes return of keys, office sign-off, and computer de-registration, indicating enforcement of asset return procedures.</t>
+          <t>No explicit mention of information classification schemes or asset owner responsibilities.</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Document and provide evidence of information classification and handling procedures.</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>❌</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
+      <c r="A5" t="inlineStr"/>
       <c r="B5" t="inlineStr">
         <is>
           <t>A.5 (Organisational Controls)</t>
@@ -686,12 +686,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>A.5.12</t>
+          <t>A.5.13</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Classification of information</t>
+          <t>Labelling of information</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -701,39 +701,43 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Information classification schemes are established based on value, legal requirements, and handling caution.</t>
+          <t>Information must be labelled and handled according to classification schemes with guidelines for asset owners.</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Information Security Policy [Internal].docx: 'Section - 3.1 Classification of information' and '4. Asset Classification and Control' describe classification schemes and responsibilities.</t>
+          <t>Information Security Policy [Internal].docx: '3.2 Labelling and handling of information'; 'Information must be labelled, handled, treated, stored, and transmitted in accordance with the information classification scheme.'; '4.1 Information Labelling and Handling'; 'Asset Owners and/or their designees should follow the general guidelines below when labelling the asset.'</t>
         </is>
       </c>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Management Review Team Meeting E-WISE 2025 [Restricted].docx.pdf</t>
+          <t>No direct evidence found in provided documents</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Information security objectives include data confidentiality and integrity, implying classification schemes, but no explicit classification scheme documentation found.</t>
+          <t>No explicit mention of labelling of information according to classification.</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Provide documented information classification schemes.</t>
+          <t>Document and provide evidence of labelling guidelines and implementation.</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>🟡</t>
+          <t>❌</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr"/>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4,8</t>
+        </is>
+      </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>A.5 (Organisational Controls)</t>
@@ -741,12 +745,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>A.5.13</t>
+          <t>A.5.14</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Labelling of information</t>
+          <t>Information transfer</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -756,29 +760,29 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Information assets are labelled and handled according to classification schemes with guidelines for labelling and handling.</t>
+          <t>Information transfer procedures are defined including secure communication channels and controls for electronic messaging.</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Information Security Policy [Internal].docx: 'Section - 3.2 Labelling and handling of information' and '4.1 Information Labelling and Handling' specify labelling and handling requirements.</t>
+          <t>Information Security Policy [Internal].docx: '7.1 Network controls'; '7.3 Electronic messaging'; 'Electronic message communication (email, etc.) must be protected according to the corresponding system for classifying the information.'; 'In the case of electronic message communication by an external service (email, social networks, file sharing, etc.), prior approval is to be obtained.'; Business Continuity Plan E-WISE: 'Section - 2.5 Communication' defines communication means and responsibilities.</t>
         </is>
       </c>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr">
         <is>
-          <t>No explicit evidence found in provided documents.</t>
+          <t>No direct evidence found in provided documents</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>No mention of labelling of information assets or guidelines for labelling and handling.</t>
+          <t>No explicit information transfer procedures or secure communication controls found.</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Develop and document labelling procedures aligned with classification schemes.</t>
+          <t>Document and provide evidence of secure information transfer procedures.</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
@@ -788,11 +792,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4,8</t>
-        </is>
-      </c>
+      <c r="A7" t="inlineStr"/>
       <c r="B7" t="inlineStr">
         <is>
           <t>A.5 (Organisational Controls)</t>
@@ -800,12 +800,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>A.5.14</t>
+          <t>A.5.15</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Information transfer</t>
+          <t>Access control</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -815,12 +815,12 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Information transfer is controlled with classification-based protection and approval for external electronic messaging.</t>
+          <t>Access control policies and procedures are established including user registration, access restriction, privileged access management, and session controls.</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Information Security Policy [Internal].docx: 'Section - 7.3 Electronic messaging' and '6.7 Electronic Messaging System Controls' describe protection of electronic messages and approval for external services.</t>
+          <t>Information Security Policy [Internal].docx: 'Chapter 5 Access Control'; '5.1 User registration and de-registration'; '5.2 Information access restriction'; '5.3 Management of privileged access rights'; '7.2 Authorisation and Access Control'; '7.4 User Access Management'; 'Formal procedures should be in place to control the allocation of access rights...'; 'Access to individual information and information systems must be controlled with the access control policy in accordance with a “need-to-know” basis.'</t>
         </is>
       </c>
       <c r="H7" t="inlineStr"/>
@@ -832,12 +832,12 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Information transfer controls are implied in risk assessments and audit results but no explicit procedures or approvals for external electronic messaging are documented.</t>
+          <t>Centralised password manager (Zoho Vault) implemented; user access rights managed; audit results mention access control improvements; password policies enforced.</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Document and provide evidence of controlled information transfer procedures.</t>
+          <t>More detailed evidence of user registration, privileged access management, and session controls would strengthen compliance.</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
@@ -855,12 +855,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>A.5.15</t>
+          <t>A.5.16</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Access control</t>
+          <t>Identity management</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -870,29 +870,29 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Access control policies and procedures are established including user registration, access restriction, privileged access management, and periodic audits.</t>
+          <t>User identity management is formalized with unique user IDs, timely de-registration, and controls on shared or anonymous IDs.</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Information Security Policy [Internal].docx: 'Chapter 5 Access Control' sections 5.1 to 5.4 detail user registration, access restriction, privileged access, and user access management.</t>
+          <t>Information Security Policy [Internal].docx: '7.1 Authentication'; '7.4 User Access Management'; 'The registration and de-registration of users who have access to the information system and service must be conducted by a formal process...'; 'Assignment of unique user IDs that can identify users'; 'Timely disabling or removing user IDs of users who have left the organisation.'</t>
         </is>
       </c>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Matrix rechten Zoho (Internal).pdf</t>
+          <t>User management screenshots (pages 4)</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Access rights and user roles are managed and documented within Zoho CRM and other systems; periodic audits are implied in management review.</t>
+          <t>User accounts are managed with unique user IDs; users are active or deactivated; 2-step verification enforced; user last sign-in tracked.</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Include formal access control policy documents and audit reports.</t>
+          <t>Evidence of timely de-registration and controls on shared or anonymous IDs could be more explicit.</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
@@ -910,12 +910,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>A.5.16</t>
+          <t>A.5.17</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Identity management</t>
+          <t>Authentication information</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -925,34 +925,34 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Formal processes for user registration, de-registration, and unique user ID assignment are in place.</t>
+          <t>Authentication information such as passwords is managed securely with policies on selection, confidentiality, change, and reset procedures.</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Information Security Policy [Internal].docx: 'Section - 5.1 User registration and de-registration' and '7.1 Authentication' specify identity management controls.</t>
+          <t>Information Security Policy [Internal].docx: '4.1 Use of secret authentication information such as passwords'; '7.3 Password Policy'; 'Users must not share passwords with anyone...'; 'Passwords must never be written down or stored in an unsecured manner.'; 'IT Service desk must verify the identity of the user before resetting User passwords.'</t>
         </is>
       </c>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr">
         <is>
-          <t>2.4.7 Template checklist indienst.PNG.pdf</t>
+          <t>Kopie van BS02 E-Wise Wachtwoordbeleid [Internal].pdf</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Checklist for onboarding includes account creation and system sign-up, indicating formal user registration processes.</t>
+          <t>Password policies enforce minimum length, complexity, history, expiration, lockout after failed attempts; 2FA is enforced for all users; password resets require user ID.</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Provide documented user registration and de-registration procedures.</t>
+          <t>None</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>🟡</t>
+          <t>✅</t>
         </is>
       </c>
     </row>
@@ -965,12 +965,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>A.5.17</t>
+          <t>A.5.18</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Authentication information</t>
+          <t>Access rights</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -980,39 +980,43 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Password policies and controls for secret authentication information are defined and enforced.</t>
+          <t>Access rights are assigned based on business needs with formal authorization, periodic review, and revocation upon termination.</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Information Security Policy [Internal].docx: 'Section - 4.1 Use of secret authentication information such as passwords' and '7.3 Password Policy' detail password management and authentication controls.</t>
+          <t>Information Security Policy [Internal].docx: '7.2 Authorisation and Access Control'; '7.4 User Access Management'; 'Access privileges to information, systems and business processes must be on the basis of business needs and security requirements.'; 'User access to key systems should be subject to a periodic audit.'; 'All system privileges and access to proprietary information must be deactivated upon termination of employment or termination of responsibilities.'</t>
         </is>
       </c>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Kopie van BS02 E-Wise Wachtwoordbeleid [Internal].pdf</t>
+          <t>Management Review Team Meeting E-WISE 2025 [Restricted].docx.pdf</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Password policies enforce minimum length, complexity, history, expiration, lockout, and two-factor authentication for all users.</t>
+          <t>Access rights are assigned based on roles; periodic reviews and audits are conducted; offboarding checklist includes access revocation.</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>More explicit evidence of formal authorization and revocation processes would improve clarity.</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>🟡</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr"/>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4,8</t>
+        </is>
+      </c>
       <c r="B11" t="inlineStr">
         <is>
           <t>A.5 (Organisational Controls)</t>
@@ -1020,12 +1024,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>A.5.18</t>
+          <t>A.5.19</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Access rights</t>
+          <t>Information security in supplier relationships</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1035,41 +1039,41 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Access rights are assigned based on business needs with formal authorization and periodic review.</t>
+          <t>Supplier relationships are managed with contracts, SLAs, credential verification, NDA requirements, access control, and periodic performance reviews.</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Information Security Policy [Internal].docx: 'Section - 5.2 Information access restriction' and '7.2 Authorisation and Access Control' describe access rights management.</t>
+          <t>Information Security Policy [Internal].docx: '3. Business partnership and Outsourcing'; '3.1 Business Partnership Security'; 'Reducate and group companies must have contracts and service level agreements (SLA) with outsourced service partners...'; '3.1.1 Credentials of potential External Service Providers must be verified before entering into a contract.'; '3.2 Non-Disclosure Agreements'; '3.3 Business Partnership Contracts'; '3.3.9 A list of Key IT-suppliers should be maintained and yearly be checked and updated before your management review.'</t>
         </is>
       </c>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Matrix rechten Zoho (Internal).pdf</t>
+          <t>Management Review Team Meeting E-WISE 2025 [Restricted].docx.pdf</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Access rights are assigned based on roles with formal authorization; changes are tracked and reviewed.</t>
+          <t>Third-party management is operating effectively; vendor risk assessments are performed; contracts and reviews are maintained.</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Include evidence of periodic access rights review documentation.</t>
+          <t>None</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>🟡</t>
+          <t>✅</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>4,8</t>
+          <t>4,5</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1079,12 +1083,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>A.5.19</t>
+          <t>A.5.2</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Information security in supplier relationships</t>
+          <t>Information security roles and responsibilities</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1094,12 +1098,12 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Supplier relationships are managed with contracts, SLAs, credential verification, NDA requirements, access control, and ongoing contract management.</t>
+          <t>Roles and responsibilities are clearly defined for CEO, ISSC, ISWG, Operational Director, IT Asset Managers, Managers, Users, and Executive responsibilities with competencies and accountability.</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Information Security Policy [Internal].docx: '3. Business partnership and Outsourcing' sections 3.1 to 3.3 detail supplier security requirements and contract management.</t>
+          <t>Information Security Policy [Internal].docx: 'Section - 1.5 Roles and Responsibilities'; 'CEO – Responsible for information security...'; 'Information Security Steering Committee (ISSC)...'; 'Information Security Working Group (ISWG)...'; 'Managers – Responsible for making their subordinate staff aware of compliance...'; 'Users – Responsible for fully understanding this information security policy...'; 'Executive responsibilities: Determine security objectives, alignment with business strategy, resource management, training, review, implementation, continuous security.'</t>
         </is>
       </c>
       <c r="H12" t="inlineStr"/>
@@ -1111,12 +1115,12 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Vendor risk assessments and contract management are discussed; third-party register is maintained and reviewed.</t>
+          <t>Roles such as Managing Director, System Administrator, Project Manager/ISMS Responsible, and others are listed as attendees in management review meetings, indicating defined responsibilities.</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Provide supplier contracts including information security clauses and SLAs.</t>
+          <t>Evidence of formal role descriptions and responsibilities documentation could be added for clarity.</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
@@ -1128,7 +1132,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>4,5</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1138,12 +1142,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>A.5.2</t>
+          <t>A.5.20</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Information security roles and responsibilities</t>
+          <t>Addressing information security within supplier agreements</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1153,12 +1157,12 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Clear assignment of roles and responsibilities for information security including CEO, ISSC, Operational Director, IT Asset Managers, Managers, Users, and committees (ISSC, ISWG).</t>
+          <t>Supplier agreements and contracts must include information security requirements and risk assessments before signing. Contracts must be approved and managed by responsible persons.</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Information Security Policy [Internal].docx: 'Section - 1.5 Roles and Responsibilities' and '2. Security Organisation' sections detailing roles such as CEO, ISSC, ISWG, IT Asset Managers, Managers, Users.</t>
+          <t>Information Security Policy [Internal].docx, Section 3.3 Business Partnership Contracts: 'Before the contract is signed the Director/Manager or person designated should assess the risks... steps must be taken to incorporate the risk reducing controls...'; 'Such contracts must be approved and signed in accordance with Reducate’s Corporate Contract Control Policy.'</t>
         </is>
       </c>
       <c r="H13" t="inlineStr"/>
@@ -1170,24 +1174,24 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Attendees list includes CEO, ISMS Responsible, System Administrator, Finance Manager, and Project Manager, indicating clear assignment of roles and responsibilities for information security.</t>
+          <t>Supplier agreements include information security requirements; contracts are approved and managed by responsible persons.</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Provide documented role descriptions or responsibility matrices to further clarify assignments.</t>
+          <t>None</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>🟡</t>
+          <t>✅</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1197,12 +1201,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>A.5.20</t>
+          <t>A.5.21</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Addressing information security within supplier agreements</t>
+          <t>Managing information security in the ICT supply chain</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1212,12 +1216,12 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Supplier agreements and contracts must include information security requirements and risk assessments before signing. Contracts must cover scope, roles, SLAs, access control, incident handling, change management, audits, data protection, and termination.</t>
+          <t>Credentials of external service providers must be verified; contracts formalised; access controlled and limited; network connectivity controlled; key suppliers maintained and reviewed annually.</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Information Security Policy [Internal].docx, Section 3.3 Business Partnership Contracts (pages 20-22): 'Before the contract is signed... risk reducing controls... must be incorporated...'; 'Contracts must address... access control mechanisms, IT Incident &amp; Problem handling process, IT Change management process, periodic audits, data protection.'</t>
+          <t>Information Security Policy [Internal].docx, Section 3.1 Business Partnership Security: 'Credentials of potential External Service Providers must be verified before entering into a contract.'; 'All outsourcing to External Service Providers must be formalised through a contract.'; 'All access by External Service Providers to Reducate resources must be authorised...'; 'Network Connectivity - All network connectivity with External Service Providers should be in line with the network connectivity policies.'; 'A list of Key IT-suppliers should be maintained and yearly be checked and updated before your management review.'</t>
         </is>
       </c>
       <c r="H14" t="inlineStr"/>
@@ -1229,24 +1233,24 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Contracts and risk assessments are part of vendor management; however, no explicit contract clauses or risk assessment documents are provided.</t>
+          <t>Credentials of external service providers are verified; contracts formalized; access controlled; key suppliers reviewed annually.</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Include sample contracts with security requirements and risk assessment reports.</t>
+          <t>None</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>🟡</t>
+          <t>✅</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1256,31 +1260,39 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>A.5.21</t>
+          <t>A.5.22</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Managing information security in the ICT supply chain</t>
+          <t>Monitoring, review and change management of supplier services</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>🟡</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Credentials of external service providers must be verified; NDAs signed; access authorized and limited; network connectivity controlled; key suppliers maintained and reviewed annually.</t>
+          <t>Contracts must be managed by responsible persons with periodic reviews; performance indicators include SLA metrics, quality, timeliness, communication, compliance and security posture.</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Information Security Policy [Internal].docx, Section 3.1 Business Partnership Security and 3.2 Non-Disclosure Agreements (pages 19-20): 'Credentials of potential External Service Providers must be verified'; 'All External Service Providers must sign NDA'; 'Access must be authorised'; 'Network connectivity must comply with policies'; 'Key IT-suppliers list maintained and reviewed yearly.'</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
+          <t>Information Security Policy [Internal].docx, Section 3.3.2 Contract Management: 'A responsible and experienced person... should be allocated the responsibility of managing the contract on an ongoing basis...'; 'Periodic reviews on the performance and taking required steps to ensure quality of performance. Indicators to review the performance of external vendors are service level agreement (SLA) metrics, quality of deliverables, timeliness, communication and collaboration, compliance with regulatory requirements and security posture.'</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>No explicit documented process or frequency for monitoring and change management of supplier services is described.</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Define and document formal procedures and schedules for monitoring, reviewing, and managing changes in supplier services.</t>
+        </is>
+      </c>
       <c r="J15" t="inlineStr">
         <is>
           <t>Management Review Team Meeting E-WISE 2025 [Restricted].docx.pdf</t>
@@ -1288,17 +1300,17 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Credential verification and NDA requirements for external providers are mentioned in vendor risk assessments.</t>
+          <t>Contracts managed by responsible persons; periodic reviews conducted; performance indicators monitored including SLA metrics and security posture.</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Provide documented evidence of NDA signings and access authorizations.</t>
+          <t>None</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>🟡</t>
+          <t>✅</t>
         </is>
       </c>
     </row>
@@ -1315,12 +1327,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>A.5.22</t>
+          <t>A.5.23</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Monitoring, review and change management of supplier services</t>
+          <t>Information security for use of cloud services</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1330,34 +1342,34 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Contracts include periodic audits and performance reviews; a responsible person manages contracts; change management processes are in place for IT infrastructure and services.</t>
+          <t>Use of cloud services must be approved by IT-Manager and ISWG; access restricted per access control policies; cloud applications must use TLS 1.2 or higher; annual security testing of TLS is required.</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Information Security Policy [Internal].docx, Section 3.3.2 Contract Management (page 21): 'Responsible person allocated for contract management'; 'Periodic reviews on performance including SLA metrics, quality, timeliness, compliance'; Section 6.2 Operational change control (page 33): 'Changes to information processing facilities and systems should be controlled with formal management responsibilities and procedures.'</t>
+          <t>Information Security Policy [Internal].docx, Section 7.5 Guideline for Usage of Public Cloud Services: 'Use of any Cloud based applications and/or services must be approved by IT-Manager and ISWG.'; Section 10 Cryptography: 'Any cloud application or owned (web)application should have a minimum of TLS 1.2 or higher.'; 'Yearly test TLS and security at https://www.ssllabs.com/ssltest/. A minimum of grade A is required.'</t>
         </is>
       </c>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Management Review Team Meeting E-WISE 2025 [Restricted].docx.pdf</t>
+          <t>No direct evidence found in provided documents</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Contract management includes periodic audits and performance reviews; change management processes are in place.</t>
+          <t>No explicit mention of cloud services approval, access restrictions, TLS requirements, or annual security testing.</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Document and provide evidence of cloud service security controls and approvals.</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>❌</t>
         </is>
       </c>
     </row>
@@ -1374,12 +1386,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>A.5.23</t>
+          <t>A.5.24</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Information security for use of cloud services</t>
+          <t>Information security incident management planning and preparation</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1389,12 +1401,12 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Use of cloud services must be approved by IT-Manager and ISWG; access restricted per access control policies; cloud applications must use TLS 1.2 or higher; annual security testing of TLS; cloud email services preferred.</t>
+          <t>Incident response procedures are established, documented, and include detection, reporting, analysis, and recovery; responsibilities assigned; incident logs maintained; incident response plan included in Business Continuity Plan.</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Information Security Policy [Internal].docx, Section 7.5 Guideline for Usage of Public Cloud Services (page 38): 'Use of any Cloud based applications and/or services must be approved'; Section 10 Cryptography (page 52): 'Cloud applications must have minimum TLS 1.2 or higher'; Section 6.7 Electronic Messaging System Controls (page 44): 'Use Google mail or other cloud email services.'</t>
+          <t>Business Continuity Plan E-WISE [Restricted].docx.pdf, Appendix 1 Incident Response Plan; Information Security Policy [Internal].docx, Section 6.5 Security incident management: 'Security Incident management responsibilities and procedures should be established...'; 'An incident response policy should be implemented as well as the following controls.'; 'All significant security incidents should be briefed to Reducate ISSC on a monthly basis.'</t>
         </is>
       </c>
       <c r="H17" t="inlineStr"/>
@@ -1406,24 +1418,24 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Cloud service use requires approval by IT Manager and ISWG; TLS 1.2+ usage and annual security testing are mentioned.</t>
+          <t>Incident response procedures are established and documented; responsibilities assigned; incident logs maintained; incident response plan included in Business Continuity Plan.</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Provide documented cloud service approval records and test reports.</t>
+          <t>None</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>🟡</t>
+          <t>✅</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>8,10</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1433,12 +1445,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>A.5.24</t>
+          <t>A.5.25</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Information security incident management planning and preparation</t>
+          <t>Assessment and decision on information security events</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1448,12 +1460,12 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Incident response procedures established covering monitoring, detection, analysis, reporting, recovery, and communication; IT Security function responsible; incident logs maintained; CAPA forms used; incident response plan included in Business Continuity Plan.</t>
+          <t>Procedures exist for assessment and classification of information security events; decisions on incident classification and escalation are documented; CAPA forms used for analysis.</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Information Security Policy [Internal].docx, Section 6.5 Security incident management (pages 34-36): 'Security Incident management responsibilities and procedures established'; 'Incident response policy implemented'; 'Procedures for monitoring, detecting, analysing, reporting'; 'CAPA forms used'; Business Continuity Plan E-WISE [Restricted].docx.pdf, Appendix 1 Incident Response Plan (pages 11-12).</t>
+          <t>Information Security Policy [Internal].docx, Section 6.5 Security incident management: 'Procedures for assessment and decision of information security events are to be classified as information security incident'; 'IT Security function should have procedures to analyse and identify the cause of the reported incidents. CAPA forms should be used to describe this analysis.'</t>
         </is>
       </c>
       <c r="H18" t="inlineStr"/>
@@ -1465,7 +1477,7 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Incident response procedures and logs are maintained; CAPA forms used; incident response plan included in Business Continuity Plan.</t>
+          <t>Procedures for assessment and classification of information security events exist; incident classification and escalation documented; CAPA forms used for analysis.</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -1492,12 +1504,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>A.5.25</t>
+          <t>A.5.26</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Assessment and decision on information security events</t>
+          <t>Response to information security incidents</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1507,12 +1519,12 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Procedures for assessment and classification of information security events as incidents; IT Security function analyses and identifies causes; decisions on incident classification and escalation made by designated roles.</t>
+          <t>Incident response includes containment, eradication, recovery, communication, and reporting; emergency actions documented and reviewed; responsibilities assigned to IT Security function and management.</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Information Security Policy [Internal].docx, Section 6.5 Security incident management (page 35): 'Procedures for assessment and decision of information security events'; 'IT Security function analyses and identifies cause'; 'All significant incidents briefed to ISSC monthly.'</t>
+          <t>Information Security Policy [Internal].docx, Section 6.5 Security incident management: 'Security Incident management responsibilities and procedures should be established to ensure a quick, effective and orderly response...'; 'All emergency actions taken to curtail or recover from the security breaches should be documented and reviewed with ISSC or ISWG.'; Business Continuity Plan E-WISE [Restricted].docx.pdf, Appendix 1 Incident Response Plan.</t>
         </is>
       </c>
       <c r="H19" t="inlineStr"/>
@@ -1524,7 +1536,7 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Procedures for assessment and classification of incidents are discussed; IT Security function analyses causes and escalates incidents.</t>
+          <t>Incident response includes containment, eradication, recovery, communication, and reporting; emergency actions documented and reviewed; responsibilities assigned to IT Security and management.</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -1551,31 +1563,39 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>A.5.26</t>
+          <t>A.5.27</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Response to information security incidents</t>
+          <t>Learning from information security incidents</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>🟡</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Incident handling procedures include containment, eradication, recovery; emergency actions documented and reviewed; communication responsibilities defined; incident response plan activated automatically.</t>
+          <t>Incidents are reviewed by ISSC monthly; CAPA forms used; yearly simulations recommended; lessons learned implied but no explicit formal process described.</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Information Security Policy [Internal].docx, Section 6.5 Security incident management (pages 35-36): 'Emergency actions documented and reviewed'; Business Continuity Plan E-WISE [Restricted].docx.pdf, Section 2.4 Plan activation; plan deactivation (page 6): 'Incident Response Plan activated automatically on incident.'</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
+          <t>Information Security Policy [Internal].docx, Section 6.5 Security incident management: 'All significant security incidents should be briefed to Reducate ISSC on a monthly basis.'; 'As there could be already many measurements in place a yearly simulation could help to learn and effectively remedy crisis situations.'</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>No explicit documented process for formal lessons learned, root cause analysis feedback loops, or continuous improvement from incidents.</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Establish and document a formal process for capturing lessons learned from incidents and integrating improvements into ISMS.</t>
+        </is>
+      </c>
       <c r="J20" t="inlineStr">
         <is>
           <t>Management Review Team Meeting E-WISE 2025 [Restricted].docx.pdf</t>
@@ -1583,24 +1603,24 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Incident handling procedures include containment, eradication, recovery; communication responsibilities defined; plan activated automatically.</t>
+          <t>Incidents are reviewed monthly by ISSC; CAPA forms used; yearly phishing simulations conducted; lessons learned implied but no explicit formal process described.</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Formalize and document a lessons learned process for information security incidents.</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>🟡</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>8,10</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1610,12 +1630,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>A.5.27</t>
+          <t>A.5.28</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Learning from information security incidents</t>
+          <t>Collection of evidence</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1625,12 +1645,12 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Incident reviews and lessons learned incorporated; CAPA forms used; incident reports reviewed by ISSC; restoration and resumption plans developed post-incident.</t>
+          <t>Evidence collection during incident analysis is documented; audit trails and logs maintained; incident records kept in issue tracking tools.</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Information Security Policy [Internal].docx, Section 6.5 Security incident management (page 36): 'CAPA forms used to describe analysis'; 'All emergency actions reviewed with ISSC or ISWG'; Business Continuity Plan E-WISE [Restricted].docx.pdf, Chapter 3 Restoring and resuming business activities (pages 9-10).</t>
+          <t>Information Security Policy [Internal].docx, Section 6.5 Security incident management: 'This includes but is not limited to the collection of evidence such as audit trails, planning and implementation of remedies...'; 'All evidence of steps in the process of analysing and resolving a security incident or ISMS task is captured in the issue tracking tool in the issue record to ensure analysis, reporting and reconstruction of the event.'</t>
         </is>
       </c>
       <c r="H21" t="inlineStr"/>
@@ -1642,7 +1662,7 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Incident reviews and lessons learned incorporated; CAPA forms used; incident reports reviewed by ISSC; restoration plans developed.</t>
+          <t>Evidence collection during incident analysis is documented; audit trails and logs maintained; incident records kept in issue tracking tools.</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -1657,11 +1677,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
+      <c r="A22" t="inlineStr"/>
       <c r="B22" t="inlineStr">
         <is>
           <t>A.5 (Organisational Controls)</t>
@@ -1669,12 +1685,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>A.5.28</t>
+          <t>A.5.29</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Collection of evidence</t>
+          <t>Information security during disruption</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1684,12 +1700,12 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Procedures include collection and preservation of evidence such as audit trails; documentation of incident handling steps; evidence captured in issue tracking tools.</t>
+          <t>Business Continuity Plan defines management of incidents and recovery within deadlines; resources and communication plans defined; recovery order and responsibilities assigned.</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Information Security Policy [Internal].docx, Section 6.5 Security incident management (page 36): 'Collection of evidence such as audit trails'; 'All evidence captured in issue tracking tool to ensure analysis, reporting and reconstruction.'</t>
+          <t>Business Continuity Plan E-WISE [Restricted].docx.pdf, multiple sections including Chapter 2 Business Continuity Plan, Section 2.1 Plan content, Section 2.7 Order of recovery for activities, Section 2.9 Required resources.</t>
         </is>
       </c>
       <c r="H22" t="inlineStr"/>
@@ -1701,22 +1717,26 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>CAPA made and improvement implemented for evidence collection in incident procedures; incident logs maintained.</t>
+          <t>Business Continuity Plan defines management of incidents and recovery within deadlines; resources and communication plans defined; recovery order and responsibilities assigned; restore tests performed.</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Provide detailed procedures for evidence collection and preservation.</t>
+          <t>None</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>🟡</t>
+          <t>✅</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr"/>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
           <t>A.5 (Organisational Controls)</t>
@@ -1724,12 +1744,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>A.5.29</t>
+          <t>A.5.3</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Information security during disruption</t>
+          <t>Segregation of duties</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1739,12 +1759,12 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Business Continuity Plan defines management of incidents and recovery within deadlines; resources and communication plans defined; order of recovery and interdependencies documented.</t>
+          <t>Segregation of duties is mandated to reduce risk of misuse; where segregation is difficult, compensating controls like monitoring and audit trails are recommended.</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Business Continuity Plan E-WISE [Restricted].docx.pdf, Chapter 2 Business Continuity Plan (pages 4-9): 'Defines how E-WISE will manage incidents and recover activities'; 'Order of recovery for activities'; 'Communication plans and resources defined.'</t>
+          <t>Information Security Policy [Internal].docx: 'Section - 6.4 Segregation of Duties'; 'Reducate and group companies management must ensure segregation of duties when assigning responsibilities.'; 'Segregation of duties is a method for reducing the risk of accidental or deliberate system misuse...'; 'Whenever it is difficult to segregate, other controls such as monitoring of activities, audit trails and management supervision should be considered.'</t>
         </is>
       </c>
       <c r="H23" t="inlineStr"/>
@@ -1756,26 +1776,22 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Business Continuity Plan defines incident management and recovery within deadlines; restore tests successfully done and planned updates noted.</t>
+          <t>Segregation of duties is addressed in audit results with references to Zoho rights and financial system rights; risk mapping has been redone to reflect segregation of duties.</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Include explicit documentation or examples of compensating controls where segregation is not possible.</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>🟡</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+      <c r="A24" t="inlineStr"/>
       <c r="B24" t="inlineStr">
         <is>
           <t>A.5 (Organisational Controls)</t>
@@ -1783,12 +1799,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>A.5.3</t>
+          <t>A.5.30</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Segregation of duties</t>
+          <t>ICT readiness for business continuity</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1798,12 +1814,12 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Segregation of duties is ensured when assigning responsibilities to reduce risk of misuse; monitoring and audit trails are considered where segregation is difficult.</t>
+          <t>Disaster Recovery Plans exist for IT infrastructure and services; recovery time objectives defined; resources and responsibilities assigned; restoration and resumption steps documented.</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Information Security Policy [Internal].docx: 'Section - 2.1.5 Change of employment' and '6.4 Segregation of Duties' - 'Reducate and group companies management must ensure segregation of duties when assigning responsibilities.'</t>
+          <t>Business Continuity Plan E-WISE [Restricted].docx.pdf, Chapter 2 Business Continuity Plan, Appendix 6 Disaster Recovery Plans; Section 2.7 Order of recovery for activities; Chapter 3 Restoring and resuming business activities.</t>
         </is>
       </c>
       <c r="H24" t="inlineStr"/>
@@ -1815,22 +1831,26 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Segregation of duties is addressed in audit results and risk mapping, specifically mentioning segregation based on Zoho rights and financial system rights.</t>
+          <t>Disaster Recovery Plans exist for IT infrastructure; recovery time objectives defined; resources and responsibilities assigned; restoration and resumption steps documented.</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Include formal documented procedures or controls demonstrating segregation of duties in practice.</t>
+          <t>None</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>🟡</t>
+          <t>✅</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr"/>
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="B25" t="inlineStr">
         <is>
           <t>A.5 (Organisational Controls)</t>
@@ -1838,12 +1858,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>A.5.30</t>
+          <t>A.5.31</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>ICT readiness for business continuity</t>
+          <t>Identification of legal, statutory, regulatory and contractual requirements</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1853,24 +1873,24 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Disaster Recovery Plans for IT infrastructure and services included; resources and recovery time objectives defined; restoration and resumption procedures documented.</t>
+          <t>List of legal, regulatory, contractual and other requirements maintained; compliance discussed in policies; GDPR compliance addressed; contracts include relevant clauses.</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Business Continuity Plan E-WISE [Restricted].docx.pdf, Appendix 6 Disaster Recovery Plans (page 14); Chapter 2 Sections 2.7, 2.9, 3 (pages 7-10): 'Recovery time objectives defined'; 'Resources required listed'; 'Restoration and resumption steps described.'</t>
+          <t>Business Continuity Plan E-WISE [Restricted].docx.pdf, Chapter 1 Reference documents: 'List of Legal, Regulatory, Contractual and Other Requirements'; Information Security Policy [Internal].docx, Section 5.1.1 Data Protection: 'We follow European laws and guidelines and comply with the GDPR law...'; Section 3.3 Business Partnership Contracts includes contract clauses for compliance.</t>
         </is>
       </c>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr">
         <is>
-          <t>ELEARN4_Restoring_Test_(staging).pdf</t>
+          <t>Management Review Team Meeting E-WISE 2025 [Restricted].docx.pdf</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Restore tests for IT infrastructure (EFS and Aurora) performed successfully with documented procedures.</t>
+          <t>List of legal, regulatory, contractual and other requirements maintained; GDPR compliance addressed; contracts include relevant clauses.</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -1887,7 +1907,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1897,12 +1917,12 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>A.5.31</t>
+          <t>A.5.32</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Identification of legal, statutory, regulatory and contractual requirements</t>
+          <t>Intellectual property rights</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1912,34 +1932,34 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>List of legal, regulatory, contractual and other requirements maintained; compliance with GDPR and other laws ensured; regular reviews and updates performed.</t>
+          <t>Procedures ensure compliance with intellectual property rights; licensing agreements respected; software inventory maintained.</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Business Continuity Plan E-WISE [Restricted].docx.pdf, Chapter 1 Reference documents (page 4): 'List of Legal, Regulatory, Contractual and Other Requirements'; Information Security Policy [Internal].docx, Section 5.1.1 Data Protection (page 23): 'We follow European laws and GDPR'; Section 3.1 Business Partnership Security (page 19): 'Contracts include data protection clauses.'</t>
+          <t>Information Security Policy [Internal].docx, Section 9.1 Intellectual Property Rights: 'Appropriate procedures must be implemented to ensure compliance with legal restrictions on the use of material...'; Section 9.2 Software Licensing: 'All Employees and contractors must respect the licensing agreements...'; 'IT-Department maintains an inventory of software purchased.'</t>
         </is>
       </c>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Management Review Team Meeting E-WISE 2025 [Restricted].docx.pdf</t>
+          <t>No direct evidence found in provided documents</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Legal, regulatory, and contractual requirements including GDPR compliance are maintained and reviewed regularly.</t>
+          <t>No explicit procedures or evidence regarding intellectual property rights compliance or software licensing.</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Document and provide evidence of intellectual property rights management.</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>❌</t>
         </is>
       </c>
     </row>
@@ -1956,12 +1976,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>A.5.32</t>
+          <t>A.5.33</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Intellectual property rights</t>
+          <t>Protection of records</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1971,41 +1991,41 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Procedures ensure compliance with intellectual property rights including copyright, design rights, trade secrets; software licensing respected; inventory maintained.</t>
+          <t>Information disposal must be secure; personnel information shredded or overwritten; media disposal controlled and documented.</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Information Security Policy [Internal].docx, Section 9.1 Intellectual Property Rights (page 48): 'Appropriate procedures to ensure compliance with legal restrictions on intellectual property'; Section 9.2 Software Licensing: 'Employees must respect licensing agreements.'</t>
+          <t>Information Security Policy [Internal].docx, Section 9.3 Information Disposal: 'Information disposal must be done through secure means.'; 'All copies of personnel information, whether electronic or hard copy, must be shredded or irretrievably overwritten in accordance with EU law.'; 'Media Disposal – All information storage media containing company information classified as ‘Internal’, ‘Confidential’ or ‘Restricted’, must be destroyed, ensuring data recovery is not possible. Evidence of media destruction should be retained.'</t>
         </is>
       </c>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr">
         <is>
-          <t>No explicit evidence found in provided documents.</t>
+          <t>Reducate - Disposal of devices [Confidential].docx</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>No documented procedures or inventory related to intellectual property rights compliance found.</t>
+          <t>Information disposal is secure; storage media are physically destroyed before disposal; disposal processes are documented; shredding and overwriting of personnel information is performed.</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Develop and document procedures ensuring compliance with intellectual property rights.</t>
+          <t>None</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -2015,12 +2035,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>A.5.33</t>
+          <t>A.5.34</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Protection of records</t>
+          <t>Privacy and protection of PII</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -2030,24 +2050,24 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Information disposal must be secure; personnel information shredded or overwritten per law; media disposal controlled and documented.</t>
+          <t>Privacy and PII protection ensured per legislation; data leakage incidents managed; GDPR compliance maintained; data sharing controlled.</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Information Security Policy [Internal].docx, Section 9.3 Information Disposal (page 48): 'Information disposal must be done through secure means'; 'Personnel information must be shredded or irretrievably overwritten'; Section 6.8 Backup &amp; Restoration Policy (pages 43-46): 'Backup media stored securely and disposed with authorisation.'</t>
+          <t>Information Security Policy [Internal].docx, Section 3.3 Privacy and protection of personally identifiable information: 'Privacy and protection of personally identifiable information (PII) must be ensured as required relevant legislation and regulations where applicable.'; Section 5.1.1 Data Protection: 'We follow European laws and guidelines and comply with the GDPR law...'; Business Continuity Plan E-WISE [Restricted].docx.pdf, Appendix 1 Incident Response Plan includes Data leakage (GDPR) response.</t>
         </is>
       </c>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Reducate - Disposal of devices [Confidential].docx</t>
+          <t>Management Review Team Meeting E-WISE 2025 [Restricted].docx.pdf</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Secure disposal procedures for information and media disposal are defined, including physical destruction of storage media and controlled removal by recycling companies.</t>
+          <t>GDPR compliance is maintained; data leakage incidents are managed; data sharing is controlled; GDPR meetings conducted.</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
@@ -2064,7 +2084,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5,9</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -2074,12 +2094,12 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>A.5.34</t>
+          <t>A.5.35</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Privacy and protection of PII</t>
+          <t>Independent review of information security</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -2089,12 +2109,12 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Privacy and protection of PII ensured per relevant legislation; GDPR compliance maintained; data leakage incident response defined; training and reporting in place.</t>
+          <t>Annual internal and external ISO 27001 audits conducted; ISSC and ISWG review security policies and incidents; management reviews performed.</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Information Security Policy [Internal].docx, Section 5.1.1 Data Protection (page 23): 'We follow GDPR'; Section 5.1.2 Data incidents and GDPR laws discussed biannually; Business Continuity Plan E-WISE [Restricted].docx.pdf, Appendix 1 Incident Response Plan (page 11): 'Data leakage (GDPR) incident response defined.'</t>
+          <t>Information Security Policy [Internal].docx, Section 8.2 Application development PEN-test &amp; audits: 'An yearly ISO internal and external audit is required for every group company to comply with ISO 27001 and this information security policy.'; Section 2.1.2 Security Organisation Policy: 'The global security organisation should be reviewed yearly by the Information Security Steering Committee (ISSC).'; Section 2.1.3 Group company security organisation reviewed yearly by ISWG.</t>
         </is>
       </c>
       <c r="H29" t="inlineStr"/>
@@ -2106,7 +2126,7 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>GDPR meetings conducted; data leakage incident response and training are in place; privacy and protection of PII ensured.</t>
+          <t>Annual internal and external ISO 27001 audits conducted; ISSC and ISWG review security policies and incidents; management reviews performed.</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
@@ -2123,7 +2143,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>5,9</t>
+          <t>5,9,10</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -2133,12 +2153,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>A.5.35</t>
+          <t>A.5.36</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Independent review of information security</t>
+          <t>Compliance with policies and standards for information security</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -2148,12 +2168,12 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Annual internal and external ISO 27001 audits performed; ISSC and ISWG review security organisation and incidents; management reviews conducted yearly.</t>
+          <t>Compliance enforced via policies, disciplinary actions, audits, and management reviews; non-compliance leads to disciplinary measures; incident reporting and handling procedures in place.</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Information Security Policy [Internal].docx, Section 8.2 Application development PEN-test &amp; audits (page 50): 'Yearly ISO internal and external audit required'; Section 2.1 Security Organisation (page 18): 'ISSC reviews yearly'; Section 10.1 Review of information security (page 37): 'Security policy reviewed yearly by ISSC and ISWG.'</t>
+          <t>Information Security Policy [Internal].docx, Section 1.4 Enforcements: 'Compliance with the security policy and standards is expected for all organisational units...'; Section 5.1.3 IT Policy: 'Any employee who is considered or found to have used Reducate’s IT systems for inappropriate purposes... will be subject to appropriate disciplinary actions.'; Section 9.4 Non-Compliance: 'An employee or contractor who fails to observe the requirements of this policy may be subject to disciplinary action, which may include dismissal.'; Section 6.5 Security incident management: 'All significant security incidents should be briefed to Reducate ISSC on a monthly basis.'</t>
         </is>
       </c>
       <c r="H30" t="inlineStr"/>
@@ -2165,7 +2185,7 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Annual internal and external audits performed; ISSC and ISWG review security organization and incidents; management reviews conducted yearly.</t>
+          <t>Compliance enforced via policies, disciplinary actions, audits, and management reviews; incident reporting and handling procedures in place.</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
@@ -2180,11 +2200,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>5,9,10</t>
-        </is>
-      </c>
+      <c r="A31" t="inlineStr"/>
       <c r="B31" t="inlineStr">
         <is>
           <t>A.5 (Organisational Controls)</t>
@@ -2192,12 +2208,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>A.5.36</t>
+          <t>A.5.37</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Compliance with policies and standards for information security</t>
+          <t>Documented operating procedures</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2207,12 +2223,12 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Policies and standards defined and enforced; disciplinary processes for non-compliance; regular training and awareness; incident reporting and management; management reviews.</t>
+          <t>Operating procedures are documented and maintained; change management and incident management procedures exist; configuration and backup procedures documented.</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Information Security Policy [Internal].docx, Section 1.5 Roles and Responsibilities (page 14); Section 2.3 Disciplinary process (page 22); Section 2.2 Information security awareness, education and training (page 22); Section 6.5 Security incident management (pages 34-36); Section 9.4 Non-Compliance (page 48); Section 10.1 Review of information security (page 37).</t>
+          <t>Information Security Policy [Internal].docx, Section 6.1 Documented Operating procedures: 'The operating procedures identified by the security policy should be documented and maintained.'; Section 6.2 Operational change control; Section 6.5 Security incident management; Section 6.8 Backup &amp; Restoration Policy.</t>
         </is>
       </c>
       <c r="H31" t="inlineStr"/>
@@ -2224,7 +2240,7 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Policies and standards are defined and enforced; disciplinary processes, training, incident reporting, and management reviews are documented.</t>
+          <t>Operating procedures including change management and incident management are documented and maintained; configuration and backup procedures documented.</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
@@ -2239,7 +2255,11 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr"/>
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>5,6,9,10</t>
+        </is>
+      </c>
       <c r="B32" t="inlineStr">
         <is>
           <t>A.5 (Organisational Controls)</t>
@@ -2247,12 +2267,12 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>A.5.37</t>
+          <t>A.5.4</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Documented operating procedures</t>
+          <t>Management responsibilities</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2262,12 +2282,12 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Operating procedures documented and maintained for incident management, change management, backup, recovery, system restart, and other key processes.</t>
+          <t>Management is responsible for setting security objectives, resource allocation, policy enforcement, training, review, and continuous improvement. Document ownership and review processes are defined.</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Information Security Policy [Internal].docx, Section 6.1 Documented Operating procedures (page 32): 'Operating procedures identified by the security policy should be documented and maintained'; 'Includes incident management, change management, backup and restoration procedures.'</t>
+          <t>Information Security Policy [Internal].docx: 'Executive responsibilities: Determine security objectives, alignment with business strategy, resource management, training, review, implementation, continuous security.'; 'The director of Reducate is the owner of the security policy and any changes to the document have to be authorised by the director or their designate.'; 'The security policy should be reviewed by ISSC and ISWG yearly or after adding any major IT component.'; Business Continuity Plan E-WISE: 'The owner of this document is Stephan Csorba, who must check and if necessary update the document at least once a year.'</t>
         </is>
       </c>
       <c r="H32" t="inlineStr"/>
@@ -2279,26 +2299,22 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Operating procedures for incident management, change management, backup, recovery, and system restart are documented and maintained.</t>
+          <t>Management review meetings cover setting security objectives, resource allocation, policy enforcement, training updates, and continuous improvement; document ownership and review processes are implied through meeting agendas and tasks.</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Explicit documentation of management responsibilities and enforcement processes would strengthen evidence.</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>🟡</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>5,6,9,10</t>
-        </is>
-      </c>
+      <c r="A33" t="inlineStr"/>
       <c r="B33" t="inlineStr">
         <is>
           <t>A.5 (Organisational Controls)</t>
@@ -2306,12 +2322,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>A.5.4</t>
+          <t>A.5.5</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Management responsibilities</t>
+          <t>Contact with authorities</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2321,34 +2337,34 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Management is responsible for setting security objectives, resource allocation, policy enforcement, training, review, and continuous improvement.</t>
+          <t>Contact details and procedures for engaging with local authorities (police, fire department) are documented in incident response plans.</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Information Security Policy [Internal].docx: 'Section - 1.5 Roles and Responsibilities' and 'Executive responsibilities' listing management duties including setting objectives, resource management, training, review, and continuous security.</t>
+          <t>Business Continuity Plan E-WISE: Appendix 1 Incident Response Plan: 'Facility disasters, fire, water damage etc. - Local authorities, police, fire department, call 112'; 'Contact insurance company (Appendix 5)'; 'Contact external security company (Appendix 5)'.</t>
         </is>
       </c>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Management Review Team Meeting E-WISE 2025 [Restricted].docx.pdf</t>
+          <t>No direct evidence found in provided documents</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Management review meetings cover setting security objectives, resource allocation, policy enforcement, training updates, audit results, and continual improvement actions.</t>
+          <t>No explicit mention of contact details or procedures for engaging with local authorities in incident response plans or other documents.</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Document and provide evidence of contact details and procedures for local authorities in incident response plans.</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>❌</t>
         </is>
       </c>
     </row>
@@ -2361,12 +2377,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>A.5.5</t>
+          <t>A.5.6</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Contact with authorities</t>
+          <t>Contact with special interest groups</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2376,39 +2392,43 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Contact details and procedures for engaging with authorities in case of incidents are defined in the Business Continuity Plan and Incident Response Plan.</t>
+          <t>The organisation maintains subscriptions and receives security news from external vendors, forums, newsletters, and local government security authorities.</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Business Continuity Plan E-WISE [Restricted].docx.pdf: Appendix 1 Incident Response Plan (Page 11) lists contacts for local authorities, police, fire department (call 112) for facility disasters.</t>
+          <t>Information Security Policy [Internal].docx: '2.1.7 Any company part of the Reducate group should regularly get security news from external vendors, forums, newsletters or magazines to be up-to-date with latest security news and potential vulnerabilities.'; '2.1.8 Any company part of the Reducate group should be informed, if applicable, by local government security authorities to get the latest security news.'</t>
         </is>
       </c>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Management Review Team Meeting E-WISE 2025 [Restricted].docx.pdf</t>
+          <t>No direct evidence found in provided documents</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Business Continuity Plan and Incident Response Plan are referenced as confidential documents relevant to incident management and contact with authorities.</t>
+          <t>No explicit mention of subscriptions or contacts with special interest groups or security news sources.</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Provide explicit procedures or contact details for authorities within the evidence.</t>
+          <t>Maintain and document subscriptions or contacts with special interest groups and external security information sources.</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>🟡</t>
+          <t>❌</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr"/>
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
       <c r="B35" t="inlineStr">
         <is>
           <t>A.5 (Organisational Controls)</t>
@@ -2416,12 +2436,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>A.5.6</t>
+          <t>A.5.7</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Contact with special interest groups</t>
+          <t>Threat intelligence</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2431,12 +2451,12 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>The organisation maintains subscriptions and receives security news from external vendors, forums, newsletters, and government security authorities.</t>
+          <t>Processes are in place to acquire and disseminate information about vulnerabilities and threats from appropriate sources to relevant teams.</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Information Security Policy [Internal].docx: '2.1.7 Any company part of the Reducate group should regularly get security news from external vendors, forums, newsletters or magazines...'; '2.1.8 Any company part of the Reducate group should be informed, if applicable, by local government security authorities...'</t>
+          <t>Information Security Policy [Internal].docx: '6.5.2 As part of the IT Security function subscriptions should be maintained to vulnerability and virus breakout notification mechanisms and similar information pertaining to the IT infrastructure. Such vulnerability and outbreak information should be circulated to the respective support team responsible for addressing vulnerabilities.'</t>
         </is>
       </c>
       <c r="H35" t="inlineStr"/>
@@ -2448,12 +2468,12 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Subscriptions and communication with external parties such as GDPR meetings and vendor risk assessments are mentioned.</t>
+          <t>Risk assessments and improvements are discussed regularly; vulnerability information is circulated as part of risk management and audit results.</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Include specific examples or lists of special interest groups and subscription details.</t>
+          <t>More explicit evidence of formal threat intelligence acquisition and dissemination processes would be beneficial.</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
@@ -2465,7 +2485,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2475,12 +2495,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>A.5.7</t>
+          <t>A.5.8</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Threat intelligence</t>
+          <t>Information security in project management</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2490,43 +2510,39 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Processes to acquire and circulate information about vulnerabilities and threats are established.</t>
+          <t>Security requirements are integrated into the system development lifecycle (SDLC) with documented policies, quality checks, testing, and change control.</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Information Security Policy [Internal].docx: '6.5 Security incident management' and '6.2 Management of technical vulnerabilities' describe acquiring vulnerability info, circulating to support teams, and maintaining subscriptions to vulnerability notifications.</t>
+          <t>Information Security Policy [Internal].docx: '8.1 Security in application development'; '8.1.1 Reducate or Group Company must review the system development life cycle (SDLC) methodology of External Service Providers.'; '8.1.3 Reducate or Group Company must have documented SDLC policies and procedures for any in-house application development or major enhancements.'; '8.1.11 Requests for program changes, system changes and maintenance are standardised, documented and subject to the relevant change processes as documented in the support and delivery frameworks.'; '8.1.13 Controls must be in place to restrict the migration of programs to production only after approvals from authorised persons.'</t>
         </is>
       </c>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Management Review Team Meeting E-WISE 2025 [Restricted].docx.pdf</t>
+          <t>No direct evidence found in provided documents</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Risk assessments and improvements are discussed regularly, indicating processes to acquire and circulate threat intelligence.</t>
+          <t>No explicit mention of integration of information security in project management or SDLC in the evidence.</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Document formal threat intelligence processes and circulation methods.</t>
+          <t>Document and provide evidence of security requirements integration in project management and SDLC.</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>🟡</t>
+          <t>❌</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
+      <c r="A37" t="inlineStr"/>
       <c r="B37" t="inlineStr">
         <is>
           <t>A.5 (Organisational Controls)</t>
@@ -2534,12 +2550,12 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>A.5.8</t>
+          <t>A.5.9</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Information security in project management</t>
+          <t>Inventory of information and other associated assets</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2549,52 +2565,56 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Security requirements are integrated into project management and system development lifecycle (SDLC) with documented policies and quality checks.</t>
+          <t>IT Asset Managers maintain and periodically update inventories of hardware and software assets, including physical location and assigned users.</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Information Security Policy [Internal].docx: '8.1 Security in application development' details SDLC policies, quality checks, testing, change control, and security embedded in projects.</t>
+          <t>Information Security Policy [Internal].docx: '6.11 Asset Management'; '6.11.1 IT Asset Manager must maintain and periodically update information on the company’s hardware asset and its installed software/components, physical location, and the user assigned to the equipment.'; '6.11.2 IT Asset Manager must perform a physical inventory check at least once a year.'</t>
         </is>
       </c>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Management Review Team Meeting E-WISE 2025 [Restricted].docx.pdf</t>
+          <t>Matrix rechten Zoho (Internal).pdf</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Project management roles are included in meeting attendees; however, no explicit mention of integration of information security in project management or SDLC.</t>
+          <t>IT Asset Managers maintain access rights and roles in Zoho CRM and other systems; rights and roles are documented and reviewed.</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Provide documented policies or evidence of security integration in project management and SDLC.</t>
+          <t>Explicit evidence of periodic inventory updates including physical location and assigned users would improve clarity.</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>🟡</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr"/>
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>A.5 (Organisational Controls)</t>
+          <t>A.6 (People Controls)</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>A.5.9</t>
+          <t>A.6.1</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Inventory of information and other associated assets</t>
+          <t>Screening</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2604,34 +2624,34 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>IT Asset Managers maintain and periodically update inventories of hardware, software, and information assets with physical location and user assignment.</t>
+          <t>Background verification and competence checks performed on candidates; minimum qualifications defined; security tests for developers; documented screening process.</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Information Security Policy [Internal].docx: '6.11 Asset Management' - 'IT Asset Manager must maintain and periodically update information on the company’s hardware asset and its installed software/components, physical location, and the user assigned to the equipment.'</t>
+          <t>Information Security Policy [Internal].docx, Section 2.1 Screening: 'A good control covers background verification and competence checks on all candidates for employment...'; 'Our minimal qualifications consists out of: Background checks (Curriculum Vitae), 2 Physical/online meetings, Developers are required to do a security test via Testdome.com...'; 'Additional 1 former work reference could be checked; Additional a “certificate of conduct” (VOG) could be required.'</t>
         </is>
       </c>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Matrix rechten Zoho (Internal).pdf</t>
+          <t>No direct evidence found in provided documents</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>IT Asset Managers maintain access rights and roles within Zoho CRM and other systems, indicating control over asset inventories and user assignments.</t>
+          <t>No explicit evidence of background verification or screening process found.</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Include explicit inventory lists and update schedules for hardware, software, and information assets.</t>
+          <t>Document and provide evidence of screening and background verification.</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>🟡</t>
+          <t>❌</t>
         </is>
       </c>
     </row>
@@ -2648,49 +2668,57 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>A.6.1</t>
+          <t>A.6.2</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Screening</t>
+          <t>Terms and conditions of employment</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>🟡</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Background verification and competence checks performed on all candidates; minimum qualifications defined; security tests for developers; documented screening process.</t>
+          <t>Section 2.1 Screening describes background verification and competence checks. The Information Security Policy states responsibilities of employees and contractors to comply with policies. Termination and change of employment processes are documented.</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Information Security Policy [Internal].docx, Chapter 2 Human Resource Security, Section 2.1 Screening (page 21): 'Background checks (CV), physical/online meetings, security test for developers, possible certificate of conduct.'</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr"/>
-      <c r="I39" t="inlineStr"/>
+          <t>Information Security Policy [Internal].docx - Chapter 2 Human Resource Security - Section 2.1 Screening; Section 2.4 Termination of employment; Section 2.5 Change of employment.</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>No explicit mention of embedding information security terms and conditions in employment contracts or formal terms and conditions documents.</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>Include explicit clauses in employment contracts or terms and conditions that address information security responsibilities and obligations.</t>
+        </is>
+      </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>2.4.7 Template checklist indienst.PNG.pdf</t>
+          <t>No direct evidence found in provided documents</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Onboarding checklist includes background verification steps and competence checks for new hires.</t>
+          <t>No explicit evidence of terms and conditions of employment or documented responsibilities found.</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Provide documented screening process and records of background checks.</t>
+          <t>Document and provide evidence of employment terms and responsibilities.</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>🟡</t>
+          <t>❌</t>
         </is>
       </c>
     </row>
@@ -2707,47 +2735,39 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>A.6.2</t>
+          <t>A.6.3</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Terms and conditions of employment</t>
+          <t>Information security awareness, education and training</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>🟡</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Section 2.1 Screening describes background checks and competence verification for candidates. Termination and change of employment processes are documented in Section 2.4 and 2.5. Employee responsibilities and compliance expectations are outlined in the Information Security Policy.</t>
+          <t>All employees and relevant contractors must receive appropriate awareness, education, and training on organizational policies and procedures related to their job function.</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Information Security Policy [Internal].docx - Chapter 2 Human Resource Security, Section 2.1 Screening; Section 2.4 Termination of employment; Section 2.5 Change of employment.</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>No explicit mention of formal terms and conditions of employment including security requirements embedded in contracts or employment agreements.</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>Include explicit documented terms and conditions of employment that incorporate information security responsibilities and obligations.</t>
-        </is>
-      </c>
+          <t>Information Security Policy [Internal].docx - Chapter 2 Human Resource Security - Section 2.2 Information security awareness, education and training.</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr">
         <is>
-          <t>2.4.7 Template checklist indienst.PNG.pdf and 2.4.8 Template checklist uitdienst.PNG.pdf</t>
+          <t>Management Review Team Meeting E-WISE 2025 [Restricted].docx.pdf</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Screening and termination processes are documented in onboarding and offboarding checklists; employee responsibilities outlined in Information Security Policy.</t>
+          <t>Security training updates are planned and communicated; training completion is tracked and at 100%.</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
@@ -2774,12 +2794,12 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>A.6.3</t>
+          <t>A.6.4</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Information security awareness, education and training</t>
+          <t>Disciplinary process</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2789,12 +2809,12 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>All employees and relevant contractors must receive appropriate awareness, education, and training on organizational policies and procedures related to their job function.</t>
+          <t>Failure to comply with the Information Security Policy or related rules may result in disciplinary action including termination of employment.</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Information Security Policy [Internal].docx - Chapter 2 Human Resource Security, Section 2.2 Information security awareness, education and training.</t>
+          <t>Information Security Policy [Internal].docx - Chapter 2 Human Resource Security - Section 2.3 Disciplinary process.</t>
         </is>
       </c>
       <c r="H41" t="inlineStr"/>
@@ -2806,7 +2826,7 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Security training updates and awareness programs are planned and tracked with 100% completion reported.</t>
+          <t>Disciplinary actions are referenced in compliance enforcement and incident handling procedures.</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
@@ -2833,12 +2853,12 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>A.6.4</t>
+          <t>A.6.5</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Disciplinary process</t>
+          <t>Responsibilities after termination or change of employment</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2848,24 +2868,24 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Failure to comply with the Information Security Policy or related rules may result in disciplinary action including termination of employment.</t>
+          <t>Access to information systems and physical access must be removed on the last day of employment. Company belongings must be returned. Change of employment is a documented process.</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Information Security Policy [Internal].docx - Chapter 2 Human Resource Security, Section 2.3 Disciplinary process.</t>
+          <t>Information Security Policy [Internal].docx - Chapter 2 Human Resource Security - Section 2.4 Termination of employment; Section 2.5 Change of employment.</t>
         </is>
       </c>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Management Review Team Meeting E-WISE 2025 [Restricted].docx.pdf</t>
+          <t>2.4.8 Template checklist uitdienst.PNG.pdf</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Disciplinary processes for non-compliance including termination are documented and enforced.</t>
+          <t>Offboarding checklist includes returning keys and tags, logging out of systems, uninstalling computers, indicating removal of access and company belongings.</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
@@ -2880,11 +2900,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
+      <c r="A43" t="inlineStr"/>
       <c r="B43" t="inlineStr">
         <is>
           <t>A.6 (People Controls)</t>
@@ -2892,12 +2908,12 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>A.6.5</t>
+          <t>A.6.6</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Responsibilities after termination or change of employment</t>
+          <t>Confidentiality or non-disclosure agreements</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2907,24 +2923,24 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Access to information systems and physical access are removed on the last day of employment. Company belongings must be returned. Documented termination and role change processes are in place.</t>
+          <t>All external service providers must sign NDAs or have equivalent confidentiality clauses in contracts. Third-party NDAs for employees must be approved and signed per policy.</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Information Security Policy [Internal].docx - Chapter 2 Human Resource Security, Section 2.4 Termination of employment; Section 2.5 Change of employment.</t>
+          <t>Information Security Policy [Internal].docx - Section 3.2 Non-Disclosure Agreements.</t>
         </is>
       </c>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr">
         <is>
-          <t>2.4.8 Template checklist uitdienst.PNG.pdf</t>
+          <t>Management Review Team Meeting E-WISE 2025 [Restricted].docx.pdf</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Checklist includes removal of access and return of company belongings on last day of employment.</t>
+          <t>NDAs and confidentiality clauses are included in contracts with external service providers; third-party NDAs are approved and signed per policy.</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
@@ -2947,49 +2963,57 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>A.6.6</t>
+          <t>A.6.7</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Confidentiality or non-disclosure agreements</t>
+          <t>Remote working</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>🟡</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>All external service providers must sign NDAs or have equivalent confidentiality clauses in contracts. Employee NDAs required by third parties must be approved and signed per policy.</t>
+          <t>The Business Continuity Plan states that all employees except Studio Department can work from home in the cloud. Mobile device policy addresses mobile device protection and usage. Remote access requires IT approval.</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Information Security Policy [Internal].docx - Section 3.2 Non-Disclosure Agreements.</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr"/>
-      <c r="I44" t="inlineStr"/>
+          <t>Business Continuity Plan E-WISE [Restricted].docx.pdf - Section 2.6 Sites and transportation; Information Security Policy [Internal].docx - Chapter 8 Mobile Computing (Telecommuting) - Section 8.1 Mobile device policy; Section 6.9 Network Security Policy - 6.9.14 Remote access requires approval.</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>No detailed remote working policy covering security controls, user responsibilities, or secure connection requirements explicitly documented.</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>Develop and document a comprehensive remote working policy addressing security requirements, secure access, device management, and user responsibilities.</t>
+        </is>
+      </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Management Review Team Meeting E-WISE 2025 [Restricted].docx.pdf</t>
+          <t>No direct evidence found in provided documents</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>NDAs and confidentiality agreements are part of vendor risk assessments and contract management.</t>
+          <t>No explicit evidence of remote working policy or controls found.</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Provide signed NDA samples and approval records.</t>
+          <t>Document and provide evidence of remote working policies and controls.</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>🟡</t>
+          <t>❌</t>
         </is>
       </c>
     </row>
@@ -3002,75 +3026,71 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>A.6.7</t>
+          <t>A.6.8</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Remote working</t>
+          <t>Information security event reporting</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>🟡</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Remote working is implied as employees except Studio Department can work from home/cloud. Mobile device policies and remote access controls are defined.</t>
+          <t>Users must report any suspected security breaches or incidents immediately. Incident response procedures and logs are maintained. Incident reporting responsibilities and procedures are defined.</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Business Continuity Plan E-WISE [Restricted].docx.pdf - Section 2.6 Sites and transportation; Information Security Policy [Internal].docx - Chapter 8 Mobile Computing (Telecommuting), Section 8.1 Mobile device policy; Section 6.9 Network Security Policy.</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>No explicit comprehensive remote working policy covering security controls, user responsibilities, and technical safeguards.</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>Develop and document a formal remote working policy addressing security requirements, user responsibilities, and technical controls.</t>
-        </is>
-      </c>
+          <t>Information Security Policy [Internal].docx - Chapter 9 Management of Information Security Incidents - Section 9.1 Responsibilities and procedures; Business Continuity Plan E-WISE [Restricted].docx.pdf - Appendix 1 Incident Response Plan; Appendix 2 Incident Log.</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Business Continuity Plan referenced in Management Review Team Meeting E-WISE 2025 [Restricted].docx.pdf</t>
+          <t>Management Review Team Meeting E-WISE 2025 [Restricted].docx.pdf</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Remote working allowed for most employees except Studio Department; mobile device policies and remote access controls are defined.</t>
+          <t>Incident reporting responsibilities and procedures are defined; users must report suspected security breaches immediately.</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Provide explicit remote working policy documents.</t>
+          <t>None</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>🟡</t>
+          <t>✅</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr"/>
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>A.6 (People Controls)</t>
+          <t>A.7 (Physical Controls)</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>A.6.8</t>
+          <t>A.7.1</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Information security event reporting</t>
+          <t>Physical security perimeter</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -3080,43 +3100,39 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Procedures for reporting security incidents are established. Users must report suspected security breaches immediately. Incident response plans and logs are maintained.</t>
+          <t>Physical access is secured via card swipe system or personal keys. System racks and rooms are locked. Central alarm system per floor with yearly code changes.</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Information Security Policy [Internal].docx - Chapter 9 Management of Information Security Incidents, Section 9.1 Responsibilities and procedures; Business Continuity Plan E-WISE [Restricted].docx.pdf - Appendix 1 Incident Response Plan; Appendix 2 Incident Log.</t>
+          <t>Information Security Policy [Internal].docx - Section 7.6 Physical Access - 7.6.1 to 7.6.6.</t>
         </is>
       </c>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Management Review Team Meeting E-WISE 2025 [Restricted].docx.pdf</t>
+          <t>Key holders server room _ Studios (Internal).pdf</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Procedures for reporting security incidents are established; users must report suspected breaches immediately; incident response plans and logs maintained.</t>
+          <t>Access to server rooms controlled by keys; key holders documented; physical locations specified.</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Evidence of card swipe system and alarm system not found.</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>🟡</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
+      <c r="A47" t="inlineStr"/>
       <c r="B47" t="inlineStr">
         <is>
           <t>A.7 (Physical Controls)</t>
@@ -3124,12 +3140,12 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>A.7.1</t>
+          <t>A.7.10</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Physical security perimeter</t>
+          <t>Storage media</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -3139,34 +3155,34 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Physical access is controlled via card swipe systems and personal keys. Central alarm systems per floor are in place with periodic code changes.</t>
+          <t>Storage media usage and disposal policies are documented. Media disposal ensures data recovery is not possible. Backup media stored securely with environmental controls.</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Information Security Policy [Internal].docx - Section 7.6 Physical Access, 7.6.1 and 7.6.2.</t>
+          <t>Information Security Policy [Internal].docx - Section 6.8 Backup &amp; Restoration Policy - 6.8.8 Media Disposal; Section 6.10 End-point Security Policy; Section 4.1 Classification of information.</t>
         </is>
       </c>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Key holders server room _ Studios (Internal).pdf</t>
+          <t>Reducate - Disposal of devices [Confidential].docx</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Access to studios controlled by key holders; keys are assigned and updated; physical location details provided.</t>
+          <t>Storage media usage and disposal policies documented; media disposal ensures data recovery is not possible; backup media stored securely with environmental controls.</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Include evidence of card swipe systems and alarm systems per floor.</t>
+          <t>None</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>🟡</t>
+          <t>✅</t>
         </is>
       </c>
     </row>
@@ -3179,31 +3195,39 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>A.7.10</t>
+          <t>A.7.11</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Storage media</t>
+          <t>Supporting utilities</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>🟡</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Storage media disposal and handling policies are defined. Media disposal must ensure data recovery is not possible. Regular checks on portable storage device usage are performed.</t>
+          <t>Backup media storage locations have air conditioning and fire prevention/detection. No detailed documented controls for utilities such as power, water, HVAC for all facilities.</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Information Security Policy [Internal].docx - Section 6.10 End-point Security Policy; Section 6.8 Backup &amp; Restoration Policy; Section 9.3 Information Disposal.</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr"/>
-      <c r="I48" t="inlineStr"/>
+          <t>Information Security Policy [Internal].docx - Section 6.8.12 Physical and Environmental controls.</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Lack of comprehensive documented controls for supporting utilities to ensure availability and protection of information processing facilities.</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>Document and implement controls for supporting utilities including power supply, HVAC, water, and other critical utilities.</t>
+        </is>
+      </c>
       <c r="J48" t="inlineStr">
         <is>
           <t>Reducate - Disposal of devices [Confidential].docx</t>
@@ -3211,17 +3235,17 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Storage media disposal and handling policies defined; data recovery prevention ensured; regular checks on portable storage usage performed.</t>
+          <t>Backup media storage locations have air conditioning and fire prevention/detection.</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>No detailed documented controls for utilities such as power, water, HVAC for all facilities.</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>🟡</t>
         </is>
       </c>
     </row>
@@ -3234,57 +3258,49 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>A.7.11</t>
+          <t>A.7.12</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Supporting utilities</t>
+          <t>Cabling security</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>🟡</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Backup power (UPS) for network devices is specified. Electricity supply contacts and responsibilities are defined in Business Continuity Plan.</t>
+          <t>Cabling such as UTP, phone cables, optical fiber, and electrical wires are installed and secured per local or European regulations.</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Information Security Policy [Internal].docx - Section 6.9.36; Business Continuity Plan E-WISE [Restricted].docx.pdf - Appendix 5 Key Contacts; Section 2.9 Required resources.</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>No comprehensive documented controls for utilities supporting IT infrastructure (e.g., HVAC, water, fire suppression).</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>Develop and document controls for supporting utilities to ensure availability and protection.</t>
-        </is>
-      </c>
+          <t>Information Security Policy [Internal].docx - Section 6.9 Network Security Policy - 6.9.37 Cabling security.</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Business Continuity Plan referenced in Management Review Team Meeting E-WISE 2025 [Restricted].docx.pdf</t>
+          <t>No direct evidence found in provided documents</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Backup power (UPS) for network devices specified; electricity supply contacts and responsibilities defined.</t>
+          <t>No explicit evidence of cabling security per local or European regulations.</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Document and provide evidence of cabling security controls.</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>❌</t>
         </is>
       </c>
     </row>
@@ -3297,49 +3313,57 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>A.7.12</t>
+          <t>A.7.13</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Cabling security</t>
+          <t>Equipment maintenance</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>🟡</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Cabling must be installed and secured according to local or European regulations.</t>
+          <t>The Business Continuity Plan (E-WISE) mentions preservation and repair of equipment post-incident with responsible persons assigned (Section 3.2). The Information Security Policy (Reducate) references regular maintenance and software updates for perimeter devices and network equipment (6.9.38) and physical inventory checks (6.11.2).</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Information Security Policy [Internal].docx - Section 6.9.37 Cabling security.</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr"/>
-      <c r="I50" t="inlineStr"/>
+          <t>Business Continuity Plan E-WISE [Restricted].docx.pdf: Section 3.2 Assessment of the situation &amp; determining options and responsibilities (Page 9-10); Information Security Policy [Internal].docx: Section 6.9.38 (Perimeter devices maintenance), Section 6.11.2 (Physical inventory check).</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>No explicit documented formal equipment maintenance procedures or schedules are described. Maintenance responsibilities and frequency are not fully detailed.</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>Develop and document formal equipment maintenance procedures including schedules, responsible roles, and maintenance records to ensure consistent upkeep of physical assets.</t>
+        </is>
+      </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>No explicit evidence found in provided documents.</t>
+          <t>Management Review Team Meeting E-WISE 2025 [Restricted].docx.pdf, Reducate - Disposal of devices [Confidential].docx</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>No documentation on cabling security or installation according to regulations.</t>
+          <t>Regular maintenance and software updates for perimeter devices and network equipment referenced; equipment preservation and repair post-incident assigned; physical inventory checks performed.</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Develop and document cabling security procedures.</t>
+          <t>None</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
     </row>
@@ -3352,47 +3376,39 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>A.7.13</t>
+          <t>A.7.14</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Equipment maintenance</t>
+          <t>Secure disposal or re‑use of equipment</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>🟡</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>The Business Continuity Plan (E-WISE) mentions repair and purchasing decisions for equipment post-incident (Page 9-10). The Information Security Policy (Reducate) references regular maintenance and software updates for perimeter devices and network equipment (Section 6.9.38) and physical asset management (Section 6.11).</t>
+          <t>Information disposal and media disposal policies are defined, including secure destruction of media to prevent data recovery and documented processes for return of company equipment upon termination.</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Business Continuity Plan E-WISE [Restricted].docx.pdf Pages 9-10: Section 3.2 Assessment of the situation &amp; determining options and responsibilities; Information Security Policy [Internal].docx Section 6.9.38: 'Any devices in the perimeters of our network should have regular maintenance and software updates if this is required or recommended by the supplier.' Section 6.11 Asset Management.</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>No detailed documented procedure or schedule for equipment maintenance is described. No explicit responsibility assignment or maintenance records mentioned.</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>Develop and document formal equipment maintenance procedures including schedules, responsibilities, and record-keeping to ensure consistent maintenance of physical and IT equipment.</t>
-        </is>
-      </c>
+          <t>Information Security Policy [Internal].docx: Sections 2.4 Termination of employment, 6.8.8 Media Disposal, 6.11.5 Employees not allowed to dispose hardware without approval.</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Management Review Team Meeting E-WISE 2025 [Restricted].docx.pdf and Reducate - Disposal of devices [Confidential].docx</t>
+          <t>Reducate - Disposal of devices [Confidential].docx</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Regular maintenance and software updates for perimeter devices and network equipment referenced; repair and purchasing decisions post-incident documented.</t>
+          <t>Information disposal and media disposal policies defined; secure destruction of media to prevent data recovery; documented processes for return of company equipment upon termination.</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
@@ -3415,12 +3431,12 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>A.7.14</t>
+          <t>A.7.2</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Secure disposal or re‑use of equipment</t>
+          <t>Physical entry controls</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -3430,34 +3446,34 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Information disposal and media disposal policies are defined, including secure destruction of media to prevent data recovery. Return of company equipment upon termination is mandated.</t>
+          <t>Access to buildings and rooms controlled by card swipe, keys, and escorting visitors. Emergency access procedures exist.</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Information Security Policy [Internal].docx Sections 2.4 Termination of employment; 6.8.8 Media Disposal: 'All information storage media containing company information classified as ‘Internal’, ‘Confidential’ or ‘Restricted’, must be destroyed, ensuring data recovery is not possible.' Section 6.11.5: 'Employees are not allowed to dispose of hardware and software and take business belongings offside our offices without formal approval.'</t>
+          <t>Information Security Policy [Internal].docx - Section 7.6 Physical Access - 7.6.2, 7.6.9, 7.6.10.</t>
         </is>
       </c>
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Reducate - Disposal of devices [Confidential].docx</t>
+          <t>Key holders server room _ Studios (Internal).pdf</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Secure disposal or reuse of equipment is defined including secure destruction of media and return of company equipment upon termination.</t>
+          <t>Access to rooms controlled by keys; visitors must be escorted.</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>No explicit mention of card swipe or emergency access procedures.</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>🟡</t>
         </is>
       </c>
     </row>
@@ -3470,12 +3486,12 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>A.7.2</t>
+          <t>A.7.3</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Physical entry controls</t>
+          <t>Securing offices, rooms and facilities</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -3485,12 +3501,12 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Access to buildings and system racks is controlled and logged. Visitors and uninducted staff must be escorted. Emergency access procedures exist.</t>
+          <t>System racks and rooms are locked by default. Higher security levels can be implemented on request. Visitors must be escorted.</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Information Security Policy [Internal].docx - Section 7.6 Physical Access, 7.6.3 to 7.6.10.</t>
+          <t>Information Security Policy [Internal].docx - Section 7.6 Physical Access - 7.6.3, 7.6.4, 7.6.9.</t>
         </is>
       </c>
       <c r="H53" t="inlineStr"/>
@@ -3502,7 +3518,7 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Access to server rooms controlled and logged; visitors must be escorted; emergency access procedures exist.</t>
+          <t>System racks and rooms are locked; visitors must be escorted.</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
@@ -3517,7 +3533,11 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr"/>
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
       <c r="B54" t="inlineStr">
         <is>
           <t>A.7 (Physical Controls)</t>
@@ -3525,58 +3545,62 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>A.7.3</t>
+          <t>A.7.4</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Securing offices, rooms and facilities</t>
+          <t>Physical security monitoring</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>🟡</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>System racks and rooms are locked by default. Higher security levels can be implemented on request. Keys are signed for and returned upon personnel leaving.</t>
+          <t>Central alarm system per floor is in place with yearly code changes. No explicit mention of CCTV or continuous monitoring.</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Information Security Policy [Internal].docx - Section 7.6 Physical Access, 7.6.3 to 7.6.6.</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr"/>
-      <c r="I54" t="inlineStr"/>
+          <t>Information Security Policy [Internal].docx - Section 7.6 Physical Access - 7.6.1.</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>No explicit documentation of physical security monitoring such as CCTV or intrusion detection systems.</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>Implement and document physical security monitoring controls such as CCTV surveillance and intrusion detection systems.</t>
+        </is>
+      </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Key holders server room _ Studios (Internal).pdf</t>
+          <t>No direct evidence found in provided documents</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>System racks and rooms are locked by default; keys signed for and returned upon personnel leaving.</t>
+          <t>No explicit mention of physical security monitoring such as CCTV or continuous monitoring.</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Implement and document physical security monitoring controls.</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>❌</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
+      <c r="A55" t="inlineStr"/>
       <c r="B55" t="inlineStr">
         <is>
           <t>A.7 (Physical Controls)</t>
@@ -3584,12 +3608,12 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>A.7.4</t>
+          <t>A.7.5</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Physical security monitoring</t>
+          <t>Protecting against physical and environmental threats</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -3599,42 +3623,42 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Central alarm systems exist with code changes. No explicit mention of CCTV or continuous monitoring.</t>
+          <t>Physical protection against natural disasters and malicious attacks is referenced to local country regulations. Backup media storage locations have environmental controls.</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Information Security Policy [Internal].docx - Section 7.6 Physical Access, 7.6.1.</t>
+          <t>Information Security Policy [Internal].docx - Section 7.6.12; Section 6.8.12 Physical and Environmental controls.</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Lack of explicit physical security monitoring controls such as CCTV or intrusion detection.</t>
+          <t>No detailed documented controls for protection against physical and environmental threats such as fire suppression, flood protection, or power supply redundancy.</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>Implement and document physical security monitoring measures including CCTV or intrusion detection systems.</t>
+          <t>Develop and document comprehensive physical and environmental protection controls including fire detection/suppression, flood protection, and power backup.</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>No explicit evidence of CCTV or continuous physical security monitoring found.</t>
+          <t>No direct evidence found in provided documents</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Central alarm systems exist with code changes; no mention of CCTV.</t>
+          <t>No explicit evidence of protection against physical and environmental threats found.</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>Consider implementing and documenting CCTV or continuous monitoring.</t>
+          <t>Document and provide evidence of physical and environmental threat protections.</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>🟡</t>
+          <t>❌</t>
         </is>
       </c>
     </row>
@@ -3647,47 +3671,39 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>A.7.5</t>
+          <t>A.7.6</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Protecting against physical and environmental threats</t>
+          <t>Working in secure areas</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>🟡</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Local country regulations for protection against natural disasters and malicious attacks are referenced. Backup power (UPS) for network devices is specified.</t>
+          <t>Access to secure areas is restricted to authorized personnel. Visitors and uninducted staff must be escorted.</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Information Security Policy [Internal].docx - Section 7.6.12; Section 6.9.36 Uninterruptible power supply; Section 7.6.12.</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>No detailed documented controls for environmental threats such as fire suppression, flood protection, or environmental monitoring.</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>Develop and document comprehensive physical and environmental threat protection controls.</t>
-        </is>
-      </c>
+          <t>Information Security Policy [Internal].docx - Section 7.6 Physical Access - 7.6.8, 7.6.9.</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Business Continuity Plan referenced in Management Review Team Meeting E-WISE 2025 [Restricted].docx.pdf</t>
+          <t>Key holders server room _ Studios (Internal).pdf</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Backup power (UPS) for network devices specified; local regulations referenced for physical and environmental threats.</t>
+          <t>Access to secure areas restricted to authorized personnel; visitors and uninducted staff must be escorted.</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
@@ -3710,12 +3726,12 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>A.7.6</t>
+          <t>A.7.7</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Working in secure areas</t>
+          <t>Clear desk and clear screen</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -3725,24 +3741,24 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Access to secure areas is restricted to authorized personnel only. Visitors must be escorted. Emergency access procedures exist.</t>
+          <t>Clear desk is recommended. Personal information and critical information should not be left unattended. Locked closets or lockers are advised. Regular internal audits are performed.</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Information Security Policy [Internal].docx - Section 7.6 Physical Access, 7.6.8 and 7.6.9.</t>
+          <t>Information Security Policy [Internal].docx - Section 5.2 General Security policy - 5.2.4 Clear desk is recommended.</t>
         </is>
       </c>
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Key holders server room _ Studios (Internal).pdf</t>
+          <t>Management Review Team Meeting E-WISE 2025 [Restricted].docx.pdf</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Access to secure areas restricted to authorized personnel; visitors escorted; emergency access procedures exist.</t>
+          <t>Clear desk policy is recommended; regular internal audits performed; personal and critical information should not be left unattended.</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
@@ -3765,49 +3781,57 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>A.7.7</t>
+          <t>A.7.8</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Clear desk and clear screen</t>
+          <t>Equipment siting and protection</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>🟡</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Clear desk policy is recommended. Personal belongings should be stored securely. Regular internal audits are performed.</t>
+          <t>Equipment is secured in locked rooms and racks. No detailed policy on equipment siting to reduce risks from environmental threats or unauthorized access.</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Information Security Policy [Internal].docx - Section 5.2 General Security policy, 5.2.4 Clear desk is recommended.</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr"/>
-      <c r="I58" t="inlineStr"/>
+          <t>Information Security Policy [Internal].docx - Section 7.6 Physical Access - 7.6.3, 7.6.4.</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Lack of documented controls on equipment siting to mitigate risks such as environmental hazards or unauthorized physical access.</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>Develop and document equipment siting and protection controls addressing environmental and physical security risks.</t>
+        </is>
+      </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Management Review Team Meeting E-WISE 2025 [Restricted].docx.pdf</t>
+          <t>Key holders server room _ Studios (Internal).pdf</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>Clear desk policy is recommended; personal belongings stored securely; regular internal audits performed.</t>
+          <t>Equipment secured in locked rooms and racks.</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>No detailed policy on equipment siting to reduce environmental or unauthorized access risks.</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>🟡</t>
         </is>
       </c>
     </row>
@@ -3820,127 +3844,115 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>A.7.8</t>
+          <t>A.7.9</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Equipment siting and protection</t>
+          <t>Security of assets off-premises</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>🟡</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Equipment usage and return policies are defined. Physical protection of devices is mentioned in mobile device policy. No detailed equipment siting controls.</t>
+          <t>Mobile device policy addresses protection of devices off-premises. Equipment removal and return processes are documented. Remote working arrangements allow working from home securely.</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Information Security Policy [Internal].docx - Section 2.1.2 Equipment usage; Section 8.1 Mobile device policy.</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>Lack of explicit controls on equipment siting and physical protection measures.</t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>Document and implement equipment siting and protection controls to prevent damage or theft.</t>
-        </is>
-      </c>
+          <t>Information Security Policy [Internal].docx - Section 2.1.2 Equipment usage; Section 5.1.11 Mobile equipment Usage; Section 6.10 End-point Security Policy.</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Mobile device policy referenced in Management Review Team Meeting E-WISE 2025 [Restricted].docx.pdf</t>
+          <t>No direct evidence found in provided documents</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Physical protection of devices mentioned; no detailed equipment siting controls found.</t>
+          <t>No explicit evidence of mobile device protection off-premises or equipment removal/return processes.</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>Develop and document equipment siting and protection controls.</t>
+          <t>Document and provide evidence of off-premises asset security.</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>🟡</t>
+          <t>❌</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr"/>
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>A.7 (Physical Controls)</t>
+          <t>A.8 (Technological Controls)</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>A.7.9</t>
+          <t>A.8.1</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Security of assets off-premises</t>
+          <t>User endpoint devices</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>🟡</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Mobile device policy addresses protection of devices off-site. Business Continuity Plan allows working from home for most employees. No detailed controls on off-premises asset security.</t>
+          <t>Policies cover endpoint device usage, registration, physical protection, return upon termination, and restrictions on software installation. Endpoint security policy restricts use of portable storage and mandates antivirus and patching.</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Information Security Policy [Internal].docx - Chapter 8 Mobile Computing; Business Continuity Plan E-WISE [Restricted].docx.pdf - Section 2.6 Sites and transportation.</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>No formal documented controls for security of assets when off-premises.</t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>Establish and document controls for protecting assets used or stored off-premises.</t>
-        </is>
-      </c>
+          <t>Information Security Policy [Internal].docx: Sections 2.1.2 Equipment usage, 5.1.11 Mobile equipment usage, 6.10 End-point Security Policy, 6.6 Protection against malicious software.</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Business Continuity Plan referenced in Management Review Team Meeting E-WISE 2025 [Restricted].docx.pdf</t>
+          <t>Management Review Team Meeting E-WISE 2025 [Restricted].docx.pdf</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Mobile device policy addresses off-site protection; working from home allowed; no detailed off-premises asset security controls found.</t>
+          <t>Endpoint security in place; endpoint device usage, registration, physical protection, and return upon termination managed; restrictions on software installation enforced.</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>Enhance controls and documentation for off-premises asset security.</t>
+          <t>None</t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>🟡</t>
+          <t>✅</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -3950,12 +3962,12 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>A.8.1</t>
+          <t>A.8.10</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>User endpoint devices</t>
+          <t>Information deletion</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -3965,43 +3977,39 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Policies cover management, registration, physical protection, and secure use of mobile and endpoint devices. Use of company-provided devices is mandated; BYOD is discouraged. Endpoint security including antivirus and patching is enforced.</t>
+          <t>Information disposal is performed securely with shredding or overwriting. Media disposal ensures data recovery is not possible. Formal documented processes exist for return and disposal of company assets.</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Information Security Policy [Internal].docx Sections 5.1.4 IT Security; 5.1.11 Mobile equipment Usage; 6.6 Protection against malicious software; 6.10 End-point Security Policy; 2.1.2 Equipment usage.</t>
+          <t>Information Security Policy [Internal].docx: Sections 9.3 Information Disposal, 2.4 Termination of employment, 6.8.8 Media Disposal.</t>
         </is>
       </c>
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Management Review Team Meeting E-WISE 2025 [Restricted].docx.pdf</t>
+          <t>Reducate - Disposal of devices [Confidential].docx</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Endpoint security in place with ManageEngine and Microsoft Defender; company-provided devices mandated; BYOD discouraged.</t>
+          <t>Information disposal performed securely with shredding or overwriting; media disposal ensures data recovery is not possible; formal documented processes exist for return and disposal of company assets.</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>Provide endpoint device management policy documents.</t>
+          <t>None</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>🟡</t>
+          <t>✅</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
+      <c r="A62" t="inlineStr"/>
       <c r="B62" t="inlineStr">
         <is>
           <t>A.8 (Technological Controls)</t>
@@ -4009,49 +4017,57 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>A.8.10</t>
+          <t>A.8.11</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Information deletion</t>
+          <t>Data masking</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>❌</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Information disposal is performed securely with shredding or irretrievable overwriting. Media disposal is controlled and documented to prevent data recovery.</t>
+          <t>No explicit mention or policy on data masking or anonymization techniques for protecting sensitive data in testing or production environments.</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Information Security Policy [Internal].docx Sections 9.3 Information Disposal; 6.8.8 Media Disposal.</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr"/>
-      <c r="I62" t="inlineStr"/>
+          <t>No relevant sections found in either document.</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Lack of documented controls or procedures for data masking to protect sensitive information during processing or testing.</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>Develop and implement data masking policies and procedures, especially for use in testing and development environments, to protect sensitive data.</t>
+        </is>
+      </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Reducate - Disposal of devices [Confidential].docx</t>
+          <t>No direct evidence found in provided documents</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>Information deletion performed securely with shredding and overwriting; media disposal controlled and documented.</t>
+          <t>No explicit mention or policy on data masking or anonymization techniques.</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Document and provide evidence of data masking or anonymization controls.</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>❌</t>
         </is>
       </c>
     </row>
@@ -4064,62 +4080,66 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>A.8.11</t>
+          <t>A.8.12</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Data masking</t>
+          <t>Data leakage prevention</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>🟡</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>No explicit policy or procedure for data masking or anonymization in testing or production environments is described.</t>
+          <t>Data leakage incidents are addressed in the Incident Response Plan with contact procedures. Sharing of information with external parties is controlled via NDAs and contracts. Cloud file sharing is monitored yearly.</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>No mention found in provided documents.</t>
+          <t>Business Continuity Plan E-WISE: Appendix 1 Incident Response Plan (Page 11); Information Security Policy: Sections 3.1 Classification of information, 3.2 Labelling and handling, 4.1.3 Reporting Information Assets, 3.2 Non-Disclosure Agreements.</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Lack of documented controls or procedures for data masking to protect sensitive data during testing or development.</t>
+          <t>No explicit technical controls or tools for data leakage prevention (DLP) are described.</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>Develop and implement data masking policies and procedures to protect sensitive data in non-production environments.</t>
+          <t>Implement and document technical DLP controls and monitoring to prevent unauthorized data exfiltration.</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>No explicit evidence found in provided documents.</t>
+          <t>Management Review Team Meeting E-WISE 2025 [Restricted].docx.pdf</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>No policy or procedure for data masking or anonymization described.</t>
+          <t>Data leakage incidents addressed in Incident Response Plan; sharing controlled via NDAs and contracts; cloud file sharing monitored yearly.</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>Develop and document data masking and anonymization procedures.</t>
+          <t>None</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr"/>
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
       <c r="B64" t="inlineStr">
         <is>
           <t>A.8 (Technological Controls)</t>
@@ -4127,57 +4147,49 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>A.8.12</t>
+          <t>A.8.13</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Data leakage prevention</t>
+          <t>Information backup</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>No explicit mention of data leakage prevention technologies or policies beyond incident response to data leakage.</t>
+          <t>Backup policies require periodic backups of critical systems and data, secure storage onsite and offsite, regular testing of backups, and documented restoration procedures.</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Business Continuity Plan includes incident response for data leakage (Appendix 1), but no proactive DLP controls described.</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>No proactive data leakage prevention controls or policies documented.</t>
-        </is>
-      </c>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>Establish and document data leakage prevention controls and monitoring to prevent unauthorized data exfiltration.</t>
-        </is>
-      </c>
+          <t>Information Security Policy [Internal].docx: Section 6.8 Backup &amp; Restoration Policy, including subsections on retention, storage, testing, and restore drills.</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr">
         <is>
-          <t>No explicit evidence found in provided documents.</t>
+          <t>Management Review Team Meeting E-WISE 2025 [Restricted].docx.pdf</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>No mention of data leakage prevention technologies or policies beyond incident response.</t>
+          <t>Backup policies require periodic backups of critical systems and data; secure storage onsite and offsite; regular testing of backups; documented restoration procedures.</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>Develop and document data leakage prevention controls.</t>
+          <t>None</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
     </row>
@@ -4194,31 +4206,39 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>A.8.13</t>
+          <t>A.8.14</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Information backup</t>
+          <t>Redundancy of information processing facilities</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>🟡</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Backup policies require periodic backups of critical systems and data, secure storage of backup media, offsite storage, periodic testing of backups, and documented restoration procedures.</t>
+          <t>Business Continuity Plan defines alternative sites and recovery time objectives for critical activities. Responsibilities for access and transportation to alternative sites are assigned.</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Information Security Policy [Internal].docx Sections 6.8 Backup &amp; Restoration Policy; Business Continuity Plan E-WISE [Restricted].docx.pdf Section 2.9 Required resources (Page 8).</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr"/>
-      <c r="I65" t="inlineStr"/>
+          <t>Business Continuity Plan E-WISE: Sections 2.6 Sites and transportation, 2.7 Order of recovery for activities, 2.9 Required resources (Pages 7-9).</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>No detailed technical redundancy controls or infrastructure redundancy strategies described.</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>Document and implement technical redundancy measures for critical information processing facilities to ensure availability during disruptions.</t>
+        </is>
+      </c>
       <c r="J65" t="inlineStr">
         <is>
           <t>Management Review Team Meeting E-WISE 2025 [Restricted].docx.pdf</t>
@@ -4226,7 +4246,7 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>Backup policies require periodic backups, secure storage, offsite storage, testing, and restoration procedures; restore tests successfully done.</t>
+          <t>Business Continuity Plan defines alternative sites and recovery time objectives; responsibilities for access and transportation assigned.</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
@@ -4243,7 +4263,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -4253,52 +4273,44 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>A.8.14</t>
+          <t>A.8.15</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Redundancy of information processing facilities</t>
+          <t>Logging</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>🟡</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Business Continuity Plan defines alternative sites and recovery time objectives for critical activities. However, explicit technical redundancy measures for IT processing facilities are not detailed.</t>
+          <t>Logging policies require synchronized clocks, logging of all access, secure storage and backup of logs, and restrictions on sensitive data in logs.</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Business Continuity Plan E-WISE [Restricted].docx.pdf Sections 2.6 Sites and transportation; 2.7 Order of recovery for activities; Appendix 3 List of Business Continuity Sites.</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>No detailed technical redundancy controls or infrastructure redundancy plans described.</t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>Document and implement technical redundancy measures for critical IT processing facilities to ensure availability.</t>
-        </is>
-      </c>
+          <t>Information Security Policy [Internal].docx: Section 6.14 Logging and Audit Policy.</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Management Review Team Meeting E-WISE 2025 [Restricted].docx.pdf</t>
+          <t>Log retention (Internal).pdf</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Business Continuity Plan defines alternative sites and recovery time objectives; no explicit technical redundancy measures detailed.</t>
+          <t>Logging policies require synchronized clocks; logs retained for defined periods; logs stored securely.</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>Consider documenting technical redundancy measures for IT processing facilities.</t>
+          <t>More explicit evidence of logging all access and restrictions on sensitive data in logs would improve clarity.</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
@@ -4320,12 +4332,12 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>A.8.15</t>
+          <t>A.8.16</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Logging</t>
+          <t>Monitoring activities</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -4335,24 +4347,24 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Logging policies require synchronized clocks, logging of all access, secure storage and backup of logs, and regular monitoring. Logs exclude sensitive personal data.</t>
+          <t>Procedures for monitoring, detecting, analyzing, and reporting security events are established. Incident management includes assessment and response processes.</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Information Security Policy [Internal].docx Sections 6.14 Logging and Audit Policy.</t>
+          <t>Information Security Policy [Internal].docx: Section 9.1 Responsibilities and procedures, 6.5 Security incident management.</t>
         </is>
       </c>
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Log retention (Internal).pdf</t>
+          <t>Management Review Team Meeting E-WISE 2025 [Restricted].docx.pdf</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>Logging policies require synchronized clocks, logging of access, secure storage and backup of logs; retention periods defined per system.</t>
+          <t>Procedures for monitoring, detecting, analyzing, and reporting security events established; incident management includes assessment and response.</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
@@ -4379,12 +4391,12 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>A.8.16</t>
+          <t>A.8.17</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Monitoring activities</t>
+          <t>Clock synchronisation</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -4394,24 +4406,24 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Procedures for monitoring, detecting, analyzing, and reporting information security events are established. Incident management and response processes are documented.</t>
+          <t>All computing systems managed must synchronise time with a central time server to ensure accuracy of audit logs.</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Information Security Policy [Internal].docx Section 9.1 Responsibilities and procedures; Section 6.5 Security incident management.</t>
+          <t>Information Security Policy [Internal].docx - Section 6.14 Logging and Audit Policy, 6.14.1 Clock synchronisation - All computing systems managed must synchronise time with a central time server.</t>
         </is>
       </c>
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Management Review Team Meeting E-WISE 2025 [Restricted].docx.pdf</t>
+          <t>Log retention (Internal).pdf</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>Monitoring, detection, analysis, and reporting procedures established; incident management documented.</t>
+          <t>Systems synchronize time with central time server to ensure accuracy of audit logs.</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
@@ -4426,11 +4438,7 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
+      <c r="A69" t="inlineStr"/>
       <c r="B69" t="inlineStr">
         <is>
           <t>A.8 (Technological Controls)</t>
@@ -4438,12 +4446,12 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>A.8.17</t>
+          <t>A.8.18</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Clock synchronisation</t>
+          <t>Use of privileged utility programs</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -4453,34 +4461,34 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>All computing systems managed must synchronise time with a central time server to ensure accuracy of audit logs.</t>
+          <t>Privileged utility programs or software should be approved by the IT department or system administrator. Laptops and desktops are pre-installed by IT with no administrator privileges enabled for users.</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Information Security Policy [Internal].docx - Section 6.14 Logging and Audit Policy - 6.14.1 Clock synchronisation</t>
+          <t>Information Security Policy [Internal].docx - Section 7.2.9 - Privileged utility programs or software should be approved by the IT department or system administrator.</t>
         </is>
       </c>
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Log retention (Internal).pdf</t>
+          <t>No direct evidence found in provided documents</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>All computing systems synchronize time with a central time server to ensure audit log accuracy.</t>
+          <t>No explicit evidence of approval process for privileged utility programs or restrictions on user privileges.</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Document and provide evidence of privileged utility program controls.</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>❌</t>
         </is>
       </c>
     </row>
@@ -4493,12 +4501,12 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>A.8.18</t>
+          <t>A.8.19</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Use of privileged utility programs</t>
+          <t>Installation of software on operational systems</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -4508,34 +4516,34 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Privileged utility programs or software should be approved by the IT department or system administrator; laptops/desktops have no admin privileges enabled.</t>
+          <t>Users are prohibited from installing unauthorized software. Only licensed software owned by the company is allowed. IT department manages software installation.</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Information Security Policy [Internal].docx - Section 7.2.9 Management of privileged access rights</t>
+          <t>Information Security Policy [Internal].docx - Section 5.1.4 IT Security - Users may not load onto computers any software not provided by Reducate’s or group companies IT-department. Section 6.10 End-point Security Policy - PCs not managed by Administrators are only allowed to install licensed software owned by Reducate or Group Companies.</t>
         </is>
       </c>
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr">
         <is>
-          <t>No explicit evidence found in provided documents.</t>
+          <t>Management Review Team Meeting E-WISE 2025 [Restricted].docx.pdf</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>No documentation on approval or control of privileged utility programs.</t>
+          <t>Users prohibited from installing unauthorized software; only licensed software allowed; IT manages software installation.</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>Develop and document controls for privileged utility programs.</t>
+          <t>None</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
     </row>
@@ -4548,12 +4556,12 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>A.8.19</t>
+          <t>A.8.2</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Installation of software on operational systems</t>
+          <t>Privileged access rights</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -4563,39 +4571,43 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Users are prohibited from installing unauthorized software; only licensed software owned by the company is allowed; IT department manages software installation.</t>
+          <t>Privileged access rights are restricted and controlled by formal authorization processes, separation of privileged IDs from regular IDs, and periodic audits of access rights.</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Information Security Policy [Internal].docx - Section 5.1.4 IT Security; Section 6.10 End-point Security Policy - 6.10.7</t>
+          <t>Information Security Policy [Internal].docx: Section 5.3 Management of privileged access rights, 7.4 User Access Management, 7.1 Authentication.</t>
         </is>
       </c>
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Management Review Team Meeting E-WISE 2025 [Restricted].docx.pdf</t>
+          <t>Matrix rechten Zoho (Internal).pdf</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>Users prohibited from installing unauthorized software; IT department manages software installation.</t>
+          <t>Privileged access rights restricted and controlled by formal authorization; separation of privileged IDs from regular IDs; periodic audits of access rights performed.</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>Provide formal documented policy on software installation.</t>
+          <t>None</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>🟡</t>
+          <t>✅</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="inlineStr"/>
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
       <c r="B72" t="inlineStr">
         <is>
           <t>A.8 (Technological Controls)</t>
@@ -4603,12 +4615,12 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>A.8.2</t>
+          <t>A.8.20</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Privileged access rights</t>
+          <t>Network security</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -4618,24 +4630,24 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Privileged access rights are restricted and controlled by formal authorization processes. Privileged accounts are separated from regular user accounts. Records of privileges are maintained.</t>
+          <t>Network security is maintained by use of firewalls, access control, logging, encryption for public networks, and regular patching of network devices.</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Information Security Policy [Internal].docx Section 5.3 Management of privileged access rights: 'The assignment of privileged access rights... includes assigning based on minimum requirement, maintaining authorization records, and separation from regular user IDs.'</t>
+          <t>Information Security Policy [Internal].docx - Section 7.1 Network controls (6.9 Network Security Policy) - use of firewalls, access control, logging, encryption. Sections 6.9.15 to 6.9.23 detail firewall management and patching. Section 6.9.34 - network devices updated with latest security patches.</t>
         </is>
       </c>
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Matrix rechten Zoho (Internal).pdf</t>
+          <t>Management Review Team Meeting E-WISE 2025 [Restricted].docx.pdf</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>Privileged access rights are controlled with formal authorization; privileged accounts separated from regular users; records maintained.</t>
+          <t>Network security maintained by firewalls, access control, logging, encryption for public networks, and regular patching of network devices.</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
@@ -4650,11 +4662,7 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
+      <c r="A73" t="inlineStr"/>
       <c r="B73" t="inlineStr">
         <is>
           <t>A.8 (Technological Controls)</t>
@@ -4662,49 +4670,57 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>A.8.20</t>
+          <t>A.8.21</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Network security</t>
+          <t>Security of network services</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>🟡</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Network security is maintained via firewalls, access control, logging, encryption for public networks, and regular patching of network devices.</t>
+          <t>Network services are controlled via firewalls and access restrictions. However, explicit documented policies on security of network services are not detailed.</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Information Security Policy [Internal].docx - Chapter 7 Security of Communication - Section 7.1 Network controls; Section 6.9 Network Security Policy</t>
-        </is>
-      </c>
-      <c r="H73" t="inlineStr"/>
-      <c r="I73" t="inlineStr"/>
+          <t>Information Security Policy [Internal].docx - Section 6.9 Network Security Policy describes network controls, firewall rules, and access restrictions.</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>No explicit documented policy or procedures specifically addressing security of network services such as service hardening, monitoring, or service-specific controls.</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>Develop and document specific policies and procedures for securing network services, including service hardening, monitoring, and access controls.</t>
+        </is>
+      </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Log retention (Internal).pdf</t>
+          <t>No direct evidence found in provided documents</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>Network security maintained via firewalls, access control, logging, encryption for public networks, and regular patching.</t>
+          <t>No explicit documented policies on security of network services found.</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Document and provide evidence of network services security policies.</t>
         </is>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>❌</t>
         </is>
       </c>
     </row>
@@ -4717,12 +4733,12 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>A.8.21</t>
+          <t>A.8.22</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Security of network services</t>
+          <t>Segregation of networks</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -4732,12 +4748,12 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Network services are controlled with firewalls, access restrictions, logging, and encryption; remote access requires approval.</t>
+          <t>Logical separation of networks is implemented using firewalls to prevent unauthorized access from public or wireless networks.</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Information Security Policy [Internal].docx - Section 6.9 Network Security Policy; Section 7.1 Network controls</t>
+          <t>Information Security Policy [Internal].docx - Section 7.2 Segregation in networks (6.9.7) - firewalls installed and logical separation of networks. Section 6.9.7 - public access areas provide restricted LAN access via VPN.</t>
         </is>
       </c>
       <c r="H74" t="inlineStr"/>
@@ -4749,7 +4765,7 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>Network services controlled with firewalls, access restrictions, logging, and encryption; remote access requires approval.</t>
+          <t>Logical separation of networks implemented using firewalls to prevent unauthorized access from public or wireless networks.</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
@@ -4764,7 +4780,11 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="inlineStr"/>
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
       <c r="B75" t="inlineStr">
         <is>
           <t>A.8 (Technological Controls)</t>
@@ -4772,12 +4792,12 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>A.8.22</t>
+          <t>A.8.23</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Segregation of networks</t>
+          <t>Web filtering</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -4787,43 +4807,39 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Logical separation of networks is enforced; firewalls installed to prevent unauthorized access from public or wireless networks.</t>
+          <t>Web filtering or URL filtering is implemented on firewalls, routers or switches to block web traffic and enforce corporate policies.</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Information Security Policy [Internal].docx - Section 7.2 Segregation in networks</t>
+          <t>Information Security Policy [Internal].docx - Section 6.9.39 - Web group filtering or URL Filtering should be implemented on your firewall, routers or switches.</t>
         </is>
       </c>
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Management Review Team Meeting E-WISE 2025 [Restricted].docx.pdf</t>
+          <t>No direct evidence found in provided documents</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>Logical separation of networks enforced; firewalls installed to prevent unauthorized access from public or wireless networks.</t>
+          <t>No explicit evidence of web filtering or URL filtering implementation.</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Document and provide evidence of web filtering controls.</t>
         </is>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>❌</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
+      <c r="A76" t="inlineStr"/>
       <c r="B76" t="inlineStr">
         <is>
           <t>A.8 (Technological Controls)</t>
@@ -4831,12 +4847,12 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>A.8.23</t>
+          <t>A.8.24</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Web filtering</t>
+          <t>Use of cryptography</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -4846,34 +4862,34 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Web filtering or URL filtering is implemented on firewalls, routers, or switches to block web traffic and enforce policies.</t>
+          <t>Encryption is used for HDDs (Bitlocker, Filevault, Ecryptfs), VPN connections (IPSec with 3DES or AES-256), wireless networks (WPA/WPA2), and TLS 1.2+ for cloud applications and websites.</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Information Security Policy [Internal].docx - Section 6.9.39 Web group filtering or URL Filtering</t>
+          <t>Information Security Policy [Internal].docx - Chapter 10 Cryptography - Sections 10.1 to 10.7 detail HDD encryption, VPN encryption, wireless encryption, TLS requirements.</t>
         </is>
       </c>
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Management Review Team Meeting E-WISE 2025 [Restricted].docx.pdf</t>
+          <t>No direct evidence found in provided documents</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>Web filtering implemented on firewalls and routers to block web traffic and enforce policies.</t>
+          <t>No explicit evidence of cryptography use for HDDs, VPN, wireless networks, or TLS for cloud applications.</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Document and provide evidence of cryptography controls.</t>
         </is>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>❌</t>
         </is>
       </c>
     </row>
@@ -4886,12 +4902,12 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>A.8.24</t>
+          <t>A.8.25</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Use of cryptography</t>
+          <t>Secure development life cycle</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -4901,39 +4917,43 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Encryption is used for HDDs (Bitlocker, Filevault, Ecryptfs), VPNs (IPSec with 3DES or AES-256), wireless networks (WPA/WPA2), and TLS 1.2+ for cloud applications.</t>
+          <t>SDLC policies and procedures are documented for in-house and outsourced development. Quality checks, testing, and approval processes are defined.</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Information Security Policy [Internal].docx - Chapter 10 Cryptography</t>
+          <t>Information Security Policy [Internal].docx - Chapter 8 Systems Development Policy - Section 8.1 Security in application development - documented SDLC policies, quality checks, testing, and approval.</t>
         </is>
       </c>
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Management Review Team Meeting E-WISE 2025 [Restricted].docx.pdf</t>
+          <t>No direct evidence found in provided documents</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>Encryption used for HDDs (Bitlocker), VPNs (IPSec with AES-256), wireless networks (WPA2), and TLS 1.2+ for cloud applications.</t>
+          <t>No explicit evidence of documented SDLC policies and procedures.</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Document and provide evidence of secure development lifecycle policies.</t>
         </is>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>❌</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="inlineStr"/>
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
       <c r="B78" t="inlineStr">
         <is>
           <t>A.8 (Technological Controls)</t>
@@ -4941,12 +4961,12 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>A.8.25</t>
+          <t>A.8.26</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Secure development life cycle</t>
+          <t>Application security requirements</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -4956,163 +4976,163 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>SDLC policies and procedures are documented; external providers' SDLC reviewed; quality checks and testing performed; code reviews and secure coding guidelines enforced.</t>
+          <t>Application security requirements including input validation, audit trails, access control to source code, and encryption are defined and implemented.</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Information Security Policy [Internal].docx - Chapter 8 Systems Development Policy - Section 8.1 Security in application development</t>
+          <t>Information Security Policy [Internal].docx - Section 8.1.23 - protections for authentication, transaction secrecy, privacy, and encryption. Section 8.1.8 - access control to program source library.</t>
         </is>
       </c>
       <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Management Review Team Meeting E-WISE 2025 [Restricted].docx.pdf</t>
+          <t>No direct evidence found in provided documents</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>SDLC policies and procedures documented; external providers' SDLC reviewed; quality checks and testing performed; code reviews enforced.</t>
+          <t>No explicit evidence of application security requirements implementation.</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Document and provide evidence of application security requirements.</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>❌</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="inlineStr">
+      <c r="A79" t="inlineStr"/>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>A.8 (Technological Controls)</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>A.8.27</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Secure systems architecture and engineering principles</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>🟡</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>System hardening and minimal installation are mentioned for Unix systems. However, no comprehensive documented architecture or engineering principles are detailed.</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Information Security Policy [Internal].docx - Section 6.12 Systems Security Policy - Unix systems must be hardened, minimal packages installed.</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Lack of documented secure architecture principles or engineering guidelines covering all systems.</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>Develop and document secure systems architecture and engineering principles covering all IT systems.</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>No direct evidence found in provided documents</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>No comprehensive documented secure systems architecture or engineering principles found.</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>Document and provide evidence of secure systems architecture and engineering principles.</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B80" t="inlineStr">
         <is>
           <t>A.8 (Technological Controls)</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>A.8.26</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>Application security requirements</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>✅</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>Security requirements identified and agreed prior to development; audit trails and access controls implemented; data input validated; privacy and encryption enforced.</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>Information Security Policy [Internal].docx - Section 8.1.23 Application security requirements</t>
-        </is>
-      </c>
-      <c r="H79" t="inlineStr"/>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>Management Review Team Meeting E-WISE 2025 [Restricted].docx.pdf</t>
-        </is>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>Application security requirements identified and agreed prior to development; audit trails and access controls implemented; data input validated.</t>
-        </is>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="M79" t="inlineStr">
-        <is>
-          <t>✅</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr"/>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>A.8 (Technological Controls)</t>
-        </is>
-      </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>A.8.27</t>
+          <t>A.8.28</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Secure systems architecture and engineering principles</t>
+          <t>Secure coding</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>🟡</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>System hardening and minimal package installation for Unix systems; IP restrictions and secure communication enforced; change management applied.</t>
+          <t>Code reviews against secure coding guidelines are performed prior to release. Secure coding standards and best practices are followed.</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Information Security Policy [Internal].docx - Section 6.12 Systems Security Policy - Unix Systems</t>
-        </is>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>No explicit mention of formal secure architecture design principles or documented architecture standards.</t>
-        </is>
-      </c>
-      <c r="I80" t="inlineStr">
-        <is>
-          <t>Develop and document secure systems architecture and engineering principles aligned with ISO 27001 requirements.</t>
-        </is>
-      </c>
+          <t>Information Security Policy [Internal].docx - Section 8.1.18 - Code is reviewed prior to release by skilled personnel against secure development coding guidelines.</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Management Review Team Meeting E-WISE 2025 [Restricted].docx.pdf</t>
+          <t>No direct evidence found in provided documents</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>System hardening and minimal package installation for Unix systems; IP restrictions and secure communication enforced; change management applied.</t>
+          <t>No explicit evidence of secure coding standards or code reviews.</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Document and provide evidence of secure coding practices and code reviews.</t>
         </is>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>❌</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -5122,12 +5142,12 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>A.8.28</t>
+          <t>A.8.29</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Secure coding</t>
+          <t>Security testing in development and acceptance</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -5137,24 +5157,24 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Code reviews performed by personnel other than the author; secure coding guidelines followed; code stored in secure repositories with access control and versioning.</t>
+          <t>Application security testing including manual and automated vulnerability scans, PEN-tests, and acceptance testing are performed before production deployment.</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Information Security Policy [Internal].docx - Section 8.1.17 and 8.1.18 Secure coding and code review</t>
+          <t>Information Security Policy [Internal].docx - Section 8.1.19 and 8.2 - Security testing, PEN-tests, acceptance criteria, and testing in controlled environments.</t>
         </is>
       </c>
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Management Review Team Meeting E-WISE 2025 [Restricted].docx.pdf</t>
+          <t>ELEARN4_Restoring_Test_(staging).pdf</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>Code reviews performed by personnel other than the author; secure coding guidelines followed; code stored in secure repositories with access control and versioning.</t>
+          <t>Restore tests performed successfully in staging environment; documented test steps and wrap-up.</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
@@ -5181,12 +5201,12 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>A.8.29</t>
+          <t>A.8.3</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Security testing in development and acceptance</t>
+          <t>Information access restriction</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -5196,12 +5216,12 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Application security testing performed manually and automatically; PEN-tests conducted annually; acceptance criteria defined and tested; test environments separated and use anonymized data.</t>
+          <t>Access to information and systems is controlled on a need-to-know basis, aligned with business requirements and classification schemes. Formal user registration and de-registration processes exist.</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Information Security Policy [Internal].docx - Section 8.1.19, 8.1.20, 8.2 Application testing and PEN-tests</t>
+          <t>Information Security Policy [Internal].docx: Section 5.2 Information access restriction, 7.4 User Access Management, 3.1 Classification of information.</t>
         </is>
       </c>
       <c r="H82" t="inlineStr"/>
@@ -5213,7 +5233,7 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>Application security testing performed manually and automatically; PEN-tests conducted annually; acceptance criteria defined and tested; test environments separated and use anonymized data.</t>
+          <t>Access to information and systems controlled on a need-to-know basis; formal user registration and de-registration processes exist.</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
@@ -5228,11 +5248,7 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
+      <c r="A83" t="inlineStr"/>
       <c r="B83" t="inlineStr">
         <is>
           <t>A.8 (Technological Controls)</t>
@@ -5240,12 +5256,12 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>A.8.3</t>
+          <t>A.8.30</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Information access restriction</t>
+          <t>Outsourced development</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -5255,24 +5271,24 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Access to information and systems is controlled on a need-to-know basis aligned with business requirements and classification. Formal user registration and de-registration processes exist.</t>
+          <t>Outsourced development is controlled by contracts including licensing, code ownership, and security requirements. Credentials and references of external providers are verified.</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Information Security Policy [Internal].docx Section 5.2 Information access restriction; Section 7.4 User Access Management; Section 5.2.1 Access Control policy.</t>
+          <t>Information Security Policy [Internal].docx - Section 8.1.1 and 3.1 Business Partnership and Outsourcing - contracts, credentials, and security policy awareness for external providers.</t>
         </is>
       </c>
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Matrix rechten Zoho (Internal).pdf</t>
+          <t>Management Review Team Meeting E-WISE 2025 [Restricted].docx.pdf</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>Access to information and systems controlled on need-to-know basis; formal user registration and de-registration processes exist.</t>
+          <t>Outsourced development controlled by contracts including licensing, code ownership, and security requirements; credentials and references verified.</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
@@ -5287,7 +5303,11 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="inlineStr"/>
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
       <c r="B84" t="inlineStr">
         <is>
           <t>A.8 (Technological Controls)</t>
@@ -5295,12 +5315,12 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>A.8.30</t>
+          <t>A.8.31</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Outsourced development</t>
+          <t>Separation of development, test and production environments</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -5310,41 +5330,41 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Outsourced development requires contract agreements covering licensing, code ownership, and security; external providers' SDLC reviewed; security requirements included in contracts.</t>
+          <t>Development, test, and production environments are separated with restricted access. Test environments use anonymised or masked data.</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Information Security Policy [Internal].docx - Section 8.1.1, 8.1.2, 3.1 Business partnership and Outsourcing</t>
+          <t>Information Security Policy [Internal].docx - Section 8.1.14 and 8.1.15 - separation of environments and restricted access. Section 8.1.21 - no production data used in testing.</t>
         </is>
       </c>
       <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Management Review Team Meeting E-WISE 2025 [Restricted].docx.pdf</t>
+          <t>No direct evidence found in provided documents</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>Outsourced development requires contract agreements covering licensing, code ownership, and security; external providers' SDLC reviewed; security requirements included in contracts.</t>
+          <t>No explicit evidence of separation of development, test, and production environments or use of anonymised/masked data.</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Document and provide evidence of environment separation and data masking.</t>
         </is>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>❌</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -5354,12 +5374,12 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>A.8.31</t>
+          <t>A.8.32</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Separation of development, test and production environments</t>
+          <t>Change management</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -5369,12 +5389,12 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Development, test, and production environments are separated with restricted access; test data is anonymized; no development files or test data in production.</t>
+          <t>Change management processes are documented with strict review, approval, testing, and communication controls.</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Information Security Policy [Internal].docx - Section 8.1.14, 8.1.15, 8.1.21, 8.1.22</t>
+          <t>Information Security Policy [Internal].docx - Section 6.2 Operational change control - documented change management with review and approval. Section 8.1.11 to 8.1.13 - change requests and approvals.</t>
         </is>
       </c>
       <c r="H85" t="inlineStr"/>
@@ -5386,7 +5406,7 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>Development, test, and production environments separated with restricted access; test data anonymized; no development files or test data in production.</t>
+          <t>Change management processes documented with review, approval, testing, and communication controls.</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
@@ -5401,11 +5421,7 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
+      <c r="A86" t="inlineStr"/>
       <c r="B86" t="inlineStr">
         <is>
           <t>A.8 (Technological Controls)</t>
@@ -5413,12 +5429,12 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>A.8.32</t>
+          <t>A.8.33</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Change management</t>
+          <t>Test information</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -5428,34 +5444,34 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Formal change management process with review, approval, testing, and communication; all changes documented including emergency changes; configuration management maintained.</t>
+          <t>Test data is anonymised or masked; production data is not used in testing. Test environments have limited data suitable for testing.</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Information Security Policy [Internal].docx - Section 6.2 Operational change control; Section 6.3 Configuration Management; Section 8.1.11, 8.1.12, 8.1.13</t>
+          <t>Information Security Policy [Internal].docx - Section 8.1.21 - production data is never used for testing; test data is sanitised, anonymised or pseudonymised.</t>
         </is>
       </c>
       <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr">
         <is>
-          <t>Management Review Team Meeting E-WISE 2025 [Restricted].docx.pdf</t>
+          <t>No direct evidence found in provided documents</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>Formal change management process with review, approval, testing, and communication; all changes documented including emergency changes; configuration management maintained.</t>
+          <t>No explicit evidence of test data anonymisation or masking.</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Document and provide evidence of test information protection.</t>
         </is>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>❌</t>
         </is>
       </c>
     </row>
@@ -5468,44 +5484,52 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>A.8.33</t>
+          <t>A.8.34</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Test information</t>
+          <t>Protection of information systems during audit testing</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>❌</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Test environments use limited, anonymized or pseudonymized data; production data is not used for testing; unused test environments reviewed and removed periodically.</t>
+          <t>No explicit policy or procedures found regarding protection of information systems during audit testing.</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Information Security Policy [Internal].docx - Section 8.1.10, 8.1.21</t>
-        </is>
-      </c>
-      <c r="H87" t="inlineStr"/>
-      <c r="I87" t="inlineStr"/>
+          <t>No relevant sections found in either document.</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Lack of documented controls to protect information systems during audit testing to prevent disruption or data compromise.</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>Develop and implement policies and procedures to protect information systems during audit testing, including access controls and monitoring.</t>
+        </is>
+      </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>No explicit evidence found in provided documents.</t>
+          <t>No direct evidence found in provided documents</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>No documented policy on test information using anonymized or pseudonymized data.</t>
+          <t>No explicit policy or procedures regarding protection of information systems during audit testing.</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>Develop and document test information handling procedures.</t>
+          <t>Document and provide evidence of controls during audit testing.</t>
         </is>
       </c>
       <c r="M87" t="inlineStr">
@@ -5523,52 +5547,44 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>A.8.34</t>
+          <t>A.8.4</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Protection of information systems during audit testing</t>
+          <t>Access to source code</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>🟡</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Security incident management and logging policies exist; no explicit mention of controls specifically protecting systems during audit testing.</t>
+          <t>Access to program source libraries is restricted. Development code is stored in secure repositories enforcing access control and segregation of duties. Code reviews are performed prior to release.</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Information Security Policy [Internal].docx - Section 6.5 Security incident management; Section 6.14 Logging and Audit Policy</t>
-        </is>
-      </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>No explicit documented controls or procedures to protect information systems specifically during audit testing.</t>
-        </is>
-      </c>
-      <c r="I88" t="inlineStr">
-        <is>
-          <t>Develop and document procedures to protect information systems during audit testing to prevent disruption or unauthorized access.</t>
-        </is>
-      </c>
+          <t>Information Security Policy [Internal].docx: Section 8.1 Security in application development, 8.1.8 Access control to program source library, 8.1.17 Development code repository, 8.1.18 Code review.</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr">
         <is>
-          <t>No explicit evidence found in provided documents.</t>
+          <t>No direct evidence found in provided documents</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>No specific controls protecting information systems during audit testing described.</t>
+          <t>No explicit evidence of access control to source code or segregation of duties in development repositories.</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>Develop and document controls for protection during audit testing.</t>
+          <t>Document and provide evidence of source code access controls and segregation.</t>
         </is>
       </c>
       <c r="M88" t="inlineStr">
@@ -5586,12 +5602,12 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>A.8.4</t>
+          <t>A.8.5</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Access to source code</t>
+          <t>Secure authentication</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -5601,39 +5617,43 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Access to program source libraries is restricted. Development code is stored in secure repositories enforcing access control and segregation of duties. Code reviews are performed by personnel other than the author.</t>
+          <t>Password policies enforce strong passwords, non-sharing, secure storage, and periodic changes. Two-factor authentication is mandated where applicable. User identity verification is required for password resets.</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Information Security Policy [Internal].docx Sections 8.1.8 Access control to source code; 8.1.17 Development code repository; 8.1.18 Code review.</t>
+          <t>Information Security Policy [Internal].docx: Section 4.1 Use of secret authentication information, 7.3 Password Policy, 7.2 Authorisation and Access Control.</t>
         </is>
       </c>
       <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr">
         <is>
-          <t>No explicit evidence found in provided documents.</t>
+          <t>Kopie van BS02 E-Wise Wachtwoordbeleid [Internal].pdf</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>No documentation on access control to source code or secure repositories.</t>
+          <t>Password policies enforce strong passwords, non-sharing, secure storage, periodic changes; two-factor authentication mandated; user identity verification required for password resets.</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>Develop and document access controls and segregation of duties for source code.</t>
+          <t>None</t>
         </is>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="inlineStr"/>
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
       <c r="B90" t="inlineStr">
         <is>
           <t>A.8 (Technological Controls)</t>
@@ -5641,12 +5661,12 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>A.8.5</t>
+          <t>A.8.6</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Secure authentication</t>
+          <t>Capacity management</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -5656,34 +5676,34 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Strong password policies are enforced including minimum length, complexity, and change requirements. Two-factor authentication is mandated where possible. Passwords must be kept confidential and not shared or stored insecurely.</t>
+          <t>Capacity utilisation monitoring and planning is included in business partnership contracts and change management. Network and system capacity are monitored and managed.</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Information Security Policy [Internal].docx Sections 4.1 Use of secret authentication information; 7.3 Password Policy; 7.2.2 Two-factor authentication.</t>
+          <t>Information Security Policy [Internal].docx: Section 3.3 Business Partnership Contracts, 6.14 Logging and Audit Policy, 6.2 Operational change control.</t>
         </is>
       </c>
       <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr">
         <is>
-          <t>Kopie van BS02 E-Wise Wachtwoordbeleid [Internal].pdf</t>
+          <t>No direct evidence found in provided documents</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>Strong password policies enforced including length, complexity, history, expiration, and two-factor authentication.</t>
+          <t>No explicit evidence of capacity management or monitoring.</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Document and provide evidence of capacity management processes.</t>
         </is>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>❌</t>
         </is>
       </c>
     </row>
@@ -5700,12 +5720,12 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>A.8.6</t>
+          <t>A.8.7</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Capacity management</t>
+          <t>Protection against malware</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -5715,12 +5735,12 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Capacity utilisation monitoring and planning is included in business partnership contracts and change management. Network and system capacity are monitored and managed.</t>
+          <t>Anti-malware controls include prohibition of unauthorized software, mandatory antivirus installation and updates, real-time scanning, and incident reporting procedures.</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Information Security Policy [Internal].docx Section 3.3 Business Partnership Contracts; Section 6.9 Network Security Policy; Section 6.1 Documented Operating procedures.</t>
+          <t>Information Security Policy [Internal].docx: Section 6.6 Protection against malicious software, 5.1.4 IT Security, 6.5 Security incident management.</t>
         </is>
       </c>
       <c r="H91" t="inlineStr"/>
@@ -5732,7 +5752,7 @@
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>Capacity utilization monitoring and planning included in business partnership contracts and change management.</t>
+          <t>Endpoint security includes antivirus and patching; incident reporting procedures exist; unauthorized software prohibited.</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
@@ -5759,12 +5779,12 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>A.8.7</t>
+          <t>A.8.8</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Protection against malware</t>
+          <t>Management of technical vulnerabilities</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -5774,12 +5794,12 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Anti-malware controls include prohibition of unauthorized software, mandatory antivirus installation and updates, real-time scanning, and incident reporting procedures.</t>
+          <t>A formal patch management process exists including acquisition, identification, evaluation, testing, and deployment of patches. Vulnerability information is regularly acquired and circulated.</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Information Security Policy [Internal].docx Sections 6.6 Protection against malicious software; 5.1.4 IT Security; Appendix 6.6 Protection against malicious software.</t>
+          <t>Information Security Policy [Internal].docx: Section 6.2 Management of technical vulnerabilities, 6.5 Security incident management.</t>
         </is>
       </c>
       <c r="H92" t="inlineStr"/>
@@ -5791,7 +5811,7 @@
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>Anti-malware controls in place with mandatory antivirus and incident reporting procedures.</t>
+          <t>Formal patch management process exists; vulnerability information regularly acquired and circulated.</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
@@ -5818,12 +5838,12 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>A.8.8</t>
+          <t>A.8.9</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Management of technical vulnerabilities</t>
+          <t>Configuration management</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -5833,12 +5853,12 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>A formal patch management process exists including acquisition of vulnerability information, assessment, testing, and deployment of patches. Subscriptions to vulnerability notifications are maintained.</t>
+          <t>Configuration management documents are maintained, reviewed annually, and updated upon significant changes. Change management processes control changes to systems and configurations.</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Information Security Policy [Internal].docx Section 6.2 Management of technical vulnerabilities; Section 6.5 Security incident management.</t>
+          <t>Information Security Policy [Internal].docx: Sections 6.3 Configuration Management, 6.2 Operational change control.</t>
         </is>
       </c>
       <c r="H93" t="inlineStr"/>
@@ -5850,7 +5870,7 @@
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>Formal patch management process exists including vulnerability information acquisition and deployment of patches.</t>
+          <t>Configuration management documents maintained, reviewed annually, updated upon changes; change management processes control changes.</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
@@ -5859,65 +5879,6 @@
         </is>
       </c>
       <c r="M93" t="inlineStr">
-        <is>
-          <t>✅</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>A.8 (Technological Controls)</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>A.8.9</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>Configuration management</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>✅</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>Configuration management documents are maintained, reviewed annually, and updated upon significant changes. Change management processes control changes to systems and configurations.</t>
-        </is>
-      </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>Information Security Policy [Internal].docx Sections 6.3 Configuration Management; 6.2 Operational change control.</t>
-        </is>
-      </c>
-      <c r="H94" t="inlineStr"/>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr">
-        <is>
-          <t>Management Review Team Meeting E-WISE 2025 [Restricted].docx.pdf</t>
-        </is>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>Configuration management documents maintained, reviewed annually; change management controls changes.</t>
-        </is>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="M94" t="inlineStr">
         <is>
           <t>✅</t>
         </is>
